--- a/plankenlijst.xlsx
+++ b/plankenlijst.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O86"/>
+  <dimension ref="A1:O95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2708,7 +2708,7 @@
         <v>-2.799999999999997</v>
       </c>
       <c r="K45" t="n">
-        <v>98.90000000000001</v>
+        <v>30.5</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -2737,7 +2737,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F46" t="n">
         <v>244.6</v>
@@ -2752,10 +2752,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>-22.8</v>
+        <v>-2.799999999999997</v>
       </c>
       <c r="K46" t="n">
-        <v>98.90000000000001</v>
+        <v>23.3</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
@@ -2784,13 +2784,13 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F47" t="n">
         <v>244.6</v>
       </c>
       <c r="G47" t="n">
-        <v>12.8</v>
+        <v>20</v>
       </c>
       <c r="H47" t="n">
         <v>2.2</v>
@@ -2799,10 +2799,10 @@
         <v>0</v>
       </c>
       <c r="J47" t="n">
-        <v>26.4</v>
+        <v>-22.8</v>
       </c>
       <c r="K47" t="n">
-        <v>98.90000000000001</v>
+        <v>30.5</v>
       </c>
       <c r="L47" t="n">
         <v>0</v>
@@ -2831,13 +2831,13 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F48" t="n">
         <v>244.6</v>
       </c>
       <c r="G48" t="n">
-        <v>12.8</v>
+        <v>20</v>
       </c>
       <c r="H48" t="n">
         <v>2.2</v>
@@ -2846,10 +2846,10 @@
         <v>0</v>
       </c>
       <c r="J48" t="n">
-        <v>13.6</v>
+        <v>-22.8</v>
       </c>
       <c r="K48" t="n">
-        <v>98.90000000000001</v>
+        <v>23.3</v>
       </c>
       <c r="L48" t="n">
         <v>0</v>
@@ -2868,45 +2868,41 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>ribben</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>zeide</t>
-        </is>
-      </c>
+          <t>vlonders</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr"/>
       <c r="D49" t="inlineStr">
         <is>
-          <t>balk</t>
+          <t>plank</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F49" t="n">
-        <v>241.6</v>
+        <v>244.6</v>
       </c>
       <c r="G49" t="n">
-        <v>5</v>
+        <v>12.8</v>
       </c>
       <c r="H49" t="n">
-        <v>5</v>
+        <v>2.2</v>
       </c>
       <c r="I49" t="n">
-        <v>120.3</v>
+        <v>0</v>
       </c>
       <c r="J49" t="n">
-        <v>35.3</v>
+        <v>26.4</v>
       </c>
       <c r="K49" t="n">
-        <v>138</v>
+        <v>30.5</v>
       </c>
       <c r="L49" t="n">
         <v>0</v>
       </c>
       <c r="M49" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="N49" t="n">
         <v>0</v>
@@ -2919,45 +2915,41 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>ribben</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>zeide</t>
-        </is>
-      </c>
+          <t>vlonders</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr"/>
       <c r="D50" t="inlineStr">
         <is>
-          <t>balk</t>
+          <t>plank</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F50" t="n">
-        <v>241.6</v>
+        <v>244.6</v>
       </c>
       <c r="G50" t="n">
-        <v>5</v>
+        <v>12.8</v>
       </c>
       <c r="H50" t="n">
-        <v>5</v>
+        <v>2.2</v>
       </c>
       <c r="I50" t="n">
-        <v>120.3</v>
+        <v>0</v>
       </c>
       <c r="J50" t="n">
-        <v>-35.3</v>
+        <v>26.4</v>
       </c>
       <c r="K50" t="n">
-        <v>138</v>
+        <v>23.3</v>
       </c>
       <c r="L50" t="n">
         <v>0</v>
       </c>
       <c r="M50" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="N50" t="n">
         <v>0</v>
@@ -2970,45 +2962,41 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>ribben</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>zeide</t>
-        </is>
-      </c>
+          <t>vlonders</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr"/>
       <c r="D51" t="inlineStr">
         <is>
-          <t>balk</t>
+          <t>plank</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F51" t="n">
-        <v>241.6</v>
+        <v>244.6</v>
       </c>
       <c r="G51" t="n">
-        <v>5</v>
+        <v>12.8</v>
       </c>
       <c r="H51" t="n">
-        <v>5</v>
+        <v>2.2</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
       <c r="J51" t="n">
-        <v>35.3</v>
+        <v>13.6</v>
       </c>
       <c r="K51" t="n">
-        <v>138</v>
+        <v>30.5</v>
       </c>
       <c r="L51" t="n">
         <v>0</v>
       </c>
       <c r="M51" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="N51" t="n">
         <v>0</v>
@@ -3021,45 +3009,41 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>ribben</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>zeide</t>
-        </is>
-      </c>
+          <t>vlonders</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr"/>
       <c r="D52" t="inlineStr">
         <is>
-          <t>balk</t>
+          <t>plank</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F52" t="n">
-        <v>241.6</v>
+        <v>244.6</v>
       </c>
       <c r="G52" t="n">
-        <v>5</v>
+        <v>12.8</v>
       </c>
       <c r="H52" t="n">
-        <v>5</v>
+        <v>2.2</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
       <c r="J52" t="n">
-        <v>-35.3</v>
+        <v>13.6</v>
       </c>
       <c r="K52" t="n">
-        <v>138</v>
+        <v>23.3</v>
       </c>
       <c r="L52" t="n">
         <v>0</v>
       </c>
       <c r="M52" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="N52" t="n">
         <v>0</v>
@@ -3086,7 +3070,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="F53" t="n">
         <v>241.6</v>
@@ -3098,7 +3082,7 @@
         <v>5</v>
       </c>
       <c r="I53" t="n">
-        <v>-120.3</v>
+        <v>120.3</v>
       </c>
       <c r="J53" t="n">
         <v>35.3</v>
@@ -3137,7 +3121,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="F54" t="n">
         <v>241.6</v>
@@ -3149,7 +3133,7 @@
         <v>5</v>
       </c>
       <c r="I54" t="n">
-        <v>-120.3</v>
+        <v>120.3</v>
       </c>
       <c r="J54" t="n">
         <v>-35.3</v>
@@ -3179,7 +3163,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>tussen</t>
+          <t>zeide</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -3188,10 +3172,10 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="F55" t="n">
-        <v>115.3</v>
+        <v>241.6</v>
       </c>
       <c r="G55" t="n">
         <v>5</v>
@@ -3200,19 +3184,19 @@
         <v>5</v>
       </c>
       <c r="I55" t="n">
-        <v>60.15</v>
+        <v>0</v>
       </c>
       <c r="J55" t="n">
-        <v>-35.3</v>
+        <v>35.3</v>
       </c>
       <c r="K55" t="n">
-        <v>97.5</v>
+        <v>138</v>
       </c>
       <c r="L55" t="n">
         <v>0</v>
       </c>
       <c r="M55" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="N55" t="n">
         <v>0</v>
@@ -3230,7 +3214,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>tussen</t>
+          <t>zeide</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -3239,10 +3223,10 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="F56" t="n">
-        <v>115.3</v>
+        <v>241.6</v>
       </c>
       <c r="G56" t="n">
         <v>5</v>
@@ -3251,19 +3235,19 @@
         <v>5</v>
       </c>
       <c r="I56" t="n">
-        <v>-60.15</v>
+        <v>0</v>
       </c>
       <c r="J56" t="n">
         <v>-35.3</v>
       </c>
       <c r="K56" t="n">
-        <v>97.5</v>
+        <v>138</v>
       </c>
       <c r="L56" t="n">
         <v>0</v>
       </c>
       <c r="M56" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="N56" t="n">
         <v>0</v>
@@ -3281,7 +3265,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>tussen</t>
+          <t>zeide</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -3290,10 +3274,10 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="F57" t="n">
-        <v>65.59999999999999</v>
+        <v>241.6</v>
       </c>
       <c r="G57" t="n">
         <v>5</v>
@@ -3302,22 +3286,22 @@
         <v>5</v>
       </c>
       <c r="I57" t="n">
-        <v>120.3</v>
+        <v>-120.3</v>
       </c>
       <c r="J57" t="n">
-        <v>0</v>
+        <v>35.3</v>
       </c>
       <c r="K57" t="n">
-        <v>95.3</v>
+        <v>138</v>
       </c>
       <c r="L57" t="n">
         <v>0</v>
       </c>
       <c r="M57" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="N57" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="O57" t="inlineStr"/>
     </row>
@@ -3332,7 +3316,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>tussen</t>
+          <t>zeide</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -3341,10 +3325,10 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="F58" t="n">
-        <v>65.59999999999999</v>
+        <v>241.6</v>
       </c>
       <c r="G58" t="n">
         <v>5</v>
@@ -3353,22 +3337,22 @@
         <v>5</v>
       </c>
       <c r="I58" t="n">
-        <v>0</v>
+        <v>-120.3</v>
       </c>
       <c r="J58" t="n">
-        <v>0</v>
+        <v>-35.3</v>
       </c>
       <c r="K58" t="n">
-        <v>95.3</v>
+        <v>138</v>
       </c>
       <c r="L58" t="n">
         <v>0</v>
       </c>
       <c r="M58" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="N58" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="O58" t="inlineStr"/>
     </row>
@@ -3392,10 +3376,10 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F59" t="n">
-        <v>65.59999999999999</v>
+        <v>115.3</v>
       </c>
       <c r="G59" t="n">
         <v>5</v>
@@ -3404,13 +3388,13 @@
         <v>5</v>
       </c>
       <c r="I59" t="n">
-        <v>-120.3</v>
+        <v>60.15</v>
       </c>
       <c r="J59" t="n">
-        <v>0</v>
+        <v>-35.3</v>
       </c>
       <c r="K59" t="n">
-        <v>95.3</v>
+        <v>29.1</v>
       </c>
       <c r="L59" t="n">
         <v>0</v>
@@ -3419,7 +3403,7 @@
         <v>0</v>
       </c>
       <c r="N59" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="O59" t="inlineStr"/>
     </row>
@@ -3434,7 +3418,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>onder</t>
+          <t>tussen</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -3443,10 +3427,10 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="F60" t="n">
-        <v>75.59999999999999</v>
+        <v>115.3</v>
       </c>
       <c r="G60" t="n">
         <v>5</v>
@@ -3455,13 +3439,13 @@
         <v>5</v>
       </c>
       <c r="I60" t="n">
-        <v>120.3</v>
+        <v>60.15</v>
       </c>
       <c r="J60" t="n">
-        <v>0</v>
+        <v>-35.3</v>
       </c>
       <c r="K60" t="n">
-        <v>14.7</v>
+        <v>21.9</v>
       </c>
       <c r="L60" t="n">
         <v>0</v>
@@ -3470,7 +3454,7 @@
         <v>0</v>
       </c>
       <c r="N60" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="O60" t="inlineStr"/>
     </row>
@@ -3485,7 +3469,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>onder</t>
+          <t>tussen</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -3494,10 +3478,10 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="F61" t="n">
-        <v>75.59999999999999</v>
+        <v>115.3</v>
       </c>
       <c r="G61" t="n">
         <v>5</v>
@@ -3506,13 +3490,13 @@
         <v>5</v>
       </c>
       <c r="I61" t="n">
-        <v>0</v>
+        <v>-60.15</v>
       </c>
       <c r="J61" t="n">
-        <v>0</v>
+        <v>-35.3</v>
       </c>
       <c r="K61" t="n">
-        <v>14.7</v>
+        <v>29.1</v>
       </c>
       <c r="L61" t="n">
         <v>0</v>
@@ -3521,7 +3505,7 @@
         <v>0</v>
       </c>
       <c r="N61" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="O61" t="inlineStr"/>
     </row>
@@ -3536,7 +3520,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>onder</t>
+          <t>tussen</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -3545,10 +3529,10 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="F62" t="n">
-        <v>75.59999999999999</v>
+        <v>115.3</v>
       </c>
       <c r="G62" t="n">
         <v>5</v>
@@ -3557,13 +3541,13 @@
         <v>5</v>
       </c>
       <c r="I62" t="n">
-        <v>-120.3</v>
+        <v>-60.15</v>
       </c>
       <c r="J62" t="n">
-        <v>0</v>
+        <v>-35.3</v>
       </c>
       <c r="K62" t="n">
-        <v>14.7</v>
+        <v>21.9</v>
       </c>
       <c r="L62" t="n">
         <v>0</v>
@@ -3572,7 +3556,7 @@
         <v>0</v>
       </c>
       <c r="N62" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="O62" t="inlineStr"/>
     </row>
@@ -3587,7 +3571,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>boven</t>
+          <t>tussen</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -3596,10 +3580,10 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F63" t="n">
-        <v>75.59999999999999</v>
+        <v>65.59999999999999</v>
       </c>
       <c r="G63" t="n">
         <v>5</v>
@@ -3614,7 +3598,7 @@
         <v>0</v>
       </c>
       <c r="K63" t="n">
-        <v>261.3</v>
+        <v>26.9</v>
       </c>
       <c r="L63" t="n">
         <v>0</v>
@@ -3638,7 +3622,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>boven</t>
+          <t>tussen</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -3647,10 +3631,10 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F64" t="n">
-        <v>75.59999999999999</v>
+        <v>65.59999999999999</v>
       </c>
       <c r="G64" t="n">
         <v>5</v>
@@ -3659,13 +3643,13 @@
         <v>5</v>
       </c>
       <c r="I64" t="n">
-        <v>0</v>
+        <v>120.3</v>
       </c>
       <c r="J64" t="n">
         <v>0</v>
       </c>
       <c r="K64" t="n">
-        <v>261.3</v>
+        <v>19.7</v>
       </c>
       <c r="L64" t="n">
         <v>0</v>
@@ -3689,7 +3673,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>boven</t>
+          <t>tussen</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -3698,10 +3682,10 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F65" t="n">
-        <v>75.59999999999999</v>
+        <v>65.59999999999999</v>
       </c>
       <c r="G65" t="n">
         <v>5</v>
@@ -3710,13 +3694,13 @@
         <v>5</v>
       </c>
       <c r="I65" t="n">
-        <v>-120.3</v>
+        <v>0</v>
       </c>
       <c r="J65" t="n">
         <v>0</v>
       </c>
       <c r="K65" t="n">
-        <v>261.3</v>
+        <v>26.9</v>
       </c>
       <c r="L65" t="n">
         <v>0</v>
@@ -3735,39 +3719,39 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>onderstel</t>
+          <t>ribben</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>onderkant</t>
+          <t>tussen</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>plank</t>
+          <t>balk</t>
         </is>
       </c>
       <c r="E66" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="F66" t="n">
-        <v>245.6</v>
+        <v>65.59999999999999</v>
       </c>
       <c r="G66" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="H66" t="n">
-        <v>2.2</v>
+        <v>5</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
       <c r="J66" t="n">
-        <v>-7.799999999999997</v>
+        <v>0</v>
       </c>
       <c r="K66" t="n">
-        <v>11.1</v>
+        <v>19.7</v>
       </c>
       <c r="L66" t="n">
         <v>0</v>
@@ -3776,7 +3760,7 @@
         <v>0</v>
       </c>
       <c r="N66" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="O66" t="inlineStr"/>
     </row>
@@ -3786,39 +3770,39 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>onderstel</t>
+          <t>ribben</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>onderkant</t>
+          <t>tussen</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>plank</t>
+          <t>balk</t>
         </is>
       </c>
       <c r="E67" t="n">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="F67" t="n">
-        <v>245.6</v>
+        <v>65.59999999999999</v>
       </c>
       <c r="G67" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="H67" t="n">
-        <v>2.2</v>
+        <v>5</v>
       </c>
       <c r="I67" t="n">
-        <v>0</v>
+        <v>-120.3</v>
       </c>
       <c r="J67" t="n">
-        <v>-27.8</v>
+        <v>0</v>
       </c>
       <c r="K67" t="n">
-        <v>11.1</v>
+        <v>26.9</v>
       </c>
       <c r="L67" t="n">
         <v>0</v>
@@ -3827,7 +3811,7 @@
         <v>0</v>
       </c>
       <c r="N67" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="O67" t="inlineStr"/>
     </row>
@@ -3837,39 +3821,39 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>onderstel</t>
+          <t>ribben</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>onderkant</t>
+          <t>tussen</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>plank</t>
+          <t>balk</t>
         </is>
       </c>
       <c r="E68" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="F68" t="n">
-        <v>245.6</v>
+        <v>65.59999999999999</v>
       </c>
       <c r="G68" t="n">
-        <v>17.8</v>
+        <v>5</v>
       </c>
       <c r="H68" t="n">
-        <v>2.2</v>
+        <v>5</v>
       </c>
       <c r="I68" t="n">
-        <v>0</v>
+        <v>-120.3</v>
       </c>
       <c r="J68" t="n">
-        <v>28.9</v>
+        <v>0</v>
       </c>
       <c r="K68" t="n">
-        <v>11.1</v>
+        <v>19.7</v>
       </c>
       <c r="L68" t="n">
         <v>0</v>
@@ -3878,7 +3862,7 @@
         <v>0</v>
       </c>
       <c r="N68" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="O68" t="inlineStr"/>
     </row>
@@ -3888,39 +3872,39 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>onderstel</t>
+          <t>ribben</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>onderkant</t>
+          <t>onder</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>plank</t>
+          <t>balk</t>
         </is>
       </c>
       <c r="E69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F69" t="n">
-        <v>245.6</v>
+        <v>75.59999999999999</v>
       </c>
       <c r="G69" t="n">
-        <v>17.8</v>
+        <v>5</v>
       </c>
       <c r="H69" t="n">
-        <v>2.2</v>
+        <v>5</v>
       </c>
       <c r="I69" t="n">
-        <v>0</v>
+        <v>120.3</v>
       </c>
       <c r="J69" t="n">
-        <v>11.1</v>
+        <v>0</v>
       </c>
       <c r="K69" t="n">
-        <v>11.1</v>
+        <v>14.7</v>
       </c>
       <c r="L69" t="n">
         <v>0</v>
@@ -3929,7 +3913,7 @@
         <v>0</v>
       </c>
       <c r="N69" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="O69" t="inlineStr"/>
     </row>
@@ -3939,39 +3923,39 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>onderstel</t>
+          <t>ribben</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>bovenkant</t>
+          <t>onder</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>plank</t>
+          <t>balk</t>
         </is>
       </c>
       <c r="E70" t="n">
         <v>6</v>
       </c>
       <c r="F70" t="n">
-        <v>245.6</v>
+        <v>75.59999999999999</v>
       </c>
       <c r="G70" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="H70" t="n">
-        <v>2.2</v>
+        <v>5</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
       <c r="J70" t="n">
-        <v>-7.799999999999997</v>
+        <v>0</v>
       </c>
       <c r="K70" t="n">
-        <v>264.9</v>
+        <v>14.7</v>
       </c>
       <c r="L70" t="n">
         <v>0</v>
@@ -3980,7 +3964,7 @@
         <v>0</v>
       </c>
       <c r="N70" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="O70" t="inlineStr"/>
     </row>
@@ -3990,39 +3974,39 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>onderstel</t>
+          <t>ribben</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>bovenkant</t>
+          <t>onder</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>plank</t>
+          <t>balk</t>
         </is>
       </c>
       <c r="E71" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F71" t="n">
-        <v>245.6</v>
+        <v>75.59999999999999</v>
       </c>
       <c r="G71" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="H71" t="n">
-        <v>2.2</v>
+        <v>5</v>
       </c>
       <c r="I71" t="n">
-        <v>0</v>
+        <v>-120.3</v>
       </c>
       <c r="J71" t="n">
-        <v>-27.8</v>
+        <v>0</v>
       </c>
       <c r="K71" t="n">
-        <v>264.9</v>
+        <v>14.7</v>
       </c>
       <c r="L71" t="n">
         <v>0</v>
@@ -4031,7 +4015,7 @@
         <v>0</v>
       </c>
       <c r="N71" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="O71" t="inlineStr"/>
     </row>
@@ -4041,39 +4025,39 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>onderstel</t>
+          <t>ribben</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>bovenkant</t>
+          <t>boven</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>plank</t>
+          <t>balk</t>
         </is>
       </c>
       <c r="E72" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F72" t="n">
-        <v>245.6</v>
+        <v>75.59999999999999</v>
       </c>
       <c r="G72" t="n">
-        <v>17.8</v>
+        <v>5</v>
       </c>
       <c r="H72" t="n">
-        <v>2.2</v>
+        <v>5</v>
       </c>
       <c r="I72" t="n">
-        <v>0</v>
+        <v>120.3</v>
       </c>
       <c r="J72" t="n">
-        <v>28.9</v>
+        <v>0</v>
       </c>
       <c r="K72" t="n">
-        <v>264.9</v>
+        <v>261.3</v>
       </c>
       <c r="L72" t="n">
         <v>0</v>
@@ -4082,7 +4066,7 @@
         <v>0</v>
       </c>
       <c r="N72" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="O72" t="inlineStr"/>
     </row>
@@ -4092,39 +4076,39 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>onderstel</t>
+          <t>ribben</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>bovenkant</t>
+          <t>boven</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>plank</t>
+          <t>balk</t>
         </is>
       </c>
       <c r="E73" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F73" t="n">
-        <v>245.6</v>
+        <v>75.59999999999999</v>
       </c>
       <c r="G73" t="n">
-        <v>17.8</v>
+        <v>5</v>
       </c>
       <c r="H73" t="n">
-        <v>2.2</v>
+        <v>5</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
       <c r="J73" t="n">
-        <v>11.1</v>
+        <v>0</v>
       </c>
       <c r="K73" t="n">
-        <v>264.9</v>
+        <v>261.3</v>
       </c>
       <c r="L73" t="n">
         <v>0</v>
@@ -4133,7 +4117,7 @@
         <v>0</v>
       </c>
       <c r="N73" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="O73" t="inlineStr"/>
     </row>
@@ -4143,41 +4127,45 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>achterplank</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr"/>
+          <t>ribben</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>boven</t>
+        </is>
+      </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>plank</t>
+          <t>balk</t>
         </is>
       </c>
       <c r="E74" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="F74" t="n">
-        <v>256</v>
+        <v>75.59999999999999</v>
       </c>
       <c r="G74" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="H74" t="n">
-        <v>2.2</v>
+        <v>5</v>
       </c>
       <c r="I74" t="n">
-        <v>85</v>
+        <v>-120.3</v>
       </c>
       <c r="J74" t="n">
-        <v>-38.9</v>
+        <v>0</v>
       </c>
       <c r="K74" t="n">
-        <v>138</v>
+        <v>261.3</v>
       </c>
       <c r="L74" t="n">
         <v>0</v>
       </c>
       <c r="M74" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="N74" t="n">
         <v>90</v>
@@ -4190,20 +4178,24 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>achterplank</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr"/>
+          <t>onderstel</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>onderkant</t>
+        </is>
+      </c>
       <c r="D75" t="inlineStr">
         <is>
           <t>plank</t>
         </is>
       </c>
       <c r="E75" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F75" t="n">
-        <v>256</v>
+        <v>245.6</v>
       </c>
       <c r="G75" t="n">
         <v>20</v>
@@ -4212,22 +4204,22 @@
         <v>2.2</v>
       </c>
       <c r="I75" t="n">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="J75" t="n">
-        <v>-38.9</v>
+        <v>-7.799999999999997</v>
       </c>
       <c r="K75" t="n">
-        <v>138</v>
+        <v>11.1</v>
       </c>
       <c r="L75" t="n">
         <v>0</v>
       </c>
       <c r="M75" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="N75" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="O75" t="inlineStr"/>
     </row>
@@ -4237,20 +4229,24 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>achterplank</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr"/>
+          <t>onderstel</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>onderkant</t>
+        </is>
+      </c>
       <c r="D76" t="inlineStr">
         <is>
           <t>plank</t>
         </is>
       </c>
       <c r="E76" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F76" t="n">
-        <v>256</v>
+        <v>245.6</v>
       </c>
       <c r="G76" t="n">
         <v>20</v>
@@ -4259,22 +4255,22 @@
         <v>2.2</v>
       </c>
       <c r="I76" t="n">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="J76" t="n">
-        <v>-38.9</v>
+        <v>-27.8</v>
       </c>
       <c r="K76" t="n">
-        <v>138</v>
+        <v>11.1</v>
       </c>
       <c r="L76" t="n">
         <v>0</v>
       </c>
       <c r="M76" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="N76" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="O76" t="inlineStr"/>
     </row>
@@ -4284,44 +4280,48 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>achterplank</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr"/>
+          <t>onderstel</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>onderkant</t>
+        </is>
+      </c>
       <c r="D77" t="inlineStr">
         <is>
           <t>plank</t>
         </is>
       </c>
       <c r="E77" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F77" t="n">
-        <v>256</v>
+        <v>245.6</v>
       </c>
       <c r="G77" t="n">
-        <v>20</v>
+        <v>17.8</v>
       </c>
       <c r="H77" t="n">
         <v>2.2</v>
       </c>
       <c r="I77" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="J77" t="n">
-        <v>-38.9</v>
+        <v>28.9</v>
       </c>
       <c r="K77" t="n">
-        <v>138</v>
+        <v>11.1</v>
       </c>
       <c r="L77" t="n">
         <v>0</v>
       </c>
       <c r="M77" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="N77" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="O77" t="inlineStr"/>
     </row>
@@ -4331,44 +4331,48 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>achterplank</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr"/>
+          <t>onderstel</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>onderkant</t>
+        </is>
+      </c>
       <c r="D78" t="inlineStr">
         <is>
           <t>plank</t>
         </is>
       </c>
       <c r="E78" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F78" t="n">
-        <v>256</v>
+        <v>245.6</v>
       </c>
       <c r="G78" t="n">
-        <v>20</v>
+        <v>17.8</v>
       </c>
       <c r="H78" t="n">
         <v>2.2</v>
       </c>
       <c r="I78" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J78" t="n">
-        <v>-38.9</v>
+        <v>11.1</v>
       </c>
       <c r="K78" t="n">
-        <v>138</v>
+        <v>11.1</v>
       </c>
       <c r="L78" t="n">
         <v>0</v>
       </c>
       <c r="M78" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="N78" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="O78" t="inlineStr"/>
     </row>
@@ -4378,20 +4382,24 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>achterplank</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr"/>
+          <t>onderstel</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>bovenkant</t>
+        </is>
+      </c>
       <c r="D79" t="inlineStr">
         <is>
           <t>plank</t>
         </is>
       </c>
       <c r="E79" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F79" t="n">
-        <v>256</v>
+        <v>245.6</v>
       </c>
       <c r="G79" t="n">
         <v>20</v>
@@ -4400,22 +4408,22 @@
         <v>2.2</v>
       </c>
       <c r="I79" t="n">
-        <v>-15</v>
+        <v>0</v>
       </c>
       <c r="J79" t="n">
-        <v>-38.9</v>
+        <v>-7.799999999999997</v>
       </c>
       <c r="K79" t="n">
-        <v>138</v>
+        <v>264.9</v>
       </c>
       <c r="L79" t="n">
         <v>0</v>
       </c>
       <c r="M79" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="N79" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="O79" t="inlineStr"/>
     </row>
@@ -4425,20 +4433,24 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>achterplank</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr"/>
+          <t>onderstel</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>bovenkant</t>
+        </is>
+      </c>
       <c r="D80" t="inlineStr">
         <is>
           <t>plank</t>
         </is>
       </c>
       <c r="E80" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F80" t="n">
-        <v>256</v>
+        <v>245.6</v>
       </c>
       <c r="G80" t="n">
         <v>20</v>
@@ -4447,22 +4459,22 @@
         <v>2.2</v>
       </c>
       <c r="I80" t="n">
-        <v>-35</v>
+        <v>0</v>
       </c>
       <c r="J80" t="n">
-        <v>-38.9</v>
+        <v>-27.8</v>
       </c>
       <c r="K80" t="n">
-        <v>138</v>
+        <v>264.9</v>
       </c>
       <c r="L80" t="n">
         <v>0</v>
       </c>
       <c r="M80" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="N80" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="O80" t="inlineStr"/>
     </row>
@@ -4472,44 +4484,48 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>achterplank</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr"/>
+          <t>onderstel</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>bovenkant</t>
+        </is>
+      </c>
       <c r="D81" t="inlineStr">
         <is>
           <t>plank</t>
         </is>
       </c>
       <c r="E81" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F81" t="n">
-        <v>256</v>
+        <v>245.6</v>
       </c>
       <c r="G81" t="n">
-        <v>20</v>
+        <v>17.8</v>
       </c>
       <c r="H81" t="n">
         <v>2.2</v>
       </c>
       <c r="I81" t="n">
-        <v>-55</v>
+        <v>0</v>
       </c>
       <c r="J81" t="n">
-        <v>-38.9</v>
+        <v>28.9</v>
       </c>
       <c r="K81" t="n">
-        <v>138</v>
+        <v>264.9</v>
       </c>
       <c r="L81" t="n">
         <v>0</v>
       </c>
       <c r="M81" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="N81" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="O81" t="inlineStr"/>
     </row>
@@ -4519,44 +4535,48 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>achterplank</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr"/>
+          <t>onderstel</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>bovenkant</t>
+        </is>
+      </c>
       <c r="D82" t="inlineStr">
         <is>
           <t>plank</t>
         </is>
       </c>
       <c r="E82" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F82" t="n">
-        <v>256</v>
+        <v>245.6</v>
       </c>
       <c r="G82" t="n">
-        <v>20</v>
+        <v>17.8</v>
       </c>
       <c r="H82" t="n">
         <v>2.2</v>
       </c>
       <c r="I82" t="n">
-        <v>-75</v>
+        <v>0</v>
       </c>
       <c r="J82" t="n">
-        <v>-38.9</v>
+        <v>11.1</v>
       </c>
       <c r="K82" t="n">
-        <v>138</v>
+        <v>264.9</v>
       </c>
       <c r="L82" t="n">
         <v>0</v>
       </c>
       <c r="M82" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="N82" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="O82" t="inlineStr"/>
     </row>
@@ -4576,7 +4596,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="F83" t="n">
         <v>256</v>
@@ -4588,7 +4608,7 @@
         <v>2.2</v>
       </c>
       <c r="I83" t="n">
-        <v>-95</v>
+        <v>85</v>
       </c>
       <c r="J83" t="n">
         <v>-38.9</v>
@@ -4623,7 +4643,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="F84" t="n">
         <v>256</v>
@@ -4635,7 +4655,7 @@
         <v>2.2</v>
       </c>
       <c r="I84" t="n">
-        <v>-115</v>
+        <v>65</v>
       </c>
       <c r="J84" t="n">
         <v>-38.9</v>
@@ -4670,19 +4690,19 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F85" t="n">
         <v>256</v>
       </c>
       <c r="G85" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H85" t="n">
         <v>2.2</v>
       </c>
       <c r="I85" t="n">
-        <v>117.5</v>
+        <v>45</v>
       </c>
       <c r="J85" t="n">
         <v>-38.9</v>
@@ -4717,19 +4737,19 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F86" t="n">
         <v>256</v>
       </c>
       <c r="G86" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H86" t="n">
         <v>2.2</v>
       </c>
       <c r="I86" t="n">
-        <v>102.5</v>
+        <v>25</v>
       </c>
       <c r="J86" t="n">
         <v>-38.9</v>
@@ -4747,6 +4767,429 @@
         <v>90</v>
       </c>
       <c r="O86" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>achterplank</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr"/>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>plank</t>
+        </is>
+      </c>
+      <c r="E87" t="n">
+        <v>6</v>
+      </c>
+      <c r="F87" t="n">
+        <v>256</v>
+      </c>
+      <c r="G87" t="n">
+        <v>20</v>
+      </c>
+      <c r="H87" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="I87" t="n">
+        <v>5</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-38.9</v>
+      </c>
+      <c r="K87" t="n">
+        <v>138</v>
+      </c>
+      <c r="L87" t="n">
+        <v>0</v>
+      </c>
+      <c r="M87" t="n">
+        <v>90</v>
+      </c>
+      <c r="N87" t="n">
+        <v>90</v>
+      </c>
+      <c r="O87" t="inlineStr"/>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>achterplank</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr"/>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>plank</t>
+        </is>
+      </c>
+      <c r="E88" t="n">
+        <v>7</v>
+      </c>
+      <c r="F88" t="n">
+        <v>256</v>
+      </c>
+      <c r="G88" t="n">
+        <v>20</v>
+      </c>
+      <c r="H88" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="I88" t="n">
+        <v>-15</v>
+      </c>
+      <c r="J88" t="n">
+        <v>-38.9</v>
+      </c>
+      <c r="K88" t="n">
+        <v>138</v>
+      </c>
+      <c r="L88" t="n">
+        <v>0</v>
+      </c>
+      <c r="M88" t="n">
+        <v>90</v>
+      </c>
+      <c r="N88" t="n">
+        <v>90</v>
+      </c>
+      <c r="O88" t="inlineStr"/>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>achterplank</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr"/>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>plank</t>
+        </is>
+      </c>
+      <c r="E89" t="n">
+        <v>8</v>
+      </c>
+      <c r="F89" t="n">
+        <v>256</v>
+      </c>
+      <c r="G89" t="n">
+        <v>20</v>
+      </c>
+      <c r="H89" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="I89" t="n">
+        <v>-35</v>
+      </c>
+      <c r="J89" t="n">
+        <v>-38.9</v>
+      </c>
+      <c r="K89" t="n">
+        <v>138</v>
+      </c>
+      <c r="L89" t="n">
+        <v>0</v>
+      </c>
+      <c r="M89" t="n">
+        <v>90</v>
+      </c>
+      <c r="N89" t="n">
+        <v>90</v>
+      </c>
+      <c r="O89" t="inlineStr"/>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>achterplank</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr"/>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>plank</t>
+        </is>
+      </c>
+      <c r="E90" t="n">
+        <v>9</v>
+      </c>
+      <c r="F90" t="n">
+        <v>256</v>
+      </c>
+      <c r="G90" t="n">
+        <v>20</v>
+      </c>
+      <c r="H90" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="I90" t="n">
+        <v>-55</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-38.9</v>
+      </c>
+      <c r="K90" t="n">
+        <v>138</v>
+      </c>
+      <c r="L90" t="n">
+        <v>0</v>
+      </c>
+      <c r="M90" t="n">
+        <v>90</v>
+      </c>
+      <c r="N90" t="n">
+        <v>90</v>
+      </c>
+      <c r="O90" t="inlineStr"/>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>achterplank</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr"/>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>plank</t>
+        </is>
+      </c>
+      <c r="E91" t="n">
+        <v>10</v>
+      </c>
+      <c r="F91" t="n">
+        <v>256</v>
+      </c>
+      <c r="G91" t="n">
+        <v>20</v>
+      </c>
+      <c r="H91" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="I91" t="n">
+        <v>-75</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-38.9</v>
+      </c>
+      <c r="K91" t="n">
+        <v>138</v>
+      </c>
+      <c r="L91" t="n">
+        <v>0</v>
+      </c>
+      <c r="M91" t="n">
+        <v>90</v>
+      </c>
+      <c r="N91" t="n">
+        <v>90</v>
+      </c>
+      <c r="O91" t="inlineStr"/>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>achterplank</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr"/>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>plank</t>
+        </is>
+      </c>
+      <c r="E92" t="n">
+        <v>11</v>
+      </c>
+      <c r="F92" t="n">
+        <v>256</v>
+      </c>
+      <c r="G92" t="n">
+        <v>20</v>
+      </c>
+      <c r="H92" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="I92" t="n">
+        <v>-95</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-38.9</v>
+      </c>
+      <c r="K92" t="n">
+        <v>138</v>
+      </c>
+      <c r="L92" t="n">
+        <v>0</v>
+      </c>
+      <c r="M92" t="n">
+        <v>90</v>
+      </c>
+      <c r="N92" t="n">
+        <v>90</v>
+      </c>
+      <c r="O92" t="inlineStr"/>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>achterplank</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr"/>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>plank</t>
+        </is>
+      </c>
+      <c r="E93" t="n">
+        <v>12</v>
+      </c>
+      <c r="F93" t="n">
+        <v>256</v>
+      </c>
+      <c r="G93" t="n">
+        <v>20</v>
+      </c>
+      <c r="H93" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="I93" t="n">
+        <v>-115</v>
+      </c>
+      <c r="J93" t="n">
+        <v>-38.9</v>
+      </c>
+      <c r="K93" t="n">
+        <v>138</v>
+      </c>
+      <c r="L93" t="n">
+        <v>0</v>
+      </c>
+      <c r="M93" t="n">
+        <v>90</v>
+      </c>
+      <c r="N93" t="n">
+        <v>90</v>
+      </c>
+      <c r="O93" t="inlineStr"/>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>achterplank</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr"/>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>plank</t>
+        </is>
+      </c>
+      <c r="E94" t="n">
+        <v>0</v>
+      </c>
+      <c r="F94" t="n">
+        <v>256</v>
+      </c>
+      <c r="G94" t="n">
+        <v>15</v>
+      </c>
+      <c r="H94" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="I94" t="n">
+        <v>117.5</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-38.9</v>
+      </c>
+      <c r="K94" t="n">
+        <v>138</v>
+      </c>
+      <c r="L94" t="n">
+        <v>0</v>
+      </c>
+      <c r="M94" t="n">
+        <v>90</v>
+      </c>
+      <c r="N94" t="n">
+        <v>90</v>
+      </c>
+      <c r="O94" t="inlineStr"/>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>achterplank</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr"/>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>plank</t>
+        </is>
+      </c>
+      <c r="E95" t="n">
+        <v>1</v>
+      </c>
+      <c r="F95" t="n">
+        <v>256</v>
+      </c>
+      <c r="G95" t="n">
+        <v>15</v>
+      </c>
+      <c r="H95" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="I95" t="n">
+        <v>102.5</v>
+      </c>
+      <c r="J95" t="n">
+        <v>-38.9</v>
+      </c>
+      <c r="K95" t="n">
+        <v>138</v>
+      </c>
+      <c r="L95" t="n">
+        <v>0</v>
+      </c>
+      <c r="M95" t="n">
+        <v>90</v>
+      </c>
+      <c r="N95" t="n">
+        <v>90</v>
+      </c>
+      <c r="O95" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/plankenlijst.xlsx
+++ b/plankenlijst.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O95"/>
+  <dimension ref="A1:O113"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -525,10 +525,10 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F2" t="n">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="G2" t="n">
         <v>20</v>
@@ -540,10 +540,10 @@
         <v>-123.9</v>
       </c>
       <c r="J2" t="n">
-        <v>-7.799999999999997</v>
+        <v>30</v>
       </c>
       <c r="K2" t="n">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -576,10 +576,10 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F3" t="n">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="G3" t="n">
         <v>20</v>
@@ -591,10 +591,10 @@
         <v>-123.9</v>
       </c>
       <c r="J3" t="n">
-        <v>-27.8</v>
+        <v>10</v>
       </c>
       <c r="K3" t="n">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -627,13 +627,13 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F4" t="n">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="G4" t="n">
-        <v>17.8</v>
+        <v>20</v>
       </c>
       <c r="H4" t="n">
         <v>2.2</v>
@@ -642,10 +642,10 @@
         <v>-123.9</v>
       </c>
       <c r="J4" t="n">
-        <v>28.9</v>
+        <v>-10</v>
       </c>
       <c r="K4" t="n">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -678,13 +678,13 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F5" t="n">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="G5" t="n">
-        <v>17.8</v>
+        <v>20</v>
       </c>
       <c r="H5" t="n">
         <v>2.2</v>
@@ -693,10 +693,10 @@
         <v>-123.9</v>
       </c>
       <c r="J5" t="n">
-        <v>11.1</v>
+        <v>-30</v>
       </c>
       <c r="K5" t="n">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -729,10 +729,10 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="G6" t="n">
         <v>20</v>
@@ -744,10 +744,10 @@
         <v>123.9</v>
       </c>
       <c r="J6" t="n">
-        <v>-7.799999999999997</v>
+        <v>30</v>
       </c>
       <c r="K6" t="n">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -780,10 +780,10 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="G7" t="n">
         <v>20</v>
@@ -795,10 +795,10 @@
         <v>123.9</v>
       </c>
       <c r="J7" t="n">
-        <v>-27.8</v>
+        <v>10</v>
       </c>
       <c r="K7" t="n">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -831,13 +831,13 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F8" t="n">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="G8" t="n">
-        <v>17.8</v>
+        <v>20</v>
       </c>
       <c r="H8" t="n">
         <v>2.2</v>
@@ -846,10 +846,10 @@
         <v>123.9</v>
       </c>
       <c r="J8" t="n">
-        <v>28.9</v>
+        <v>-10</v>
       </c>
       <c r="K8" t="n">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -882,13 +882,13 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9" t="n">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="G9" t="n">
-        <v>17.8</v>
+        <v>20</v>
       </c>
       <c r="H9" t="n">
         <v>2.2</v>
@@ -897,10 +897,10 @@
         <v>123.9</v>
       </c>
       <c r="J9" t="n">
-        <v>11.1</v>
+        <v>-30</v>
       </c>
       <c r="K9" t="n">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -936,7 +936,7 @@
         <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="G10" t="n">
         <v>7.5</v>
@@ -948,10 +948,10 @@
         <v>121.25</v>
       </c>
       <c r="J10" t="n">
-        <v>38.9</v>
+        <v>41.1</v>
       </c>
       <c r="K10" t="n">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -987,7 +987,7 @@
         <v>28</v>
       </c>
       <c r="F11" t="n">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="G11" t="n">
         <v>7.5</v>
@@ -999,10 +999,10 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>38.9</v>
+        <v>41.1</v>
       </c>
       <c r="K11" t="n">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -1038,7 +1038,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="G12" t="n">
         <v>7.5</v>
@@ -1050,10 +1050,10 @@
         <v>-121.25</v>
       </c>
       <c r="J12" t="n">
-        <v>38.9</v>
+        <v>41.1</v>
       </c>
       <c r="K12" t="n">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -1101,10 +1101,10 @@
         <v>60.375</v>
       </c>
       <c r="J13" t="n">
-        <v>36.7</v>
+        <v>38.90000000000001</v>
       </c>
       <c r="K13" t="n">
-        <v>223.3333333333333</v>
+        <v>213.3333333333333</v>
       </c>
       <c r="L13" t="n">
         <v>90</v>
@@ -1152,10 +1152,10 @@
         <v>60.375</v>
       </c>
       <c r="J14" t="n">
-        <v>36.7</v>
+        <v>38.90000000000001</v>
       </c>
       <c r="K14" t="n">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="L14" t="n">
         <v>90</v>
@@ -1203,10 +1203,10 @@
         <v>60.375</v>
       </c>
       <c r="J15" t="n">
-        <v>36.7</v>
+        <v>38.90000000000001</v>
       </c>
       <c r="K15" t="n">
-        <v>52.66666666666666</v>
+        <v>46.66666666666666</v>
       </c>
       <c r="L15" t="n">
         <v>90</v>
@@ -1254,10 +1254,10 @@
         <v>-60.875</v>
       </c>
       <c r="J16" t="n">
-        <v>36.7</v>
+        <v>38.90000000000001</v>
       </c>
       <c r="K16" t="n">
-        <v>223.3333333333333</v>
+        <v>213.3333333333333</v>
       </c>
       <c r="L16" t="n">
         <v>90</v>
@@ -1305,10 +1305,10 @@
         <v>-60.875</v>
       </c>
       <c r="J17" t="n">
-        <v>36.7</v>
+        <v>38.90000000000001</v>
       </c>
       <c r="K17" t="n">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="L17" t="n">
         <v>90</v>
@@ -1356,10 +1356,10 @@
         <v>-60.875</v>
       </c>
       <c r="J18" t="n">
-        <v>36.7</v>
+        <v>38.90000000000001</v>
       </c>
       <c r="K18" t="n">
-        <v>52.66666666666666</v>
+        <v>46.66666666666666</v>
       </c>
       <c r="L18" t="n">
         <v>90</v>
@@ -1407,10 +1407,10 @@
         <v>3.75</v>
       </c>
       <c r="J19" t="n">
-        <v>40.5</v>
+        <v>42.7</v>
       </c>
       <c r="K19" t="n">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="L19" t="n">
         <v>90</v>
@@ -1458,10 +1458,10 @@
         <v>-117.5</v>
       </c>
       <c r="J20" t="n">
-        <v>40.5</v>
+        <v>42.7</v>
       </c>
       <c r="K20" t="n">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="L20" t="n">
         <v>90</v>
@@ -1509,10 +1509,10 @@
         <v>3.75</v>
       </c>
       <c r="J21" t="n">
-        <v>40.5</v>
+        <v>42.7</v>
       </c>
       <c r="K21" t="n">
-        <v>223.3333333333333</v>
+        <v>213.3333333333333</v>
       </c>
       <c r="L21" t="n">
         <v>90</v>
@@ -1560,10 +1560,10 @@
         <v>3.75</v>
       </c>
       <c r="J22" t="n">
-        <v>40.5</v>
+        <v>42.7</v>
       </c>
       <c r="K22" t="n">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="L22" t="n">
         <v>90</v>
@@ -1611,10 +1611,10 @@
         <v>3.75</v>
       </c>
       <c r="J23" t="n">
-        <v>40.5</v>
+        <v>42.7</v>
       </c>
       <c r="K23" t="n">
-        <v>52.66666666666666</v>
+        <v>46.66666666666666</v>
       </c>
       <c r="L23" t="n">
         <v>90</v>
@@ -1662,10 +1662,10 @@
         <v>-117.5</v>
       </c>
       <c r="J24" t="n">
-        <v>40.5</v>
+        <v>42.7</v>
       </c>
       <c r="K24" t="n">
-        <v>223.3333333333333</v>
+        <v>213.3333333333333</v>
       </c>
       <c r="L24" t="n">
         <v>90</v>
@@ -1713,10 +1713,10 @@
         <v>-117.5</v>
       </c>
       <c r="J25" t="n">
-        <v>40.5</v>
+        <v>42.7</v>
       </c>
       <c r="K25" t="n">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="L25" t="n">
         <v>90</v>
@@ -1764,10 +1764,10 @@
         <v>-117.5</v>
       </c>
       <c r="J26" t="n">
-        <v>40.5</v>
+        <v>42.7</v>
       </c>
       <c r="K26" t="n">
-        <v>52.66666666666666</v>
+        <v>46.66666666666666</v>
       </c>
       <c r="L26" t="n">
         <v>90</v>
@@ -1803,7 +1803,7 @@
         <v>20</v>
       </c>
       <c r="F27" t="n">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="G27" t="n">
         <v>20</v>
@@ -1815,10 +1815,10 @@
         <v>107</v>
       </c>
       <c r="J27" t="n">
-        <v>38.9</v>
+        <v>41.1</v>
       </c>
       <c r="K27" t="n">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="L27" t="n">
         <v>90</v>
@@ -1854,7 +1854,7 @@
         <v>19</v>
       </c>
       <c r="F28" t="n">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="G28" t="n">
         <v>20</v>
@@ -1866,10 +1866,10 @@
         <v>87</v>
       </c>
       <c r="J28" t="n">
-        <v>38.9</v>
+        <v>41.1</v>
       </c>
       <c r="K28" t="n">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="L28" t="n">
         <v>90</v>
@@ -1905,7 +1905,7 @@
         <v>18</v>
       </c>
       <c r="F29" t="n">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="G29" t="n">
         <v>20</v>
@@ -1917,10 +1917,10 @@
         <v>67</v>
       </c>
       <c r="J29" t="n">
-        <v>38.9</v>
+        <v>41.1</v>
       </c>
       <c r="K29" t="n">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="L29" t="n">
         <v>90</v>
@@ -1956,7 +1956,7 @@
         <v>17</v>
       </c>
       <c r="F30" t="n">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="G30" t="n">
         <v>20</v>
@@ -1968,10 +1968,10 @@
         <v>46.99999999999999</v>
       </c>
       <c r="J30" t="n">
-        <v>38.9</v>
+        <v>41.1</v>
       </c>
       <c r="K30" t="n">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="L30" t="n">
         <v>90</v>
@@ -2007,7 +2007,7 @@
         <v>7</v>
       </c>
       <c r="F31" t="n">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="G31" t="n">
         <v>20</v>
@@ -2019,10 +2019,10 @@
         <v>-14.25</v>
       </c>
       <c r="J31" t="n">
-        <v>38.9</v>
+        <v>41.1</v>
       </c>
       <c r="K31" t="n">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="L31" t="n">
         <v>90</v>
@@ -2058,7 +2058,7 @@
         <v>6</v>
       </c>
       <c r="F32" t="n">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="G32" t="n">
         <v>20</v>
@@ -2070,10 +2070,10 @@
         <v>-34.25</v>
       </c>
       <c r="J32" t="n">
-        <v>38.9</v>
+        <v>41.1</v>
       </c>
       <c r="K32" t="n">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="L32" t="n">
         <v>90</v>
@@ -2109,7 +2109,7 @@
         <v>5</v>
       </c>
       <c r="F33" t="n">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="G33" t="n">
         <v>20</v>
@@ -2121,10 +2121,10 @@
         <v>-54.25</v>
       </c>
       <c r="J33" t="n">
-        <v>38.9</v>
+        <v>41.1</v>
       </c>
       <c r="K33" t="n">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="L33" t="n">
         <v>90</v>
@@ -2160,7 +2160,7 @@
         <v>4</v>
       </c>
       <c r="F34" t="n">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="G34" t="n">
         <v>20</v>
@@ -2172,10 +2172,10 @@
         <v>-74.25</v>
       </c>
       <c r="J34" t="n">
-        <v>38.9</v>
+        <v>41.1</v>
       </c>
       <c r="K34" t="n">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="L34" t="n">
         <v>90</v>
@@ -2211,7 +2211,7 @@
         <v>16</v>
       </c>
       <c r="F35" t="n">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="G35" t="n">
         <v>16.6</v>
@@ -2223,10 +2223,10 @@
         <v>28.68749999999999</v>
       </c>
       <c r="J35" t="n">
-        <v>38.9</v>
+        <v>41.1</v>
       </c>
       <c r="K35" t="n">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="L35" t="n">
         <v>90</v>
@@ -2262,7 +2262,7 @@
         <v>15</v>
       </c>
       <c r="F36" t="n">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="G36" t="n">
         <v>16.6</v>
@@ -2274,10 +2274,10 @@
         <v>12.0625</v>
       </c>
       <c r="J36" t="n">
-        <v>38.9</v>
+        <v>41.1</v>
       </c>
       <c r="K36" t="n">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="L36" t="n">
         <v>90</v>
@@ -2313,7 +2313,7 @@
         <v>3</v>
       </c>
       <c r="F37" t="n">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="G37" t="n">
         <v>16.6</v>
@@ -2325,10 +2325,10 @@
         <v>-92.5625</v>
       </c>
       <c r="J37" t="n">
-        <v>38.9</v>
+        <v>41.1</v>
       </c>
       <c r="K37" t="n">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="L37" t="n">
         <v>90</v>
@@ -2364,7 +2364,7 @@
         <v>2</v>
       </c>
       <c r="F38" t="n">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="G38" t="n">
         <v>16.6</v>
@@ -2376,10 +2376,10 @@
         <v>-109.1875</v>
       </c>
       <c r="J38" t="n">
-        <v>38.9</v>
+        <v>41.1</v>
       </c>
       <c r="K38" t="n">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="L38" t="n">
         <v>90</v>
@@ -2411,22 +2411,22 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G39" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H39" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I39" t="n">
-        <v>117.8</v>
+        <v>120.3</v>
       </c>
       <c r="J39" t="n">
-        <v>32.8</v>
+        <v>37.5</v>
       </c>
       <c r="K39" t="n">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -2458,22 +2458,22 @@
         <v>1</v>
       </c>
       <c r="F40" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G40" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H40" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I40" t="n">
-        <v>117.8</v>
+        <v>120.3</v>
       </c>
       <c r="J40" t="n">
-        <v>-32.8</v>
+        <v>-37.5</v>
       </c>
       <c r="K40" t="n">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
@@ -2505,22 +2505,22 @@
         <v>4</v>
       </c>
       <c r="F41" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G41" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H41" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>32.8</v>
+        <v>37.5</v>
       </c>
       <c r="K41" t="n">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -2552,22 +2552,22 @@
         <v>5</v>
       </c>
       <c r="F42" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G42" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H42" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>-32.8</v>
+        <v>-37.5</v>
       </c>
       <c r="K42" t="n">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -2599,22 +2599,22 @@
         <v>3</v>
       </c>
       <c r="F43" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G43" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H43" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I43" t="n">
-        <v>-117.8</v>
+        <v>-120.3</v>
       </c>
       <c r="J43" t="n">
-        <v>32.8</v>
+        <v>37.5</v>
       </c>
       <c r="K43" t="n">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -2646,22 +2646,22 @@
         <v>2</v>
       </c>
       <c r="F44" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G44" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H44" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I44" t="n">
-        <v>-117.8</v>
+        <v>-120.3</v>
       </c>
       <c r="J44" t="n">
-        <v>-32.8</v>
+        <v>-37.5</v>
       </c>
       <c r="K44" t="n">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
@@ -2690,7 +2690,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="F45" t="n">
         <v>244.6</v>
@@ -2705,10 +2705,10 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>-2.799999999999997</v>
+        <v>-5</v>
       </c>
       <c r="K45" t="n">
-        <v>30.5</v>
+        <v>206</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -2737,7 +2737,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F46" t="n">
         <v>244.6</v>
@@ -2752,10 +2752,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>-2.799999999999997</v>
+        <v>-5</v>
       </c>
       <c r="K46" t="n">
-        <v>23.3</v>
+        <v>156.1</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
@@ -2784,7 +2784,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F47" t="n">
         <v>244.6</v>
@@ -2799,10 +2799,10 @@
         <v>0</v>
       </c>
       <c r="J47" t="n">
-        <v>-22.8</v>
+        <v>-5</v>
       </c>
       <c r="K47" t="n">
-        <v>30.5</v>
+        <v>106.1</v>
       </c>
       <c r="L47" t="n">
         <v>0</v>
@@ -2831,7 +2831,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F48" t="n">
         <v>244.6</v>
@@ -2846,10 +2846,10 @@
         <v>0</v>
       </c>
       <c r="J48" t="n">
-        <v>-22.8</v>
+        <v>-5</v>
       </c>
       <c r="K48" t="n">
-        <v>23.3</v>
+        <v>56.1</v>
       </c>
       <c r="L48" t="n">
         <v>0</v>
@@ -2878,13 +2878,13 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="F49" t="n">
         <v>244.6</v>
       </c>
       <c r="G49" t="n">
-        <v>12.8</v>
+        <v>20</v>
       </c>
       <c r="H49" t="n">
         <v>2.2</v>
@@ -2893,10 +2893,10 @@
         <v>0</v>
       </c>
       <c r="J49" t="n">
-        <v>26.4</v>
+        <v>-25</v>
       </c>
       <c r="K49" t="n">
-        <v>30.5</v>
+        <v>206</v>
       </c>
       <c r="L49" t="n">
         <v>0</v>
@@ -2925,13 +2925,13 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="F50" t="n">
         <v>244.6</v>
       </c>
       <c r="G50" t="n">
-        <v>12.8</v>
+        <v>20</v>
       </c>
       <c r="H50" t="n">
         <v>2.2</v>
@@ -2940,10 +2940,10 @@
         <v>0</v>
       </c>
       <c r="J50" t="n">
-        <v>26.4</v>
+        <v>-25</v>
       </c>
       <c r="K50" t="n">
-        <v>23.3</v>
+        <v>156.1</v>
       </c>
       <c r="L50" t="n">
         <v>0</v>
@@ -2972,13 +2972,13 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F51" t="n">
         <v>244.6</v>
       </c>
       <c r="G51" t="n">
-        <v>12.8</v>
+        <v>20</v>
       </c>
       <c r="H51" t="n">
         <v>2.2</v>
@@ -2987,10 +2987,10 @@
         <v>0</v>
       </c>
       <c r="J51" t="n">
-        <v>13.6</v>
+        <v>-25</v>
       </c>
       <c r="K51" t="n">
-        <v>30.5</v>
+        <v>106.1</v>
       </c>
       <c r="L51" t="n">
         <v>0</v>
@@ -3019,13 +3019,13 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F52" t="n">
         <v>244.6</v>
       </c>
       <c r="G52" t="n">
-        <v>12.8</v>
+        <v>20</v>
       </c>
       <c r="H52" t="n">
         <v>2.2</v>
@@ -3034,10 +3034,10 @@
         <v>0</v>
       </c>
       <c r="J52" t="n">
-        <v>13.6</v>
+        <v>-25</v>
       </c>
       <c r="K52" t="n">
-        <v>23.3</v>
+        <v>56.1</v>
       </c>
       <c r="L52" t="n">
         <v>0</v>
@@ -3056,45 +3056,41 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>ribben</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>zeide</t>
-        </is>
-      </c>
+          <t>vlonders</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr"/>
       <c r="D53" t="inlineStr">
         <is>
-          <t>balk</t>
+          <t>plank</t>
         </is>
       </c>
       <c r="E53" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="F53" t="n">
-        <v>241.6</v>
+        <v>244.6</v>
       </c>
       <c r="G53" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="H53" t="n">
-        <v>5</v>
+        <v>2.2</v>
       </c>
       <c r="I53" t="n">
-        <v>120.3</v>
+        <v>0</v>
       </c>
       <c r="J53" t="n">
-        <v>35.3</v>
+        <v>27.5</v>
       </c>
       <c r="K53" t="n">
-        <v>138</v>
+        <v>206</v>
       </c>
       <c r="L53" t="n">
         <v>0</v>
       </c>
       <c r="M53" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="N53" t="n">
         <v>0</v>
@@ -3107,45 +3103,41 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>ribben</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>zeide</t>
-        </is>
-      </c>
+          <t>vlonders</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr"/>
       <c r="D54" t="inlineStr">
         <is>
-          <t>balk</t>
+          <t>plank</t>
         </is>
       </c>
       <c r="E54" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F54" t="n">
-        <v>241.6</v>
+        <v>244.6</v>
       </c>
       <c r="G54" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="H54" t="n">
-        <v>5</v>
+        <v>2.2</v>
       </c>
       <c r="I54" t="n">
-        <v>120.3</v>
+        <v>0</v>
       </c>
       <c r="J54" t="n">
-        <v>-35.3</v>
+        <v>27.5</v>
       </c>
       <c r="K54" t="n">
-        <v>138</v>
+        <v>156.1</v>
       </c>
       <c r="L54" t="n">
         <v>0</v>
       </c>
       <c r="M54" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="N54" t="n">
         <v>0</v>
@@ -3158,45 +3150,41 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>ribben</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>zeide</t>
-        </is>
-      </c>
+          <t>vlonders</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr"/>
       <c r="D55" t="inlineStr">
         <is>
-          <t>balk</t>
+          <t>plank</t>
         </is>
       </c>
       <c r="E55" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F55" t="n">
-        <v>241.6</v>
+        <v>244.6</v>
       </c>
       <c r="G55" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="H55" t="n">
-        <v>5</v>
+        <v>2.2</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
       <c r="J55" t="n">
-        <v>35.3</v>
+        <v>27.5</v>
       </c>
       <c r="K55" t="n">
-        <v>138</v>
+        <v>106.1</v>
       </c>
       <c r="L55" t="n">
         <v>0</v>
       </c>
       <c r="M55" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="N55" t="n">
         <v>0</v>
@@ -3209,45 +3197,41 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>ribben</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>zeide</t>
-        </is>
-      </c>
+          <t>vlonders</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr"/>
       <c r="D56" t="inlineStr">
         <is>
-          <t>balk</t>
+          <t>plank</t>
         </is>
       </c>
       <c r="E56" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F56" t="n">
-        <v>241.6</v>
+        <v>244.6</v>
       </c>
       <c r="G56" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="H56" t="n">
-        <v>5</v>
+        <v>2.2</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
       <c r="J56" t="n">
-        <v>-35.3</v>
+        <v>27.5</v>
       </c>
       <c r="K56" t="n">
-        <v>138</v>
+        <v>56.1</v>
       </c>
       <c r="L56" t="n">
         <v>0</v>
       </c>
       <c r="M56" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="N56" t="n">
         <v>0</v>
@@ -3260,45 +3244,41 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>ribben</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>zeide</t>
-        </is>
-      </c>
+          <t>vlonders</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr"/>
       <c r="D57" t="inlineStr">
         <is>
-          <t>balk</t>
+          <t>plank</t>
         </is>
       </c>
       <c r="E57" t="n">
         <v>13</v>
       </c>
       <c r="F57" t="n">
-        <v>241.6</v>
+        <v>244.6</v>
       </c>
       <c r="G57" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="H57" t="n">
-        <v>5</v>
+        <v>2.2</v>
       </c>
       <c r="I57" t="n">
-        <v>-120.3</v>
+        <v>0</v>
       </c>
       <c r="J57" t="n">
-        <v>35.3</v>
+        <v>12.5</v>
       </c>
       <c r="K57" t="n">
-        <v>138</v>
+        <v>206</v>
       </c>
       <c r="L57" t="n">
         <v>0</v>
       </c>
       <c r="M57" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="N57" t="n">
         <v>0</v>
@@ -3311,45 +3291,41 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>ribben</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>zeide</t>
-        </is>
-      </c>
+          <t>vlonders</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr"/>
       <c r="D58" t="inlineStr">
         <is>
-          <t>balk</t>
+          <t>plank</t>
         </is>
       </c>
       <c r="E58" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F58" t="n">
-        <v>241.6</v>
+        <v>244.6</v>
       </c>
       <c r="G58" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="H58" t="n">
-        <v>5</v>
+        <v>2.2</v>
       </c>
       <c r="I58" t="n">
-        <v>-120.3</v>
+        <v>0</v>
       </c>
       <c r="J58" t="n">
-        <v>-35.3</v>
+        <v>12.5</v>
       </c>
       <c r="K58" t="n">
-        <v>138</v>
+        <v>156.1</v>
       </c>
       <c r="L58" t="n">
         <v>0</v>
       </c>
       <c r="M58" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="N58" t="n">
         <v>0</v>
@@ -3362,39 +3338,35 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>ribben</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>tussen</t>
-        </is>
-      </c>
+          <t>vlonders</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr"/>
       <c r="D59" t="inlineStr">
         <is>
-          <t>balk</t>
+          <t>plank</t>
         </is>
       </c>
       <c r="E59" t="n">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="F59" t="n">
-        <v>115.3</v>
+        <v>244.6</v>
       </c>
       <c r="G59" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="H59" t="n">
-        <v>5</v>
+        <v>2.2</v>
       </c>
       <c r="I59" t="n">
-        <v>60.15</v>
+        <v>0</v>
       </c>
       <c r="J59" t="n">
-        <v>-35.3</v>
+        <v>12.5</v>
       </c>
       <c r="K59" t="n">
-        <v>29.1</v>
+        <v>106.1</v>
       </c>
       <c r="L59" t="n">
         <v>0</v>
@@ -3413,39 +3385,35 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>ribben</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>tussen</t>
-        </is>
-      </c>
+          <t>vlonders</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr"/>
       <c r="D60" t="inlineStr">
         <is>
-          <t>balk</t>
+          <t>plank</t>
         </is>
       </c>
       <c r="E60" t="n">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="F60" t="n">
-        <v>115.3</v>
+        <v>244.6</v>
       </c>
       <c r="G60" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="H60" t="n">
-        <v>5</v>
+        <v>2.2</v>
       </c>
       <c r="I60" t="n">
-        <v>60.15</v>
+        <v>0</v>
       </c>
       <c r="J60" t="n">
-        <v>-35.3</v>
+        <v>12.5</v>
       </c>
       <c r="K60" t="n">
-        <v>21.9</v>
+        <v>56.1</v>
       </c>
       <c r="L60" t="n">
         <v>0</v>
@@ -3469,7 +3437,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>tussen</t>
+          <t>zeide</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -3478,10 +3446,10 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="F61" t="n">
-        <v>115.3</v>
+        <v>235.6</v>
       </c>
       <c r="G61" t="n">
         <v>5</v>
@@ -3490,19 +3458,19 @@
         <v>5</v>
       </c>
       <c r="I61" t="n">
-        <v>-60.15</v>
+        <v>120.3</v>
       </c>
       <c r="J61" t="n">
-        <v>-35.3</v>
+        <v>37.5</v>
       </c>
       <c r="K61" t="n">
-        <v>29.1</v>
+        <v>130</v>
       </c>
       <c r="L61" t="n">
         <v>0</v>
       </c>
       <c r="M61" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="N61" t="n">
         <v>0</v>
@@ -3520,7 +3488,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>tussen</t>
+          <t>zeide</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -3529,10 +3497,10 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="F62" t="n">
-        <v>115.3</v>
+        <v>235.6</v>
       </c>
       <c r="G62" t="n">
         <v>5</v>
@@ -3541,19 +3509,19 @@
         <v>5</v>
       </c>
       <c r="I62" t="n">
-        <v>-60.15</v>
+        <v>120.3</v>
       </c>
       <c r="J62" t="n">
-        <v>-35.3</v>
+        <v>-37.5</v>
       </c>
       <c r="K62" t="n">
-        <v>21.9</v>
+        <v>130</v>
       </c>
       <c r="L62" t="n">
         <v>0</v>
       </c>
       <c r="M62" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="N62" t="n">
         <v>0</v>
@@ -3571,7 +3539,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>tussen</t>
+          <t>zeide</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -3580,10 +3548,10 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F63" t="n">
-        <v>65.59999999999999</v>
+        <v>235.6</v>
       </c>
       <c r="G63" t="n">
         <v>5</v>
@@ -3592,22 +3560,22 @@
         <v>5</v>
       </c>
       <c r="I63" t="n">
-        <v>120.3</v>
+        <v>0</v>
       </c>
       <c r="J63" t="n">
-        <v>0</v>
+        <v>37.5</v>
       </c>
       <c r="K63" t="n">
-        <v>26.9</v>
+        <v>130</v>
       </c>
       <c r="L63" t="n">
         <v>0</v>
       </c>
       <c r="M63" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="N63" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="O63" t="inlineStr"/>
     </row>
@@ -3622,7 +3590,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>tussen</t>
+          <t>zeide</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -3631,10 +3599,10 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F64" t="n">
-        <v>65.59999999999999</v>
+        <v>235.6</v>
       </c>
       <c r="G64" t="n">
         <v>5</v>
@@ -3643,22 +3611,22 @@
         <v>5</v>
       </c>
       <c r="I64" t="n">
-        <v>120.3</v>
+        <v>0</v>
       </c>
       <c r="J64" t="n">
-        <v>0</v>
+        <v>-37.5</v>
       </c>
       <c r="K64" t="n">
-        <v>19.7</v>
+        <v>130</v>
       </c>
       <c r="L64" t="n">
         <v>0</v>
       </c>
       <c r="M64" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="N64" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="O64" t="inlineStr"/>
     </row>
@@ -3673,7 +3641,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>tussen</t>
+          <t>zeide</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -3682,10 +3650,10 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="F65" t="n">
-        <v>65.59999999999999</v>
+        <v>235.6</v>
       </c>
       <c r="G65" t="n">
         <v>5</v>
@@ -3694,22 +3662,22 @@
         <v>5</v>
       </c>
       <c r="I65" t="n">
-        <v>0</v>
+        <v>-120.3</v>
       </c>
       <c r="J65" t="n">
-        <v>0</v>
+        <v>37.5</v>
       </c>
       <c r="K65" t="n">
-        <v>26.9</v>
+        <v>130</v>
       </c>
       <c r="L65" t="n">
         <v>0</v>
       </c>
       <c r="M65" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="N65" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="O65" t="inlineStr"/>
     </row>
@@ -3724,7 +3692,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>tussen</t>
+          <t>zeide</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -3733,10 +3701,10 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F66" t="n">
-        <v>65.59999999999999</v>
+        <v>235.6</v>
       </c>
       <c r="G66" t="n">
         <v>5</v>
@@ -3745,22 +3713,22 @@
         <v>5</v>
       </c>
       <c r="I66" t="n">
-        <v>0</v>
+        <v>-120.3</v>
       </c>
       <c r="J66" t="n">
-        <v>0</v>
+        <v>-37.5</v>
       </c>
       <c r="K66" t="n">
-        <v>19.7</v>
+        <v>130</v>
       </c>
       <c r="L66" t="n">
         <v>0</v>
       </c>
       <c r="M66" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="N66" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="O66" t="inlineStr"/>
     </row>
@@ -3784,10 +3752,10 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="F67" t="n">
-        <v>65.59999999999999</v>
+        <v>115.3</v>
       </c>
       <c r="G67" t="n">
         <v>5</v>
@@ -3796,13 +3764,13 @@
         <v>5</v>
       </c>
       <c r="I67" t="n">
-        <v>-120.3</v>
+        <v>60.15</v>
       </c>
       <c r="J67" t="n">
-        <v>0</v>
+        <v>-37.5</v>
       </c>
       <c r="K67" t="n">
-        <v>26.9</v>
+        <v>204.6</v>
       </c>
       <c r="L67" t="n">
         <v>0</v>
@@ -3811,7 +3779,7 @@
         <v>0</v>
       </c>
       <c r="N67" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="O67" t="inlineStr"/>
     </row>
@@ -3835,10 +3803,10 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="F68" t="n">
-        <v>65.59999999999999</v>
+        <v>115.3</v>
       </c>
       <c r="G68" t="n">
         <v>5</v>
@@ -3847,13 +3815,13 @@
         <v>5</v>
       </c>
       <c r="I68" t="n">
-        <v>-120.3</v>
+        <v>60.15</v>
       </c>
       <c r="J68" t="n">
-        <v>0</v>
+        <v>-37.5</v>
       </c>
       <c r="K68" t="n">
-        <v>19.7</v>
+        <v>154.7</v>
       </c>
       <c r="L68" t="n">
         <v>0</v>
@@ -3862,7 +3830,7 @@
         <v>0</v>
       </c>
       <c r="N68" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="O68" t="inlineStr"/>
     </row>
@@ -3877,7 +3845,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>onder</t>
+          <t>tussen</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -3886,10 +3854,10 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="F69" t="n">
-        <v>75.59999999999999</v>
+        <v>115.3</v>
       </c>
       <c r="G69" t="n">
         <v>5</v>
@@ -3898,13 +3866,13 @@
         <v>5</v>
       </c>
       <c r="I69" t="n">
-        <v>120.3</v>
+        <v>60.15</v>
       </c>
       <c r="J69" t="n">
-        <v>0</v>
+        <v>-37.5</v>
       </c>
       <c r="K69" t="n">
-        <v>14.7</v>
+        <v>104.7</v>
       </c>
       <c r="L69" t="n">
         <v>0</v>
@@ -3913,7 +3881,7 @@
         <v>0</v>
       </c>
       <c r="N69" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="O69" t="inlineStr"/>
     </row>
@@ -3928,7 +3896,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>onder</t>
+          <t>tussen</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -3937,10 +3905,10 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="F70" t="n">
-        <v>75.59999999999999</v>
+        <v>115.3</v>
       </c>
       <c r="G70" t="n">
         <v>5</v>
@@ -3949,13 +3917,13 @@
         <v>5</v>
       </c>
       <c r="I70" t="n">
-        <v>0</v>
+        <v>60.15</v>
       </c>
       <c r="J70" t="n">
-        <v>0</v>
+        <v>-37.5</v>
       </c>
       <c r="K70" t="n">
-        <v>14.7</v>
+        <v>54.7</v>
       </c>
       <c r="L70" t="n">
         <v>0</v>
@@ -3964,7 +3932,7 @@
         <v>0</v>
       </c>
       <c r="N70" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="O70" t="inlineStr"/>
     </row>
@@ -3979,7 +3947,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>onder</t>
+          <t>tussen</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -3988,10 +3956,10 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="F71" t="n">
-        <v>75.59999999999999</v>
+        <v>115.3</v>
       </c>
       <c r="G71" t="n">
         <v>5</v>
@@ -4000,13 +3968,13 @@
         <v>5</v>
       </c>
       <c r="I71" t="n">
-        <v>-120.3</v>
+        <v>-60.15</v>
       </c>
       <c r="J71" t="n">
-        <v>0</v>
+        <v>-37.5</v>
       </c>
       <c r="K71" t="n">
-        <v>14.7</v>
+        <v>204.6</v>
       </c>
       <c r="L71" t="n">
         <v>0</v>
@@ -4015,7 +3983,7 @@
         <v>0</v>
       </c>
       <c r="N71" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="O71" t="inlineStr"/>
     </row>
@@ -4030,7 +3998,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>boven</t>
+          <t>tussen</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -4039,10 +4007,10 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="F72" t="n">
-        <v>75.59999999999999</v>
+        <v>115.3</v>
       </c>
       <c r="G72" t="n">
         <v>5</v>
@@ -4051,13 +4019,13 @@
         <v>5</v>
       </c>
       <c r="I72" t="n">
-        <v>120.3</v>
+        <v>-60.15</v>
       </c>
       <c r="J72" t="n">
-        <v>0</v>
+        <v>-37.5</v>
       </c>
       <c r="K72" t="n">
-        <v>261.3</v>
+        <v>154.7</v>
       </c>
       <c r="L72" t="n">
         <v>0</v>
@@ -4066,7 +4034,7 @@
         <v>0</v>
       </c>
       <c r="N72" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="O72" t="inlineStr"/>
     </row>
@@ -4081,7 +4049,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>boven</t>
+          <t>tussen</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -4090,10 +4058,10 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="F73" t="n">
-        <v>75.59999999999999</v>
+        <v>115.3</v>
       </c>
       <c r="G73" t="n">
         <v>5</v>
@@ -4102,13 +4070,13 @@
         <v>5</v>
       </c>
       <c r="I73" t="n">
-        <v>0</v>
+        <v>-60.15</v>
       </c>
       <c r="J73" t="n">
-        <v>0</v>
+        <v>-37.5</v>
       </c>
       <c r="K73" t="n">
-        <v>261.3</v>
+        <v>104.7</v>
       </c>
       <c r="L73" t="n">
         <v>0</v>
@@ -4117,7 +4085,7 @@
         <v>0</v>
       </c>
       <c r="N73" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="O73" t="inlineStr"/>
     </row>
@@ -4132,7 +4100,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>boven</t>
+          <t>tussen</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -4141,10 +4109,10 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="F74" t="n">
-        <v>75.59999999999999</v>
+        <v>115.3</v>
       </c>
       <c r="G74" t="n">
         <v>5</v>
@@ -4153,13 +4121,13 @@
         <v>5</v>
       </c>
       <c r="I74" t="n">
-        <v>-120.3</v>
+        <v>-60.15</v>
       </c>
       <c r="J74" t="n">
-        <v>0</v>
+        <v>-37.5</v>
       </c>
       <c r="K74" t="n">
-        <v>261.3</v>
+        <v>54.7</v>
       </c>
       <c r="L74" t="n">
         <v>0</v>
@@ -4168,7 +4136,7 @@
         <v>0</v>
       </c>
       <c r="N74" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="O74" t="inlineStr"/>
     </row>
@@ -4178,39 +4146,39 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>onderstel</t>
+          <t>ribben</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>onderkant</t>
+          <t>tussen</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>plank</t>
+          <t>balk</t>
         </is>
       </c>
       <c r="E75" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F75" t="n">
-        <v>245.6</v>
+        <v>70</v>
       </c>
       <c r="G75" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="H75" t="n">
-        <v>2.2</v>
+        <v>5</v>
       </c>
       <c r="I75" t="n">
-        <v>0</v>
+        <v>120.3</v>
       </c>
       <c r="J75" t="n">
-        <v>-7.799999999999997</v>
+        <v>0</v>
       </c>
       <c r="K75" t="n">
-        <v>11.1</v>
+        <v>202.4</v>
       </c>
       <c r="L75" t="n">
         <v>0</v>
@@ -4219,7 +4187,7 @@
         <v>0</v>
       </c>
       <c r="N75" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="O75" t="inlineStr"/>
     </row>
@@ -4229,39 +4197,39 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>onderstel</t>
+          <t>ribben</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>onderkant</t>
+          <t>tussen</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>plank</t>
+          <t>balk</t>
         </is>
       </c>
       <c r="E76" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F76" t="n">
-        <v>245.6</v>
+        <v>70</v>
       </c>
       <c r="G76" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="H76" t="n">
-        <v>2.2</v>
+        <v>5</v>
       </c>
       <c r="I76" t="n">
-        <v>0</v>
+        <v>120.3</v>
       </c>
       <c r="J76" t="n">
-        <v>-27.8</v>
+        <v>0</v>
       </c>
       <c r="K76" t="n">
-        <v>11.1</v>
+        <v>152.5</v>
       </c>
       <c r="L76" t="n">
         <v>0</v>
@@ -4270,7 +4238,7 @@
         <v>0</v>
       </c>
       <c r="N76" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="O76" t="inlineStr"/>
     </row>
@@ -4280,39 +4248,39 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>onderstel</t>
+          <t>ribben</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>onderkant</t>
+          <t>tussen</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>plank</t>
+          <t>balk</t>
         </is>
       </c>
       <c r="E77" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F77" t="n">
-        <v>245.6</v>
+        <v>70</v>
       </c>
       <c r="G77" t="n">
-        <v>17.8</v>
+        <v>5</v>
       </c>
       <c r="H77" t="n">
-        <v>2.2</v>
+        <v>5</v>
       </c>
       <c r="I77" t="n">
-        <v>0</v>
+        <v>120.3</v>
       </c>
       <c r="J77" t="n">
-        <v>28.9</v>
+        <v>0</v>
       </c>
       <c r="K77" t="n">
-        <v>11.1</v>
+        <v>102.5</v>
       </c>
       <c r="L77" t="n">
         <v>0</v>
@@ -4321,7 +4289,7 @@
         <v>0</v>
       </c>
       <c r="N77" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="O77" t="inlineStr"/>
     </row>
@@ -4331,39 +4299,39 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>onderstel</t>
+          <t>ribben</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>onderkant</t>
+          <t>tussen</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>plank</t>
+          <t>balk</t>
         </is>
       </c>
       <c r="E78" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F78" t="n">
-        <v>245.6</v>
+        <v>70</v>
       </c>
       <c r="G78" t="n">
-        <v>17.8</v>
+        <v>5</v>
       </c>
       <c r="H78" t="n">
-        <v>2.2</v>
+        <v>5</v>
       </c>
       <c r="I78" t="n">
-        <v>0</v>
+        <v>120.3</v>
       </c>
       <c r="J78" t="n">
-        <v>11.1</v>
+        <v>0</v>
       </c>
       <c r="K78" t="n">
-        <v>11.1</v>
+        <v>52.5</v>
       </c>
       <c r="L78" t="n">
         <v>0</v>
@@ -4372,7 +4340,7 @@
         <v>0</v>
       </c>
       <c r="N78" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="O78" t="inlineStr"/>
     </row>
@@ -4382,39 +4350,39 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>onderstel</t>
+          <t>ribben</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>bovenkant</t>
+          <t>tussen</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>plank</t>
+          <t>balk</t>
         </is>
       </c>
       <c r="E79" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="F79" t="n">
-        <v>245.6</v>
+        <v>70</v>
       </c>
       <c r="G79" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="H79" t="n">
-        <v>2.2</v>
+        <v>5</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
       <c r="J79" t="n">
-        <v>-7.799999999999997</v>
+        <v>0</v>
       </c>
       <c r="K79" t="n">
-        <v>264.9</v>
+        <v>202.4</v>
       </c>
       <c r="L79" t="n">
         <v>0</v>
@@ -4423,7 +4391,7 @@
         <v>0</v>
       </c>
       <c r="N79" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="O79" t="inlineStr"/>
     </row>
@@ -4433,39 +4401,39 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>onderstel</t>
+          <t>ribben</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>bovenkant</t>
+          <t>tussen</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>plank</t>
+          <t>balk</t>
         </is>
       </c>
       <c r="E80" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="F80" t="n">
-        <v>245.6</v>
+        <v>70</v>
       </c>
       <c r="G80" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="H80" t="n">
-        <v>2.2</v>
+        <v>5</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
       <c r="J80" t="n">
-        <v>-27.8</v>
+        <v>0</v>
       </c>
       <c r="K80" t="n">
-        <v>264.9</v>
+        <v>152.5</v>
       </c>
       <c r="L80" t="n">
         <v>0</v>
@@ -4474,7 +4442,7 @@
         <v>0</v>
       </c>
       <c r="N80" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="O80" t="inlineStr"/>
     </row>
@@ -4484,39 +4452,39 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>onderstel</t>
+          <t>ribben</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>bovenkant</t>
+          <t>tussen</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>plank</t>
+          <t>balk</t>
         </is>
       </c>
       <c r="E81" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="F81" t="n">
-        <v>245.6</v>
+        <v>70</v>
       </c>
       <c r="G81" t="n">
-        <v>17.8</v>
+        <v>5</v>
       </c>
       <c r="H81" t="n">
-        <v>2.2</v>
+        <v>5</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
       <c r="J81" t="n">
-        <v>28.9</v>
+        <v>0</v>
       </c>
       <c r="K81" t="n">
-        <v>264.9</v>
+        <v>102.5</v>
       </c>
       <c r="L81" t="n">
         <v>0</v>
@@ -4525,7 +4493,7 @@
         <v>0</v>
       </c>
       <c r="N81" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="O81" t="inlineStr"/>
     </row>
@@ -4535,39 +4503,39 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>onderstel</t>
+          <t>ribben</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>bovenkant</t>
+          <t>tussen</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>plank</t>
+          <t>balk</t>
         </is>
       </c>
       <c r="E82" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="F82" t="n">
-        <v>245.6</v>
+        <v>70</v>
       </c>
       <c r="G82" t="n">
-        <v>17.8</v>
+        <v>5</v>
       </c>
       <c r="H82" t="n">
-        <v>2.2</v>
+        <v>5</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
       <c r="J82" t="n">
-        <v>11.1</v>
+        <v>0</v>
       </c>
       <c r="K82" t="n">
-        <v>264.9</v>
+        <v>52.5</v>
       </c>
       <c r="L82" t="n">
         <v>0</v>
@@ -4576,7 +4544,7 @@
         <v>0</v>
       </c>
       <c r="N82" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="O82" t="inlineStr"/>
     </row>
@@ -4586,41 +4554,45 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>achterplank</t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr"/>
+          <t>ribben</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>tussen</t>
+        </is>
+      </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>plank</t>
+          <t>balk</t>
         </is>
       </c>
       <c r="E83" t="n">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="F83" t="n">
-        <v>256</v>
+        <v>70</v>
       </c>
       <c r="G83" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="H83" t="n">
-        <v>2.2</v>
+        <v>5</v>
       </c>
       <c r="I83" t="n">
-        <v>85</v>
+        <v>-120.3</v>
       </c>
       <c r="J83" t="n">
-        <v>-38.9</v>
+        <v>0</v>
       </c>
       <c r="K83" t="n">
-        <v>138</v>
+        <v>202.4</v>
       </c>
       <c r="L83" t="n">
         <v>0</v>
       </c>
       <c r="M83" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="N83" t="n">
         <v>90</v>
@@ -4633,41 +4605,45 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>achterplank</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr"/>
+          <t>ribben</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>tussen</t>
+        </is>
+      </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>plank</t>
+          <t>balk</t>
         </is>
       </c>
       <c r="E84" t="n">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="F84" t="n">
-        <v>256</v>
+        <v>70</v>
       </c>
       <c r="G84" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="H84" t="n">
-        <v>2.2</v>
+        <v>5</v>
       </c>
       <c r="I84" t="n">
-        <v>65</v>
+        <v>-120.3</v>
       </c>
       <c r="J84" t="n">
-        <v>-38.9</v>
+        <v>0</v>
       </c>
       <c r="K84" t="n">
-        <v>138</v>
+        <v>152.5</v>
       </c>
       <c r="L84" t="n">
         <v>0</v>
       </c>
       <c r="M84" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="N84" t="n">
         <v>90</v>
@@ -4680,41 +4656,45 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>achterplank</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr"/>
+          <t>ribben</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>tussen</t>
+        </is>
+      </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>plank</t>
+          <t>balk</t>
         </is>
       </c>
       <c r="E85" t="n">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="F85" t="n">
-        <v>256</v>
+        <v>70</v>
       </c>
       <c r="G85" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="H85" t="n">
-        <v>2.2</v>
+        <v>5</v>
       </c>
       <c r="I85" t="n">
-        <v>45</v>
+        <v>-120.3</v>
       </c>
       <c r="J85" t="n">
-        <v>-38.9</v>
+        <v>0</v>
       </c>
       <c r="K85" t="n">
-        <v>138</v>
+        <v>102.5</v>
       </c>
       <c r="L85" t="n">
         <v>0</v>
       </c>
       <c r="M85" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="N85" t="n">
         <v>90</v>
@@ -4727,41 +4707,45 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>achterplank</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr"/>
+          <t>ribben</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>tussen</t>
+        </is>
+      </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>plank</t>
+          <t>balk</t>
         </is>
       </c>
       <c r="E86" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="F86" t="n">
-        <v>256</v>
+        <v>70</v>
       </c>
       <c r="G86" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="H86" t="n">
-        <v>2.2</v>
+        <v>5</v>
       </c>
       <c r="I86" t="n">
-        <v>25</v>
+        <v>-120.3</v>
       </c>
       <c r="J86" t="n">
-        <v>-38.9</v>
+        <v>0</v>
       </c>
       <c r="K86" t="n">
-        <v>138</v>
+        <v>52.5</v>
       </c>
       <c r="L86" t="n">
         <v>0</v>
       </c>
       <c r="M86" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="N86" t="n">
         <v>90</v>
@@ -4774,41 +4758,45 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>achterplank</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr"/>
+          <t>ribben</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>onder</t>
+        </is>
+      </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>plank</t>
+          <t>balk</t>
         </is>
       </c>
       <c r="E87" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F87" t="n">
-        <v>256</v>
+        <v>80</v>
       </c>
       <c r="G87" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="H87" t="n">
-        <v>2.2</v>
+        <v>5</v>
       </c>
       <c r="I87" t="n">
-        <v>5</v>
+        <v>120.3</v>
       </c>
       <c r="J87" t="n">
-        <v>-38.9</v>
+        <v>0</v>
       </c>
       <c r="K87" t="n">
-        <v>138</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="L87" t="n">
         <v>0</v>
       </c>
       <c r="M87" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="N87" t="n">
         <v>90</v>
@@ -4821,41 +4809,45 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>achterplank</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr"/>
+          <t>ribben</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>onder</t>
+        </is>
+      </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>plank</t>
+          <t>balk</t>
         </is>
       </c>
       <c r="E88" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F88" t="n">
-        <v>256</v>
+        <v>80</v>
       </c>
       <c r="G88" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="H88" t="n">
-        <v>2.2</v>
+        <v>5</v>
       </c>
       <c r="I88" t="n">
-        <v>-15</v>
+        <v>0</v>
       </c>
       <c r="J88" t="n">
-        <v>-38.9</v>
+        <v>0</v>
       </c>
       <c r="K88" t="n">
-        <v>138</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="L88" t="n">
         <v>0</v>
       </c>
       <c r="M88" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="N88" t="n">
         <v>90</v>
@@ -4868,41 +4860,45 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>achterplank</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr"/>
+          <t>ribben</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>onder</t>
+        </is>
+      </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>plank</t>
+          <t>balk</t>
         </is>
       </c>
       <c r="E89" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="F89" t="n">
-        <v>256</v>
+        <v>80</v>
       </c>
       <c r="G89" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="H89" t="n">
-        <v>2.2</v>
+        <v>5</v>
       </c>
       <c r="I89" t="n">
-        <v>-35</v>
+        <v>-120.3</v>
       </c>
       <c r="J89" t="n">
-        <v>-38.9</v>
+        <v>0</v>
       </c>
       <c r="K89" t="n">
-        <v>138</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="L89" t="n">
         <v>0</v>
       </c>
       <c r="M89" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="N89" t="n">
         <v>90</v>
@@ -4915,41 +4911,45 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>achterplank</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr"/>
+          <t>ribben</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>boven</t>
+        </is>
+      </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>plank</t>
+          <t>balk</t>
         </is>
       </c>
       <c r="E90" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="F90" t="n">
-        <v>256</v>
+        <v>80</v>
       </c>
       <c r="G90" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="H90" t="n">
-        <v>2.2</v>
+        <v>5</v>
       </c>
       <c r="I90" t="n">
-        <v>-55</v>
+        <v>120.3</v>
       </c>
       <c r="J90" t="n">
-        <v>-38.9</v>
+        <v>0</v>
       </c>
       <c r="K90" t="n">
-        <v>138</v>
+        <v>250.3</v>
       </c>
       <c r="L90" t="n">
         <v>0</v>
       </c>
       <c r="M90" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="N90" t="n">
         <v>90</v>
@@ -4962,41 +4962,45 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>achterplank</t>
-        </is>
-      </c>
-      <c r="C91" t="inlineStr"/>
+          <t>ribben</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>boven</t>
+        </is>
+      </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>plank</t>
+          <t>balk</t>
         </is>
       </c>
       <c r="E91" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F91" t="n">
-        <v>256</v>
+        <v>80</v>
       </c>
       <c r="G91" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="H91" t="n">
-        <v>2.2</v>
+        <v>5</v>
       </c>
       <c r="I91" t="n">
-        <v>-75</v>
+        <v>0</v>
       </c>
       <c r="J91" t="n">
-        <v>-38.9</v>
+        <v>0</v>
       </c>
       <c r="K91" t="n">
-        <v>138</v>
+        <v>250.3</v>
       </c>
       <c r="L91" t="n">
         <v>0</v>
       </c>
       <c r="M91" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="N91" t="n">
         <v>90</v>
@@ -5009,41 +5013,45 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>achterplank</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr"/>
+          <t>ribben</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>boven</t>
+        </is>
+      </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>plank</t>
+          <t>balk</t>
         </is>
       </c>
       <c r="E92" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="F92" t="n">
-        <v>256</v>
+        <v>80</v>
       </c>
       <c r="G92" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="H92" t="n">
-        <v>2.2</v>
+        <v>5</v>
       </c>
       <c r="I92" t="n">
-        <v>-95</v>
+        <v>-120.3</v>
       </c>
       <c r="J92" t="n">
-        <v>-38.9</v>
+        <v>0</v>
       </c>
       <c r="K92" t="n">
-        <v>138</v>
+        <v>250.3</v>
       </c>
       <c r="L92" t="n">
         <v>0</v>
       </c>
       <c r="M92" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="N92" t="n">
         <v>90</v>
@@ -5056,20 +5064,24 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>achterplank</t>
-        </is>
-      </c>
-      <c r="C93" t="inlineStr"/>
+          <t>onderstel</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>onderkant</t>
+        </is>
+      </c>
       <c r="D93" t="inlineStr">
         <is>
           <t>plank</t>
         </is>
       </c>
       <c r="E93" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="F93" t="n">
-        <v>256</v>
+        <v>245.6</v>
       </c>
       <c r="G93" t="n">
         <v>20</v>
@@ -5078,22 +5090,22 @@
         <v>2.2</v>
       </c>
       <c r="I93" t="n">
-        <v>-115</v>
+        <v>0</v>
       </c>
       <c r="J93" t="n">
-        <v>-38.9</v>
+        <v>30</v>
       </c>
       <c r="K93" t="n">
-        <v>138</v>
+        <v>6.1</v>
       </c>
       <c r="L93" t="n">
         <v>0</v>
       </c>
       <c r="M93" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="N93" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="O93" t="inlineStr"/>
     </row>
@@ -5103,44 +5115,48 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>achterplank</t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr"/>
+          <t>onderstel</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>onderkant</t>
+        </is>
+      </c>
       <c r="D94" t="inlineStr">
         <is>
           <t>plank</t>
         </is>
       </c>
       <c r="E94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F94" t="n">
-        <v>256</v>
+        <v>245.6</v>
       </c>
       <c r="G94" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H94" t="n">
         <v>2.2</v>
       </c>
       <c r="I94" t="n">
-        <v>117.5</v>
+        <v>0</v>
       </c>
       <c r="J94" t="n">
-        <v>-38.9</v>
+        <v>10</v>
       </c>
       <c r="K94" t="n">
-        <v>138</v>
+        <v>6.1</v>
       </c>
       <c r="L94" t="n">
         <v>0</v>
       </c>
       <c r="M94" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="N94" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="O94" t="inlineStr"/>
     </row>
@@ -5150,46 +5166,916 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
+          <t>onderstel</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>onderkant</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>plank</t>
+        </is>
+      </c>
+      <c r="E95" t="n">
+        <v>2</v>
+      </c>
+      <c r="F95" t="n">
+        <v>245.6</v>
+      </c>
+      <c r="G95" t="n">
+        <v>20</v>
+      </c>
+      <c r="H95" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="I95" t="n">
+        <v>0</v>
+      </c>
+      <c r="J95" t="n">
+        <v>-10</v>
+      </c>
+      <c r="K95" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="L95" t="n">
+        <v>0</v>
+      </c>
+      <c r="M95" t="n">
+        <v>0</v>
+      </c>
+      <c r="N95" t="n">
+        <v>0</v>
+      </c>
+      <c r="O95" t="inlineStr"/>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>onderstel</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>onderkant</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>plank</t>
+        </is>
+      </c>
+      <c r="E96" t="n">
+        <v>3</v>
+      </c>
+      <c r="F96" t="n">
+        <v>245.6</v>
+      </c>
+      <c r="G96" t="n">
+        <v>20</v>
+      </c>
+      <c r="H96" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-30</v>
+      </c>
+      <c r="K96" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="L96" t="n">
+        <v>0</v>
+      </c>
+      <c r="M96" t="n">
+        <v>0</v>
+      </c>
+      <c r="N96" t="n">
+        <v>0</v>
+      </c>
+      <c r="O96" t="inlineStr"/>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>onderstel</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>bovenkant</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>plank</t>
+        </is>
+      </c>
+      <c r="E97" t="n">
+        <v>4</v>
+      </c>
+      <c r="F97" t="n">
+        <v>245.6</v>
+      </c>
+      <c r="G97" t="n">
+        <v>20</v>
+      </c>
+      <c r="H97" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="I97" t="n">
+        <v>0</v>
+      </c>
+      <c r="J97" t="n">
+        <v>30</v>
+      </c>
+      <c r="K97" t="n">
+        <v>253.9</v>
+      </c>
+      <c r="L97" t="n">
+        <v>0</v>
+      </c>
+      <c r="M97" t="n">
+        <v>0</v>
+      </c>
+      <c r="N97" t="n">
+        <v>0</v>
+      </c>
+      <c r="O97" t="inlineStr"/>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>onderstel</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>bovenkant</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>plank</t>
+        </is>
+      </c>
+      <c r="E98" t="n">
+        <v>5</v>
+      </c>
+      <c r="F98" t="n">
+        <v>245.6</v>
+      </c>
+      <c r="G98" t="n">
+        <v>20</v>
+      </c>
+      <c r="H98" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="I98" t="n">
+        <v>0</v>
+      </c>
+      <c r="J98" t="n">
+        <v>10</v>
+      </c>
+      <c r="K98" t="n">
+        <v>253.9</v>
+      </c>
+      <c r="L98" t="n">
+        <v>0</v>
+      </c>
+      <c r="M98" t="n">
+        <v>0</v>
+      </c>
+      <c r="N98" t="n">
+        <v>0</v>
+      </c>
+      <c r="O98" t="inlineStr"/>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>onderstel</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>bovenkant</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>plank</t>
+        </is>
+      </c>
+      <c r="E99" t="n">
+        <v>6</v>
+      </c>
+      <c r="F99" t="n">
+        <v>245.6</v>
+      </c>
+      <c r="G99" t="n">
+        <v>20</v>
+      </c>
+      <c r="H99" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="I99" t="n">
+        <v>0</v>
+      </c>
+      <c r="J99" t="n">
+        <v>-10</v>
+      </c>
+      <c r="K99" t="n">
+        <v>253.9</v>
+      </c>
+      <c r="L99" t="n">
+        <v>0</v>
+      </c>
+      <c r="M99" t="n">
+        <v>0</v>
+      </c>
+      <c r="N99" t="n">
+        <v>0</v>
+      </c>
+      <c r="O99" t="inlineStr"/>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>onderstel</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>bovenkant</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>plank</t>
+        </is>
+      </c>
+      <c r="E100" t="n">
+        <v>7</v>
+      </c>
+      <c r="F100" t="n">
+        <v>245.6</v>
+      </c>
+      <c r="G100" t="n">
+        <v>20</v>
+      </c>
+      <c r="H100" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="I100" t="n">
+        <v>0</v>
+      </c>
+      <c r="J100" t="n">
+        <v>-30</v>
+      </c>
+      <c r="K100" t="n">
+        <v>253.9</v>
+      </c>
+      <c r="L100" t="n">
+        <v>0</v>
+      </c>
+      <c r="M100" t="n">
+        <v>0</v>
+      </c>
+      <c r="N100" t="n">
+        <v>0</v>
+      </c>
+      <c r="O100" t="inlineStr"/>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
           <t>achterplank</t>
         </is>
       </c>
-      <c r="C95" t="inlineStr"/>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>plank</t>
-        </is>
-      </c>
-      <c r="E95" t="n">
+      <c r="C101" t="inlineStr"/>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>plank</t>
+        </is>
+      </c>
+      <c r="E101" t="n">
+        <v>2</v>
+      </c>
+      <c r="F101" t="n">
+        <v>250</v>
+      </c>
+      <c r="G101" t="n">
+        <v>20</v>
+      </c>
+      <c r="H101" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="I101" t="n">
+        <v>85</v>
+      </c>
+      <c r="J101" t="n">
+        <v>-41.1</v>
+      </c>
+      <c r="K101" t="n">
+        <v>130</v>
+      </c>
+      <c r="L101" t="n">
+        <v>0</v>
+      </c>
+      <c r="M101" t="n">
+        <v>90</v>
+      </c>
+      <c r="N101" t="n">
+        <v>90</v>
+      </c>
+      <c r="O101" t="inlineStr"/>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>achterplank</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr"/>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>plank</t>
+        </is>
+      </c>
+      <c r="E102" t="n">
+        <v>3</v>
+      </c>
+      <c r="F102" t="n">
+        <v>250</v>
+      </c>
+      <c r="G102" t="n">
+        <v>20</v>
+      </c>
+      <c r="H102" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="I102" t="n">
+        <v>65</v>
+      </c>
+      <c r="J102" t="n">
+        <v>-41.1</v>
+      </c>
+      <c r="K102" t="n">
+        <v>130</v>
+      </c>
+      <c r="L102" t="n">
+        <v>0</v>
+      </c>
+      <c r="M102" t="n">
+        <v>90</v>
+      </c>
+      <c r="N102" t="n">
+        <v>90</v>
+      </c>
+      <c r="O102" t="inlineStr"/>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>achterplank</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr"/>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>plank</t>
+        </is>
+      </c>
+      <c r="E103" t="n">
+        <v>4</v>
+      </c>
+      <c r="F103" t="n">
+        <v>250</v>
+      </c>
+      <c r="G103" t="n">
+        <v>20</v>
+      </c>
+      <c r="H103" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="I103" t="n">
+        <v>45</v>
+      </c>
+      <c r="J103" t="n">
+        <v>-41.1</v>
+      </c>
+      <c r="K103" t="n">
+        <v>130</v>
+      </c>
+      <c r="L103" t="n">
+        <v>0</v>
+      </c>
+      <c r="M103" t="n">
+        <v>90</v>
+      </c>
+      <c r="N103" t="n">
+        <v>90</v>
+      </c>
+      <c r="O103" t="inlineStr"/>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>achterplank</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr"/>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>plank</t>
+        </is>
+      </c>
+      <c r="E104" t="n">
+        <v>5</v>
+      </c>
+      <c r="F104" t="n">
+        <v>250</v>
+      </c>
+      <c r="G104" t="n">
+        <v>20</v>
+      </c>
+      <c r="H104" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="I104" t="n">
+        <v>25</v>
+      </c>
+      <c r="J104" t="n">
+        <v>-41.1</v>
+      </c>
+      <c r="K104" t="n">
+        <v>130</v>
+      </c>
+      <c r="L104" t="n">
+        <v>0</v>
+      </c>
+      <c r="M104" t="n">
+        <v>90</v>
+      </c>
+      <c r="N104" t="n">
+        <v>90</v>
+      </c>
+      <c r="O104" t="inlineStr"/>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>achterplank</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr"/>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>plank</t>
+        </is>
+      </c>
+      <c r="E105" t="n">
+        <v>6</v>
+      </c>
+      <c r="F105" t="n">
+        <v>250</v>
+      </c>
+      <c r="G105" t="n">
+        <v>20</v>
+      </c>
+      <c r="H105" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="I105" t="n">
+        <v>5</v>
+      </c>
+      <c r="J105" t="n">
+        <v>-41.1</v>
+      </c>
+      <c r="K105" t="n">
+        <v>130</v>
+      </c>
+      <c r="L105" t="n">
+        <v>0</v>
+      </c>
+      <c r="M105" t="n">
+        <v>90</v>
+      </c>
+      <c r="N105" t="n">
+        <v>90</v>
+      </c>
+      <c r="O105" t="inlineStr"/>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>achterplank</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr"/>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>plank</t>
+        </is>
+      </c>
+      <c r="E106" t="n">
+        <v>7</v>
+      </c>
+      <c r="F106" t="n">
+        <v>250</v>
+      </c>
+      <c r="G106" t="n">
+        <v>20</v>
+      </c>
+      <c r="H106" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="I106" t="n">
+        <v>-15</v>
+      </c>
+      <c r="J106" t="n">
+        <v>-41.1</v>
+      </c>
+      <c r="K106" t="n">
+        <v>130</v>
+      </c>
+      <c r="L106" t="n">
+        <v>0</v>
+      </c>
+      <c r="M106" t="n">
+        <v>90</v>
+      </c>
+      <c r="N106" t="n">
+        <v>90</v>
+      </c>
+      <c r="O106" t="inlineStr"/>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>achterplank</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr"/>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>plank</t>
+        </is>
+      </c>
+      <c r="E107" t="n">
+        <v>8</v>
+      </c>
+      <c r="F107" t="n">
+        <v>250</v>
+      </c>
+      <c r="G107" t="n">
+        <v>20</v>
+      </c>
+      <c r="H107" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="I107" t="n">
+        <v>-35</v>
+      </c>
+      <c r="J107" t="n">
+        <v>-41.1</v>
+      </c>
+      <c r="K107" t="n">
+        <v>130</v>
+      </c>
+      <c r="L107" t="n">
+        <v>0</v>
+      </c>
+      <c r="M107" t="n">
+        <v>90</v>
+      </c>
+      <c r="N107" t="n">
+        <v>90</v>
+      </c>
+      <c r="O107" t="inlineStr"/>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>achterplank</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr"/>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>plank</t>
+        </is>
+      </c>
+      <c r="E108" t="n">
+        <v>9</v>
+      </c>
+      <c r="F108" t="n">
+        <v>250</v>
+      </c>
+      <c r="G108" t="n">
+        <v>20</v>
+      </c>
+      <c r="H108" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="I108" t="n">
+        <v>-55</v>
+      </c>
+      <c r="J108" t="n">
+        <v>-41.1</v>
+      </c>
+      <c r="K108" t="n">
+        <v>130</v>
+      </c>
+      <c r="L108" t="n">
+        <v>0</v>
+      </c>
+      <c r="M108" t="n">
+        <v>90</v>
+      </c>
+      <c r="N108" t="n">
+        <v>90</v>
+      </c>
+      <c r="O108" t="inlineStr"/>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>achterplank</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr"/>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>plank</t>
+        </is>
+      </c>
+      <c r="E109" t="n">
+        <v>10</v>
+      </c>
+      <c r="F109" t="n">
+        <v>250</v>
+      </c>
+      <c r="G109" t="n">
+        <v>20</v>
+      </c>
+      <c r="H109" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="I109" t="n">
+        <v>-75</v>
+      </c>
+      <c r="J109" t="n">
+        <v>-41.1</v>
+      </c>
+      <c r="K109" t="n">
+        <v>130</v>
+      </c>
+      <c r="L109" t="n">
+        <v>0</v>
+      </c>
+      <c r="M109" t="n">
+        <v>90</v>
+      </c>
+      <c r="N109" t="n">
+        <v>90</v>
+      </c>
+      <c r="O109" t="inlineStr"/>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>achterplank</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr"/>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>plank</t>
+        </is>
+      </c>
+      <c r="E110" t="n">
+        <v>11</v>
+      </c>
+      <c r="F110" t="n">
+        <v>250</v>
+      </c>
+      <c r="G110" t="n">
+        <v>20</v>
+      </c>
+      <c r="H110" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="I110" t="n">
+        <v>-95</v>
+      </c>
+      <c r="J110" t="n">
+        <v>-41.1</v>
+      </c>
+      <c r="K110" t="n">
+        <v>130</v>
+      </c>
+      <c r="L110" t="n">
+        <v>0</v>
+      </c>
+      <c r="M110" t="n">
+        <v>90</v>
+      </c>
+      <c r="N110" t="n">
+        <v>90</v>
+      </c>
+      <c r="O110" t="inlineStr"/>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>achterplank</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr"/>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>plank</t>
+        </is>
+      </c>
+      <c r="E111" t="n">
+        <v>12</v>
+      </c>
+      <c r="F111" t="n">
+        <v>250</v>
+      </c>
+      <c r="G111" t="n">
+        <v>20</v>
+      </c>
+      <c r="H111" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="I111" t="n">
+        <v>-115</v>
+      </c>
+      <c r="J111" t="n">
+        <v>-41.1</v>
+      </c>
+      <c r="K111" t="n">
+        <v>130</v>
+      </c>
+      <c r="L111" t="n">
+        <v>0</v>
+      </c>
+      <c r="M111" t="n">
+        <v>90</v>
+      </c>
+      <c r="N111" t="n">
+        <v>90</v>
+      </c>
+      <c r="O111" t="inlineStr"/>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>achterplank</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr"/>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>plank</t>
+        </is>
+      </c>
+      <c r="E112" t="n">
+        <v>0</v>
+      </c>
+      <c r="F112" t="n">
+        <v>250</v>
+      </c>
+      <c r="G112" t="n">
+        <v>15</v>
+      </c>
+      <c r="H112" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="I112" t="n">
+        <v>117.5</v>
+      </c>
+      <c r="J112" t="n">
+        <v>-41.1</v>
+      </c>
+      <c r="K112" t="n">
+        <v>130</v>
+      </c>
+      <c r="L112" t="n">
+        <v>0</v>
+      </c>
+      <c r="M112" t="n">
+        <v>90</v>
+      </c>
+      <c r="N112" t="n">
+        <v>90</v>
+      </c>
+      <c r="O112" t="inlineStr"/>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>achterplank</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr"/>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>plank</t>
+        </is>
+      </c>
+      <c r="E113" t="n">
         <v>1</v>
       </c>
-      <c r="F95" t="n">
-        <v>256</v>
-      </c>
-      <c r="G95" t="n">
+      <c r="F113" t="n">
+        <v>250</v>
+      </c>
+      <c r="G113" t="n">
         <v>15</v>
       </c>
-      <c r="H95" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="I95" t="n">
+      <c r="H113" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="I113" t="n">
         <v>102.5</v>
       </c>
-      <c r="J95" t="n">
-        <v>-38.9</v>
-      </c>
-      <c r="K95" t="n">
-        <v>138</v>
-      </c>
-      <c r="L95" t="n">
-        <v>0</v>
-      </c>
-      <c r="M95" t="n">
-        <v>90</v>
-      </c>
-      <c r="N95" t="n">
-        <v>90</v>
-      </c>
-      <c r="O95" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>-41.1</v>
+      </c>
+      <c r="K113" t="n">
+        <v>130</v>
+      </c>
+      <c r="L113" t="n">
+        <v>0</v>
+      </c>
+      <c r="M113" t="n">
+        <v>90</v>
+      </c>
+      <c r="N113" t="n">
+        <v>90</v>
+      </c>
+      <c r="O113" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/plankenlijst.xlsx
+++ b/plankenlijst.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O113"/>
+  <dimension ref="A1:O112"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -537,7 +537,7 @@
         <v>2.2</v>
       </c>
       <c r="I2" t="n">
-        <v>-123.9</v>
+        <v>-118.9</v>
       </c>
       <c r="J2" t="n">
         <v>30</v>
@@ -588,7 +588,7 @@
         <v>2.2</v>
       </c>
       <c r="I3" t="n">
-        <v>-123.9</v>
+        <v>-118.9</v>
       </c>
       <c r="J3" t="n">
         <v>10</v>
@@ -639,7 +639,7 @@
         <v>2.2</v>
       </c>
       <c r="I4" t="n">
-        <v>-123.9</v>
+        <v>-118.9</v>
       </c>
       <c r="J4" t="n">
         <v>-10</v>
@@ -690,7 +690,7 @@
         <v>2.2</v>
       </c>
       <c r="I5" t="n">
-        <v>-123.9</v>
+        <v>-118.9</v>
       </c>
       <c r="J5" t="n">
         <v>-30</v>
@@ -741,7 +741,7 @@
         <v>2.2</v>
       </c>
       <c r="I6" t="n">
-        <v>123.9</v>
+        <v>118.9</v>
       </c>
       <c r="J6" t="n">
         <v>30</v>
@@ -792,7 +792,7 @@
         <v>2.2</v>
       </c>
       <c r="I7" t="n">
-        <v>123.9</v>
+        <v>118.9</v>
       </c>
       <c r="J7" t="n">
         <v>10</v>
@@ -843,7 +843,7 @@
         <v>2.2</v>
       </c>
       <c r="I8" t="n">
-        <v>123.9</v>
+        <v>118.9</v>
       </c>
       <c r="J8" t="n">
         <v>-10</v>
@@ -894,7 +894,7 @@
         <v>2.2</v>
       </c>
       <c r="I9" t="n">
-        <v>123.9</v>
+        <v>118.9</v>
       </c>
       <c r="J9" t="n">
         <v>-30</v>
@@ -945,7 +945,7 @@
         <v>2.2</v>
       </c>
       <c r="I10" t="n">
-        <v>121.25</v>
+        <v>116.25</v>
       </c>
       <c r="J10" t="n">
         <v>41.1</v>
@@ -962,7 +962,9 @@
       <c r="N10" t="n">
         <v>90</v>
       </c>
-      <c r="O10" t="inlineStr"/>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -1013,7 +1015,9 @@
       <c r="N11" t="n">
         <v>90</v>
       </c>
-      <c r="O11" t="inlineStr"/>
+      <c r="O11" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -1047,7 +1051,7 @@
         <v>2.2</v>
       </c>
       <c r="I12" t="n">
-        <v>-121.25</v>
+        <v>-116.25</v>
       </c>
       <c r="J12" t="n">
         <v>41.1</v>
@@ -1064,7 +1068,9 @@
       <c r="N12" t="n">
         <v>90</v>
       </c>
-      <c r="O12" t="inlineStr"/>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -1089,7 +1095,7 @@
         <v>23</v>
       </c>
       <c r="F13" t="n">
-        <v>101.9</v>
+        <v>97.40000000000001</v>
       </c>
       <c r="G13" t="n">
         <v>20</v>
@@ -1098,7 +1104,7 @@
         <v>2.2</v>
       </c>
       <c r="I13" t="n">
-        <v>60.375</v>
+        <v>57.875</v>
       </c>
       <c r="J13" t="n">
         <v>38.90000000000001</v>
@@ -1115,7 +1121,9 @@
       <c r="N13" t="n">
         <v>0</v>
       </c>
-      <c r="O13" t="inlineStr"/>
+      <c r="O13" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -1140,7 +1148,7 @@
         <v>21</v>
       </c>
       <c r="F14" t="n">
-        <v>101.9</v>
+        <v>97.40000000000001</v>
       </c>
       <c r="G14" t="n">
         <v>20</v>
@@ -1149,7 +1157,7 @@
         <v>2.2</v>
       </c>
       <c r="I14" t="n">
-        <v>60.375</v>
+        <v>57.875</v>
       </c>
       <c r="J14" t="n">
         <v>38.90000000000001</v>
@@ -1166,7 +1174,9 @@
       <c r="N14" t="n">
         <v>0</v>
       </c>
-      <c r="O14" t="inlineStr"/>
+      <c r="O14" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -1191,7 +1201,7 @@
         <v>22</v>
       </c>
       <c r="F15" t="n">
-        <v>101.9</v>
+        <v>97.40000000000001</v>
       </c>
       <c r="G15" t="n">
         <v>20</v>
@@ -1200,7 +1210,7 @@
         <v>2.2</v>
       </c>
       <c r="I15" t="n">
-        <v>60.375</v>
+        <v>57.875</v>
       </c>
       <c r="J15" t="n">
         <v>38.90000000000001</v>
@@ -1217,7 +1227,9 @@
       <c r="N15" t="n">
         <v>0</v>
       </c>
-      <c r="O15" t="inlineStr"/>
+      <c r="O15" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1242,7 +1254,7 @@
         <v>10</v>
       </c>
       <c r="F16" t="n">
-        <v>101.9</v>
+        <v>97.40000000000001</v>
       </c>
       <c r="G16" t="n">
         <v>20</v>
@@ -1251,7 +1263,7 @@
         <v>2.2</v>
       </c>
       <c r="I16" t="n">
-        <v>-60.875</v>
+        <v>-58.375</v>
       </c>
       <c r="J16" t="n">
         <v>38.90000000000001</v>
@@ -1268,7 +1280,9 @@
       <c r="N16" t="n">
         <v>0</v>
       </c>
-      <c r="O16" t="inlineStr"/>
+      <c r="O16" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1293,7 +1307,7 @@
         <v>8</v>
       </c>
       <c r="F17" t="n">
-        <v>101.9</v>
+        <v>97.40000000000001</v>
       </c>
       <c r="G17" t="n">
         <v>20</v>
@@ -1302,7 +1316,7 @@
         <v>2.2</v>
       </c>
       <c r="I17" t="n">
-        <v>-60.875</v>
+        <v>-58.375</v>
       </c>
       <c r="J17" t="n">
         <v>38.90000000000001</v>
@@ -1319,7 +1333,9 @@
       <c r="N17" t="n">
         <v>0</v>
       </c>
-      <c r="O17" t="inlineStr"/>
+      <c r="O17" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1344,7 +1360,7 @@
         <v>9</v>
       </c>
       <c r="F18" t="n">
-        <v>101.9</v>
+        <v>97.40000000000001</v>
       </c>
       <c r="G18" t="n">
         <v>20</v>
@@ -1353,7 +1369,7 @@
         <v>2.2</v>
       </c>
       <c r="I18" t="n">
-        <v>-60.875</v>
+        <v>-58.375</v>
       </c>
       <c r="J18" t="n">
         <v>38.90000000000001</v>
@@ -1370,7 +1386,9 @@
       <c r="N18" t="n">
         <v>0</v>
       </c>
-      <c r="O18" t="inlineStr"/>
+      <c r="O18" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1421,7 +1439,9 @@
       <c r="N19" t="n">
         <v>0</v>
       </c>
-      <c r="O19" t="inlineStr"/>
+      <c r="O19" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1455,7 +1475,7 @@
         <v>1</v>
       </c>
       <c r="I20" t="n">
-        <v>-117.5</v>
+        <v>-112.5</v>
       </c>
       <c r="J20" t="n">
         <v>42.7</v>
@@ -1472,7 +1492,9 @@
       <c r="N20" t="n">
         <v>0</v>
       </c>
-      <c r="O20" t="inlineStr"/>
+      <c r="O20" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1523,7 +1545,9 @@
       <c r="N21" t="n">
         <v>0</v>
       </c>
-      <c r="O21" t="inlineStr"/>
+      <c r="O21" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1574,7 +1598,9 @@
       <c r="N22" t="n">
         <v>0</v>
       </c>
-      <c r="O22" t="inlineStr"/>
+      <c r="O22" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1625,7 +1651,9 @@
       <c r="N23" t="n">
         <v>0</v>
       </c>
-      <c r="O23" t="inlineStr"/>
+      <c r="O23" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1659,7 +1687,7 @@
         <v>1</v>
       </c>
       <c r="I24" t="n">
-        <v>-117.5</v>
+        <v>-112.5</v>
       </c>
       <c r="J24" t="n">
         <v>42.7</v>
@@ -1676,7 +1704,9 @@
       <c r="N24" t="n">
         <v>0</v>
       </c>
-      <c r="O24" t="inlineStr"/>
+      <c r="O24" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1710,7 +1740,7 @@
         <v>1</v>
       </c>
       <c r="I25" t="n">
-        <v>-117.5</v>
+        <v>-112.5</v>
       </c>
       <c r="J25" t="n">
         <v>42.7</v>
@@ -1727,7 +1757,9 @@
       <c r="N25" t="n">
         <v>0</v>
       </c>
-      <c r="O25" t="inlineStr"/>
+      <c r="O25" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1761,7 +1793,7 @@
         <v>1</v>
       </c>
       <c r="I26" t="n">
-        <v>-117.5</v>
+        <v>-112.5</v>
       </c>
       <c r="J26" t="n">
         <v>42.7</v>
@@ -1778,7 +1810,9 @@
       <c r="N26" t="n">
         <v>0</v>
       </c>
-      <c r="O26" t="inlineStr"/>
+      <c r="O26" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1812,7 +1846,7 @@
         <v>2.2</v>
       </c>
       <c r="I27" t="n">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="J27" t="n">
         <v>41.1</v>
@@ -1829,7 +1863,9 @@
       <c r="N27" t="n">
         <v>0</v>
       </c>
-      <c r="O27" t="inlineStr"/>
+      <c r="O27" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1863,7 +1899,7 @@
         <v>2.2</v>
       </c>
       <c r="I28" t="n">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="J28" t="n">
         <v>41.1</v>
@@ -1880,7 +1916,9 @@
       <c r="N28" t="n">
         <v>0</v>
       </c>
-      <c r="O28" t="inlineStr"/>
+      <c r="O28" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1914,7 +1952,7 @@
         <v>2.2</v>
       </c>
       <c r="I29" t="n">
-        <v>67</v>
+        <v>61.99999999999999</v>
       </c>
       <c r="J29" t="n">
         <v>41.1</v>
@@ -1931,7 +1969,9 @@
       <c r="N29" t="n">
         <v>0</v>
       </c>
-      <c r="O29" t="inlineStr"/>
+      <c r="O29" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1965,7 +2005,7 @@
         <v>2.2</v>
       </c>
       <c r="I30" t="n">
-        <v>46.99999999999999</v>
+        <v>41.99999999999999</v>
       </c>
       <c r="J30" t="n">
         <v>41.1</v>
@@ -1982,7 +2022,9 @@
       <c r="N30" t="n">
         <v>0</v>
       </c>
-      <c r="O30" t="inlineStr"/>
+      <c r="O30" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -2033,7 +2075,9 @@
       <c r="N31" t="n">
         <v>0</v>
       </c>
-      <c r="O31" t="inlineStr"/>
+      <c r="O31" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -2084,7 +2128,9 @@
       <c r="N32" t="n">
         <v>0</v>
       </c>
-      <c r="O32" t="inlineStr"/>
+      <c r="O32" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -2135,7 +2181,9 @@
       <c r="N33" t="n">
         <v>0</v>
       </c>
-      <c r="O33" t="inlineStr"/>
+      <c r="O33" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -2186,7 +2234,9 @@
       <c r="N34" t="n">
         <v>0</v>
       </c>
-      <c r="O34" t="inlineStr"/>
+      <c r="O34" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -2214,13 +2264,13 @@
         <v>250</v>
       </c>
       <c r="G35" t="n">
-        <v>16.6</v>
+        <v>14.1</v>
       </c>
       <c r="H35" t="n">
         <v>2.2</v>
       </c>
       <c r="I35" t="n">
-        <v>28.68749999999999</v>
+        <v>24.93749999999999</v>
       </c>
       <c r="J35" t="n">
         <v>41.1</v>
@@ -2237,7 +2287,9 @@
       <c r="N35" t="n">
         <v>0</v>
       </c>
-      <c r="O35" t="inlineStr"/>
+      <c r="O35" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -2265,13 +2317,13 @@
         <v>250</v>
       </c>
       <c r="G36" t="n">
-        <v>16.6</v>
+        <v>14.1</v>
       </c>
       <c r="H36" t="n">
         <v>2.2</v>
       </c>
       <c r="I36" t="n">
-        <v>12.0625</v>
+        <v>10.8125</v>
       </c>
       <c r="J36" t="n">
         <v>41.1</v>
@@ -2288,7 +2340,9 @@
       <c r="N36" t="n">
         <v>0</v>
       </c>
-      <c r="O36" t="inlineStr"/>
+      <c r="O36" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -2316,13 +2370,13 @@
         <v>250</v>
       </c>
       <c r="G37" t="n">
-        <v>16.6</v>
+        <v>14.1</v>
       </c>
       <c r="H37" t="n">
         <v>2.2</v>
       </c>
       <c r="I37" t="n">
-        <v>-92.5625</v>
+        <v>-91.3125</v>
       </c>
       <c r="J37" t="n">
         <v>41.1</v>
@@ -2339,7 +2393,9 @@
       <c r="N37" t="n">
         <v>0</v>
       </c>
-      <c r="O37" t="inlineStr"/>
+      <c r="O37" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -2367,13 +2423,13 @@
         <v>250</v>
       </c>
       <c r="G38" t="n">
-        <v>16.6</v>
+        <v>14.1</v>
       </c>
       <c r="H38" t="n">
         <v>2.2</v>
       </c>
       <c r="I38" t="n">
-        <v>-109.1875</v>
+        <v>-105.4375</v>
       </c>
       <c r="J38" t="n">
         <v>41.1</v>
@@ -2390,7 +2446,9 @@
       <c r="N38" t="n">
         <v>0</v>
       </c>
-      <c r="O38" t="inlineStr"/>
+      <c r="O38" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -2420,7 +2478,7 @@
         <v>5</v>
       </c>
       <c r="I39" t="n">
-        <v>120.3</v>
+        <v>115.3</v>
       </c>
       <c r="J39" t="n">
         <v>37.5</v>
@@ -2467,7 +2525,7 @@
         <v>5</v>
       </c>
       <c r="I40" t="n">
-        <v>120.3</v>
+        <v>115.3</v>
       </c>
       <c r="J40" t="n">
         <v>-37.5</v>
@@ -2608,7 +2666,7 @@
         <v>5</v>
       </c>
       <c r="I43" t="n">
-        <v>-120.3</v>
+        <v>-115.3</v>
       </c>
       <c r="J43" t="n">
         <v>37.5</v>
@@ -2655,7 +2713,7 @@
         <v>5</v>
       </c>
       <c r="I44" t="n">
-        <v>-120.3</v>
+        <v>-115.3</v>
       </c>
       <c r="J44" t="n">
         <v>-37.5</v>
@@ -2693,7 +2751,7 @@
         <v>14</v>
       </c>
       <c r="F45" t="n">
-        <v>244.6</v>
+        <v>234.6</v>
       </c>
       <c r="G45" t="n">
         <v>20</v>
@@ -2705,10 +2763,10 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>-5</v>
+        <v>-7</v>
       </c>
       <c r="K45" t="n">
-        <v>206</v>
+        <v>206.3</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -2740,7 +2798,7 @@
         <v>10</v>
       </c>
       <c r="F46" t="n">
-        <v>244.6</v>
+        <v>234.6</v>
       </c>
       <c r="G46" t="n">
         <v>20</v>
@@ -2752,7 +2810,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>-5</v>
+        <v>-7</v>
       </c>
       <c r="K46" t="n">
         <v>156.1</v>
@@ -2787,7 +2845,7 @@
         <v>6</v>
       </c>
       <c r="F47" t="n">
-        <v>244.6</v>
+        <v>234.6</v>
       </c>
       <c r="G47" t="n">
         <v>20</v>
@@ -2799,7 +2857,7 @@
         <v>0</v>
       </c>
       <c r="J47" t="n">
-        <v>-5</v>
+        <v>-7</v>
       </c>
       <c r="K47" t="n">
         <v>106.1</v>
@@ -2834,7 +2892,7 @@
         <v>2</v>
       </c>
       <c r="F48" t="n">
-        <v>244.6</v>
+        <v>234.6</v>
       </c>
       <c r="G48" t="n">
         <v>20</v>
@@ -2846,7 +2904,7 @@
         <v>0</v>
       </c>
       <c r="J48" t="n">
-        <v>-5</v>
+        <v>-7</v>
       </c>
       <c r="K48" t="n">
         <v>56.1</v>
@@ -2881,7 +2939,7 @@
         <v>15</v>
       </c>
       <c r="F49" t="n">
-        <v>244.6</v>
+        <v>234.6</v>
       </c>
       <c r="G49" t="n">
         <v>20</v>
@@ -2893,10 +2951,10 @@
         <v>0</v>
       </c>
       <c r="J49" t="n">
-        <v>-25</v>
+        <v>-27</v>
       </c>
       <c r="K49" t="n">
-        <v>206</v>
+        <v>206.3</v>
       </c>
       <c r="L49" t="n">
         <v>0</v>
@@ -2928,7 +2986,7 @@
         <v>11</v>
       </c>
       <c r="F50" t="n">
-        <v>244.6</v>
+        <v>234.6</v>
       </c>
       <c r="G50" t="n">
         <v>20</v>
@@ -2940,7 +2998,7 @@
         <v>0</v>
       </c>
       <c r="J50" t="n">
-        <v>-25</v>
+        <v>-27</v>
       </c>
       <c r="K50" t="n">
         <v>156.1</v>
@@ -2975,7 +3033,7 @@
         <v>7</v>
       </c>
       <c r="F51" t="n">
-        <v>244.6</v>
+        <v>234.6</v>
       </c>
       <c r="G51" t="n">
         <v>20</v>
@@ -2987,7 +3045,7 @@
         <v>0</v>
       </c>
       <c r="J51" t="n">
-        <v>-25</v>
+        <v>-27</v>
       </c>
       <c r="K51" t="n">
         <v>106.1</v>
@@ -3022,7 +3080,7 @@
         <v>3</v>
       </c>
       <c r="F52" t="n">
-        <v>244.6</v>
+        <v>234.6</v>
       </c>
       <c r="G52" t="n">
         <v>20</v>
@@ -3034,7 +3092,7 @@
         <v>0</v>
       </c>
       <c r="J52" t="n">
-        <v>-25</v>
+        <v>-27</v>
       </c>
       <c r="K52" t="n">
         <v>56.1</v>
@@ -3069,10 +3127,10 @@
         <v>12</v>
       </c>
       <c r="F53" t="n">
-        <v>244.6</v>
+        <v>234.6</v>
       </c>
       <c r="G53" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H53" t="n">
         <v>2.2</v>
@@ -3081,10 +3139,10 @@
         <v>0</v>
       </c>
       <c r="J53" t="n">
-        <v>27.5</v>
+        <v>28.5</v>
       </c>
       <c r="K53" t="n">
-        <v>206</v>
+        <v>206.3</v>
       </c>
       <c r="L53" t="n">
         <v>0</v>
@@ -3116,10 +3174,10 @@
         <v>8</v>
       </c>
       <c r="F54" t="n">
-        <v>244.6</v>
+        <v>234.6</v>
       </c>
       <c r="G54" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H54" t="n">
         <v>2.2</v>
@@ -3128,7 +3186,7 @@
         <v>0</v>
       </c>
       <c r="J54" t="n">
-        <v>27.5</v>
+        <v>28.5</v>
       </c>
       <c r="K54" t="n">
         <v>156.1</v>
@@ -3163,10 +3221,10 @@
         <v>4</v>
       </c>
       <c r="F55" t="n">
-        <v>244.6</v>
+        <v>234.6</v>
       </c>
       <c r="G55" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H55" t="n">
         <v>2.2</v>
@@ -3175,7 +3233,7 @@
         <v>0</v>
       </c>
       <c r="J55" t="n">
-        <v>27.5</v>
+        <v>28.5</v>
       </c>
       <c r="K55" t="n">
         <v>106.1</v>
@@ -3210,10 +3268,10 @@
         <v>0</v>
       </c>
       <c r="F56" t="n">
-        <v>244.6</v>
+        <v>234.6</v>
       </c>
       <c r="G56" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H56" t="n">
         <v>2.2</v>
@@ -3222,7 +3280,7 @@
         <v>0</v>
       </c>
       <c r="J56" t="n">
-        <v>27.5</v>
+        <v>28.5</v>
       </c>
       <c r="K56" t="n">
         <v>56.1</v>
@@ -3257,10 +3315,10 @@
         <v>13</v>
       </c>
       <c r="F57" t="n">
-        <v>244.6</v>
+        <v>234.6</v>
       </c>
       <c r="G57" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H57" t="n">
         <v>2.2</v>
@@ -3269,10 +3327,10 @@
         <v>0</v>
       </c>
       <c r="J57" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="K57" t="n">
-        <v>206</v>
+        <v>206.3</v>
       </c>
       <c r="L57" t="n">
         <v>0</v>
@@ -3304,10 +3362,10 @@
         <v>9</v>
       </c>
       <c r="F58" t="n">
-        <v>244.6</v>
+        <v>234.6</v>
       </c>
       <c r="G58" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H58" t="n">
         <v>2.2</v>
@@ -3316,7 +3374,7 @@
         <v>0</v>
       </c>
       <c r="J58" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="K58" t="n">
         <v>156.1</v>
@@ -3351,10 +3409,10 @@
         <v>5</v>
       </c>
       <c r="F59" t="n">
-        <v>244.6</v>
+        <v>234.6</v>
       </c>
       <c r="G59" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H59" t="n">
         <v>2.2</v>
@@ -3363,7 +3421,7 @@
         <v>0</v>
       </c>
       <c r="J59" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="K59" t="n">
         <v>106.1</v>
@@ -3398,10 +3456,10 @@
         <v>1</v>
       </c>
       <c r="F60" t="n">
-        <v>244.6</v>
+        <v>234.6</v>
       </c>
       <c r="G60" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H60" t="n">
         <v>2.2</v>
@@ -3410,7 +3468,7 @@
         <v>0</v>
       </c>
       <c r="J60" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="K60" t="n">
         <v>56.1</v>
@@ -3449,19 +3507,19 @@
         <v>1</v>
       </c>
       <c r="F61" t="n">
-        <v>235.6</v>
+        <v>239.6</v>
       </c>
       <c r="G61" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H61" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I61" t="n">
-        <v>120.3</v>
+        <v>116.3</v>
       </c>
       <c r="J61" t="n">
-        <v>37.5</v>
+        <v>38.5</v>
       </c>
       <c r="K61" t="n">
         <v>130</v>
@@ -3475,7 +3533,9 @@
       <c r="N61" t="n">
         <v>0</v>
       </c>
-      <c r="O61" t="inlineStr"/>
+      <c r="O61" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -3500,19 +3560,19 @@
         <v>2</v>
       </c>
       <c r="F62" t="n">
-        <v>235.6</v>
+        <v>239.6</v>
       </c>
       <c r="G62" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H62" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I62" t="n">
-        <v>120.3</v>
+        <v>116.3</v>
       </c>
       <c r="J62" t="n">
-        <v>-37.5</v>
+        <v>-38.5</v>
       </c>
       <c r="K62" t="n">
         <v>130</v>
@@ -3526,7 +3586,9 @@
       <c r="N62" t="n">
         <v>0</v>
       </c>
-      <c r="O62" t="inlineStr"/>
+      <c r="O62" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -3551,19 +3613,19 @@
         <v>9</v>
       </c>
       <c r="F63" t="n">
-        <v>235.6</v>
+        <v>239.6</v>
       </c>
       <c r="G63" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H63" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
       <c r="J63" t="n">
-        <v>37.5</v>
+        <v>38.5</v>
       </c>
       <c r="K63" t="n">
         <v>130</v>
@@ -3577,7 +3639,9 @@
       <c r="N63" t="n">
         <v>0</v>
       </c>
-      <c r="O63" t="inlineStr"/>
+      <c r="O63" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -3602,19 +3666,19 @@
         <v>10</v>
       </c>
       <c r="F64" t="n">
-        <v>235.6</v>
+        <v>239.6</v>
       </c>
       <c r="G64" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H64" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
       <c r="J64" t="n">
-        <v>-37.5</v>
+        <v>-38.5</v>
       </c>
       <c r="K64" t="n">
         <v>130</v>
@@ -3628,7 +3692,9 @@
       <c r="N64" t="n">
         <v>0</v>
       </c>
-      <c r="O64" t="inlineStr"/>
+      <c r="O64" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -3653,19 +3719,19 @@
         <v>17</v>
       </c>
       <c r="F65" t="n">
-        <v>235.6</v>
+        <v>239.6</v>
       </c>
       <c r="G65" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H65" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I65" t="n">
-        <v>-120.3</v>
+        <v>-116.3</v>
       </c>
       <c r="J65" t="n">
-        <v>37.5</v>
+        <v>38.5</v>
       </c>
       <c r="K65" t="n">
         <v>130</v>
@@ -3679,7 +3745,9 @@
       <c r="N65" t="n">
         <v>0</v>
       </c>
-      <c r="O65" t="inlineStr"/>
+      <c r="O65" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -3704,19 +3772,19 @@
         <v>18</v>
       </c>
       <c r="F66" t="n">
-        <v>235.6</v>
+        <v>239.6</v>
       </c>
       <c r="G66" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H66" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I66" t="n">
-        <v>-120.3</v>
+        <v>-116.3</v>
       </c>
       <c r="J66" t="n">
-        <v>-37.5</v>
+        <v>-38.5</v>
       </c>
       <c r="K66" t="n">
         <v>130</v>
@@ -3730,7 +3798,9 @@
       <c r="N66" t="n">
         <v>0</v>
       </c>
-      <c r="O66" t="inlineStr"/>
+      <c r="O66" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -3752,25 +3822,25 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="F67" t="n">
-        <v>115.3</v>
+        <v>74</v>
       </c>
       <c r="G67" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H67" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I67" t="n">
-        <v>60.15</v>
+        <v>116.3</v>
       </c>
       <c r="J67" t="n">
-        <v>-37.5</v>
+        <v>0</v>
       </c>
       <c r="K67" t="n">
-        <v>204.6</v>
+        <v>203.7</v>
       </c>
       <c r="L67" t="n">
         <v>0</v>
@@ -3779,9 +3849,11 @@
         <v>0</v>
       </c>
       <c r="N67" t="n">
-        <v>0</v>
-      </c>
-      <c r="O67" t="inlineStr"/>
+        <v>90</v>
+      </c>
+      <c r="O67" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -3803,25 +3875,25 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="F68" t="n">
-        <v>115.3</v>
+        <v>74</v>
       </c>
       <c r="G68" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H68" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I68" t="n">
-        <v>60.15</v>
+        <v>116.3</v>
       </c>
       <c r="J68" t="n">
-        <v>-37.5</v>
+        <v>0</v>
       </c>
       <c r="K68" t="n">
-        <v>154.7</v>
+        <v>153.5</v>
       </c>
       <c r="L68" t="n">
         <v>0</v>
@@ -3830,9 +3902,11 @@
         <v>0</v>
       </c>
       <c r="N68" t="n">
-        <v>0</v>
-      </c>
-      <c r="O68" t="inlineStr"/>
+        <v>90</v>
+      </c>
+      <c r="O68" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3854,25 +3928,25 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="F69" t="n">
-        <v>115.3</v>
+        <v>74</v>
       </c>
       <c r="G69" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H69" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I69" t="n">
-        <v>60.15</v>
+        <v>116.3</v>
       </c>
       <c r="J69" t="n">
-        <v>-37.5</v>
+        <v>0</v>
       </c>
       <c r="K69" t="n">
-        <v>104.7</v>
+        <v>103.5</v>
       </c>
       <c r="L69" t="n">
         <v>0</v>
@@ -3881,9 +3955,11 @@
         <v>0</v>
       </c>
       <c r="N69" t="n">
-        <v>0</v>
-      </c>
-      <c r="O69" t="inlineStr"/>
+        <v>90</v>
+      </c>
+      <c r="O69" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3905,25 +3981,25 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="F70" t="n">
-        <v>115.3</v>
+        <v>74</v>
       </c>
       <c r="G70" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H70" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I70" t="n">
-        <v>60.15</v>
+        <v>116.3</v>
       </c>
       <c r="J70" t="n">
-        <v>-37.5</v>
+        <v>0</v>
       </c>
       <c r="K70" t="n">
-        <v>54.7</v>
+        <v>53.5</v>
       </c>
       <c r="L70" t="n">
         <v>0</v>
@@ -3932,9 +4008,11 @@
         <v>0</v>
       </c>
       <c r="N70" t="n">
-        <v>0</v>
-      </c>
-      <c r="O70" t="inlineStr"/>
+        <v>90</v>
+      </c>
+      <c r="O70" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3956,25 +4034,25 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="F71" t="n">
-        <v>115.3</v>
+        <v>74</v>
       </c>
       <c r="G71" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H71" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I71" t="n">
-        <v>-60.15</v>
+        <v>0</v>
       </c>
       <c r="J71" t="n">
-        <v>-37.5</v>
+        <v>0</v>
       </c>
       <c r="K71" t="n">
-        <v>204.6</v>
+        <v>203.7</v>
       </c>
       <c r="L71" t="n">
         <v>0</v>
@@ -3983,9 +4061,11 @@
         <v>0</v>
       </c>
       <c r="N71" t="n">
-        <v>0</v>
-      </c>
-      <c r="O71" t="inlineStr"/>
+        <v>90</v>
+      </c>
+      <c r="O71" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -4007,25 +4087,25 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="F72" t="n">
-        <v>115.3</v>
+        <v>74</v>
       </c>
       <c r="G72" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H72" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I72" t="n">
-        <v>-60.15</v>
+        <v>0</v>
       </c>
       <c r="J72" t="n">
-        <v>-37.5</v>
+        <v>0</v>
       </c>
       <c r="K72" t="n">
-        <v>154.7</v>
+        <v>153.5</v>
       </c>
       <c r="L72" t="n">
         <v>0</v>
@@ -4034,9 +4114,11 @@
         <v>0</v>
       </c>
       <c r="N72" t="n">
-        <v>0</v>
-      </c>
-      <c r="O72" t="inlineStr"/>
+        <v>90</v>
+      </c>
+      <c r="O72" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -4058,25 +4140,25 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="F73" t="n">
-        <v>115.3</v>
+        <v>74</v>
       </c>
       <c r="G73" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H73" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I73" t="n">
-        <v>-60.15</v>
+        <v>0</v>
       </c>
       <c r="J73" t="n">
-        <v>-37.5</v>
+        <v>0</v>
       </c>
       <c r="K73" t="n">
-        <v>104.7</v>
+        <v>103.5</v>
       </c>
       <c r="L73" t="n">
         <v>0</v>
@@ -4085,9 +4167,11 @@
         <v>0</v>
       </c>
       <c r="N73" t="n">
-        <v>0</v>
-      </c>
-      <c r="O73" t="inlineStr"/>
+        <v>90</v>
+      </c>
+      <c r="O73" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -4109,25 +4193,25 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="F74" t="n">
-        <v>115.3</v>
+        <v>74</v>
       </c>
       <c r="G74" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H74" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I74" t="n">
-        <v>-60.15</v>
+        <v>0</v>
       </c>
       <c r="J74" t="n">
-        <v>-37.5</v>
+        <v>0</v>
       </c>
       <c r="K74" t="n">
-        <v>54.7</v>
+        <v>53.5</v>
       </c>
       <c r="L74" t="n">
         <v>0</v>
@@ -4136,9 +4220,11 @@
         <v>0</v>
       </c>
       <c r="N74" t="n">
-        <v>0</v>
-      </c>
-      <c r="O74" t="inlineStr"/>
+        <v>90</v>
+      </c>
+      <c r="O74" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -4160,25 +4246,25 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="F75" t="n">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="G75" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H75" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I75" t="n">
-        <v>120.3</v>
+        <v>-116.3</v>
       </c>
       <c r="J75" t="n">
         <v>0</v>
       </c>
       <c r="K75" t="n">
-        <v>202.4</v>
+        <v>203.7</v>
       </c>
       <c r="L75" t="n">
         <v>0</v>
@@ -4189,7 +4275,9 @@
       <c r="N75" t="n">
         <v>90</v>
       </c>
-      <c r="O75" t="inlineStr"/>
+      <c r="O75" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -4211,25 +4299,25 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="F76" t="n">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="G76" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H76" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I76" t="n">
-        <v>120.3</v>
+        <v>-116.3</v>
       </c>
       <c r="J76" t="n">
         <v>0</v>
       </c>
       <c r="K76" t="n">
-        <v>152.5</v>
+        <v>153.5</v>
       </c>
       <c r="L76" t="n">
         <v>0</v>
@@ -4240,7 +4328,9 @@
       <c r="N76" t="n">
         <v>90</v>
       </c>
-      <c r="O76" t="inlineStr"/>
+      <c r="O76" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -4262,25 +4352,25 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="F77" t="n">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="G77" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H77" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I77" t="n">
-        <v>120.3</v>
+        <v>-116.3</v>
       </c>
       <c r="J77" t="n">
         <v>0</v>
       </c>
       <c r="K77" t="n">
-        <v>102.5</v>
+        <v>103.5</v>
       </c>
       <c r="L77" t="n">
         <v>0</v>
@@ -4291,7 +4381,9 @@
       <c r="N77" t="n">
         <v>90</v>
       </c>
-      <c r="O77" t="inlineStr"/>
+      <c r="O77" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -4313,25 +4405,25 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="F78" t="n">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="G78" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H78" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I78" t="n">
-        <v>120.3</v>
+        <v>-116.3</v>
       </c>
       <c r="J78" t="n">
         <v>0</v>
       </c>
       <c r="K78" t="n">
-        <v>52.5</v>
+        <v>53.5</v>
       </c>
       <c r="L78" t="n">
         <v>0</v>
@@ -4342,7 +4434,9 @@
       <c r="N78" t="n">
         <v>90</v>
       </c>
-      <c r="O78" t="inlineStr"/>
+      <c r="O78" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -4355,7 +4449,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>tussen</t>
+          <t>onder</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -4364,25 +4458,25 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="F79" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="G79" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H79" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I79" t="n">
-        <v>0</v>
+        <v>116.3</v>
       </c>
       <c r="J79" t="n">
         <v>0</v>
       </c>
       <c r="K79" t="n">
-        <v>202.4</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="L79" t="n">
         <v>0</v>
@@ -4393,7 +4487,9 @@
       <c r="N79" t="n">
         <v>90</v>
       </c>
-      <c r="O79" t="inlineStr"/>
+      <c r="O79" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -4406,7 +4502,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>tussen</t>
+          <t>onder</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -4415,16 +4511,16 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="F80" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="G80" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H80" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
@@ -4433,7 +4529,7 @@
         <v>0</v>
       </c>
       <c r="K80" t="n">
-        <v>152.5</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="L80" t="n">
         <v>0</v>
@@ -4444,7 +4540,9 @@
       <c r="N80" t="n">
         <v>90</v>
       </c>
-      <c r="O80" t="inlineStr"/>
+      <c r="O80" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -4457,7 +4555,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>tussen</t>
+          <t>onder</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -4466,25 +4564,25 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F81" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="G81" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H81" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I81" t="n">
-        <v>0</v>
+        <v>-116.3</v>
       </c>
       <c r="J81" t="n">
         <v>0</v>
       </c>
       <c r="K81" t="n">
-        <v>102.5</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="L81" t="n">
         <v>0</v>
@@ -4495,7 +4593,9 @@
       <c r="N81" t="n">
         <v>90</v>
       </c>
-      <c r="O81" t="inlineStr"/>
+      <c r="O81" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -4508,7 +4608,7 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>tussen</t>
+          <t>boven</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -4517,25 +4617,25 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="F82" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="G82" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H82" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I82" t="n">
-        <v>0</v>
+        <v>116.3</v>
       </c>
       <c r="J82" t="n">
         <v>0</v>
       </c>
       <c r="K82" t="n">
-        <v>52.5</v>
+        <v>251.3</v>
       </c>
       <c r="L82" t="n">
         <v>0</v>
@@ -4546,7 +4646,9 @@
       <c r="N82" t="n">
         <v>90</v>
       </c>
-      <c r="O82" t="inlineStr"/>
+      <c r="O82" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -4559,7 +4661,7 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>tussen</t>
+          <t>boven</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -4568,25 +4670,25 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="F83" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="G83" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H83" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I83" t="n">
-        <v>-120.3</v>
+        <v>0</v>
       </c>
       <c r="J83" t="n">
         <v>0</v>
       </c>
       <c r="K83" t="n">
-        <v>202.4</v>
+        <v>251.3</v>
       </c>
       <c r="L83" t="n">
         <v>0</v>
@@ -4597,7 +4699,9 @@
       <c r="N83" t="n">
         <v>90</v>
       </c>
-      <c r="O83" t="inlineStr"/>
+      <c r="O83" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -4610,7 +4714,7 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>tussen</t>
+          <t>boven</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -4619,25 +4723,25 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F84" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="G84" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H84" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I84" t="n">
-        <v>-120.3</v>
+        <v>-116.3</v>
       </c>
       <c r="J84" t="n">
         <v>0</v>
       </c>
       <c r="K84" t="n">
-        <v>152.5</v>
+        <v>251.3</v>
       </c>
       <c r="L84" t="n">
         <v>0</v>
@@ -4648,7 +4752,9 @@
       <c r="N84" t="n">
         <v>90</v>
       </c>
-      <c r="O84" t="inlineStr"/>
+      <c r="O84" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -4661,7 +4767,7 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>tussen</t>
+          <t>achter</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -4670,25 +4776,25 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="F85" t="n">
-        <v>70</v>
+        <v>113.3</v>
       </c>
       <c r="G85" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H85" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I85" t="n">
-        <v>-120.3</v>
+        <v>58.15</v>
       </c>
       <c r="J85" t="n">
-        <v>0</v>
+        <v>-38.5</v>
       </c>
       <c r="K85" t="n">
-        <v>102.5</v>
+        <v>205.9</v>
       </c>
       <c r="L85" t="n">
         <v>0</v>
@@ -4697,9 +4803,11 @@
         <v>0</v>
       </c>
       <c r="N85" t="n">
-        <v>90</v>
-      </c>
-      <c r="O85" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="O85" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -4712,7 +4820,7 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>tussen</t>
+          <t>achter</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -4721,25 +4829,25 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="F86" t="n">
-        <v>70</v>
+        <v>113.3</v>
       </c>
       <c r="G86" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H86" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I86" t="n">
-        <v>-120.3</v>
+        <v>58.15</v>
       </c>
       <c r="J86" t="n">
-        <v>0</v>
+        <v>-38.5</v>
       </c>
       <c r="K86" t="n">
-        <v>52.5</v>
+        <v>155.7</v>
       </c>
       <c r="L86" t="n">
         <v>0</v>
@@ -4748,9 +4856,11 @@
         <v>0</v>
       </c>
       <c r="N86" t="n">
-        <v>90</v>
-      </c>
-      <c r="O86" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="O86" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -4763,7 +4873,7 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>onder</t>
+          <t>achter</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -4772,25 +4882,25 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="F87" t="n">
-        <v>80</v>
+        <v>113.3</v>
       </c>
       <c r="G87" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H87" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I87" t="n">
-        <v>120.3</v>
+        <v>58.15</v>
       </c>
       <c r="J87" t="n">
-        <v>0</v>
+        <v>-38.5</v>
       </c>
       <c r="K87" t="n">
-        <v>9.699999999999999</v>
+        <v>105.7</v>
       </c>
       <c r="L87" t="n">
         <v>0</v>
@@ -4799,9 +4909,11 @@
         <v>0</v>
       </c>
       <c r="N87" t="n">
-        <v>90</v>
-      </c>
-      <c r="O87" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="O87" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -4814,7 +4926,7 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>onder</t>
+          <t>achter</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -4823,25 +4935,25 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="F88" t="n">
-        <v>80</v>
+        <v>113.3</v>
       </c>
       <c r="G88" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H88" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I88" t="n">
-        <v>0</v>
+        <v>58.15</v>
       </c>
       <c r="J88" t="n">
-        <v>0</v>
+        <v>-38.5</v>
       </c>
       <c r="K88" t="n">
-        <v>9.699999999999999</v>
+        <v>55.7</v>
       </c>
       <c r="L88" t="n">
         <v>0</v>
@@ -4850,9 +4962,11 @@
         <v>0</v>
       </c>
       <c r="N88" t="n">
-        <v>90</v>
-      </c>
-      <c r="O88" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="O88" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -4865,7 +4979,7 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>onder</t>
+          <t>achter</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -4874,25 +4988,25 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="F89" t="n">
-        <v>80</v>
+        <v>113.3</v>
       </c>
       <c r="G89" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H89" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I89" t="n">
-        <v>-120.3</v>
+        <v>-58.15</v>
       </c>
       <c r="J89" t="n">
-        <v>0</v>
+        <v>-38.5</v>
       </c>
       <c r="K89" t="n">
-        <v>9.699999999999999</v>
+        <v>205.9</v>
       </c>
       <c r="L89" t="n">
         <v>0</v>
@@ -4901,9 +5015,11 @@
         <v>0</v>
       </c>
       <c r="N89" t="n">
-        <v>90</v>
-      </c>
-      <c r="O89" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="O89" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -4916,7 +5032,7 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>boven</t>
+          <t>achter</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -4925,25 +5041,25 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="F90" t="n">
-        <v>80</v>
+        <v>113.3</v>
       </c>
       <c r="G90" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H90" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I90" t="n">
-        <v>120.3</v>
+        <v>-58.15</v>
       </c>
       <c r="J90" t="n">
-        <v>0</v>
+        <v>-38.5</v>
       </c>
       <c r="K90" t="n">
-        <v>250.3</v>
+        <v>155.7</v>
       </c>
       <c r="L90" t="n">
         <v>0</v>
@@ -4952,9 +5068,11 @@
         <v>0</v>
       </c>
       <c r="N90" t="n">
-        <v>90</v>
-      </c>
-      <c r="O90" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="O90" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -4967,7 +5085,7 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>boven</t>
+          <t>achter</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -4976,25 +5094,25 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="F91" t="n">
-        <v>80</v>
+        <v>113.3</v>
       </c>
       <c r="G91" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H91" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I91" t="n">
-        <v>0</v>
+        <v>-58.15</v>
       </c>
       <c r="J91" t="n">
-        <v>0</v>
+        <v>-38.5</v>
       </c>
       <c r="K91" t="n">
-        <v>250.3</v>
+        <v>105.7</v>
       </c>
       <c r="L91" t="n">
         <v>0</v>
@@ -5003,9 +5121,11 @@
         <v>0</v>
       </c>
       <c r="N91" t="n">
-        <v>90</v>
-      </c>
-      <c r="O91" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="O91" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -5018,7 +5138,7 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>boven</t>
+          <t>achter</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -5027,25 +5147,25 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="F92" t="n">
-        <v>80</v>
+        <v>113.3</v>
       </c>
       <c r="G92" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H92" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I92" t="n">
-        <v>-120.3</v>
+        <v>-58.15</v>
       </c>
       <c r="J92" t="n">
-        <v>0</v>
+        <v>-38.5</v>
       </c>
       <c r="K92" t="n">
-        <v>250.3</v>
+        <v>55.7</v>
       </c>
       <c r="L92" t="n">
         <v>0</v>
@@ -5054,9 +5174,11 @@
         <v>0</v>
       </c>
       <c r="N92" t="n">
-        <v>90</v>
-      </c>
-      <c r="O92" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="O92" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -5081,7 +5203,7 @@
         <v>0</v>
       </c>
       <c r="F93" t="n">
-        <v>245.6</v>
+        <v>235.6</v>
       </c>
       <c r="G93" t="n">
         <v>20</v>
@@ -5132,7 +5254,7 @@
         <v>1</v>
       </c>
       <c r="F94" t="n">
-        <v>245.6</v>
+        <v>235.6</v>
       </c>
       <c r="G94" t="n">
         <v>20</v>
@@ -5183,7 +5305,7 @@
         <v>2</v>
       </c>
       <c r="F95" t="n">
-        <v>245.6</v>
+        <v>235.6</v>
       </c>
       <c r="G95" t="n">
         <v>20</v>
@@ -5234,7 +5356,7 @@
         <v>3</v>
       </c>
       <c r="F96" t="n">
-        <v>245.6</v>
+        <v>235.6</v>
       </c>
       <c r="G96" t="n">
         <v>20</v>
@@ -5285,7 +5407,7 @@
         <v>4</v>
       </c>
       <c r="F97" t="n">
-        <v>245.6</v>
+        <v>235.6</v>
       </c>
       <c r="G97" t="n">
         <v>20</v>
@@ -5336,7 +5458,7 @@
         <v>5</v>
       </c>
       <c r="F98" t="n">
-        <v>245.6</v>
+        <v>235.6</v>
       </c>
       <c r="G98" t="n">
         <v>20</v>
@@ -5387,7 +5509,7 @@
         <v>6</v>
       </c>
       <c r="F99" t="n">
-        <v>245.6</v>
+        <v>235.6</v>
       </c>
       <c r="G99" t="n">
         <v>20</v>
@@ -5438,7 +5560,7 @@
         <v>7</v>
       </c>
       <c r="F100" t="n">
-        <v>245.6</v>
+        <v>235.6</v>
       </c>
       <c r="G100" t="n">
         <v>20</v>
@@ -5482,7 +5604,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F101" t="n">
         <v>250</v>
@@ -5494,7 +5616,7 @@
         <v>2.2</v>
       </c>
       <c r="I101" t="n">
-        <v>85</v>
+        <v>110</v>
       </c>
       <c r="J101" t="n">
         <v>-41.1</v>
@@ -5529,7 +5651,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F102" t="n">
         <v>250</v>
@@ -5541,7 +5663,7 @@
         <v>2.2</v>
       </c>
       <c r="I102" t="n">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="J102" t="n">
         <v>-41.1</v>
@@ -5576,7 +5698,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F103" t="n">
         <v>250</v>
@@ -5588,7 +5710,7 @@
         <v>2.2</v>
       </c>
       <c r="I103" t="n">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="J103" t="n">
         <v>-41.1</v>
@@ -5623,7 +5745,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F104" t="n">
         <v>250</v>
@@ -5635,7 +5757,7 @@
         <v>2.2</v>
       </c>
       <c r="I104" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="J104" t="n">
         <v>-41.1</v>
@@ -5670,7 +5792,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F105" t="n">
         <v>250</v>
@@ -5682,7 +5804,7 @@
         <v>2.2</v>
       </c>
       <c r="I105" t="n">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="J105" t="n">
         <v>-41.1</v>
@@ -5717,7 +5839,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F106" t="n">
         <v>250</v>
@@ -5729,7 +5851,7 @@
         <v>2.2</v>
       </c>
       <c r="I106" t="n">
-        <v>-15</v>
+        <v>10</v>
       </c>
       <c r="J106" t="n">
         <v>-41.1</v>
@@ -5764,7 +5886,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F107" t="n">
         <v>250</v>
@@ -5776,7 +5898,7 @@
         <v>2.2</v>
       </c>
       <c r="I107" t="n">
-        <v>-35</v>
+        <v>-10</v>
       </c>
       <c r="J107" t="n">
         <v>-41.1</v>
@@ -5811,7 +5933,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F108" t="n">
         <v>250</v>
@@ -5823,7 +5945,7 @@
         <v>2.2</v>
       </c>
       <c r="I108" t="n">
-        <v>-55</v>
+        <v>-30</v>
       </c>
       <c r="J108" t="n">
         <v>-41.1</v>
@@ -5858,7 +5980,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F109" t="n">
         <v>250</v>
@@ -5870,7 +5992,7 @@
         <v>2.2</v>
       </c>
       <c r="I109" t="n">
-        <v>-75</v>
+        <v>-50</v>
       </c>
       <c r="J109" t="n">
         <v>-41.1</v>
@@ -5905,7 +6027,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F110" t="n">
         <v>250</v>
@@ -5917,7 +6039,7 @@
         <v>2.2</v>
       </c>
       <c r="I110" t="n">
-        <v>-95</v>
+        <v>-70</v>
       </c>
       <c r="J110" t="n">
         <v>-41.1</v>
@@ -5952,7 +6074,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F111" t="n">
         <v>250</v>
@@ -5964,7 +6086,7 @@
         <v>2.2</v>
       </c>
       <c r="I111" t="n">
-        <v>-115</v>
+        <v>-90</v>
       </c>
       <c r="J111" t="n">
         <v>-41.1</v>
@@ -5999,19 +6121,19 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="F112" t="n">
         <v>250</v>
       </c>
       <c r="G112" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H112" t="n">
         <v>2.2</v>
       </c>
       <c r="I112" t="n">
-        <v>117.5</v>
+        <v>-110</v>
       </c>
       <c r="J112" t="n">
         <v>-41.1</v>
@@ -6029,53 +6151,6 @@
         <v>90</v>
       </c>
       <c r="O112" t="inlineStr"/>
-    </row>
-    <row r="113">
-      <c r="A113" s="1" t="n">
-        <v>111</v>
-      </c>
-      <c r="B113" t="inlineStr">
-        <is>
-          <t>achterplank</t>
-        </is>
-      </c>
-      <c r="C113" t="inlineStr"/>
-      <c r="D113" t="inlineStr">
-        <is>
-          <t>plank</t>
-        </is>
-      </c>
-      <c r="E113" t="n">
-        <v>1</v>
-      </c>
-      <c r="F113" t="n">
-        <v>250</v>
-      </c>
-      <c r="G113" t="n">
-        <v>15</v>
-      </c>
-      <c r="H113" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="I113" t="n">
-        <v>102.5</v>
-      </c>
-      <c r="J113" t="n">
-        <v>-41.1</v>
-      </c>
-      <c r="K113" t="n">
-        <v>130</v>
-      </c>
-      <c r="L113" t="n">
-        <v>0</v>
-      </c>
-      <c r="M113" t="n">
-        <v>90</v>
-      </c>
-      <c r="N113" t="n">
-        <v>90</v>
-      </c>
-      <c r="O113" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/plankenlijst.xlsx
+++ b/plankenlijst.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/plankenlijst.xlsx
+++ b/plankenlijst.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O112"/>
+  <dimension ref="A1:O90"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -525,10 +525,10 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F2" t="n">
-        <v>250</v>
+        <v>195</v>
       </c>
       <c r="G2" t="n">
         <v>20</v>
@@ -537,13 +537,13 @@
         <v>2.2</v>
       </c>
       <c r="I2" t="n">
-        <v>-118.9</v>
+        <v>-98.90000000000001</v>
       </c>
       <c r="J2" t="n">
-        <v>30</v>
+        <v>-7.799999999999997</v>
       </c>
       <c r="K2" t="n">
-        <v>130</v>
+        <v>102.5</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -576,10 +576,10 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F3" t="n">
-        <v>250</v>
+        <v>195</v>
       </c>
       <c r="G3" t="n">
         <v>20</v>
@@ -588,13 +588,13 @@
         <v>2.2</v>
       </c>
       <c r="I3" t="n">
-        <v>-118.9</v>
+        <v>-98.90000000000001</v>
       </c>
       <c r="J3" t="n">
-        <v>10</v>
+        <v>-27.8</v>
       </c>
       <c r="K3" t="n">
-        <v>130</v>
+        <v>102.5</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -627,25 +627,25 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F4" t="n">
-        <v>250</v>
+        <v>195</v>
       </c>
       <c r="G4" t="n">
-        <v>20</v>
+        <v>17.8</v>
       </c>
       <c r="H4" t="n">
         <v>2.2</v>
       </c>
       <c r="I4" t="n">
-        <v>-118.9</v>
+        <v>-98.90000000000001</v>
       </c>
       <c r="J4" t="n">
-        <v>-10</v>
+        <v>28.9</v>
       </c>
       <c r="K4" t="n">
-        <v>130</v>
+        <v>102.5</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -678,25 +678,25 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F5" t="n">
-        <v>250</v>
+        <v>195</v>
       </c>
       <c r="G5" t="n">
-        <v>20</v>
+        <v>17.8</v>
       </c>
       <c r="H5" t="n">
         <v>2.2</v>
       </c>
       <c r="I5" t="n">
-        <v>-118.9</v>
+        <v>-98.90000000000001</v>
       </c>
       <c r="J5" t="n">
-        <v>-30</v>
+        <v>11.1</v>
       </c>
       <c r="K5" t="n">
-        <v>130</v>
+        <v>102.5</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -729,10 +729,10 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F6" t="n">
-        <v>250</v>
+        <v>195</v>
       </c>
       <c r="G6" t="n">
         <v>20</v>
@@ -741,13 +741,13 @@
         <v>2.2</v>
       </c>
       <c r="I6" t="n">
-        <v>118.9</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="J6" t="n">
-        <v>30</v>
+        <v>-7.799999999999997</v>
       </c>
       <c r="K6" t="n">
-        <v>130</v>
+        <v>102.5</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -780,10 +780,10 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7" t="n">
-        <v>250</v>
+        <v>195</v>
       </c>
       <c r="G7" t="n">
         <v>20</v>
@@ -792,13 +792,13 @@
         <v>2.2</v>
       </c>
       <c r="I7" t="n">
-        <v>118.9</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="J7" t="n">
-        <v>10</v>
+        <v>-27.8</v>
       </c>
       <c r="K7" t="n">
-        <v>130</v>
+        <v>102.5</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -831,25 +831,25 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>250</v>
+        <v>195</v>
       </c>
       <c r="G8" t="n">
-        <v>20</v>
+        <v>17.8</v>
       </c>
       <c r="H8" t="n">
         <v>2.2</v>
       </c>
       <c r="I8" t="n">
-        <v>118.9</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="J8" t="n">
-        <v>-10</v>
+        <v>28.9</v>
       </c>
       <c r="K8" t="n">
-        <v>130</v>
+        <v>102.5</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -882,25 +882,25 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>250</v>
+        <v>195</v>
       </c>
       <c r="G9" t="n">
-        <v>20</v>
+        <v>17.8</v>
       </c>
       <c r="H9" t="n">
         <v>2.2</v>
       </c>
       <c r="I9" t="n">
-        <v>118.9</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="J9" t="n">
-        <v>-30</v>
+        <v>11.1</v>
       </c>
       <c r="K9" t="n">
-        <v>130</v>
+        <v>102.5</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -936,7 +936,7 @@
         <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>250</v>
+        <v>195</v>
       </c>
       <c r="G10" t="n">
         <v>7.5</v>
@@ -945,13 +945,13 @@
         <v>2.2</v>
       </c>
       <c r="I10" t="n">
-        <v>116.25</v>
+        <v>96.25</v>
       </c>
       <c r="J10" t="n">
-        <v>41.1</v>
+        <v>38.9</v>
       </c>
       <c r="K10" t="n">
-        <v>130</v>
+        <v>102.5</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -986,10 +986,10 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F11" t="n">
-        <v>250</v>
+        <v>195</v>
       </c>
       <c r="G11" t="n">
         <v>7.5</v>
@@ -1001,10 +1001,10 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>41.1</v>
+        <v>38.9</v>
       </c>
       <c r="K11" t="n">
-        <v>130</v>
+        <v>102.5</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -1042,7 +1042,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>250</v>
+        <v>195</v>
       </c>
       <c r="G12" t="n">
         <v>7.5</v>
@@ -1051,13 +1051,13 @@
         <v>2.2</v>
       </c>
       <c r="I12" t="n">
-        <v>-116.25</v>
+        <v>-96.25</v>
       </c>
       <c r="J12" t="n">
-        <v>41.1</v>
+        <v>38.9</v>
       </c>
       <c r="K12" t="n">
-        <v>130</v>
+        <v>102.5</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -1092,10 +1092,10 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F13" t="n">
-        <v>97.40000000000001</v>
+        <v>79.40000000000001</v>
       </c>
       <c r="G13" t="n">
         <v>20</v>
@@ -1104,13 +1104,13 @@
         <v>2.2</v>
       </c>
       <c r="I13" t="n">
-        <v>57.875</v>
+        <v>47.875</v>
       </c>
       <c r="J13" t="n">
-        <v>38.90000000000001</v>
+        <v>36.7</v>
       </c>
       <c r="K13" t="n">
-        <v>213.3333333333333</v>
+        <v>167.5</v>
       </c>
       <c r="L13" t="n">
         <v>90</v>
@@ -1145,10 +1145,10 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F14" t="n">
-        <v>97.40000000000001</v>
+        <v>79.40000000000001</v>
       </c>
       <c r="G14" t="n">
         <v>20</v>
@@ -1157,13 +1157,13 @@
         <v>2.2</v>
       </c>
       <c r="I14" t="n">
-        <v>57.875</v>
+        <v>47.875</v>
       </c>
       <c r="J14" t="n">
-        <v>38.90000000000001</v>
+        <v>36.7</v>
       </c>
       <c r="K14" t="n">
-        <v>130</v>
+        <v>102.5</v>
       </c>
       <c r="L14" t="n">
         <v>90</v>
@@ -1198,10 +1198,10 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F15" t="n">
-        <v>97.40000000000001</v>
+        <v>79.40000000000001</v>
       </c>
       <c r="G15" t="n">
         <v>20</v>
@@ -1210,13 +1210,13 @@
         <v>2.2</v>
       </c>
       <c r="I15" t="n">
-        <v>57.875</v>
+        <v>47.875</v>
       </c>
       <c r="J15" t="n">
-        <v>38.90000000000001</v>
+        <v>36.7</v>
       </c>
       <c r="K15" t="n">
-        <v>46.66666666666666</v>
+        <v>37.5</v>
       </c>
       <c r="L15" t="n">
         <v>90</v>
@@ -1251,10 +1251,10 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F16" t="n">
-        <v>97.40000000000001</v>
+        <v>79.40000000000001</v>
       </c>
       <c r="G16" t="n">
         <v>20</v>
@@ -1263,13 +1263,13 @@
         <v>2.2</v>
       </c>
       <c r="I16" t="n">
-        <v>-58.375</v>
+        <v>-48.375</v>
       </c>
       <c r="J16" t="n">
-        <v>38.90000000000001</v>
+        <v>36.7</v>
       </c>
       <c r="K16" t="n">
-        <v>213.3333333333333</v>
+        <v>167.5</v>
       </c>
       <c r="L16" t="n">
         <v>90</v>
@@ -1304,10 +1304,10 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F17" t="n">
-        <v>97.40000000000001</v>
+        <v>79.40000000000001</v>
       </c>
       <c r="G17" t="n">
         <v>20</v>
@@ -1316,13 +1316,13 @@
         <v>2.2</v>
       </c>
       <c r="I17" t="n">
-        <v>-58.375</v>
+        <v>-48.375</v>
       </c>
       <c r="J17" t="n">
-        <v>38.90000000000001</v>
+        <v>36.7</v>
       </c>
       <c r="K17" t="n">
-        <v>130</v>
+        <v>102.5</v>
       </c>
       <c r="L17" t="n">
         <v>90</v>
@@ -1357,10 +1357,10 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F18" t="n">
-        <v>97.40000000000001</v>
+        <v>79.40000000000001</v>
       </c>
       <c r="G18" t="n">
         <v>20</v>
@@ -1369,13 +1369,13 @@
         <v>2.2</v>
       </c>
       <c r="I18" t="n">
-        <v>-58.375</v>
+        <v>-48.375</v>
       </c>
       <c r="J18" t="n">
-        <v>38.90000000000001</v>
+        <v>36.7</v>
       </c>
       <c r="K18" t="n">
-        <v>46.66666666666666</v>
+        <v>37.5</v>
       </c>
       <c r="L18" t="n">
         <v>90</v>
@@ -1410,7 +1410,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F19" t="n">
         <v>7</v>
@@ -1425,10 +1425,10 @@
         <v>3.75</v>
       </c>
       <c r="J19" t="n">
-        <v>42.7</v>
+        <v>40.5</v>
       </c>
       <c r="K19" t="n">
-        <v>130</v>
+        <v>102.5</v>
       </c>
       <c r="L19" t="n">
         <v>90</v>
@@ -1463,7 +1463,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F20" t="n">
         <v>7</v>
@@ -1475,13 +1475,13 @@
         <v>1</v>
       </c>
       <c r="I20" t="n">
-        <v>-112.5</v>
+        <v>-92.5</v>
       </c>
       <c r="J20" t="n">
-        <v>42.7</v>
+        <v>40.5</v>
       </c>
       <c r="K20" t="n">
-        <v>130</v>
+        <v>102.5</v>
       </c>
       <c r="L20" t="n">
         <v>90</v>
@@ -1516,7 +1516,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F21" t="n">
         <v>5</v>
@@ -1531,10 +1531,10 @@
         <v>3.75</v>
       </c>
       <c r="J21" t="n">
-        <v>42.7</v>
+        <v>40.5</v>
       </c>
       <c r="K21" t="n">
-        <v>213.3333333333333</v>
+        <v>167.5</v>
       </c>
       <c r="L21" t="n">
         <v>90</v>
@@ -1569,7 +1569,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F22" t="n">
         <v>5</v>
@@ -1584,10 +1584,10 @@
         <v>3.75</v>
       </c>
       <c r="J22" t="n">
-        <v>42.7</v>
+        <v>40.5</v>
       </c>
       <c r="K22" t="n">
-        <v>130</v>
+        <v>102.5</v>
       </c>
       <c r="L22" t="n">
         <v>90</v>
@@ -1622,7 +1622,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F23" t="n">
         <v>5</v>
@@ -1637,10 +1637,10 @@
         <v>3.75</v>
       </c>
       <c r="J23" t="n">
-        <v>42.7</v>
+        <v>40.5</v>
       </c>
       <c r="K23" t="n">
-        <v>46.66666666666666</v>
+        <v>37.5</v>
       </c>
       <c r="L23" t="n">
         <v>90</v>
@@ -1675,7 +1675,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F24" t="n">
         <v>5</v>
@@ -1687,13 +1687,13 @@
         <v>1</v>
       </c>
       <c r="I24" t="n">
-        <v>-112.5</v>
+        <v>-92.5</v>
       </c>
       <c r="J24" t="n">
-        <v>42.7</v>
+        <v>40.5</v>
       </c>
       <c r="K24" t="n">
-        <v>213.3333333333333</v>
+        <v>167.5</v>
       </c>
       <c r="L24" t="n">
         <v>90</v>
@@ -1728,7 +1728,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F25" t="n">
         <v>5</v>
@@ -1740,13 +1740,13 @@
         <v>1</v>
       </c>
       <c r="I25" t="n">
-        <v>-112.5</v>
+        <v>-92.5</v>
       </c>
       <c r="J25" t="n">
-        <v>42.7</v>
+        <v>40.5</v>
       </c>
       <c r="K25" t="n">
-        <v>130</v>
+        <v>102.5</v>
       </c>
       <c r="L25" t="n">
         <v>90</v>
@@ -1781,7 +1781,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F26" t="n">
         <v>5</v>
@@ -1793,13 +1793,13 @@
         <v>1</v>
       </c>
       <c r="I26" t="n">
-        <v>-112.5</v>
+        <v>-92.5</v>
       </c>
       <c r="J26" t="n">
-        <v>42.7</v>
+        <v>40.5</v>
       </c>
       <c r="K26" t="n">
-        <v>46.66666666666666</v>
+        <v>37.5</v>
       </c>
       <c r="L26" t="n">
         <v>90</v>
@@ -1834,10 +1834,10 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F27" t="n">
-        <v>250</v>
+        <v>195</v>
       </c>
       <c r="G27" t="n">
         <v>20</v>
@@ -1846,13 +1846,13 @@
         <v>2.2</v>
       </c>
       <c r="I27" t="n">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="J27" t="n">
-        <v>41.1</v>
+        <v>38.9</v>
       </c>
       <c r="K27" t="n">
-        <v>130</v>
+        <v>102.5</v>
       </c>
       <c r="L27" t="n">
         <v>90</v>
@@ -1887,10 +1887,10 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F28" t="n">
-        <v>250</v>
+        <v>195</v>
       </c>
       <c r="G28" t="n">
         <v>20</v>
@@ -1899,13 +1899,13 @@
         <v>2.2</v>
       </c>
       <c r="I28" t="n">
-        <v>82</v>
+        <v>61.99999999999999</v>
       </c>
       <c r="J28" t="n">
-        <v>41.1</v>
+        <v>38.9</v>
       </c>
       <c r="K28" t="n">
-        <v>130</v>
+        <v>102.5</v>
       </c>
       <c r="L28" t="n">
         <v>90</v>
@@ -1940,10 +1940,10 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F29" t="n">
-        <v>250</v>
+        <v>195</v>
       </c>
       <c r="G29" t="n">
         <v>20</v>
@@ -1952,13 +1952,13 @@
         <v>2.2</v>
       </c>
       <c r="I29" t="n">
-        <v>61.99999999999999</v>
+        <v>41.99999999999999</v>
       </c>
       <c r="J29" t="n">
-        <v>41.1</v>
+        <v>38.9</v>
       </c>
       <c r="K29" t="n">
-        <v>130</v>
+        <v>102.5</v>
       </c>
       <c r="L29" t="n">
         <v>90</v>
@@ -1993,10 +1993,10 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="F30" t="n">
-        <v>250</v>
+        <v>195</v>
       </c>
       <c r="G30" t="n">
         <v>20</v>
@@ -2005,13 +2005,13 @@
         <v>2.2</v>
       </c>
       <c r="I30" t="n">
-        <v>41.99999999999999</v>
+        <v>-14.25</v>
       </c>
       <c r="J30" t="n">
-        <v>41.1</v>
+        <v>38.9</v>
       </c>
       <c r="K30" t="n">
-        <v>130</v>
+        <v>102.5</v>
       </c>
       <c r="L30" t="n">
         <v>90</v>
@@ -2023,7 +2023,7 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
@@ -2046,10 +2046,10 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F31" t="n">
-        <v>250</v>
+        <v>195</v>
       </c>
       <c r="G31" t="n">
         <v>20</v>
@@ -2058,13 +2058,13 @@
         <v>2.2</v>
       </c>
       <c r="I31" t="n">
-        <v>-14.25</v>
+        <v>-34.25</v>
       </c>
       <c r="J31" t="n">
-        <v>41.1</v>
+        <v>38.9</v>
       </c>
       <c r="K31" t="n">
-        <v>130</v>
+        <v>102.5</v>
       </c>
       <c r="L31" t="n">
         <v>90</v>
@@ -2099,10 +2099,10 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F32" t="n">
-        <v>250</v>
+        <v>195</v>
       </c>
       <c r="G32" t="n">
         <v>20</v>
@@ -2111,13 +2111,13 @@
         <v>2.2</v>
       </c>
       <c r="I32" t="n">
-        <v>-34.25</v>
+        <v>-54.25</v>
       </c>
       <c r="J32" t="n">
-        <v>41.1</v>
+        <v>38.9</v>
       </c>
       <c r="K32" t="n">
-        <v>130</v>
+        <v>102.5</v>
       </c>
       <c r="L32" t="n">
         <v>90</v>
@@ -2152,25 +2152,25 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="F33" t="n">
-        <v>250</v>
+        <v>195</v>
       </c>
       <c r="G33" t="n">
-        <v>20</v>
+        <v>14.1</v>
       </c>
       <c r="H33" t="n">
         <v>2.2</v>
       </c>
       <c r="I33" t="n">
-        <v>-54.25</v>
+        <v>24.93749999999999</v>
       </c>
       <c r="J33" t="n">
-        <v>41.1</v>
+        <v>38.9</v>
       </c>
       <c r="K33" t="n">
-        <v>130</v>
+        <v>102.5</v>
       </c>
       <c r="L33" t="n">
         <v>90</v>
@@ -2182,7 +2182,7 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34">
@@ -2205,25 +2205,25 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="F34" t="n">
-        <v>250</v>
+        <v>195</v>
       </c>
       <c r="G34" t="n">
-        <v>20</v>
+        <v>14.1</v>
       </c>
       <c r="H34" t="n">
         <v>2.2</v>
       </c>
       <c r="I34" t="n">
-        <v>-74.25</v>
+        <v>10.8125</v>
       </c>
       <c r="J34" t="n">
-        <v>41.1</v>
+        <v>38.9</v>
       </c>
       <c r="K34" t="n">
-        <v>130</v>
+        <v>102.5</v>
       </c>
       <c r="L34" t="n">
         <v>90</v>
@@ -2235,7 +2235,7 @@
         <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35">
@@ -2258,10 +2258,10 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="F35" t="n">
-        <v>250</v>
+        <v>195</v>
       </c>
       <c r="G35" t="n">
         <v>14.1</v>
@@ -2270,13 +2270,13 @@
         <v>2.2</v>
       </c>
       <c r="I35" t="n">
-        <v>24.93749999999999</v>
+        <v>-71.3125</v>
       </c>
       <c r="J35" t="n">
-        <v>41.1</v>
+        <v>38.9</v>
       </c>
       <c r="K35" t="n">
-        <v>130</v>
+        <v>102.5</v>
       </c>
       <c r="L35" t="n">
         <v>90</v>
@@ -2288,7 +2288,7 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
@@ -2311,10 +2311,10 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="F36" t="n">
-        <v>250</v>
+        <v>195</v>
       </c>
       <c r="G36" t="n">
         <v>14.1</v>
@@ -2323,13 +2323,13 @@
         <v>2.2</v>
       </c>
       <c r="I36" t="n">
-        <v>10.8125</v>
+        <v>-85.4375</v>
       </c>
       <c r="J36" t="n">
-        <v>41.1</v>
+        <v>38.9</v>
       </c>
       <c r="K36" t="n">
-        <v>130</v>
+        <v>102.5</v>
       </c>
       <c r="L36" t="n">
         <v>90</v>
@@ -2341,7 +2341,7 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37">
@@ -2350,52 +2350,46 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>voorkant</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>deur</t>
-        </is>
-      </c>
+          <t>voet</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr">
         <is>
-          <t>plank</t>
+          <t>blok</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>250</v>
+        <v>5</v>
       </c>
       <c r="G37" t="n">
-        <v>14.1</v>
+        <v>5</v>
       </c>
       <c r="H37" t="n">
-        <v>2.2</v>
+        <v>5</v>
       </c>
       <c r="I37" t="n">
-        <v>-91.3125</v>
+        <v>95.3</v>
       </c>
       <c r="J37" t="n">
-        <v>41.1</v>
+        <v>35.3</v>
       </c>
       <c r="K37" t="n">
-        <v>130</v>
+        <v>2.5</v>
       </c>
       <c r="L37" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
         <v>0</v>
       </c>
-      <c r="O37" t="n">
-        <v>1</v>
-      </c>
+      <c r="O37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -2403,52 +2397,46 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>voorkant</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>deur</t>
-        </is>
-      </c>
+          <t>voet</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr"/>
       <c r="D38" t="inlineStr">
         <is>
-          <t>plank</t>
+          <t>blok</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F38" t="n">
-        <v>250</v>
+        <v>5</v>
       </c>
       <c r="G38" t="n">
-        <v>14.1</v>
+        <v>5</v>
       </c>
       <c r="H38" t="n">
-        <v>2.2</v>
+        <v>5</v>
       </c>
       <c r="I38" t="n">
-        <v>-105.4375</v>
+        <v>95.3</v>
       </c>
       <c r="J38" t="n">
-        <v>41.1</v>
+        <v>-35.3</v>
       </c>
       <c r="K38" t="n">
-        <v>130</v>
+        <v>2.5</v>
       </c>
       <c r="L38" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
       </c>
-      <c r="O38" t="n">
-        <v>1</v>
-      </c>
+      <c r="O38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -2466,7 +2454,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F39" t="n">
         <v>5</v>
@@ -2478,10 +2466,10 @@
         <v>5</v>
       </c>
       <c r="I39" t="n">
-        <v>115.3</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>37.5</v>
+        <v>35.3</v>
       </c>
       <c r="K39" t="n">
         <v>2.5</v>
@@ -2513,7 +2501,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F40" t="n">
         <v>5</v>
@@ -2525,10 +2513,10 @@
         <v>5</v>
       </c>
       <c r="I40" t="n">
-        <v>115.3</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>-37.5</v>
+        <v>-35.3</v>
       </c>
       <c r="K40" t="n">
         <v>2.5</v>
@@ -2560,7 +2548,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F41" t="n">
         <v>5</v>
@@ -2572,10 +2560,10 @@
         <v>5</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>-95.3</v>
       </c>
       <c r="J41" t="n">
-        <v>37.5</v>
+        <v>35.3</v>
       </c>
       <c r="K41" t="n">
         <v>2.5</v>
@@ -2607,7 +2595,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F42" t="n">
         <v>5</v>
@@ -2619,10 +2607,10 @@
         <v>5</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>-95.3</v>
       </c>
       <c r="J42" t="n">
-        <v>-37.5</v>
+        <v>-35.3</v>
       </c>
       <c r="K42" t="n">
         <v>2.5</v>
@@ -2644,35 +2632,35 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>voet</t>
+          <t>vlonders</t>
         </is>
       </c>
       <c r="C43" t="inlineStr"/>
       <c r="D43" t="inlineStr">
         <is>
-          <t>blok</t>
+          <t>plank</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F43" t="n">
-        <v>5</v>
+        <v>194.6</v>
       </c>
       <c r="G43" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="H43" t="n">
-        <v>5</v>
+        <v>2.2</v>
       </c>
       <c r="I43" t="n">
-        <v>-115.3</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>37.5</v>
+        <v>-4.799999999999996</v>
       </c>
       <c r="K43" t="n">
-        <v>2.5</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -2691,35 +2679,35 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>voet</t>
+          <t>vlonders</t>
         </is>
       </c>
       <c r="C44" t="inlineStr"/>
       <c r="D44" t="inlineStr">
         <is>
-          <t>blok</t>
+          <t>plank</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F44" t="n">
-        <v>5</v>
+        <v>194.6</v>
       </c>
       <c r="G44" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="H44" t="n">
-        <v>5</v>
+        <v>2.2</v>
       </c>
       <c r="I44" t="n">
-        <v>-115.3</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>-37.5</v>
+        <v>-4.799999999999996</v>
       </c>
       <c r="K44" t="n">
-        <v>2.5</v>
+        <v>14.3</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
@@ -2748,10 +2736,10 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="F45" t="n">
-        <v>234.6</v>
+        <v>194.6</v>
       </c>
       <c r="G45" t="n">
         <v>20</v>
@@ -2763,10 +2751,10 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>-7</v>
+        <v>-24.8</v>
       </c>
       <c r="K45" t="n">
-        <v>206.3</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -2795,10 +2783,10 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F46" t="n">
-        <v>234.6</v>
+        <v>194.6</v>
       </c>
       <c r="G46" t="n">
         <v>20</v>
@@ -2810,10 +2798,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>-7</v>
+        <v>-24.8</v>
       </c>
       <c r="K46" t="n">
-        <v>156.1</v>
+        <v>14.3</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
@@ -2842,13 +2830,13 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F47" t="n">
-        <v>234.6</v>
+        <v>194.6</v>
       </c>
       <c r="G47" t="n">
-        <v>20</v>
+        <v>14.8</v>
       </c>
       <c r="H47" t="n">
         <v>2.2</v>
@@ -2857,10 +2845,10 @@
         <v>0</v>
       </c>
       <c r="J47" t="n">
-        <v>-7</v>
+        <v>27.4</v>
       </c>
       <c r="K47" t="n">
-        <v>106.1</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="L47" t="n">
         <v>0</v>
@@ -2889,13 +2877,13 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F48" t="n">
-        <v>234.6</v>
+        <v>194.6</v>
       </c>
       <c r="G48" t="n">
-        <v>20</v>
+        <v>14.8</v>
       </c>
       <c r="H48" t="n">
         <v>2.2</v>
@@ -2904,10 +2892,10 @@
         <v>0</v>
       </c>
       <c r="J48" t="n">
-        <v>-7</v>
+        <v>27.4</v>
       </c>
       <c r="K48" t="n">
-        <v>56.1</v>
+        <v>14.3</v>
       </c>
       <c r="L48" t="n">
         <v>0</v>
@@ -2936,13 +2924,13 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="F49" t="n">
-        <v>234.6</v>
+        <v>194.6</v>
       </c>
       <c r="G49" t="n">
-        <v>20</v>
+        <v>14.8</v>
       </c>
       <c r="H49" t="n">
         <v>2.2</v>
@@ -2951,10 +2939,10 @@
         <v>0</v>
       </c>
       <c r="J49" t="n">
-        <v>-27</v>
+        <v>12.6</v>
       </c>
       <c r="K49" t="n">
-        <v>206.3</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="L49" t="n">
         <v>0</v>
@@ -2983,13 +2971,13 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="F50" t="n">
-        <v>234.6</v>
+        <v>194.6</v>
       </c>
       <c r="G50" t="n">
-        <v>20</v>
+        <v>14.8</v>
       </c>
       <c r="H50" t="n">
         <v>2.2</v>
@@ -2998,10 +2986,10 @@
         <v>0</v>
       </c>
       <c r="J50" t="n">
-        <v>-27</v>
+        <v>12.6</v>
       </c>
       <c r="K50" t="n">
-        <v>156.1</v>
+        <v>14.3</v>
       </c>
       <c r="L50" t="n">
         <v>0</v>
@@ -3020,46 +3008,52 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>vlonders</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr"/>
+          <t>ribben</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>zeide</t>
+        </is>
+      </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>plank</t>
+          <t>balk</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F51" t="n">
-        <v>234.6</v>
+        <v>184.6</v>
       </c>
       <c r="G51" t="n">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="H51" t="n">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="I51" t="n">
-        <v>0</v>
+        <v>96.3</v>
       </c>
       <c r="J51" t="n">
-        <v>-27</v>
+        <v>36.3</v>
       </c>
       <c r="K51" t="n">
-        <v>106.1</v>
+        <v>102.5</v>
       </c>
       <c r="L51" t="n">
         <v>0</v>
       </c>
       <c r="M51" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="N51" t="n">
         <v>0</v>
       </c>
-      <c r="O51" t="inlineStr"/>
+      <c r="O51" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -3067,46 +3061,52 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>vlonders</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr"/>
+          <t>ribben</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>zeide</t>
+        </is>
+      </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>plank</t>
+          <t>balk</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F52" t="n">
-        <v>234.6</v>
+        <v>184.6</v>
       </c>
       <c r="G52" t="n">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="H52" t="n">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="I52" t="n">
-        <v>0</v>
+        <v>96.3</v>
       </c>
       <c r="J52" t="n">
-        <v>-27</v>
+        <v>-36.3</v>
       </c>
       <c r="K52" t="n">
-        <v>56.1</v>
+        <v>102.5</v>
       </c>
       <c r="L52" t="n">
         <v>0</v>
       </c>
       <c r="M52" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="N52" t="n">
         <v>0</v>
       </c>
-      <c r="O52" t="inlineStr"/>
+      <c r="O52" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -3114,46 +3114,52 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>vlonders</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr"/>
+          <t>ribben</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>zeide</t>
+        </is>
+      </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>plank</t>
+          <t>balk</t>
         </is>
       </c>
       <c r="E53" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="F53" t="n">
-        <v>234.6</v>
+        <v>184.6</v>
       </c>
       <c r="G53" t="n">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="H53" t="n">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
       <c r="J53" t="n">
-        <v>28.5</v>
+        <v>36.3</v>
       </c>
       <c r="K53" t="n">
-        <v>206.3</v>
+        <v>102.5</v>
       </c>
       <c r="L53" t="n">
         <v>0</v>
       </c>
       <c r="M53" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="N53" t="n">
         <v>0</v>
       </c>
-      <c r="O53" t="inlineStr"/>
+      <c r="O53" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -3161,46 +3167,52 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>vlonders</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr"/>
+          <t>ribben</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>zeide</t>
+        </is>
+      </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>plank</t>
+          <t>balk</t>
         </is>
       </c>
       <c r="E54" t="n">
         <v>8</v>
       </c>
       <c r="F54" t="n">
-        <v>234.6</v>
+        <v>184.6</v>
       </c>
       <c r="G54" t="n">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="H54" t="n">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
       <c r="J54" t="n">
-        <v>28.5</v>
+        <v>-36.3</v>
       </c>
       <c r="K54" t="n">
-        <v>156.1</v>
+        <v>102.5</v>
       </c>
       <c r="L54" t="n">
         <v>0</v>
       </c>
       <c r="M54" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="N54" t="n">
         <v>0</v>
       </c>
-      <c r="O54" t="inlineStr"/>
+      <c r="O54" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -3208,46 +3220,52 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>vlonders</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr"/>
+          <t>ribben</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>zeide</t>
+        </is>
+      </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>plank</t>
+          <t>balk</t>
         </is>
       </c>
       <c r="E55" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="F55" t="n">
-        <v>234.6</v>
+        <v>184.6</v>
       </c>
       <c r="G55" t="n">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="H55" t="n">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="I55" t="n">
-        <v>0</v>
+        <v>-96.3</v>
       </c>
       <c r="J55" t="n">
-        <v>28.5</v>
+        <v>36.3</v>
       </c>
       <c r="K55" t="n">
-        <v>106.1</v>
+        <v>102.5</v>
       </c>
       <c r="L55" t="n">
         <v>0</v>
       </c>
       <c r="M55" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="N55" t="n">
         <v>0</v>
       </c>
-      <c r="O55" t="inlineStr"/>
+      <c r="O55" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -3255,46 +3273,52 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>vlonders</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr"/>
+          <t>ribben</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>zeide</t>
+        </is>
+      </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>plank</t>
+          <t>balk</t>
         </is>
       </c>
       <c r="E56" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="F56" t="n">
-        <v>234.6</v>
+        <v>184.6</v>
       </c>
       <c r="G56" t="n">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="H56" t="n">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="I56" t="n">
-        <v>0</v>
+        <v>-96.3</v>
       </c>
       <c r="J56" t="n">
-        <v>28.5</v>
+        <v>-36.3</v>
       </c>
       <c r="K56" t="n">
-        <v>56.1</v>
+        <v>102.5</v>
       </c>
       <c r="L56" t="n">
         <v>0</v>
       </c>
       <c r="M56" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="N56" t="n">
         <v>0</v>
       </c>
-      <c r="O56" t="inlineStr"/>
+      <c r="O56" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -3302,35 +3326,39 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>vlonders</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr"/>
+          <t>ribben</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>tussen</t>
+        </is>
+      </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>plank</t>
+          <t>balk</t>
         </is>
       </c>
       <c r="E57" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="F57" t="n">
-        <v>234.6</v>
+        <v>69.59999999999999</v>
       </c>
       <c r="G57" t="n">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="H57" t="n">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="I57" t="n">
-        <v>0</v>
+        <v>96.3</v>
       </c>
       <c r="J57" t="n">
-        <v>11.5</v>
+        <v>0</v>
       </c>
       <c r="K57" t="n">
-        <v>206.3</v>
+        <v>63.5</v>
       </c>
       <c r="L57" t="n">
         <v>0</v>
@@ -3339,9 +3367,11 @@
         <v>0</v>
       </c>
       <c r="N57" t="n">
-        <v>0</v>
-      </c>
-      <c r="O57" t="inlineStr"/>
+        <v>90</v>
+      </c>
+      <c r="O57" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -3349,35 +3379,39 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>vlonders</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr"/>
+          <t>ribben</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>tussen</t>
+        </is>
+      </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>plank</t>
+          <t>balk</t>
         </is>
       </c>
       <c r="E58" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F58" t="n">
-        <v>234.6</v>
+        <v>69.59999999999999</v>
       </c>
       <c r="G58" t="n">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="H58" t="n">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="I58" t="n">
-        <v>0</v>
+        <v>96.3</v>
       </c>
       <c r="J58" t="n">
-        <v>11.5</v>
+        <v>0</v>
       </c>
       <c r="K58" t="n">
-        <v>156.1</v>
+        <v>11.7</v>
       </c>
       <c r="L58" t="n">
         <v>0</v>
@@ -3386,9 +3420,11 @@
         <v>0</v>
       </c>
       <c r="N58" t="n">
-        <v>0</v>
-      </c>
-      <c r="O58" t="inlineStr"/>
+        <v>90</v>
+      </c>
+      <c r="O58" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -3396,35 +3432,39 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>vlonders</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr"/>
+          <t>ribben</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>tussen</t>
+        </is>
+      </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>plank</t>
+          <t>balk</t>
         </is>
       </c>
       <c r="E59" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F59" t="n">
-        <v>234.6</v>
+        <v>69.59999999999999</v>
       </c>
       <c r="G59" t="n">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="H59" t="n">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
       <c r="J59" t="n">
-        <v>11.5</v>
+        <v>0</v>
       </c>
       <c r="K59" t="n">
-        <v>106.1</v>
+        <v>63.5</v>
       </c>
       <c r="L59" t="n">
         <v>0</v>
@@ -3433,9 +3473,11 @@
         <v>0</v>
       </c>
       <c r="N59" t="n">
-        <v>0</v>
-      </c>
-      <c r="O59" t="inlineStr"/>
+        <v>90</v>
+      </c>
+      <c r="O59" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -3443,46 +3485,52 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>vlonders</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr"/>
+          <t>ribben</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>tussen</t>
+        </is>
+      </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>plank</t>
+          <t>balk</t>
         </is>
       </c>
       <c r="E60" t="n">
+        <v>11</v>
+      </c>
+      <c r="F60" t="n">
+        <v>69.59999999999999</v>
+      </c>
+      <c r="G60" t="n">
+        <v>3</v>
+      </c>
+      <c r="H60" t="n">
+        <v>3</v>
+      </c>
+      <c r="I60" t="n">
+        <v>0</v>
+      </c>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
+      <c r="K60" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="L60" t="n">
+        <v>0</v>
+      </c>
+      <c r="M60" t="n">
+        <v>0</v>
+      </c>
+      <c r="N60" t="n">
+        <v>90</v>
+      </c>
+      <c r="O60" t="n">
         <v>1</v>
       </c>
-      <c r="F60" t="n">
-        <v>234.6</v>
-      </c>
-      <c r="G60" t="n">
-        <v>17</v>
-      </c>
-      <c r="H60" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
-      <c r="J60" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="K60" t="n">
-        <v>56.1</v>
-      </c>
-      <c r="L60" t="n">
-        <v>0</v>
-      </c>
-      <c r="M60" t="n">
-        <v>0</v>
-      </c>
-      <c r="N60" t="n">
-        <v>0</v>
-      </c>
-      <c r="O60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -3495,7 +3543,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>zeide</t>
+          <t>tussen</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -3504,10 +3552,10 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="F61" t="n">
-        <v>239.6</v>
+        <v>69.59999999999999</v>
       </c>
       <c r="G61" t="n">
         <v>3</v>
@@ -3516,25 +3564,25 @@
         <v>3</v>
       </c>
       <c r="I61" t="n">
-        <v>116.3</v>
+        <v>-96.3</v>
       </c>
       <c r="J61" t="n">
-        <v>38.5</v>
+        <v>0</v>
       </c>
       <c r="K61" t="n">
-        <v>130</v>
+        <v>63.5</v>
       </c>
       <c r="L61" t="n">
         <v>0</v>
       </c>
       <c r="M61" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="N61" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="O61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62">
@@ -3548,7 +3596,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>zeide</t>
+          <t>tussen</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -3557,37 +3605,37 @@
         </is>
       </c>
       <c r="E62" t="n">
+        <v>17</v>
+      </c>
+      <c r="F62" t="n">
+        <v>69.59999999999999</v>
+      </c>
+      <c r="G62" t="n">
+        <v>3</v>
+      </c>
+      <c r="H62" t="n">
+        <v>3</v>
+      </c>
+      <c r="I62" t="n">
+        <v>-96.3</v>
+      </c>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
+      <c r="K62" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="L62" t="n">
+        <v>0</v>
+      </c>
+      <c r="M62" t="n">
+        <v>0</v>
+      </c>
+      <c r="N62" t="n">
+        <v>90</v>
+      </c>
+      <c r="O62" t="n">
         <v>2</v>
-      </c>
-      <c r="F62" t="n">
-        <v>239.6</v>
-      </c>
-      <c r="G62" t="n">
-        <v>3</v>
-      </c>
-      <c r="H62" t="n">
-        <v>3</v>
-      </c>
-      <c r="I62" t="n">
-        <v>116.3</v>
-      </c>
-      <c r="J62" t="n">
-        <v>-38.5</v>
-      </c>
-      <c r="K62" t="n">
-        <v>130</v>
-      </c>
-      <c r="L62" t="n">
-        <v>0</v>
-      </c>
-      <c r="M62" t="n">
-        <v>90</v>
-      </c>
-      <c r="N62" t="n">
-        <v>0</v>
-      </c>
-      <c r="O62" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="63">
@@ -3601,7 +3649,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>zeide</t>
+          <t>onder</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -3610,10 +3658,10 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="F63" t="n">
-        <v>239.6</v>
+        <v>75.59999999999999</v>
       </c>
       <c r="G63" t="n">
         <v>3</v>
@@ -3622,25 +3670,25 @@
         <v>3</v>
       </c>
       <c r="I63" t="n">
-        <v>0</v>
+        <v>96.3</v>
       </c>
       <c r="J63" t="n">
-        <v>38.5</v>
+        <v>0</v>
       </c>
       <c r="K63" t="n">
-        <v>130</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="L63" t="n">
         <v>0</v>
       </c>
       <c r="M63" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="N63" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="O63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
@@ -3654,7 +3702,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>zeide</t>
+          <t>onder</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -3663,10 +3711,10 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F64" t="n">
-        <v>239.6</v>
+        <v>75.59999999999999</v>
       </c>
       <c r="G64" t="n">
         <v>3</v>
@@ -3678,19 +3726,19 @@
         <v>0</v>
       </c>
       <c r="J64" t="n">
-        <v>-38.5</v>
+        <v>0</v>
       </c>
       <c r="K64" t="n">
-        <v>130</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="L64" t="n">
         <v>0</v>
       </c>
       <c r="M64" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="N64" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="O64" t="n">
         <v>1</v>
@@ -3707,7 +3755,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>zeide</t>
+          <t>onder</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -3716,10 +3764,10 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F65" t="n">
-        <v>239.6</v>
+        <v>75.59999999999999</v>
       </c>
       <c r="G65" t="n">
         <v>3</v>
@@ -3728,22 +3776,22 @@
         <v>3</v>
       </c>
       <c r="I65" t="n">
-        <v>-116.3</v>
+        <v>-96.3</v>
       </c>
       <c r="J65" t="n">
-        <v>38.5</v>
+        <v>0</v>
       </c>
       <c r="K65" t="n">
-        <v>130</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="L65" t="n">
         <v>0</v>
       </c>
       <c r="M65" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="N65" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="O65" t="n">
         <v>2</v>
@@ -3760,7 +3808,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>zeide</t>
+          <t>boven</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -3769,10 +3817,10 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="F66" t="n">
-        <v>239.6</v>
+        <v>75.59999999999999</v>
       </c>
       <c r="G66" t="n">
         <v>3</v>
@@ -3781,25 +3829,25 @@
         <v>3</v>
       </c>
       <c r="I66" t="n">
-        <v>-116.3</v>
+        <v>96.3</v>
       </c>
       <c r="J66" t="n">
-        <v>-38.5</v>
+        <v>0</v>
       </c>
       <c r="K66" t="n">
-        <v>130</v>
+        <v>196.3</v>
       </c>
       <c r="L66" t="n">
         <v>0</v>
       </c>
       <c r="M66" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="N66" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="O66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
@@ -3813,7 +3861,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>tussen</t>
+          <t>boven</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -3822,10 +3870,10 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F67" t="n">
-        <v>74</v>
+        <v>75.59999999999999</v>
       </c>
       <c r="G67" t="n">
         <v>3</v>
@@ -3834,13 +3882,13 @@
         <v>3</v>
       </c>
       <c r="I67" t="n">
-        <v>116.3</v>
+        <v>0</v>
       </c>
       <c r="J67" t="n">
         <v>0</v>
       </c>
       <c r="K67" t="n">
-        <v>203.7</v>
+        <v>196.3</v>
       </c>
       <c r="L67" t="n">
         <v>0</v>
@@ -3852,7 +3900,7 @@
         <v>90</v>
       </c>
       <c r="O67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68">
@@ -3866,7 +3914,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>tussen</t>
+          <t>boven</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -3875,10 +3923,10 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="F68" t="n">
-        <v>74</v>
+        <v>75.59999999999999</v>
       </c>
       <c r="G68" t="n">
         <v>3</v>
@@ -3887,13 +3935,13 @@
         <v>3</v>
       </c>
       <c r="I68" t="n">
-        <v>116.3</v>
+        <v>-96.3</v>
       </c>
       <c r="J68" t="n">
         <v>0</v>
       </c>
       <c r="K68" t="n">
-        <v>153.5</v>
+        <v>196.3</v>
       </c>
       <c r="L68" t="n">
         <v>0</v>
@@ -3905,7 +3953,7 @@
         <v>90</v>
       </c>
       <c r="O68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69">
@@ -3919,7 +3967,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>tussen</t>
+          <t>achter</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -3928,10 +3976,10 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="F69" t="n">
-        <v>74</v>
+        <v>93.3</v>
       </c>
       <c r="G69" t="n">
         <v>3</v>
@@ -3940,13 +3988,13 @@
         <v>3</v>
       </c>
       <c r="I69" t="n">
-        <v>116.3</v>
+        <v>48.15</v>
       </c>
       <c r="J69" t="n">
-        <v>0</v>
+        <v>-36.3</v>
       </c>
       <c r="K69" t="n">
-        <v>103.5</v>
+        <v>65.7</v>
       </c>
       <c r="L69" t="n">
         <v>0</v>
@@ -3955,7 +4003,7 @@
         <v>0</v>
       </c>
       <c r="N69" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="O69" t="n">
         <v>0</v>
@@ -3972,7 +4020,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>tussen</t>
+          <t>achter</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -3981,10 +4029,10 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="F70" t="n">
-        <v>74</v>
+        <v>93.3</v>
       </c>
       <c r="G70" t="n">
         <v>3</v>
@@ -3993,13 +4041,13 @@
         <v>3</v>
       </c>
       <c r="I70" t="n">
-        <v>116.3</v>
+        <v>48.15</v>
       </c>
       <c r="J70" t="n">
-        <v>0</v>
+        <v>-36.3</v>
       </c>
       <c r="K70" t="n">
-        <v>53.5</v>
+        <v>13.9</v>
       </c>
       <c r="L70" t="n">
         <v>0</v>
@@ -4008,7 +4056,7 @@
         <v>0</v>
       </c>
       <c r="N70" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="O70" t="n">
         <v>0</v>
@@ -4025,7 +4073,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>tussen</t>
+          <t>achter</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -4034,10 +4082,10 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F71" t="n">
-        <v>74</v>
+        <v>93.3</v>
       </c>
       <c r="G71" t="n">
         <v>3</v>
@@ -4046,13 +4094,13 @@
         <v>3</v>
       </c>
       <c r="I71" t="n">
-        <v>0</v>
+        <v>-48.15</v>
       </c>
       <c r="J71" t="n">
-        <v>0</v>
+        <v>-36.3</v>
       </c>
       <c r="K71" t="n">
-        <v>203.7</v>
+        <v>65.7</v>
       </c>
       <c r="L71" t="n">
         <v>0</v>
@@ -4061,7 +4109,7 @@
         <v>0</v>
       </c>
       <c r="N71" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="O71" t="n">
         <v>1</v>
@@ -4078,7 +4126,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>tussen</t>
+          <t>achter</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -4087,10 +4135,10 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F72" t="n">
-        <v>74</v>
+        <v>93.3</v>
       </c>
       <c r="G72" t="n">
         <v>3</v>
@@ -4099,13 +4147,13 @@
         <v>3</v>
       </c>
       <c r="I72" t="n">
-        <v>0</v>
+        <v>-48.15</v>
       </c>
       <c r="J72" t="n">
-        <v>0</v>
+        <v>-36.3</v>
       </c>
       <c r="K72" t="n">
-        <v>153.5</v>
+        <v>13.9</v>
       </c>
       <c r="L72" t="n">
         <v>0</v>
@@ -4114,7 +4162,7 @@
         <v>0</v>
       </c>
       <c r="N72" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="O72" t="n">
         <v>1</v>
@@ -4126,39 +4174,39 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>ribben</t>
+          <t>onderstel</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>tussen</t>
+          <t>onderkant</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>balk</t>
+          <t>plank</t>
         </is>
       </c>
       <c r="E73" t="n">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="F73" t="n">
-        <v>74</v>
+        <v>195.6</v>
       </c>
       <c r="G73" t="n">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="H73" t="n">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
       <c r="J73" t="n">
-        <v>0</v>
+        <v>-7.799999999999997</v>
       </c>
       <c r="K73" t="n">
-        <v>103.5</v>
+        <v>6.1</v>
       </c>
       <c r="L73" t="n">
         <v>0</v>
@@ -4167,11 +4215,9 @@
         <v>0</v>
       </c>
       <c r="N73" t="n">
-        <v>90</v>
-      </c>
-      <c r="O73" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -4179,39 +4225,39 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>ribben</t>
+          <t>onderstel</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>tussen</t>
+          <t>onderkant</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>balk</t>
+          <t>plank</t>
         </is>
       </c>
       <c r="E74" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="F74" t="n">
-        <v>74</v>
+        <v>195.6</v>
       </c>
       <c r="G74" t="n">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="H74" t="n">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
       <c r="J74" t="n">
-        <v>0</v>
+        <v>-27.8</v>
       </c>
       <c r="K74" t="n">
-        <v>53.5</v>
+        <v>6.1</v>
       </c>
       <c r="L74" t="n">
         <v>0</v>
@@ -4220,11 +4266,9 @@
         <v>0</v>
       </c>
       <c r="N74" t="n">
-        <v>90</v>
-      </c>
-      <c r="O74" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -4232,39 +4276,39 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>ribben</t>
+          <t>onderstel</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>tussen</t>
+          <t>onderkant</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>balk</t>
+          <t>plank</t>
         </is>
       </c>
       <c r="E75" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="F75" t="n">
-        <v>74</v>
+        <v>195.6</v>
       </c>
       <c r="G75" t="n">
-        <v>3</v>
+        <v>17.8</v>
       </c>
       <c r="H75" t="n">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="I75" t="n">
-        <v>-116.3</v>
+        <v>0</v>
       </c>
       <c r="J75" t="n">
-        <v>0</v>
+        <v>28.9</v>
       </c>
       <c r="K75" t="n">
-        <v>203.7</v>
+        <v>6.1</v>
       </c>
       <c r="L75" t="n">
         <v>0</v>
@@ -4273,11 +4317,9 @@
         <v>0</v>
       </c>
       <c r="N75" t="n">
-        <v>90</v>
-      </c>
-      <c r="O75" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -4285,39 +4327,39 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>ribben</t>
+          <t>onderstel</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>tussen</t>
+          <t>onderkant</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>balk</t>
+          <t>plank</t>
         </is>
       </c>
       <c r="E76" t="n">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="F76" t="n">
-        <v>74</v>
+        <v>195.6</v>
       </c>
       <c r="G76" t="n">
-        <v>3</v>
+        <v>17.8</v>
       </c>
       <c r="H76" t="n">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="I76" t="n">
-        <v>-116.3</v>
+        <v>0</v>
       </c>
       <c r="J76" t="n">
-        <v>0</v>
+        <v>11.1</v>
       </c>
       <c r="K76" t="n">
-        <v>153.5</v>
+        <v>6.1</v>
       </c>
       <c r="L76" t="n">
         <v>0</v>
@@ -4326,11 +4368,9 @@
         <v>0</v>
       </c>
       <c r="N76" t="n">
-        <v>90</v>
-      </c>
-      <c r="O76" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -4338,39 +4378,39 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>ribben</t>
+          <t>onderstel</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>tussen</t>
+          <t>bovenkant</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>balk</t>
+          <t>plank</t>
         </is>
       </c>
       <c r="E77" t="n">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="F77" t="n">
-        <v>74</v>
+        <v>195.6</v>
       </c>
       <c r="G77" t="n">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="H77" t="n">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="I77" t="n">
-        <v>-116.3</v>
+        <v>0</v>
       </c>
       <c r="J77" t="n">
-        <v>0</v>
+        <v>-7.799999999999997</v>
       </c>
       <c r="K77" t="n">
-        <v>103.5</v>
+        <v>198.9</v>
       </c>
       <c r="L77" t="n">
         <v>0</v>
@@ -4379,11 +4419,9 @@
         <v>0</v>
       </c>
       <c r="N77" t="n">
-        <v>90</v>
-      </c>
-      <c r="O77" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -4391,39 +4429,39 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>ribben</t>
+          <t>onderstel</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>tussen</t>
+          <t>bovenkant</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>balk</t>
+          <t>plank</t>
         </is>
       </c>
       <c r="E78" t="n">
+        <v>7</v>
+      </c>
+      <c r="F78" t="n">
+        <v>195.6</v>
+      </c>
+      <c r="G78" t="n">
         <v>20</v>
       </c>
-      <c r="F78" t="n">
-        <v>74</v>
-      </c>
-      <c r="G78" t="n">
-        <v>3</v>
-      </c>
       <c r="H78" t="n">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="I78" t="n">
-        <v>-116.3</v>
+        <v>0</v>
       </c>
       <c r="J78" t="n">
-        <v>0</v>
+        <v>-27.8</v>
       </c>
       <c r="K78" t="n">
-        <v>53.5</v>
+        <v>198.9</v>
       </c>
       <c r="L78" t="n">
         <v>0</v>
@@ -4432,11 +4470,9 @@
         <v>0</v>
       </c>
       <c r="N78" t="n">
-        <v>90</v>
-      </c>
-      <c r="O78" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -4444,39 +4480,39 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>ribben</t>
+          <t>onderstel</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>onder</t>
+          <t>bovenkant</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>balk</t>
+          <t>plank</t>
         </is>
       </c>
       <c r="E79" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F79" t="n">
-        <v>80</v>
+        <v>195.6</v>
       </c>
       <c r="G79" t="n">
-        <v>3</v>
+        <v>17.8</v>
       </c>
       <c r="H79" t="n">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="I79" t="n">
-        <v>116.3</v>
+        <v>0</v>
       </c>
       <c r="J79" t="n">
-        <v>0</v>
+        <v>28.9</v>
       </c>
       <c r="K79" t="n">
-        <v>8.699999999999999</v>
+        <v>198.9</v>
       </c>
       <c r="L79" t="n">
         <v>0</v>
@@ -4485,11 +4521,9 @@
         <v>0</v>
       </c>
       <c r="N79" t="n">
-        <v>90</v>
-      </c>
-      <c r="O79" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -4497,39 +4531,39 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>ribben</t>
+          <t>onderstel</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>onder</t>
+          <t>bovenkant</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>balk</t>
+          <t>plank</t>
         </is>
       </c>
       <c r="E80" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F80" t="n">
-        <v>80</v>
+        <v>195.6</v>
       </c>
       <c r="G80" t="n">
-        <v>3</v>
+        <v>17.8</v>
       </c>
       <c r="H80" t="n">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
       <c r="J80" t="n">
-        <v>0</v>
+        <v>11.1</v>
       </c>
       <c r="K80" t="n">
-        <v>8.699999999999999</v>
+        <v>198.9</v>
       </c>
       <c r="L80" t="n">
         <v>0</v>
@@ -4538,11 +4572,9 @@
         <v>0</v>
       </c>
       <c r="N80" t="n">
-        <v>90</v>
-      </c>
-      <c r="O80" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -4550,52 +4582,46 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>ribben</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>onder</t>
-        </is>
-      </c>
+          <t>achterplank</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr"/>
       <c r="D81" t="inlineStr">
         <is>
-          <t>balk</t>
+          <t>plank</t>
         </is>
       </c>
       <c r="E81" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="F81" t="n">
-        <v>80</v>
+        <v>195</v>
       </c>
       <c r="G81" t="n">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="H81" t="n">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="I81" t="n">
-        <v>-116.3</v>
+        <v>90</v>
       </c>
       <c r="J81" t="n">
-        <v>0</v>
+        <v>-38.9</v>
       </c>
       <c r="K81" t="n">
-        <v>8.699999999999999</v>
+        <v>102.5</v>
       </c>
       <c r="L81" t="n">
         <v>0</v>
       </c>
       <c r="M81" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="N81" t="n">
         <v>90</v>
       </c>
-      <c r="O81" t="n">
-        <v>2</v>
-      </c>
+      <c r="O81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -4603,52 +4629,46 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>ribben</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>boven</t>
-        </is>
-      </c>
+          <t>achterplank</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr"/>
       <c r="D82" t="inlineStr">
         <is>
-          <t>balk</t>
+          <t>plank</t>
         </is>
       </c>
       <c r="E82" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F82" t="n">
-        <v>80</v>
+        <v>195</v>
       </c>
       <c r="G82" t="n">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="H82" t="n">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="I82" t="n">
-        <v>116.3</v>
+        <v>70</v>
       </c>
       <c r="J82" t="n">
-        <v>0</v>
+        <v>-38.9</v>
       </c>
       <c r="K82" t="n">
-        <v>251.3</v>
+        <v>102.5</v>
       </c>
       <c r="L82" t="n">
         <v>0</v>
       </c>
       <c r="M82" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="N82" t="n">
         <v>90</v>
       </c>
-      <c r="O82" t="n">
-        <v>0</v>
-      </c>
+      <c r="O82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -4656,52 +4676,46 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>ribben</t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>boven</t>
-        </is>
-      </c>
+          <t>achterplank</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr"/>
       <c r="D83" t="inlineStr">
         <is>
-          <t>balk</t>
+          <t>plank</t>
         </is>
       </c>
       <c r="E83" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="F83" t="n">
-        <v>80</v>
+        <v>195</v>
       </c>
       <c r="G83" t="n">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="H83" t="n">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="I83" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="J83" t="n">
-        <v>0</v>
+        <v>-38.9</v>
       </c>
       <c r="K83" t="n">
-        <v>251.3</v>
+        <v>102.5</v>
       </c>
       <c r="L83" t="n">
         <v>0</v>
       </c>
       <c r="M83" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="N83" t="n">
         <v>90</v>
       </c>
-      <c r="O83" t="n">
-        <v>1</v>
-      </c>
+      <c r="O83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -4709,52 +4723,46 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>ribben</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>boven</t>
-        </is>
-      </c>
+          <t>achterplank</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr"/>
       <c r="D84" t="inlineStr">
         <is>
-          <t>balk</t>
+          <t>plank</t>
         </is>
       </c>
       <c r="E84" t="n">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="F84" t="n">
-        <v>80</v>
+        <v>195</v>
       </c>
       <c r="G84" t="n">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="H84" t="n">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="I84" t="n">
-        <v>-116.3</v>
+        <v>30</v>
       </c>
       <c r="J84" t="n">
-        <v>0</v>
+        <v>-38.9</v>
       </c>
       <c r="K84" t="n">
-        <v>251.3</v>
+        <v>102.5</v>
       </c>
       <c r="L84" t="n">
         <v>0</v>
       </c>
       <c r="M84" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="N84" t="n">
         <v>90</v>
       </c>
-      <c r="O84" t="n">
-        <v>2</v>
-      </c>
+      <c r="O84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -4762,52 +4770,46 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>ribben</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>achter</t>
-        </is>
-      </c>
+          <t>achterplank</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr"/>
       <c r="D85" t="inlineStr">
         <is>
-          <t>balk</t>
+          <t>plank</t>
         </is>
       </c>
       <c r="E85" t="n">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="F85" t="n">
-        <v>113.3</v>
+        <v>195</v>
       </c>
       <c r="G85" t="n">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="H85" t="n">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="I85" t="n">
-        <v>58.15</v>
+        <v>10</v>
       </c>
       <c r="J85" t="n">
-        <v>-38.5</v>
+        <v>-38.9</v>
       </c>
       <c r="K85" t="n">
-        <v>205.9</v>
+        <v>102.5</v>
       </c>
       <c r="L85" t="n">
         <v>0</v>
       </c>
       <c r="M85" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="N85" t="n">
-        <v>0</v>
-      </c>
-      <c r="O85" t="n">
-        <v>0</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="O85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -4815,52 +4817,46 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>ribben</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>achter</t>
-        </is>
-      </c>
+          <t>achterplank</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr"/>
       <c r="D86" t="inlineStr">
         <is>
-          <t>balk</t>
+          <t>plank</t>
         </is>
       </c>
       <c r="E86" t="n">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="F86" t="n">
-        <v>113.3</v>
+        <v>195</v>
       </c>
       <c r="G86" t="n">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="H86" t="n">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="I86" t="n">
-        <v>58.15</v>
+        <v>-10</v>
       </c>
       <c r="J86" t="n">
-        <v>-38.5</v>
+        <v>-38.9</v>
       </c>
       <c r="K86" t="n">
-        <v>155.7</v>
+        <v>102.5</v>
       </c>
       <c r="L86" t="n">
         <v>0</v>
       </c>
       <c r="M86" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="N86" t="n">
-        <v>0</v>
-      </c>
-      <c r="O86" t="n">
-        <v>0</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="O86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -4868,52 +4864,46 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>ribben</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>achter</t>
-        </is>
-      </c>
+          <t>achterplank</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr"/>
       <c r="D87" t="inlineStr">
         <is>
-          <t>balk</t>
+          <t>plank</t>
         </is>
       </c>
       <c r="E87" t="n">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="F87" t="n">
-        <v>113.3</v>
+        <v>195</v>
       </c>
       <c r="G87" t="n">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="H87" t="n">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="I87" t="n">
-        <v>58.15</v>
+        <v>-30</v>
       </c>
       <c r="J87" t="n">
-        <v>-38.5</v>
+        <v>-38.9</v>
       </c>
       <c r="K87" t="n">
-        <v>105.7</v>
+        <v>102.5</v>
       </c>
       <c r="L87" t="n">
         <v>0</v>
       </c>
       <c r="M87" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="N87" t="n">
-        <v>0</v>
-      </c>
-      <c r="O87" t="n">
-        <v>0</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="O87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -4921,52 +4911,46 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>ribben</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>achter</t>
-        </is>
-      </c>
+          <t>achterplank</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr"/>
       <c r="D88" t="inlineStr">
         <is>
-          <t>balk</t>
+          <t>plank</t>
         </is>
       </c>
       <c r="E88" t="n">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="F88" t="n">
-        <v>113.3</v>
+        <v>195</v>
       </c>
       <c r="G88" t="n">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="H88" t="n">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="I88" t="n">
-        <v>58.15</v>
+        <v>-50</v>
       </c>
       <c r="J88" t="n">
-        <v>-38.5</v>
+        <v>-38.9</v>
       </c>
       <c r="K88" t="n">
-        <v>55.7</v>
+        <v>102.5</v>
       </c>
       <c r="L88" t="n">
         <v>0</v>
       </c>
       <c r="M88" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="N88" t="n">
-        <v>0</v>
-      </c>
-      <c r="O88" t="n">
-        <v>0</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="O88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -4974,52 +4958,46 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>ribben</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>achter</t>
-        </is>
-      </c>
+          <t>achterplank</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr"/>
       <c r="D89" t="inlineStr">
         <is>
-          <t>balk</t>
+          <t>plank</t>
         </is>
       </c>
       <c r="E89" t="n">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="F89" t="n">
-        <v>113.3</v>
+        <v>195</v>
       </c>
       <c r="G89" t="n">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="H89" t="n">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="I89" t="n">
-        <v>-58.15</v>
+        <v>-70</v>
       </c>
       <c r="J89" t="n">
-        <v>-38.5</v>
+        <v>-38.9</v>
       </c>
       <c r="K89" t="n">
-        <v>205.9</v>
+        <v>102.5</v>
       </c>
       <c r="L89" t="n">
         <v>0</v>
       </c>
       <c r="M89" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="N89" t="n">
-        <v>0</v>
-      </c>
-      <c r="O89" t="n">
-        <v>1</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="O89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -5027,1130 +5005,46 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>ribben</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>achter</t>
-        </is>
-      </c>
+          <t>achterplank</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr"/>
       <c r="D90" t="inlineStr">
         <is>
-          <t>balk</t>
+          <t>plank</t>
         </is>
       </c>
       <c r="E90" t="n">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="F90" t="n">
-        <v>113.3</v>
+        <v>195</v>
       </c>
       <c r="G90" t="n">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="H90" t="n">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="I90" t="n">
-        <v>-58.15</v>
+        <v>-90</v>
       </c>
       <c r="J90" t="n">
-        <v>-38.5</v>
+        <v>-38.9</v>
       </c>
       <c r="K90" t="n">
-        <v>155.7</v>
+        <v>102.5</v>
       </c>
       <c r="L90" t="n">
         <v>0</v>
       </c>
       <c r="M90" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="N90" t="n">
-        <v>0</v>
-      </c>
-      <c r="O90" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" s="1" t="n">
-        <v>89</v>
-      </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>ribben</t>
-        </is>
-      </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>achter</t>
-        </is>
-      </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>balk</t>
-        </is>
-      </c>
-      <c r="E91" t="n">
-        <v>29</v>
-      </c>
-      <c r="F91" t="n">
-        <v>113.3</v>
-      </c>
-      <c r="G91" t="n">
-        <v>3</v>
-      </c>
-      <c r="H91" t="n">
-        <v>3</v>
-      </c>
-      <c r="I91" t="n">
-        <v>-58.15</v>
-      </c>
-      <c r="J91" t="n">
-        <v>-38.5</v>
-      </c>
-      <c r="K91" t="n">
-        <v>105.7</v>
-      </c>
-      <c r="L91" t="n">
-        <v>0</v>
-      </c>
-      <c r="M91" t="n">
-        <v>0</v>
-      </c>
-      <c r="N91" t="n">
-        <v>0</v>
-      </c>
-      <c r="O91" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" s="1" t="n">
-        <v>90</v>
-      </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>ribben</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>achter</t>
-        </is>
-      </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>balk</t>
-        </is>
-      </c>
-      <c r="E92" t="n">
-        <v>28</v>
-      </c>
-      <c r="F92" t="n">
-        <v>113.3</v>
-      </c>
-      <c r="G92" t="n">
-        <v>3</v>
-      </c>
-      <c r="H92" t="n">
-        <v>3</v>
-      </c>
-      <c r="I92" t="n">
-        <v>-58.15</v>
-      </c>
-      <c r="J92" t="n">
-        <v>-38.5</v>
-      </c>
-      <c r="K92" t="n">
-        <v>55.7</v>
-      </c>
-      <c r="L92" t="n">
-        <v>0</v>
-      </c>
-      <c r="M92" t="n">
-        <v>0</v>
-      </c>
-      <c r="N92" t="n">
-        <v>0</v>
-      </c>
-      <c r="O92" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" s="1" t="n">
-        <v>91</v>
-      </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>onderstel</t>
-        </is>
-      </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>onderkant</t>
-        </is>
-      </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>plank</t>
-        </is>
-      </c>
-      <c r="E93" t="n">
-        <v>0</v>
-      </c>
-      <c r="F93" t="n">
-        <v>235.6</v>
-      </c>
-      <c r="G93" t="n">
-        <v>20</v>
-      </c>
-      <c r="H93" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
-      <c r="J93" t="n">
-        <v>30</v>
-      </c>
-      <c r="K93" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="L93" t="n">
-        <v>0</v>
-      </c>
-      <c r="M93" t="n">
-        <v>0</v>
-      </c>
-      <c r="N93" t="n">
-        <v>0</v>
-      </c>
-      <c r="O93" t="inlineStr"/>
-    </row>
-    <row r="94">
-      <c r="A94" s="1" t="n">
-        <v>92</v>
-      </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>onderstel</t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>onderkant</t>
-        </is>
-      </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>plank</t>
-        </is>
-      </c>
-      <c r="E94" t="n">
-        <v>1</v>
-      </c>
-      <c r="F94" t="n">
-        <v>235.6</v>
-      </c>
-      <c r="G94" t="n">
-        <v>20</v>
-      </c>
-      <c r="H94" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>10</v>
-      </c>
-      <c r="K94" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="L94" t="n">
-        <v>0</v>
-      </c>
-      <c r="M94" t="n">
-        <v>0</v>
-      </c>
-      <c r="N94" t="n">
-        <v>0</v>
-      </c>
-      <c r="O94" t="inlineStr"/>
-    </row>
-    <row r="95">
-      <c r="A95" s="1" t="n">
-        <v>93</v>
-      </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>onderstel</t>
-        </is>
-      </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>onderkant</t>
-        </is>
-      </c>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>plank</t>
-        </is>
-      </c>
-      <c r="E95" t="n">
-        <v>2</v>
-      </c>
-      <c r="F95" t="n">
-        <v>235.6</v>
-      </c>
-      <c r="G95" t="n">
-        <v>20</v>
-      </c>
-      <c r="H95" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
-      <c r="J95" t="n">
-        <v>-10</v>
-      </c>
-      <c r="K95" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="L95" t="n">
-        <v>0</v>
-      </c>
-      <c r="M95" t="n">
-        <v>0</v>
-      </c>
-      <c r="N95" t="n">
-        <v>0</v>
-      </c>
-      <c r="O95" t="inlineStr"/>
-    </row>
-    <row r="96">
-      <c r="A96" s="1" t="n">
-        <v>94</v>
-      </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>onderstel</t>
-        </is>
-      </c>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>onderkant</t>
-        </is>
-      </c>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>plank</t>
-        </is>
-      </c>
-      <c r="E96" t="n">
-        <v>3</v>
-      </c>
-      <c r="F96" t="n">
-        <v>235.6</v>
-      </c>
-      <c r="G96" t="n">
-        <v>20</v>
-      </c>
-      <c r="H96" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>-30</v>
-      </c>
-      <c r="K96" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="L96" t="n">
-        <v>0</v>
-      </c>
-      <c r="M96" t="n">
-        <v>0</v>
-      </c>
-      <c r="N96" t="n">
-        <v>0</v>
-      </c>
-      <c r="O96" t="inlineStr"/>
-    </row>
-    <row r="97">
-      <c r="A97" s="1" t="n">
-        <v>95</v>
-      </c>
-      <c r="B97" t="inlineStr">
-        <is>
-          <t>onderstel</t>
-        </is>
-      </c>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>bovenkant</t>
-        </is>
-      </c>
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>plank</t>
-        </is>
-      </c>
-      <c r="E97" t="n">
-        <v>4</v>
-      </c>
-      <c r="F97" t="n">
-        <v>235.6</v>
-      </c>
-      <c r="G97" t="n">
-        <v>20</v>
-      </c>
-      <c r="H97" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
-      <c r="J97" t="n">
-        <v>30</v>
-      </c>
-      <c r="K97" t="n">
-        <v>253.9</v>
-      </c>
-      <c r="L97" t="n">
-        <v>0</v>
-      </c>
-      <c r="M97" t="n">
-        <v>0</v>
-      </c>
-      <c r="N97" t="n">
-        <v>0</v>
-      </c>
-      <c r="O97" t="inlineStr"/>
-    </row>
-    <row r="98">
-      <c r="A98" s="1" t="n">
-        <v>96</v>
-      </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>onderstel</t>
-        </is>
-      </c>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>bovenkant</t>
-        </is>
-      </c>
-      <c r="D98" t="inlineStr">
-        <is>
-          <t>plank</t>
-        </is>
-      </c>
-      <c r="E98" t="n">
-        <v>5</v>
-      </c>
-      <c r="F98" t="n">
-        <v>235.6</v>
-      </c>
-      <c r="G98" t="n">
-        <v>20</v>
-      </c>
-      <c r="H98" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
-      <c r="J98" t="n">
-        <v>10</v>
-      </c>
-      <c r="K98" t="n">
-        <v>253.9</v>
-      </c>
-      <c r="L98" t="n">
-        <v>0</v>
-      </c>
-      <c r="M98" t="n">
-        <v>0</v>
-      </c>
-      <c r="N98" t="n">
-        <v>0</v>
-      </c>
-      <c r="O98" t="inlineStr"/>
-    </row>
-    <row r="99">
-      <c r="A99" s="1" t="n">
-        <v>97</v>
-      </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>onderstel</t>
-        </is>
-      </c>
-      <c r="C99" t="inlineStr">
-        <is>
-          <t>bovenkant</t>
-        </is>
-      </c>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>plank</t>
-        </is>
-      </c>
-      <c r="E99" t="n">
-        <v>6</v>
-      </c>
-      <c r="F99" t="n">
-        <v>235.6</v>
-      </c>
-      <c r="G99" t="n">
-        <v>20</v>
-      </c>
-      <c r="H99" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
-      <c r="J99" t="n">
-        <v>-10</v>
-      </c>
-      <c r="K99" t="n">
-        <v>253.9</v>
-      </c>
-      <c r="L99" t="n">
-        <v>0</v>
-      </c>
-      <c r="M99" t="n">
-        <v>0</v>
-      </c>
-      <c r="N99" t="n">
-        <v>0</v>
-      </c>
-      <c r="O99" t="inlineStr"/>
-    </row>
-    <row r="100">
-      <c r="A100" s="1" t="n">
-        <v>98</v>
-      </c>
-      <c r="B100" t="inlineStr">
-        <is>
-          <t>onderstel</t>
-        </is>
-      </c>
-      <c r="C100" t="inlineStr">
-        <is>
-          <t>bovenkant</t>
-        </is>
-      </c>
-      <c r="D100" t="inlineStr">
-        <is>
-          <t>plank</t>
-        </is>
-      </c>
-      <c r="E100" t="n">
-        <v>7</v>
-      </c>
-      <c r="F100" t="n">
-        <v>235.6</v>
-      </c>
-      <c r="G100" t="n">
-        <v>20</v>
-      </c>
-      <c r="H100" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
-      <c r="J100" t="n">
-        <v>-30</v>
-      </c>
-      <c r="K100" t="n">
-        <v>253.9</v>
-      </c>
-      <c r="L100" t="n">
-        <v>0</v>
-      </c>
-      <c r="M100" t="n">
-        <v>0</v>
-      </c>
-      <c r="N100" t="n">
-        <v>0</v>
-      </c>
-      <c r="O100" t="inlineStr"/>
-    </row>
-    <row r="101">
-      <c r="A101" s="1" t="n">
-        <v>99</v>
-      </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>achterplank</t>
-        </is>
-      </c>
-      <c r="C101" t="inlineStr"/>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>plank</t>
-        </is>
-      </c>
-      <c r="E101" t="n">
-        <v>0</v>
-      </c>
-      <c r="F101" t="n">
-        <v>250</v>
-      </c>
-      <c r="G101" t="n">
-        <v>20</v>
-      </c>
-      <c r="H101" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="I101" t="n">
-        <v>110</v>
-      </c>
-      <c r="J101" t="n">
-        <v>-41.1</v>
-      </c>
-      <c r="K101" t="n">
-        <v>130</v>
-      </c>
-      <c r="L101" t="n">
-        <v>0</v>
-      </c>
-      <c r="M101" t="n">
-        <v>90</v>
-      </c>
-      <c r="N101" t="n">
-        <v>90</v>
-      </c>
-      <c r="O101" t="inlineStr"/>
-    </row>
-    <row r="102">
-      <c r="A102" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="B102" t="inlineStr">
-        <is>
-          <t>achterplank</t>
-        </is>
-      </c>
-      <c r="C102" t="inlineStr"/>
-      <c r="D102" t="inlineStr">
-        <is>
-          <t>plank</t>
-        </is>
-      </c>
-      <c r="E102" t="n">
-        <v>1</v>
-      </c>
-      <c r="F102" t="n">
-        <v>250</v>
-      </c>
-      <c r="G102" t="n">
-        <v>20</v>
-      </c>
-      <c r="H102" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="I102" t="n">
-        <v>90</v>
-      </c>
-      <c r="J102" t="n">
-        <v>-41.1</v>
-      </c>
-      <c r="K102" t="n">
-        <v>130</v>
-      </c>
-      <c r="L102" t="n">
-        <v>0</v>
-      </c>
-      <c r="M102" t="n">
-        <v>90</v>
-      </c>
-      <c r="N102" t="n">
-        <v>90</v>
-      </c>
-      <c r="O102" t="inlineStr"/>
-    </row>
-    <row r="103">
-      <c r="A103" s="1" t="n">
-        <v>101</v>
-      </c>
-      <c r="B103" t="inlineStr">
-        <is>
-          <t>achterplank</t>
-        </is>
-      </c>
-      <c r="C103" t="inlineStr"/>
-      <c r="D103" t="inlineStr">
-        <is>
-          <t>plank</t>
-        </is>
-      </c>
-      <c r="E103" t="n">
-        <v>2</v>
-      </c>
-      <c r="F103" t="n">
-        <v>250</v>
-      </c>
-      <c r="G103" t="n">
-        <v>20</v>
-      </c>
-      <c r="H103" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="I103" t="n">
-        <v>70</v>
-      </c>
-      <c r="J103" t="n">
-        <v>-41.1</v>
-      </c>
-      <c r="K103" t="n">
-        <v>130</v>
-      </c>
-      <c r="L103" t="n">
-        <v>0</v>
-      </c>
-      <c r="M103" t="n">
-        <v>90</v>
-      </c>
-      <c r="N103" t="n">
-        <v>90</v>
-      </c>
-      <c r="O103" t="inlineStr"/>
-    </row>
-    <row r="104">
-      <c r="A104" s="1" t="n">
-        <v>102</v>
-      </c>
-      <c r="B104" t="inlineStr">
-        <is>
-          <t>achterplank</t>
-        </is>
-      </c>
-      <c r="C104" t="inlineStr"/>
-      <c r="D104" t="inlineStr">
-        <is>
-          <t>plank</t>
-        </is>
-      </c>
-      <c r="E104" t="n">
-        <v>3</v>
-      </c>
-      <c r="F104" t="n">
-        <v>250</v>
-      </c>
-      <c r="G104" t="n">
-        <v>20</v>
-      </c>
-      <c r="H104" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="I104" t="n">
-        <v>50</v>
-      </c>
-      <c r="J104" t="n">
-        <v>-41.1</v>
-      </c>
-      <c r="K104" t="n">
-        <v>130</v>
-      </c>
-      <c r="L104" t="n">
-        <v>0</v>
-      </c>
-      <c r="M104" t="n">
-        <v>90</v>
-      </c>
-      <c r="N104" t="n">
-        <v>90</v>
-      </c>
-      <c r="O104" t="inlineStr"/>
-    </row>
-    <row r="105">
-      <c r="A105" s="1" t="n">
-        <v>103</v>
-      </c>
-      <c r="B105" t="inlineStr">
-        <is>
-          <t>achterplank</t>
-        </is>
-      </c>
-      <c r="C105" t="inlineStr"/>
-      <c r="D105" t="inlineStr">
-        <is>
-          <t>plank</t>
-        </is>
-      </c>
-      <c r="E105" t="n">
-        <v>4</v>
-      </c>
-      <c r="F105" t="n">
-        <v>250</v>
-      </c>
-      <c r="G105" t="n">
-        <v>20</v>
-      </c>
-      <c r="H105" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="I105" t="n">
-        <v>30</v>
-      </c>
-      <c r="J105" t="n">
-        <v>-41.1</v>
-      </c>
-      <c r="K105" t="n">
-        <v>130</v>
-      </c>
-      <c r="L105" t="n">
-        <v>0</v>
-      </c>
-      <c r="M105" t="n">
-        <v>90</v>
-      </c>
-      <c r="N105" t="n">
-        <v>90</v>
-      </c>
-      <c r="O105" t="inlineStr"/>
-    </row>
-    <row r="106">
-      <c r="A106" s="1" t="n">
-        <v>104</v>
-      </c>
-      <c r="B106" t="inlineStr">
-        <is>
-          <t>achterplank</t>
-        </is>
-      </c>
-      <c r="C106" t="inlineStr"/>
-      <c r="D106" t="inlineStr">
-        <is>
-          <t>plank</t>
-        </is>
-      </c>
-      <c r="E106" t="n">
-        <v>5</v>
-      </c>
-      <c r="F106" t="n">
-        <v>250</v>
-      </c>
-      <c r="G106" t="n">
-        <v>20</v>
-      </c>
-      <c r="H106" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="I106" t="n">
-        <v>10</v>
-      </c>
-      <c r="J106" t="n">
-        <v>-41.1</v>
-      </c>
-      <c r="K106" t="n">
-        <v>130</v>
-      </c>
-      <c r="L106" t="n">
-        <v>0</v>
-      </c>
-      <c r="M106" t="n">
-        <v>90</v>
-      </c>
-      <c r="N106" t="n">
-        <v>90</v>
-      </c>
-      <c r="O106" t="inlineStr"/>
-    </row>
-    <row r="107">
-      <c r="A107" s="1" t="n">
-        <v>105</v>
-      </c>
-      <c r="B107" t="inlineStr">
-        <is>
-          <t>achterplank</t>
-        </is>
-      </c>
-      <c r="C107" t="inlineStr"/>
-      <c r="D107" t="inlineStr">
-        <is>
-          <t>plank</t>
-        </is>
-      </c>
-      <c r="E107" t="n">
-        <v>6</v>
-      </c>
-      <c r="F107" t="n">
-        <v>250</v>
-      </c>
-      <c r="G107" t="n">
-        <v>20</v>
-      </c>
-      <c r="H107" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="I107" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J107" t="n">
-        <v>-41.1</v>
-      </c>
-      <c r="K107" t="n">
-        <v>130</v>
-      </c>
-      <c r="L107" t="n">
-        <v>0</v>
-      </c>
-      <c r="M107" t="n">
-        <v>90</v>
-      </c>
-      <c r="N107" t="n">
-        <v>90</v>
-      </c>
-      <c r="O107" t="inlineStr"/>
-    </row>
-    <row r="108">
-      <c r="A108" s="1" t="n">
-        <v>106</v>
-      </c>
-      <c r="B108" t="inlineStr">
-        <is>
-          <t>achterplank</t>
-        </is>
-      </c>
-      <c r="C108" t="inlineStr"/>
-      <c r="D108" t="inlineStr">
-        <is>
-          <t>plank</t>
-        </is>
-      </c>
-      <c r="E108" t="n">
-        <v>7</v>
-      </c>
-      <c r="F108" t="n">
-        <v>250</v>
-      </c>
-      <c r="G108" t="n">
-        <v>20</v>
-      </c>
-      <c r="H108" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="I108" t="n">
-        <v>-30</v>
-      </c>
-      <c r="J108" t="n">
-        <v>-41.1</v>
-      </c>
-      <c r="K108" t="n">
-        <v>130</v>
-      </c>
-      <c r="L108" t="n">
-        <v>0</v>
-      </c>
-      <c r="M108" t="n">
-        <v>90</v>
-      </c>
-      <c r="N108" t="n">
-        <v>90</v>
-      </c>
-      <c r="O108" t="inlineStr"/>
-    </row>
-    <row r="109">
-      <c r="A109" s="1" t="n">
-        <v>107</v>
-      </c>
-      <c r="B109" t="inlineStr">
-        <is>
-          <t>achterplank</t>
-        </is>
-      </c>
-      <c r="C109" t="inlineStr"/>
-      <c r="D109" t="inlineStr">
-        <is>
-          <t>plank</t>
-        </is>
-      </c>
-      <c r="E109" t="n">
-        <v>8</v>
-      </c>
-      <c r="F109" t="n">
-        <v>250</v>
-      </c>
-      <c r="G109" t="n">
-        <v>20</v>
-      </c>
-      <c r="H109" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="I109" t="n">
-        <v>-50</v>
-      </c>
-      <c r="J109" t="n">
-        <v>-41.1</v>
-      </c>
-      <c r="K109" t="n">
-        <v>130</v>
-      </c>
-      <c r="L109" t="n">
-        <v>0</v>
-      </c>
-      <c r="M109" t="n">
-        <v>90</v>
-      </c>
-      <c r="N109" t="n">
-        <v>90</v>
-      </c>
-      <c r="O109" t="inlineStr"/>
-    </row>
-    <row r="110">
-      <c r="A110" s="1" t="n">
-        <v>108</v>
-      </c>
-      <c r="B110" t="inlineStr">
-        <is>
-          <t>achterplank</t>
-        </is>
-      </c>
-      <c r="C110" t="inlineStr"/>
-      <c r="D110" t="inlineStr">
-        <is>
-          <t>plank</t>
-        </is>
-      </c>
-      <c r="E110" t="n">
-        <v>9</v>
-      </c>
-      <c r="F110" t="n">
-        <v>250</v>
-      </c>
-      <c r="G110" t="n">
-        <v>20</v>
-      </c>
-      <c r="H110" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="I110" t="n">
-        <v>-70</v>
-      </c>
-      <c r="J110" t="n">
-        <v>-41.1</v>
-      </c>
-      <c r="K110" t="n">
-        <v>130</v>
-      </c>
-      <c r="L110" t="n">
-        <v>0</v>
-      </c>
-      <c r="M110" t="n">
-        <v>90</v>
-      </c>
-      <c r="N110" t="n">
-        <v>90</v>
-      </c>
-      <c r="O110" t="inlineStr"/>
-    </row>
-    <row r="111">
-      <c r="A111" s="1" t="n">
-        <v>109</v>
-      </c>
-      <c r="B111" t="inlineStr">
-        <is>
-          <t>achterplank</t>
-        </is>
-      </c>
-      <c r="C111" t="inlineStr"/>
-      <c r="D111" t="inlineStr">
-        <is>
-          <t>plank</t>
-        </is>
-      </c>
-      <c r="E111" t="n">
-        <v>10</v>
-      </c>
-      <c r="F111" t="n">
-        <v>250</v>
-      </c>
-      <c r="G111" t="n">
-        <v>20</v>
-      </c>
-      <c r="H111" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="I111" t="n">
-        <v>-90</v>
-      </c>
-      <c r="J111" t="n">
-        <v>-41.1</v>
-      </c>
-      <c r="K111" t="n">
-        <v>130</v>
-      </c>
-      <c r="L111" t="n">
-        <v>0</v>
-      </c>
-      <c r="M111" t="n">
-        <v>90</v>
-      </c>
-      <c r="N111" t="n">
-        <v>90</v>
-      </c>
-      <c r="O111" t="inlineStr"/>
-    </row>
-    <row r="112">
-      <c r="A112" s="1" t="n">
-        <v>110</v>
-      </c>
-      <c r="B112" t="inlineStr">
-        <is>
-          <t>achterplank</t>
-        </is>
-      </c>
-      <c r="C112" t="inlineStr"/>
-      <c r="D112" t="inlineStr">
-        <is>
-          <t>plank</t>
-        </is>
-      </c>
-      <c r="E112" t="n">
-        <v>11</v>
-      </c>
-      <c r="F112" t="n">
-        <v>250</v>
-      </c>
-      <c r="G112" t="n">
-        <v>20</v>
-      </c>
-      <c r="H112" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="I112" t="n">
-        <v>-110</v>
-      </c>
-      <c r="J112" t="n">
-        <v>-41.1</v>
-      </c>
-      <c r="K112" t="n">
-        <v>130</v>
-      </c>
-      <c r="L112" t="n">
-        <v>0</v>
-      </c>
-      <c r="M112" t="n">
-        <v>90</v>
-      </c>
-      <c r="N112" t="n">
-        <v>90</v>
-      </c>
-      <c r="O112" t="inlineStr"/>
+        <v>90</v>
+      </c>
+      <c r="O90" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/plankenlijst.xlsx
+++ b/plankenlijst.xlsx
@@ -3761,7 +3761,7 @@
         <v>-4.799999999999996</v>
       </c>
       <c r="K64" t="n">
-        <v>110.5</v>
+        <v>106.7</v>
       </c>
       <c r="L64" t="n">
         <v>0</v>
@@ -3808,7 +3808,7 @@
         <v>-4.799999999999996</v>
       </c>
       <c r="K65" t="n">
-        <v>67.3</v>
+        <v>59</v>
       </c>
       <c r="L65" t="n">
         <v>0</v>
@@ -3902,7 +3902,7 @@
         <v>-24.8</v>
       </c>
       <c r="K67" t="n">
-        <v>110.5</v>
+        <v>106.7</v>
       </c>
       <c r="L67" t="n">
         <v>0</v>
@@ -3949,7 +3949,7 @@
         <v>-24.8</v>
       </c>
       <c r="K68" t="n">
-        <v>67.3</v>
+        <v>59</v>
       </c>
       <c r="L68" t="n">
         <v>0</v>
@@ -4043,7 +4043,7 @@
         <v>27.4</v>
       </c>
       <c r="K70" t="n">
-        <v>110.5</v>
+        <v>106.7</v>
       </c>
       <c r="L70" t="n">
         <v>0</v>
@@ -4090,7 +4090,7 @@
         <v>27.4</v>
       </c>
       <c r="K71" t="n">
-        <v>67.3</v>
+        <v>59</v>
       </c>
       <c r="L71" t="n">
         <v>0</v>
@@ -4184,7 +4184,7 @@
         <v>12.6</v>
       </c>
       <c r="K73" t="n">
-        <v>110.5</v>
+        <v>106.7</v>
       </c>
       <c r="L73" t="n">
         <v>0</v>
@@ -4231,7 +4231,7 @@
         <v>12.6</v>
       </c>
       <c r="K74" t="n">
-        <v>67.3</v>
+        <v>59</v>
       </c>
       <c r="L74" t="n">
         <v>0</v>
@@ -4314,7 +4314,7 @@
         <v>1</v>
       </c>
       <c r="F76" t="n">
-        <v>184.6</v>
+        <v>190.6</v>
       </c>
       <c r="G76" t="n">
         <v>3</v>
@@ -4367,7 +4367,7 @@
         <v>2</v>
       </c>
       <c r="F77" t="n">
-        <v>184.6</v>
+        <v>190.6</v>
       </c>
       <c r="G77" t="n">
         <v>3</v>
@@ -4420,7 +4420,7 @@
         <v>8</v>
       </c>
       <c r="F78" t="n">
-        <v>184.6</v>
+        <v>190.6</v>
       </c>
       <c r="G78" t="n">
         <v>3</v>
@@ -4473,7 +4473,7 @@
         <v>9</v>
       </c>
       <c r="F79" t="n">
-        <v>184.6</v>
+        <v>190.6</v>
       </c>
       <c r="G79" t="n">
         <v>3</v>
@@ -4526,7 +4526,7 @@
         <v>15</v>
       </c>
       <c r="F80" t="n">
-        <v>184.6</v>
+        <v>190.6</v>
       </c>
       <c r="G80" t="n">
         <v>3</v>
@@ -4579,7 +4579,7 @@
         <v>16</v>
       </c>
       <c r="F81" t="n">
-        <v>184.6</v>
+        <v>190.6</v>
       </c>
       <c r="G81" t="n">
         <v>3</v>
@@ -4632,7 +4632,7 @@
         <v>22</v>
       </c>
       <c r="F82" t="n">
-        <v>184.6</v>
+        <v>190.6</v>
       </c>
       <c r="G82" t="n">
         <v>3</v>
@@ -4685,7 +4685,7 @@
         <v>23</v>
       </c>
       <c r="F83" t="n">
-        <v>184.6</v>
+        <v>190.6</v>
       </c>
       <c r="G83" t="n">
         <v>3</v>
@@ -4753,7 +4753,7 @@
         <v>0</v>
       </c>
       <c r="K84" t="n">
-        <v>107.9</v>
+        <v>104.1</v>
       </c>
       <c r="L84" t="n">
         <v>0</v>
@@ -4806,7 +4806,7 @@
         <v>0</v>
       </c>
       <c r="K85" t="n">
-        <v>64.7</v>
+        <v>56.4</v>
       </c>
       <c r="L85" t="n">
         <v>0</v>
@@ -4912,7 +4912,7 @@
         <v>0</v>
       </c>
       <c r="K87" t="n">
-        <v>107.9</v>
+        <v>104.1</v>
       </c>
       <c r="L87" t="n">
         <v>0</v>
@@ -4965,7 +4965,7 @@
         <v>0</v>
       </c>
       <c r="K88" t="n">
-        <v>64.7</v>
+        <v>56.4</v>
       </c>
       <c r="L88" t="n">
         <v>0</v>
@@ -5071,7 +5071,7 @@
         <v>0</v>
       </c>
       <c r="K90" t="n">
-        <v>107.9</v>
+        <v>104.1</v>
       </c>
       <c r="L90" t="n">
         <v>0</v>
@@ -5124,7 +5124,7 @@
         <v>0</v>
       </c>
       <c r="K91" t="n">
-        <v>64.7</v>
+        <v>56.4</v>
       </c>
       <c r="L91" t="n">
         <v>0</v>
@@ -5230,7 +5230,7 @@
         <v>0</v>
       </c>
       <c r="K93" t="n">
-        <v>107.9</v>
+        <v>104.1</v>
       </c>
       <c r="L93" t="n">
         <v>0</v>
@@ -5283,7 +5283,7 @@
         <v>0</v>
       </c>
       <c r="K94" t="n">
-        <v>64.7</v>
+        <v>56.4</v>
       </c>
       <c r="L94" t="n">
         <v>0</v>
@@ -5374,7 +5374,7 @@
         <v>0</v>
       </c>
       <c r="F96" t="n">
-        <v>75.59999999999999</v>
+        <v>69.59999999999999</v>
       </c>
       <c r="G96" t="n">
         <v>3</v>
@@ -5427,7 +5427,7 @@
         <v>7</v>
       </c>
       <c r="F97" t="n">
-        <v>75.59999999999999</v>
+        <v>69.59999999999999</v>
       </c>
       <c r="G97" t="n">
         <v>3</v>
@@ -5480,7 +5480,7 @@
         <v>14</v>
       </c>
       <c r="F98" t="n">
-        <v>75.59999999999999</v>
+        <v>69.59999999999999</v>
       </c>
       <c r="G98" t="n">
         <v>3</v>
@@ -5533,7 +5533,7 @@
         <v>21</v>
       </c>
       <c r="F99" t="n">
-        <v>75.59999999999999</v>
+        <v>69.59999999999999</v>
       </c>
       <c r="G99" t="n">
         <v>3</v>
@@ -5586,7 +5586,7 @@
         <v>3</v>
       </c>
       <c r="F100" t="n">
-        <v>75.59999999999999</v>
+        <v>69.59999999999999</v>
       </c>
       <c r="G100" t="n">
         <v>3</v>
@@ -5639,7 +5639,7 @@
         <v>10</v>
       </c>
       <c r="F101" t="n">
-        <v>75.59999999999999</v>
+        <v>69.59999999999999</v>
       </c>
       <c r="G101" t="n">
         <v>3</v>
@@ -5692,7 +5692,7 @@
         <v>17</v>
       </c>
       <c r="F102" t="n">
-        <v>75.59999999999999</v>
+        <v>69.59999999999999</v>
       </c>
       <c r="G102" t="n">
         <v>3</v>
@@ -5745,7 +5745,7 @@
         <v>24</v>
       </c>
       <c r="F103" t="n">
-        <v>75.59999999999999</v>
+        <v>69.59999999999999</v>
       </c>
       <c r="G103" t="n">
         <v>3</v>
@@ -5813,7 +5813,7 @@
         <v>-36.3</v>
       </c>
       <c r="K104" t="n">
-        <v>110.1</v>
+        <v>106.3</v>
       </c>
       <c r="L104" t="n">
         <v>0</v>
@@ -5866,7 +5866,7 @@
         <v>-36.3</v>
       </c>
       <c r="K105" t="n">
-        <v>66.90000000000001</v>
+        <v>58.6</v>
       </c>
       <c r="L105" t="n">
         <v>0</v>
@@ -5972,7 +5972,7 @@
         <v>-36.3</v>
       </c>
       <c r="K107" t="n">
-        <v>110.1</v>
+        <v>106.3</v>
       </c>
       <c r="L107" t="n">
         <v>0</v>
@@ -6025,7 +6025,7 @@
         <v>-36.3</v>
       </c>
       <c r="K108" t="n">
-        <v>66.90000000000001</v>
+        <v>58.6</v>
       </c>
       <c r="L108" t="n">
         <v>0</v>
@@ -6131,7 +6131,7 @@
         <v>-36.3</v>
       </c>
       <c r="K110" t="n">
-        <v>110.1</v>
+        <v>106.3</v>
       </c>
       <c r="L110" t="n">
         <v>0</v>
@@ -6184,7 +6184,7 @@
         <v>-36.3</v>
       </c>
       <c r="K111" t="n">
-        <v>66.90000000000001</v>
+        <v>58.6</v>
       </c>
       <c r="L111" t="n">
         <v>0</v>

--- a/plankenlijst.xlsx
+++ b/plankenlijst.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O90"/>
+  <dimension ref="A1:O81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -528,7 +528,7 @@
         <v>6</v>
       </c>
       <c r="F2" t="n">
-        <v>95</v>
+        <v>195</v>
       </c>
       <c r="G2" t="n">
         <v>20</v>
@@ -543,7 +543,7 @@
         <v>-7.799999999999997</v>
       </c>
       <c r="K2" t="n">
-        <v>52.5</v>
+        <v>102.5</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -579,7 +579,7 @@
         <v>7</v>
       </c>
       <c r="F3" t="n">
-        <v>95</v>
+        <v>195</v>
       </c>
       <c r="G3" t="n">
         <v>20</v>
@@ -594,7 +594,7 @@
         <v>-27.8</v>
       </c>
       <c r="K3" t="n">
-        <v>52.5</v>
+        <v>102.5</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -630,7 +630,7 @@
         <v>4</v>
       </c>
       <c r="F4" t="n">
-        <v>95</v>
+        <v>195</v>
       </c>
       <c r="G4" t="n">
         <v>17.8</v>
@@ -645,7 +645,7 @@
         <v>28.9</v>
       </c>
       <c r="K4" t="n">
-        <v>52.5</v>
+        <v>102.5</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -681,7 +681,7 @@
         <v>5</v>
       </c>
       <c r="F5" t="n">
-        <v>95</v>
+        <v>195</v>
       </c>
       <c r="G5" t="n">
         <v>17.8</v>
@@ -696,7 +696,7 @@
         <v>11.1</v>
       </c>
       <c r="K5" t="n">
-        <v>52.5</v>
+        <v>102.5</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -732,7 +732,7 @@
         <v>2</v>
       </c>
       <c r="F6" t="n">
-        <v>95</v>
+        <v>195</v>
       </c>
       <c r="G6" t="n">
         <v>20</v>
@@ -747,7 +747,7 @@
         <v>-7.799999999999997</v>
       </c>
       <c r="K6" t="n">
-        <v>52.5</v>
+        <v>102.5</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>3</v>
       </c>
       <c r="F7" t="n">
-        <v>95</v>
+        <v>195</v>
       </c>
       <c r="G7" t="n">
         <v>20</v>
@@ -798,7 +798,7 @@
         <v>-27.8</v>
       </c>
       <c r="K7" t="n">
-        <v>52.5</v>
+        <v>102.5</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -834,7 +834,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>95</v>
+        <v>195</v>
       </c>
       <c r="G8" t="n">
         <v>17.8</v>
@@ -849,7 +849,7 @@
         <v>28.9</v>
       </c>
       <c r="K8" t="n">
-        <v>52.5</v>
+        <v>102.5</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>95</v>
+        <v>195</v>
       </c>
       <c r="G9" t="n">
         <v>17.8</v>
@@ -900,7 +900,7 @@
         <v>11.1</v>
       </c>
       <c r="K9" t="n">
-        <v>52.5</v>
+        <v>102.5</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -936,7 +936,7 @@
         <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>95</v>
+        <v>195</v>
       </c>
       <c r="G10" t="n">
         <v>7.5</v>
@@ -951,7 +951,7 @@
         <v>38.9</v>
       </c>
       <c r="K10" t="n">
-        <v>52.5</v>
+        <v>102.5</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -989,7 +989,7 @@
         <v>26</v>
       </c>
       <c r="F11" t="n">
-        <v>95</v>
+        <v>195</v>
       </c>
       <c r="G11" t="n">
         <v>7.5</v>
@@ -1004,7 +1004,7 @@
         <v>38.9</v>
       </c>
       <c r="K11" t="n">
-        <v>52.5</v>
+        <v>102.5</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -1042,7 +1042,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>95</v>
+        <v>195</v>
       </c>
       <c r="G12" t="n">
         <v>7.5</v>
@@ -1057,7 +1057,7 @@
         <v>38.9</v>
       </c>
       <c r="K12" t="n">
-        <v>52.5</v>
+        <v>102.5</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -1110,7 +1110,7 @@
         <v>36.7</v>
       </c>
       <c r="K13" t="n">
-        <v>84.16666666666667</v>
+        <v>167.5</v>
       </c>
       <c r="L13" t="n">
         <v>90</v>
@@ -1163,7 +1163,7 @@
         <v>36.7</v>
       </c>
       <c r="K14" t="n">
-        <v>52.5</v>
+        <v>102.5</v>
       </c>
       <c r="L14" t="n">
         <v>90</v>
@@ -1216,7 +1216,7 @@
         <v>36.7</v>
       </c>
       <c r="K15" t="n">
-        <v>20.83333333333334</v>
+        <v>37.5</v>
       </c>
       <c r="L15" t="n">
         <v>90</v>
@@ -1269,7 +1269,7 @@
         <v>36.7</v>
       </c>
       <c r="K16" t="n">
-        <v>84.16666666666667</v>
+        <v>167.5</v>
       </c>
       <c r="L16" t="n">
         <v>90</v>
@@ -1322,7 +1322,7 @@
         <v>36.7</v>
       </c>
       <c r="K17" t="n">
-        <v>52.5</v>
+        <v>102.5</v>
       </c>
       <c r="L17" t="n">
         <v>90</v>
@@ -1375,7 +1375,7 @@
         <v>36.7</v>
       </c>
       <c r="K18" t="n">
-        <v>20.83333333333334</v>
+        <v>37.5</v>
       </c>
       <c r="L18" t="n">
         <v>90</v>
@@ -1428,7 +1428,7 @@
         <v>40.5</v>
       </c>
       <c r="K19" t="n">
-        <v>52.5</v>
+        <v>102.5</v>
       </c>
       <c r="L19" t="n">
         <v>90</v>
@@ -1481,7 +1481,7 @@
         <v>40.5</v>
       </c>
       <c r="K20" t="n">
-        <v>52.5</v>
+        <v>102.5</v>
       </c>
       <c r="L20" t="n">
         <v>90</v>
@@ -1534,7 +1534,7 @@
         <v>40.5</v>
       </c>
       <c r="K21" t="n">
-        <v>84.16666666666667</v>
+        <v>167.5</v>
       </c>
       <c r="L21" t="n">
         <v>90</v>
@@ -1587,7 +1587,7 @@
         <v>40.5</v>
       </c>
       <c r="K22" t="n">
-        <v>52.5</v>
+        <v>102.5</v>
       </c>
       <c r="L22" t="n">
         <v>90</v>
@@ -1640,7 +1640,7 @@
         <v>40.5</v>
       </c>
       <c r="K23" t="n">
-        <v>20.83333333333334</v>
+        <v>37.5</v>
       </c>
       <c r="L23" t="n">
         <v>90</v>
@@ -1693,7 +1693,7 @@
         <v>40.5</v>
       </c>
       <c r="K24" t="n">
-        <v>84.16666666666667</v>
+        <v>167.5</v>
       </c>
       <c r="L24" t="n">
         <v>90</v>
@@ -1746,7 +1746,7 @@
         <v>40.5</v>
       </c>
       <c r="K25" t="n">
-        <v>52.5</v>
+        <v>102.5</v>
       </c>
       <c r="L25" t="n">
         <v>90</v>
@@ -1799,7 +1799,7 @@
         <v>40.5</v>
       </c>
       <c r="K26" t="n">
-        <v>20.83333333333334</v>
+        <v>37.5</v>
       </c>
       <c r="L26" t="n">
         <v>90</v>
@@ -1837,7 +1837,7 @@
         <v>18</v>
       </c>
       <c r="F27" t="n">
-        <v>95</v>
+        <v>195</v>
       </c>
       <c r="G27" t="n">
         <v>20</v>
@@ -1852,7 +1852,7 @@
         <v>38.9</v>
       </c>
       <c r="K27" t="n">
-        <v>52.5</v>
+        <v>102.5</v>
       </c>
       <c r="L27" t="n">
         <v>90</v>
@@ -1890,7 +1890,7 @@
         <v>17</v>
       </c>
       <c r="F28" t="n">
-        <v>95</v>
+        <v>195</v>
       </c>
       <c r="G28" t="n">
         <v>20</v>
@@ -1905,7 +1905,7 @@
         <v>38.9</v>
       </c>
       <c r="K28" t="n">
-        <v>52.5</v>
+        <v>102.5</v>
       </c>
       <c r="L28" t="n">
         <v>90</v>
@@ -1943,7 +1943,7 @@
         <v>16</v>
       </c>
       <c r="F29" t="n">
-        <v>95</v>
+        <v>195</v>
       </c>
       <c r="G29" t="n">
         <v>20</v>
@@ -1958,7 +1958,7 @@
         <v>38.9</v>
       </c>
       <c r="K29" t="n">
-        <v>52.5</v>
+        <v>102.5</v>
       </c>
       <c r="L29" t="n">
         <v>90</v>
@@ -1996,7 +1996,7 @@
         <v>6</v>
       </c>
       <c r="F30" t="n">
-        <v>95</v>
+        <v>195</v>
       </c>
       <c r="G30" t="n">
         <v>20</v>
@@ -2011,7 +2011,7 @@
         <v>38.9</v>
       </c>
       <c r="K30" t="n">
-        <v>52.5</v>
+        <v>102.5</v>
       </c>
       <c r="L30" t="n">
         <v>90</v>
@@ -2049,7 +2049,7 @@
         <v>5</v>
       </c>
       <c r="F31" t="n">
-        <v>95</v>
+        <v>195</v>
       </c>
       <c r="G31" t="n">
         <v>20</v>
@@ -2064,7 +2064,7 @@
         <v>38.9</v>
       </c>
       <c r="K31" t="n">
-        <v>52.5</v>
+        <v>102.5</v>
       </c>
       <c r="L31" t="n">
         <v>90</v>
@@ -2102,7 +2102,7 @@
         <v>4</v>
       </c>
       <c r="F32" t="n">
-        <v>95</v>
+        <v>195</v>
       </c>
       <c r="G32" t="n">
         <v>20</v>
@@ -2117,7 +2117,7 @@
         <v>38.9</v>
       </c>
       <c r="K32" t="n">
-        <v>52.5</v>
+        <v>102.5</v>
       </c>
       <c r="L32" t="n">
         <v>90</v>
@@ -2155,7 +2155,7 @@
         <v>15</v>
       </c>
       <c r="F33" t="n">
-        <v>95</v>
+        <v>195</v>
       </c>
       <c r="G33" t="n">
         <v>14.1</v>
@@ -2170,7 +2170,7 @@
         <v>38.9</v>
       </c>
       <c r="K33" t="n">
-        <v>52.5</v>
+        <v>102.5</v>
       </c>
       <c r="L33" t="n">
         <v>90</v>
@@ -2208,7 +2208,7 @@
         <v>14</v>
       </c>
       <c r="F34" t="n">
-        <v>95</v>
+        <v>195</v>
       </c>
       <c r="G34" t="n">
         <v>14.1</v>
@@ -2223,7 +2223,7 @@
         <v>38.9</v>
       </c>
       <c r="K34" t="n">
-        <v>52.5</v>
+        <v>102.5</v>
       </c>
       <c r="L34" t="n">
         <v>90</v>
@@ -2261,7 +2261,7 @@
         <v>3</v>
       </c>
       <c r="F35" t="n">
-        <v>95</v>
+        <v>195</v>
       </c>
       <c r="G35" t="n">
         <v>14.1</v>
@@ -2276,7 +2276,7 @@
         <v>38.9</v>
       </c>
       <c r="K35" t="n">
-        <v>52.5</v>
+        <v>102.5</v>
       </c>
       <c r="L35" t="n">
         <v>90</v>
@@ -2314,7 +2314,7 @@
         <v>2</v>
       </c>
       <c r="F36" t="n">
-        <v>95</v>
+        <v>195</v>
       </c>
       <c r="G36" t="n">
         <v>14.1</v>
@@ -2329,7 +2329,7 @@
         <v>38.9</v>
       </c>
       <c r="K36" t="n">
-        <v>52.5</v>
+        <v>102.5</v>
       </c>
       <c r="L36" t="n">
         <v>90</v>
@@ -2642,7 +2642,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F43" t="n">
         <v>194.6</v>
@@ -2660,7 +2660,7 @@
         <v>-4.799999999999996</v>
       </c>
       <c r="K43" t="n">
-        <v>68.8</v>
+        <v>14.3</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -2689,7 +2689,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F44" t="n">
         <v>194.6</v>
@@ -2704,10 +2704,10 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>-4.799999999999996</v>
+        <v>-24.8</v>
       </c>
       <c r="K44" t="n">
-        <v>42.5</v>
+        <v>14.3</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
@@ -2736,13 +2736,13 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
         <v>194.6</v>
       </c>
       <c r="G45" t="n">
-        <v>20</v>
+        <v>14.8</v>
       </c>
       <c r="H45" t="n">
         <v>2.2</v>
@@ -2751,10 +2751,10 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>-24.8</v>
+        <v>27.4</v>
       </c>
       <c r="K45" t="n">
-        <v>68.8</v>
+        <v>14.3</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -2783,13 +2783,13 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F46" t="n">
         <v>194.6</v>
       </c>
       <c r="G46" t="n">
-        <v>20</v>
+        <v>14.8</v>
       </c>
       <c r="H46" t="n">
         <v>2.2</v>
@@ -2798,10 +2798,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>-24.8</v>
+        <v>12.6</v>
       </c>
       <c r="K46" t="n">
-        <v>42.5</v>
+        <v>14.3</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
@@ -2820,46 +2820,52 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>vlonders</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr"/>
+          <t>ribben</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>zeide</t>
+        </is>
+      </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>plank</t>
+          <t>balk</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F47" t="n">
-        <v>194.6</v>
+        <v>190.6</v>
       </c>
       <c r="G47" t="n">
-        <v>14.8</v>
+        <v>3</v>
       </c>
       <c r="H47" t="n">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="I47" t="n">
-        <v>0</v>
+        <v>96.3</v>
       </c>
       <c r="J47" t="n">
-        <v>27.4</v>
+        <v>36.3</v>
       </c>
       <c r="K47" t="n">
-        <v>68.8</v>
+        <v>102.5</v>
       </c>
       <c r="L47" t="n">
         <v>0</v>
       </c>
       <c r="M47" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="N47" t="n">
         <v>0</v>
       </c>
-      <c r="O47" t="inlineStr"/>
+      <c r="O47" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2867,46 +2873,52 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>vlonders</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr"/>
+          <t>ribben</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>zeide</t>
+        </is>
+      </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>plank</t>
+          <t>balk</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F48" t="n">
-        <v>194.6</v>
+        <v>190.6</v>
       </c>
       <c r="G48" t="n">
-        <v>14.8</v>
+        <v>3</v>
       </c>
       <c r="H48" t="n">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="I48" t="n">
-        <v>0</v>
+        <v>96.3</v>
       </c>
       <c r="J48" t="n">
-        <v>27.4</v>
+        <v>-36.3</v>
       </c>
       <c r="K48" t="n">
-        <v>42.5</v>
+        <v>102.5</v>
       </c>
       <c r="L48" t="n">
         <v>0</v>
       </c>
       <c r="M48" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="N48" t="n">
         <v>0</v>
       </c>
-      <c r="O48" t="inlineStr"/>
+      <c r="O48" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2914,46 +2926,52 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>vlonders</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr"/>
+          <t>ribben</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>zeide</t>
+        </is>
+      </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>plank</t>
+          <t>balk</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F49" t="n">
-        <v>194.6</v>
+        <v>190.6</v>
       </c>
       <c r="G49" t="n">
-        <v>14.8</v>
+        <v>3</v>
       </c>
       <c r="H49" t="n">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
       <c r="J49" t="n">
-        <v>12.6</v>
+        <v>36.3</v>
       </c>
       <c r="K49" t="n">
-        <v>68.8</v>
+        <v>102.5</v>
       </c>
       <c r="L49" t="n">
         <v>0</v>
       </c>
       <c r="M49" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="N49" t="n">
         <v>0</v>
       </c>
-      <c r="O49" t="inlineStr"/>
+      <c r="O49" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2961,46 +2979,52 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>vlonders</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr"/>
+          <t>ribben</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>zeide</t>
+        </is>
+      </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>plank</t>
+          <t>balk</t>
         </is>
       </c>
       <c r="E50" t="n">
+        <v>7</v>
+      </c>
+      <c r="F50" t="n">
+        <v>190.6</v>
+      </c>
+      <c r="G50" t="n">
+        <v>3</v>
+      </c>
+      <c r="H50" t="n">
+        <v>3</v>
+      </c>
+      <c r="I50" t="n">
+        <v>0</v>
+      </c>
+      <c r="J50" t="n">
+        <v>-36.3</v>
+      </c>
+      <c r="K50" t="n">
+        <v>102.5</v>
+      </c>
+      <c r="L50" t="n">
+        <v>0</v>
+      </c>
+      <c r="M50" t="n">
+        <v>90</v>
+      </c>
+      <c r="N50" t="n">
+        <v>0</v>
+      </c>
+      <c r="O50" t="n">
         <v>1</v>
       </c>
-      <c r="F50" t="n">
-        <v>194.6</v>
-      </c>
-      <c r="G50" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="H50" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
-      <c r="J50" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="K50" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="L50" t="n">
-        <v>0</v>
-      </c>
-      <c r="M50" t="n">
-        <v>0</v>
-      </c>
-      <c r="N50" t="n">
-        <v>0</v>
-      </c>
-      <c r="O50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -3022,10 +3046,10 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="F51" t="n">
-        <v>90.59999999999999</v>
+        <v>190.6</v>
       </c>
       <c r="G51" t="n">
         <v>3</v>
@@ -3034,13 +3058,13 @@
         <v>3</v>
       </c>
       <c r="I51" t="n">
-        <v>96.3</v>
+        <v>-96.3</v>
       </c>
       <c r="J51" t="n">
         <v>36.3</v>
       </c>
       <c r="K51" t="n">
-        <v>52.5</v>
+        <v>102.5</v>
       </c>
       <c r="L51" t="n">
         <v>0</v>
@@ -3052,7 +3076,7 @@
         <v>0</v>
       </c>
       <c r="O51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52">
@@ -3075,10 +3099,10 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="F52" t="n">
-        <v>90.59999999999999</v>
+        <v>190.6</v>
       </c>
       <c r="G52" t="n">
         <v>3</v>
@@ -3087,13 +3111,13 @@
         <v>3</v>
       </c>
       <c r="I52" t="n">
-        <v>96.3</v>
+        <v>-96.3</v>
       </c>
       <c r="J52" t="n">
         <v>-36.3</v>
       </c>
       <c r="K52" t="n">
-        <v>52.5</v>
+        <v>102.5</v>
       </c>
       <c r="L52" t="n">
         <v>0</v>
@@ -3105,7 +3129,7 @@
         <v>0</v>
       </c>
       <c r="O52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53">
@@ -3119,7 +3143,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>zeide</t>
+          <t>tussen</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -3128,10 +3152,10 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F53" t="n">
-        <v>90.59999999999999</v>
+        <v>69.59999999999999</v>
       </c>
       <c r="G53" t="n">
         <v>3</v>
@@ -3140,25 +3164,25 @@
         <v>3</v>
       </c>
       <c r="I53" t="n">
-        <v>0</v>
+        <v>96.3</v>
       </c>
       <c r="J53" t="n">
-        <v>36.3</v>
+        <v>0</v>
       </c>
       <c r="K53" t="n">
-        <v>52.5</v>
+        <v>11.7</v>
       </c>
       <c r="L53" t="n">
         <v>0</v>
       </c>
       <c r="M53" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="N53" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="O53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -3172,7 +3196,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>zeide</t>
+          <t>tussen</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -3181,10 +3205,10 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F54" t="n">
-        <v>90.59999999999999</v>
+        <v>69.59999999999999</v>
       </c>
       <c r="G54" t="n">
         <v>3</v>
@@ -3196,19 +3220,19 @@
         <v>0</v>
       </c>
       <c r="J54" t="n">
-        <v>-36.3</v>
+        <v>0</v>
       </c>
       <c r="K54" t="n">
-        <v>52.5</v>
+        <v>11.7</v>
       </c>
       <c r="L54" t="n">
         <v>0</v>
       </c>
       <c r="M54" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="N54" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="O54" t="n">
         <v>1</v>
@@ -3225,7 +3249,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>zeide</t>
+          <t>tussen</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -3234,10 +3258,10 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F55" t="n">
-        <v>90.59999999999999</v>
+        <v>69.59999999999999</v>
       </c>
       <c r="G55" t="n">
         <v>3</v>
@@ -3249,19 +3273,19 @@
         <v>-96.3</v>
       </c>
       <c r="J55" t="n">
-        <v>36.3</v>
+        <v>0</v>
       </c>
       <c r="K55" t="n">
-        <v>52.5</v>
+        <v>11.7</v>
       </c>
       <c r="L55" t="n">
         <v>0</v>
       </c>
       <c r="M55" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="N55" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="O55" t="n">
         <v>2</v>
@@ -3278,7 +3302,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>zeide</t>
+          <t>onder</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -3287,10 +3311,10 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="F56" t="n">
-        <v>90.59999999999999</v>
+        <v>69.59999999999999</v>
       </c>
       <c r="G56" t="n">
         <v>3</v>
@@ -3299,25 +3323,25 @@
         <v>3</v>
       </c>
       <c r="I56" t="n">
-        <v>-96.3</v>
+        <v>96.3</v>
       </c>
       <c r="J56" t="n">
-        <v>-36.3</v>
+        <v>0</v>
       </c>
       <c r="K56" t="n">
-        <v>52.5</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="L56" t="n">
         <v>0</v>
       </c>
       <c r="M56" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="N56" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="O56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
@@ -3331,7 +3355,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>tussen</t>
+          <t>onder</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -3352,13 +3376,13 @@
         <v>3</v>
       </c>
       <c r="I57" t="n">
-        <v>96.3</v>
+        <v>0</v>
       </c>
       <c r="J57" t="n">
         <v>0</v>
       </c>
       <c r="K57" t="n">
-        <v>66.2</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="L57" t="n">
         <v>0</v>
@@ -3370,7 +3394,7 @@
         <v>90</v>
       </c>
       <c r="O57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58">
@@ -3384,7 +3408,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>tussen</t>
+          <t>onder</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -3393,7 +3417,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F58" t="n">
         <v>69.59999999999999</v>
@@ -3405,13 +3429,13 @@
         <v>3</v>
       </c>
       <c r="I58" t="n">
-        <v>96.3</v>
+        <v>-96.3</v>
       </c>
       <c r="J58" t="n">
         <v>0</v>
       </c>
       <c r="K58" t="n">
-        <v>39.9</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="L58" t="n">
         <v>0</v>
@@ -3423,7 +3447,7 @@
         <v>90</v>
       </c>
       <c r="O58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59">
@@ -3437,7 +3461,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>tussen</t>
+          <t>boven</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -3446,7 +3470,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F59" t="n">
         <v>69.59999999999999</v>
@@ -3458,13 +3482,13 @@
         <v>3</v>
       </c>
       <c r="I59" t="n">
-        <v>0</v>
+        <v>96.3</v>
       </c>
       <c r="J59" t="n">
         <v>0</v>
       </c>
       <c r="K59" t="n">
-        <v>66.2</v>
+        <v>196.3</v>
       </c>
       <c r="L59" t="n">
         <v>0</v>
@@ -3476,7 +3500,7 @@
         <v>90</v>
       </c>
       <c r="O59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -3490,7 +3514,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>tussen</t>
+          <t>boven</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -3499,7 +3523,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F60" t="n">
         <v>69.59999999999999</v>
@@ -3517,7 +3541,7 @@
         <v>0</v>
       </c>
       <c r="K60" t="n">
-        <v>39.9</v>
+        <v>196.3</v>
       </c>
       <c r="L60" t="n">
         <v>0</v>
@@ -3543,7 +3567,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>tussen</t>
+          <t>boven</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -3552,7 +3576,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F61" t="n">
         <v>69.59999999999999</v>
@@ -3570,7 +3594,7 @@
         <v>0</v>
       </c>
       <c r="K61" t="n">
-        <v>66.2</v>
+        <v>196.3</v>
       </c>
       <c r="L61" t="n">
         <v>0</v>
@@ -3596,7 +3620,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>tussen</t>
+          <t>achter</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -3605,10 +3629,10 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F62" t="n">
-        <v>69.59999999999999</v>
+        <v>93.3</v>
       </c>
       <c r="G62" t="n">
         <v>3</v>
@@ -3617,13 +3641,13 @@
         <v>3</v>
       </c>
       <c r="I62" t="n">
-        <v>-96.3</v>
+        <v>48.15</v>
       </c>
       <c r="J62" t="n">
-        <v>0</v>
+        <v>-36.3</v>
       </c>
       <c r="K62" t="n">
-        <v>39.9</v>
+        <v>13.9</v>
       </c>
       <c r="L62" t="n">
         <v>0</v>
@@ -3632,10 +3656,10 @@
         <v>0</v>
       </c>
       <c r="N62" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="O62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
@@ -3649,7 +3673,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>onder</t>
+          <t>achter</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -3658,10 +3682,10 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="F63" t="n">
-        <v>69.59999999999999</v>
+        <v>93.3</v>
       </c>
       <c r="G63" t="n">
         <v>3</v>
@@ -3670,13 +3694,13 @@
         <v>3</v>
       </c>
       <c r="I63" t="n">
-        <v>96.3</v>
+        <v>-48.15</v>
       </c>
       <c r="J63" t="n">
-        <v>0</v>
+        <v>-36.3</v>
       </c>
       <c r="K63" t="n">
-        <v>8.699999999999999</v>
+        <v>13.9</v>
       </c>
       <c r="L63" t="n">
         <v>0</v>
@@ -3685,10 +3709,10 @@
         <v>0</v>
       </c>
       <c r="N63" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="O63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -3697,39 +3721,39 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>ribben</t>
+          <t>onderstel</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>onder</t>
+          <t>onderkant</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>balk</t>
+          <t>plank</t>
         </is>
       </c>
       <c r="E64" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F64" t="n">
-        <v>69.59999999999999</v>
+        <v>195.6</v>
       </c>
       <c r="G64" t="n">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="H64" t="n">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
       <c r="J64" t="n">
-        <v>0</v>
+        <v>-7.799999999999997</v>
       </c>
       <c r="K64" t="n">
-        <v>8.699999999999999</v>
+        <v>6.1</v>
       </c>
       <c r="L64" t="n">
         <v>0</v>
@@ -3738,11 +3762,9 @@
         <v>0</v>
       </c>
       <c r="N64" t="n">
-        <v>90</v>
-      </c>
-      <c r="O64" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -3750,39 +3772,39 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>ribben</t>
+          <t>onderstel</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>onder</t>
+          <t>onderkant</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>balk</t>
+          <t>plank</t>
         </is>
       </c>
       <c r="E65" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="F65" t="n">
-        <v>69.59999999999999</v>
+        <v>195.6</v>
       </c>
       <c r="G65" t="n">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="H65" t="n">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="I65" t="n">
-        <v>-96.3</v>
+        <v>0</v>
       </c>
       <c r="J65" t="n">
-        <v>0</v>
+        <v>-27.8</v>
       </c>
       <c r="K65" t="n">
-        <v>8.699999999999999</v>
+        <v>6.1</v>
       </c>
       <c r="L65" t="n">
         <v>0</v>
@@ -3791,11 +3813,9 @@
         <v>0</v>
       </c>
       <c r="N65" t="n">
-        <v>90</v>
-      </c>
-      <c r="O65" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -3803,39 +3823,39 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>ribben</t>
+          <t>onderstel</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>boven</t>
+          <t>onderkant</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>balk</t>
+          <t>plank</t>
         </is>
       </c>
       <c r="E66" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F66" t="n">
-        <v>69.59999999999999</v>
+        <v>195.6</v>
       </c>
       <c r="G66" t="n">
-        <v>3</v>
+        <v>17.8</v>
       </c>
       <c r="H66" t="n">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="I66" t="n">
-        <v>96.3</v>
+        <v>0</v>
       </c>
       <c r="J66" t="n">
-        <v>0</v>
+        <v>28.9</v>
       </c>
       <c r="K66" t="n">
-        <v>96.3</v>
+        <v>6.1</v>
       </c>
       <c r="L66" t="n">
         <v>0</v>
@@ -3844,11 +3864,9 @@
         <v>0</v>
       </c>
       <c r="N66" t="n">
-        <v>90</v>
-      </c>
-      <c r="O66" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -3856,39 +3874,39 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>ribben</t>
+          <t>onderstel</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>boven</t>
+          <t>onderkant</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>balk</t>
+          <t>plank</t>
         </is>
       </c>
       <c r="E67" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F67" t="n">
-        <v>69.59999999999999</v>
+        <v>195.6</v>
       </c>
       <c r="G67" t="n">
-        <v>3</v>
+        <v>17.8</v>
       </c>
       <c r="H67" t="n">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
       <c r="J67" t="n">
-        <v>0</v>
+        <v>11.1</v>
       </c>
       <c r="K67" t="n">
-        <v>96.3</v>
+        <v>6.1</v>
       </c>
       <c r="L67" t="n">
         <v>0</v>
@@ -3897,11 +3915,9 @@
         <v>0</v>
       </c>
       <c r="N67" t="n">
-        <v>90</v>
-      </c>
-      <c r="O67" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -3909,39 +3925,39 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>ribben</t>
+          <t>onderstel</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>boven</t>
+          <t>bovenkant</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>balk</t>
+          <t>plank</t>
         </is>
       </c>
       <c r="E68" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="F68" t="n">
-        <v>69.59999999999999</v>
+        <v>195.6</v>
       </c>
       <c r="G68" t="n">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="H68" t="n">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="I68" t="n">
-        <v>-96.3</v>
+        <v>0</v>
       </c>
       <c r="J68" t="n">
-        <v>0</v>
+        <v>-7.799999999999997</v>
       </c>
       <c r="K68" t="n">
-        <v>96.3</v>
+        <v>198.9</v>
       </c>
       <c r="L68" t="n">
         <v>0</v>
@@ -3950,11 +3966,9 @@
         <v>0</v>
       </c>
       <c r="N68" t="n">
-        <v>90</v>
-      </c>
-      <c r="O68" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3962,39 +3976,39 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>ribben</t>
+          <t>onderstel</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>achter</t>
+          <t>bovenkant</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>balk</t>
+          <t>plank</t>
         </is>
       </c>
       <c r="E69" t="n">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="F69" t="n">
-        <v>93.3</v>
+        <v>195.6</v>
       </c>
       <c r="G69" t="n">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="H69" t="n">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="I69" t="n">
-        <v>48.15</v>
+        <v>0</v>
       </c>
       <c r="J69" t="n">
-        <v>-36.3</v>
+        <v>-27.8</v>
       </c>
       <c r="K69" t="n">
-        <v>68.40000000000001</v>
+        <v>198.9</v>
       </c>
       <c r="L69" t="n">
         <v>0</v>
@@ -4005,9 +4019,7 @@
       <c r="N69" t="n">
         <v>0</v>
       </c>
-      <c r="O69" t="n">
-        <v>0</v>
-      </c>
+      <c r="O69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -4015,39 +4027,39 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>ribben</t>
+          <t>onderstel</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>achter</t>
+          <t>bovenkant</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>balk</t>
+          <t>plank</t>
         </is>
       </c>
       <c r="E70" t="n">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="F70" t="n">
-        <v>93.3</v>
+        <v>195.6</v>
       </c>
       <c r="G70" t="n">
-        <v>3</v>
+        <v>17.8</v>
       </c>
       <c r="H70" t="n">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="I70" t="n">
-        <v>48.15</v>
+        <v>0</v>
       </c>
       <c r="J70" t="n">
-        <v>-36.3</v>
+        <v>28.9</v>
       </c>
       <c r="K70" t="n">
-        <v>42.1</v>
+        <v>198.9</v>
       </c>
       <c r="L70" t="n">
         <v>0</v>
@@ -4058,9 +4070,7 @@
       <c r="N70" t="n">
         <v>0</v>
       </c>
-      <c r="O70" t="n">
-        <v>0</v>
-      </c>
+      <c r="O70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -4068,39 +4078,39 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>ribben</t>
+          <t>onderstel</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>achter</t>
+          <t>bovenkant</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>balk</t>
+          <t>plank</t>
         </is>
       </c>
       <c r="E71" t="n">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="F71" t="n">
-        <v>93.3</v>
+        <v>195.6</v>
       </c>
       <c r="G71" t="n">
-        <v>3</v>
+        <v>17.8</v>
       </c>
       <c r="H71" t="n">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="I71" t="n">
-        <v>-48.15</v>
+        <v>0</v>
       </c>
       <c r="J71" t="n">
-        <v>-36.3</v>
+        <v>11.1</v>
       </c>
       <c r="K71" t="n">
-        <v>68.40000000000001</v>
+        <v>198.9</v>
       </c>
       <c r="L71" t="n">
         <v>0</v>
@@ -4111,9 +4121,7 @@
       <c r="N71" t="n">
         <v>0</v>
       </c>
-      <c r="O71" t="n">
-        <v>1</v>
-      </c>
+      <c r="O71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -4121,52 +4129,46 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>ribben</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>achter</t>
-        </is>
-      </c>
+          <t>achterplank</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr"/>
       <c r="D72" t="inlineStr">
         <is>
-          <t>balk</t>
+          <t>plank</t>
         </is>
       </c>
       <c r="E72" t="n">
+        <v>0</v>
+      </c>
+      <c r="F72" t="n">
+        <v>195</v>
+      </c>
+      <c r="G72" t="n">
         <v>20</v>
       </c>
-      <c r="F72" t="n">
-        <v>93.3</v>
-      </c>
-      <c r="G72" t="n">
-        <v>3</v>
-      </c>
       <c r="H72" t="n">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="I72" t="n">
-        <v>-48.15</v>
+        <v>90</v>
       </c>
       <c r="J72" t="n">
-        <v>-36.3</v>
+        <v>-38.9</v>
       </c>
       <c r="K72" t="n">
-        <v>42.1</v>
+        <v>102.5</v>
       </c>
       <c r="L72" t="n">
         <v>0</v>
       </c>
       <c r="M72" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="N72" t="n">
-        <v>0</v>
-      </c>
-      <c r="O72" t="n">
-        <v>1</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="O72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -4174,24 +4176,20 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>onderstel</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>onderkant</t>
-        </is>
-      </c>
+          <t>achterplank</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr"/>
       <c r="D73" t="inlineStr">
         <is>
           <t>plank</t>
         </is>
       </c>
       <c r="E73" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F73" t="n">
-        <v>195.6</v>
+        <v>195</v>
       </c>
       <c r="G73" t="n">
         <v>20</v>
@@ -4200,22 +4198,22 @@
         <v>2.2</v>
       </c>
       <c r="I73" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="J73" t="n">
-        <v>-7.799999999999997</v>
+        <v>-38.9</v>
       </c>
       <c r="K73" t="n">
-        <v>6.1</v>
+        <v>102.5</v>
       </c>
       <c r="L73" t="n">
         <v>0</v>
       </c>
       <c r="M73" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="N73" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="O73" t="inlineStr"/>
     </row>
@@ -4225,24 +4223,20 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>onderstel</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>onderkant</t>
-        </is>
-      </c>
+          <t>achterplank</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr"/>
       <c r="D74" t="inlineStr">
         <is>
           <t>plank</t>
         </is>
       </c>
       <c r="E74" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F74" t="n">
-        <v>195.6</v>
+        <v>195</v>
       </c>
       <c r="G74" t="n">
         <v>20</v>
@@ -4251,22 +4245,22 @@
         <v>2.2</v>
       </c>
       <c r="I74" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="J74" t="n">
-        <v>-27.8</v>
+        <v>-38.9</v>
       </c>
       <c r="K74" t="n">
-        <v>6.1</v>
+        <v>102.5</v>
       </c>
       <c r="L74" t="n">
         <v>0</v>
       </c>
       <c r="M74" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="N74" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="O74" t="inlineStr"/>
     </row>
@@ -4276,48 +4270,44 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>onderstel</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>onderkant</t>
-        </is>
-      </c>
+          <t>achterplank</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr"/>
       <c r="D75" t="inlineStr">
         <is>
           <t>plank</t>
         </is>
       </c>
       <c r="E75" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F75" t="n">
-        <v>195.6</v>
+        <v>195</v>
       </c>
       <c r="G75" t="n">
-        <v>17.8</v>
+        <v>20</v>
       </c>
       <c r="H75" t="n">
         <v>2.2</v>
       </c>
       <c r="I75" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J75" t="n">
-        <v>28.9</v>
+        <v>-38.9</v>
       </c>
       <c r="K75" t="n">
-        <v>6.1</v>
+        <v>102.5</v>
       </c>
       <c r="L75" t="n">
         <v>0</v>
       </c>
       <c r="M75" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="N75" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="O75" t="inlineStr"/>
     </row>
@@ -4327,48 +4317,44 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>onderstel</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>onderkant</t>
-        </is>
-      </c>
+          <t>achterplank</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr"/>
       <c r="D76" t="inlineStr">
         <is>
           <t>plank</t>
         </is>
       </c>
       <c r="E76" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F76" t="n">
-        <v>195.6</v>
+        <v>195</v>
       </c>
       <c r="G76" t="n">
-        <v>17.8</v>
+        <v>20</v>
       </c>
       <c r="H76" t="n">
         <v>2.2</v>
       </c>
       <c r="I76" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J76" t="n">
-        <v>11.1</v>
+        <v>-38.9</v>
       </c>
       <c r="K76" t="n">
-        <v>6.1</v>
+        <v>102.5</v>
       </c>
       <c r="L76" t="n">
         <v>0</v>
       </c>
       <c r="M76" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="N76" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="O76" t="inlineStr"/>
     </row>
@@ -4378,24 +4364,20 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>onderstel</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>bovenkant</t>
-        </is>
-      </c>
+          <t>achterplank</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr"/>
       <c r="D77" t="inlineStr">
         <is>
           <t>plank</t>
         </is>
       </c>
       <c r="E77" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F77" t="n">
-        <v>195.6</v>
+        <v>195</v>
       </c>
       <c r="G77" t="n">
         <v>20</v>
@@ -4404,22 +4386,22 @@
         <v>2.2</v>
       </c>
       <c r="I77" t="n">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="J77" t="n">
-        <v>-7.799999999999997</v>
+        <v>-38.9</v>
       </c>
       <c r="K77" t="n">
-        <v>98.90000000000001</v>
+        <v>102.5</v>
       </c>
       <c r="L77" t="n">
         <v>0</v>
       </c>
       <c r="M77" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="N77" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="O77" t="inlineStr"/>
     </row>
@@ -4429,24 +4411,20 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>onderstel</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>bovenkant</t>
-        </is>
-      </c>
+          <t>achterplank</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr"/>
       <c r="D78" t="inlineStr">
         <is>
           <t>plank</t>
         </is>
       </c>
       <c r="E78" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F78" t="n">
-        <v>195.6</v>
+        <v>195</v>
       </c>
       <c r="G78" t="n">
         <v>20</v>
@@ -4455,22 +4433,22 @@
         <v>2.2</v>
       </c>
       <c r="I78" t="n">
-        <v>0</v>
+        <v>-30</v>
       </c>
       <c r="J78" t="n">
-        <v>-27.8</v>
+        <v>-38.9</v>
       </c>
       <c r="K78" t="n">
-        <v>98.90000000000001</v>
+        <v>102.5</v>
       </c>
       <c r="L78" t="n">
         <v>0</v>
       </c>
       <c r="M78" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="N78" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="O78" t="inlineStr"/>
     </row>
@@ -4480,48 +4458,44 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>onderstel</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>bovenkant</t>
-        </is>
-      </c>
+          <t>achterplank</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr"/>
       <c r="D79" t="inlineStr">
         <is>
           <t>plank</t>
         </is>
       </c>
       <c r="E79" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F79" t="n">
-        <v>195.6</v>
+        <v>195</v>
       </c>
       <c r="G79" t="n">
-        <v>17.8</v>
+        <v>20</v>
       </c>
       <c r="H79" t="n">
         <v>2.2</v>
       </c>
       <c r="I79" t="n">
-        <v>0</v>
+        <v>-50</v>
       </c>
       <c r="J79" t="n">
-        <v>28.9</v>
+        <v>-38.9</v>
       </c>
       <c r="K79" t="n">
-        <v>98.90000000000001</v>
+        <v>102.5</v>
       </c>
       <c r="L79" t="n">
         <v>0</v>
       </c>
       <c r="M79" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="N79" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="O79" t="inlineStr"/>
     </row>
@@ -4531,48 +4505,44 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>onderstel</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>bovenkant</t>
-        </is>
-      </c>
+          <t>achterplank</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr"/>
       <c r="D80" t="inlineStr">
         <is>
           <t>plank</t>
         </is>
       </c>
       <c r="E80" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F80" t="n">
-        <v>195.6</v>
+        <v>195</v>
       </c>
       <c r="G80" t="n">
-        <v>17.8</v>
+        <v>20</v>
       </c>
       <c r="H80" t="n">
         <v>2.2</v>
       </c>
       <c r="I80" t="n">
-        <v>0</v>
+        <v>-70</v>
       </c>
       <c r="J80" t="n">
-        <v>11.1</v>
+        <v>-38.9</v>
       </c>
       <c r="K80" t="n">
-        <v>98.90000000000001</v>
+        <v>102.5</v>
       </c>
       <c r="L80" t="n">
         <v>0</v>
       </c>
       <c r="M80" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="N80" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="O80" t="inlineStr"/>
     </row>
@@ -4592,10 +4562,10 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F81" t="n">
-        <v>95</v>
+        <v>195</v>
       </c>
       <c r="G81" t="n">
         <v>20</v>
@@ -4604,13 +4574,13 @@
         <v>2.2</v>
       </c>
       <c r="I81" t="n">
-        <v>90</v>
+        <v>-90</v>
       </c>
       <c r="J81" t="n">
         <v>-38.9</v>
       </c>
       <c r="K81" t="n">
-        <v>52.5</v>
+        <v>102.5</v>
       </c>
       <c r="L81" t="n">
         <v>0</v>
@@ -4622,429 +4592,6 @@
         <v>90</v>
       </c>
       <c r="O81" t="inlineStr"/>
-    </row>
-    <row r="82">
-      <c r="A82" s="1" t="n">
-        <v>80</v>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>achterplank</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr"/>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>plank</t>
-        </is>
-      </c>
-      <c r="E82" t="n">
-        <v>1</v>
-      </c>
-      <c r="F82" t="n">
-        <v>95</v>
-      </c>
-      <c r="G82" t="n">
-        <v>20</v>
-      </c>
-      <c r="H82" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="I82" t="n">
-        <v>70</v>
-      </c>
-      <c r="J82" t="n">
-        <v>-38.9</v>
-      </c>
-      <c r="K82" t="n">
-        <v>52.5</v>
-      </c>
-      <c r="L82" t="n">
-        <v>0</v>
-      </c>
-      <c r="M82" t="n">
-        <v>90</v>
-      </c>
-      <c r="N82" t="n">
-        <v>90</v>
-      </c>
-      <c r="O82" t="inlineStr"/>
-    </row>
-    <row r="83">
-      <c r="A83" s="1" t="n">
-        <v>81</v>
-      </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>achterplank</t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr"/>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>plank</t>
-        </is>
-      </c>
-      <c r="E83" t="n">
-        <v>2</v>
-      </c>
-      <c r="F83" t="n">
-        <v>95</v>
-      </c>
-      <c r="G83" t="n">
-        <v>20</v>
-      </c>
-      <c r="H83" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="I83" t="n">
-        <v>50</v>
-      </c>
-      <c r="J83" t="n">
-        <v>-38.9</v>
-      </c>
-      <c r="K83" t="n">
-        <v>52.5</v>
-      </c>
-      <c r="L83" t="n">
-        <v>0</v>
-      </c>
-      <c r="M83" t="n">
-        <v>90</v>
-      </c>
-      <c r="N83" t="n">
-        <v>90</v>
-      </c>
-      <c r="O83" t="inlineStr"/>
-    </row>
-    <row r="84">
-      <c r="A84" s="1" t="n">
-        <v>82</v>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>achterplank</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr"/>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>plank</t>
-        </is>
-      </c>
-      <c r="E84" t="n">
-        <v>3</v>
-      </c>
-      <c r="F84" t="n">
-        <v>95</v>
-      </c>
-      <c r="G84" t="n">
-        <v>20</v>
-      </c>
-      <c r="H84" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="I84" t="n">
-        <v>30</v>
-      </c>
-      <c r="J84" t="n">
-        <v>-38.9</v>
-      </c>
-      <c r="K84" t="n">
-        <v>52.5</v>
-      </c>
-      <c r="L84" t="n">
-        <v>0</v>
-      </c>
-      <c r="M84" t="n">
-        <v>90</v>
-      </c>
-      <c r="N84" t="n">
-        <v>90</v>
-      </c>
-      <c r="O84" t="inlineStr"/>
-    </row>
-    <row r="85">
-      <c r="A85" s="1" t="n">
-        <v>83</v>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>achterplank</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr"/>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>plank</t>
-        </is>
-      </c>
-      <c r="E85" t="n">
-        <v>4</v>
-      </c>
-      <c r="F85" t="n">
-        <v>95</v>
-      </c>
-      <c r="G85" t="n">
-        <v>20</v>
-      </c>
-      <c r="H85" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="I85" t="n">
-        <v>10</v>
-      </c>
-      <c r="J85" t="n">
-        <v>-38.9</v>
-      </c>
-      <c r="K85" t="n">
-        <v>52.5</v>
-      </c>
-      <c r="L85" t="n">
-        <v>0</v>
-      </c>
-      <c r="M85" t="n">
-        <v>90</v>
-      </c>
-      <c r="N85" t="n">
-        <v>90</v>
-      </c>
-      <c r="O85" t="inlineStr"/>
-    </row>
-    <row r="86">
-      <c r="A86" s="1" t="n">
-        <v>84</v>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>achterplank</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr"/>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>plank</t>
-        </is>
-      </c>
-      <c r="E86" t="n">
-        <v>5</v>
-      </c>
-      <c r="F86" t="n">
-        <v>95</v>
-      </c>
-      <c r="G86" t="n">
-        <v>20</v>
-      </c>
-      <c r="H86" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="I86" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J86" t="n">
-        <v>-38.9</v>
-      </c>
-      <c r="K86" t="n">
-        <v>52.5</v>
-      </c>
-      <c r="L86" t="n">
-        <v>0</v>
-      </c>
-      <c r="M86" t="n">
-        <v>90</v>
-      </c>
-      <c r="N86" t="n">
-        <v>90</v>
-      </c>
-      <c r="O86" t="inlineStr"/>
-    </row>
-    <row r="87">
-      <c r="A87" s="1" t="n">
-        <v>85</v>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>achterplank</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr"/>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>plank</t>
-        </is>
-      </c>
-      <c r="E87" t="n">
-        <v>6</v>
-      </c>
-      <c r="F87" t="n">
-        <v>95</v>
-      </c>
-      <c r="G87" t="n">
-        <v>20</v>
-      </c>
-      <c r="H87" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="I87" t="n">
-        <v>-30</v>
-      </c>
-      <c r="J87" t="n">
-        <v>-38.9</v>
-      </c>
-      <c r="K87" t="n">
-        <v>52.5</v>
-      </c>
-      <c r="L87" t="n">
-        <v>0</v>
-      </c>
-      <c r="M87" t="n">
-        <v>90</v>
-      </c>
-      <c r="N87" t="n">
-        <v>90</v>
-      </c>
-      <c r="O87" t="inlineStr"/>
-    </row>
-    <row r="88">
-      <c r="A88" s="1" t="n">
-        <v>86</v>
-      </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>achterplank</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr"/>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>plank</t>
-        </is>
-      </c>
-      <c r="E88" t="n">
-        <v>7</v>
-      </c>
-      <c r="F88" t="n">
-        <v>95</v>
-      </c>
-      <c r="G88" t="n">
-        <v>20</v>
-      </c>
-      <c r="H88" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="I88" t="n">
-        <v>-50</v>
-      </c>
-      <c r="J88" t="n">
-        <v>-38.9</v>
-      </c>
-      <c r="K88" t="n">
-        <v>52.5</v>
-      </c>
-      <c r="L88" t="n">
-        <v>0</v>
-      </c>
-      <c r="M88" t="n">
-        <v>90</v>
-      </c>
-      <c r="N88" t="n">
-        <v>90</v>
-      </c>
-      <c r="O88" t="inlineStr"/>
-    </row>
-    <row r="89">
-      <c r="A89" s="1" t="n">
-        <v>87</v>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>achterplank</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr"/>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>plank</t>
-        </is>
-      </c>
-      <c r="E89" t="n">
-        <v>8</v>
-      </c>
-      <c r="F89" t="n">
-        <v>95</v>
-      </c>
-      <c r="G89" t="n">
-        <v>20</v>
-      </c>
-      <c r="H89" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="I89" t="n">
-        <v>-70</v>
-      </c>
-      <c r="J89" t="n">
-        <v>-38.9</v>
-      </c>
-      <c r="K89" t="n">
-        <v>52.5</v>
-      </c>
-      <c r="L89" t="n">
-        <v>0</v>
-      </c>
-      <c r="M89" t="n">
-        <v>90</v>
-      </c>
-      <c r="N89" t="n">
-        <v>90</v>
-      </c>
-      <c r="O89" t="inlineStr"/>
-    </row>
-    <row r="90">
-      <c r="A90" s="1" t="n">
-        <v>88</v>
-      </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>achterplank</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr"/>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>plank</t>
-        </is>
-      </c>
-      <c r="E90" t="n">
-        <v>9</v>
-      </c>
-      <c r="F90" t="n">
-        <v>95</v>
-      </c>
-      <c r="G90" t="n">
-        <v>20</v>
-      </c>
-      <c r="H90" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="I90" t="n">
-        <v>-90</v>
-      </c>
-      <c r="J90" t="n">
-        <v>-38.9</v>
-      </c>
-      <c r="K90" t="n">
-        <v>52.5</v>
-      </c>
-      <c r="L90" t="n">
-        <v>0</v>
-      </c>
-      <c r="M90" t="n">
-        <v>90</v>
-      </c>
-      <c r="N90" t="n">
-        <v>90</v>
-      </c>
-      <c r="O90" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/plankenlijst.xlsx
+++ b/plankenlijst.xlsx
@@ -2660,7 +2660,7 @@
         <v>-4.799999999999996</v>
       </c>
       <c r="K43" t="n">
-        <v>14.3</v>
+        <v>85.10000000000001</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -2707,7 +2707,7 @@
         <v>-24.8</v>
       </c>
       <c r="K44" t="n">
-        <v>14.3</v>
+        <v>85.10000000000001</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
@@ -2754,7 +2754,7 @@
         <v>27.4</v>
       </c>
       <c r="K45" t="n">
-        <v>14.3</v>
+        <v>85.10000000000001</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -2801,7 +2801,7 @@
         <v>12.6</v>
       </c>
       <c r="K46" t="n">
-        <v>14.3</v>
+        <v>85.10000000000001</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
@@ -3170,7 +3170,7 @@
         <v>0</v>
       </c>
       <c r="K53" t="n">
-        <v>11.7</v>
+        <v>82.5</v>
       </c>
       <c r="L53" t="n">
         <v>0</v>
@@ -3223,7 +3223,7 @@
         <v>0</v>
       </c>
       <c r="K54" t="n">
-        <v>11.7</v>
+        <v>82.5</v>
       </c>
       <c r="L54" t="n">
         <v>0</v>
@@ -3276,7 +3276,7 @@
         <v>0</v>
       </c>
       <c r="K55" t="n">
-        <v>11.7</v>
+        <v>82.5</v>
       </c>
       <c r="L55" t="n">
         <v>0</v>
@@ -3647,7 +3647,7 @@
         <v>-36.3</v>
       </c>
       <c r="K62" t="n">
-        <v>13.9</v>
+        <v>84.7</v>
       </c>
       <c r="L62" t="n">
         <v>0</v>
@@ -3700,7 +3700,7 @@
         <v>-36.3</v>
       </c>
       <c r="K63" t="n">
-        <v>13.9</v>
+        <v>84.7</v>
       </c>
       <c r="L63" t="n">
         <v>0</v>

--- a/plankenlijst.xlsx
+++ b/plankenlijst.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O81"/>
+  <dimension ref="A1:O54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -525,25 +525,25 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F2" t="n">
-        <v>195</v>
+        <v>297</v>
       </c>
       <c r="G2" t="n">
         <v>20</v>
       </c>
       <c r="H2" t="n">
-        <v>2.2</v>
+        <v>3.1</v>
       </c>
       <c r="I2" t="n">
-        <v>-98.90000000000001</v>
+        <v>-48.45</v>
       </c>
       <c r="J2" t="n">
-        <v>-7.799999999999997</v>
+        <v>-11.9</v>
       </c>
       <c r="K2" t="n">
-        <v>102.5</v>
+        <v>151.5</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -576,25 +576,25 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F3" t="n">
-        <v>195</v>
+        <v>297</v>
       </c>
       <c r="G3" t="n">
-        <v>20</v>
+        <v>11.9</v>
       </c>
       <c r="H3" t="n">
-        <v>2.2</v>
+        <v>3.1</v>
       </c>
       <c r="I3" t="n">
-        <v>-98.90000000000001</v>
+        <v>-48.45</v>
       </c>
       <c r="J3" t="n">
-        <v>-27.8</v>
+        <v>15.95</v>
       </c>
       <c r="K3" t="n">
-        <v>102.5</v>
+        <v>151.5</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -630,22 +630,22 @@
         <v>4</v>
       </c>
       <c r="F4" t="n">
-        <v>195</v>
+        <v>297</v>
       </c>
       <c r="G4" t="n">
-        <v>17.8</v>
+        <v>11.9</v>
       </c>
       <c r="H4" t="n">
-        <v>2.2</v>
+        <v>3.1</v>
       </c>
       <c r="I4" t="n">
-        <v>-98.90000000000001</v>
+        <v>-48.45</v>
       </c>
       <c r="J4" t="n">
-        <v>28.9</v>
+        <v>4.050000000000001</v>
       </c>
       <c r="K4" t="n">
-        <v>102.5</v>
+        <v>151.5</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -669,7 +669,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>rechts</t>
+          <t>links</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -678,25 +678,25 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F5" t="n">
-        <v>195</v>
+        <v>297</v>
       </c>
       <c r="G5" t="n">
-        <v>17.8</v>
+        <v>20</v>
       </c>
       <c r="H5" t="n">
-        <v>2.2</v>
+        <v>3.1</v>
       </c>
       <c r="I5" t="n">
-        <v>-98.90000000000001</v>
+        <v>48.45</v>
       </c>
       <c r="J5" t="n">
-        <v>11.1</v>
+        <v>-11.9</v>
       </c>
       <c r="K5" t="n">
-        <v>102.5</v>
+        <v>151.5</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -729,25 +729,25 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>195</v>
+        <v>297</v>
       </c>
       <c r="G6" t="n">
-        <v>20</v>
+        <v>11.9</v>
       </c>
       <c r="H6" t="n">
-        <v>2.2</v>
+        <v>3.1</v>
       </c>
       <c r="I6" t="n">
-        <v>98.90000000000001</v>
+        <v>48.45</v>
       </c>
       <c r="J6" t="n">
-        <v>-7.799999999999997</v>
+        <v>15.95</v>
       </c>
       <c r="K6" t="n">
-        <v>102.5</v>
+        <v>151.5</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -780,25 +780,25 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>195</v>
+        <v>297</v>
       </c>
       <c r="G7" t="n">
-        <v>20</v>
+        <v>11.9</v>
       </c>
       <c r="H7" t="n">
-        <v>2.2</v>
+        <v>3.1</v>
       </c>
       <c r="I7" t="n">
-        <v>98.90000000000001</v>
+        <v>48.45</v>
       </c>
       <c r="J7" t="n">
-        <v>-27.8</v>
+        <v>4.050000000000001</v>
       </c>
       <c r="K7" t="n">
-        <v>102.5</v>
+        <v>151.5</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -817,12 +817,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>zeiplanken</t>
+          <t>voorkant</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>links</t>
+          <t>voorplank</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -831,25 +831,25 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>195</v>
+        <v>297</v>
       </c>
       <c r="G8" t="n">
-        <v>17.8</v>
+        <v>7.5</v>
       </c>
       <c r="H8" t="n">
-        <v>2.2</v>
+        <v>3.1</v>
       </c>
       <c r="I8" t="n">
-        <v>98.90000000000001</v>
+        <v>46.25</v>
       </c>
       <c r="J8" t="n">
-        <v>28.9</v>
+        <v>23.45</v>
       </c>
       <c r="K8" t="n">
-        <v>102.5</v>
+        <v>151.5</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -858,9 +858,11 @@
         <v>90</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="inlineStr"/>
+        <v>90</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -868,12 +870,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>zeiplanken</t>
+          <t>voorkant</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>links</t>
+          <t>voorplank</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -882,25 +884,25 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>195</v>
+        <v>297</v>
       </c>
       <c r="G9" t="n">
-        <v>17.8</v>
+        <v>7.5</v>
       </c>
       <c r="H9" t="n">
-        <v>2.2</v>
+        <v>3.1</v>
       </c>
       <c r="I9" t="n">
-        <v>98.90000000000001</v>
+        <v>-46.25</v>
       </c>
       <c r="J9" t="n">
-        <v>11.1</v>
+        <v>23.45</v>
       </c>
       <c r="K9" t="n">
-        <v>102.5</v>
+        <v>151.5</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -909,9 +911,11 @@
         <v>90</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="inlineStr"/>
+        <v>90</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -924,7 +928,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>voorplank</t>
+          <t>stut</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -933,37 +937,37 @@
         </is>
       </c>
       <c r="E10" t="n">
+        <v>9</v>
+      </c>
+      <c r="F10" t="n">
+        <v>76</v>
+      </c>
+      <c r="G10" t="n">
+        <v>20</v>
+      </c>
+      <c r="H10" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>-0.25</v>
+      </c>
+      <c r="J10" t="n">
+        <v>20.35</v>
+      </c>
+      <c r="K10" t="n">
+        <v>250.5</v>
+      </c>
+      <c r="L10" t="n">
+        <v>90</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
         <v>1</v>
-      </c>
-      <c r="F10" t="n">
-        <v>195</v>
-      </c>
-      <c r="G10" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="H10" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="I10" t="n">
-        <v>96.25</v>
-      </c>
-      <c r="J10" t="n">
-        <v>38.9</v>
-      </c>
-      <c r="K10" t="n">
-        <v>102.5</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>90</v>
-      </c>
-      <c r="N10" t="n">
-        <v>90</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -977,7 +981,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>voorplank</t>
+          <t>stut</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -986,37 +990,37 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="F11" t="n">
-        <v>195</v>
+        <v>76</v>
       </c>
       <c r="G11" t="n">
-        <v>7.5</v>
+        <v>20</v>
       </c>
       <c r="H11" t="n">
-        <v>2.2</v>
+        <v>3.1</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="J11" t="n">
-        <v>38.9</v>
+        <v>20.35</v>
       </c>
       <c r="K11" t="n">
-        <v>102.5</v>
+        <v>151.5</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="M11" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -1030,7 +1034,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>voorplank</t>
+          <t>stut</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -1039,37 +1043,37 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F12" t="n">
-        <v>195</v>
+        <v>76</v>
       </c>
       <c r="G12" t="n">
-        <v>7.5</v>
+        <v>20</v>
       </c>
       <c r="H12" t="n">
-        <v>2.2</v>
+        <v>3.1</v>
       </c>
       <c r="I12" t="n">
-        <v>-96.25</v>
+        <v>-0.25</v>
       </c>
       <c r="J12" t="n">
-        <v>38.9</v>
+        <v>20.35</v>
       </c>
       <c r="K12" t="n">
-        <v>102.5</v>
+        <v>52.5</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="M12" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -1083,34 +1087,34 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>stut</t>
+          <t>slot</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>plank</t>
+          <t>slot</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="F13" t="n">
-        <v>79.40000000000001</v>
+        <v>7</v>
       </c>
       <c r="G13" t="n">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="H13" t="n">
-        <v>2.2</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
-        <v>47.875</v>
+        <v>-42.5</v>
       </c>
       <c r="J13" t="n">
-        <v>36.7</v>
+        <v>25.5</v>
       </c>
       <c r="K13" t="n">
-        <v>167.5</v>
+        <v>151.5</v>
       </c>
       <c r="L13" t="n">
         <v>90</v>
@@ -1122,7 +1126,7 @@
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -1136,34 +1140,34 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>stut</t>
+          <t>scharnier</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>plank</t>
+          <t>scharnier</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="F14" t="n">
-        <v>79.40000000000001</v>
+        <v>5</v>
       </c>
       <c r="G14" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H14" t="n">
-        <v>2.2</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
-        <v>47.875</v>
+        <v>-42.5</v>
       </c>
       <c r="J14" t="n">
-        <v>36.7</v>
+        <v>25.5</v>
       </c>
       <c r="K14" t="n">
-        <v>102.5</v>
+        <v>250.5</v>
       </c>
       <c r="L14" t="n">
         <v>90</v>
@@ -1175,7 +1179,7 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -1189,34 +1193,34 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>stut</t>
+          <t>scharnier</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>plank</t>
+          <t>scharnier</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F15" t="n">
-        <v>79.40000000000001</v>
+        <v>5</v>
       </c>
       <c r="G15" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H15" t="n">
-        <v>2.2</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
-        <v>47.875</v>
+        <v>-42.5</v>
       </c>
       <c r="J15" t="n">
-        <v>36.7</v>
+        <v>25.5</v>
       </c>
       <c r="K15" t="n">
-        <v>37.5</v>
+        <v>151.5</v>
       </c>
       <c r="L15" t="n">
         <v>90</v>
@@ -1228,7 +1232,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -1242,34 +1246,34 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>stut</t>
+          <t>scharnier</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>plank</t>
+          <t>scharnier</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F16" t="n">
-        <v>79.40000000000001</v>
+        <v>5</v>
       </c>
       <c r="G16" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H16" t="n">
-        <v>2.2</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
-        <v>-48.375</v>
+        <v>-42.5</v>
       </c>
       <c r="J16" t="n">
-        <v>36.7</v>
+        <v>25.5</v>
       </c>
       <c r="K16" t="n">
-        <v>167.5</v>
+        <v>52.5</v>
       </c>
       <c r="L16" t="n">
         <v>90</v>
@@ -1295,7 +1299,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>stut</t>
+          <t>deur</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1304,31 +1308,31 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F17" t="n">
-        <v>79.40000000000001</v>
+        <v>297</v>
       </c>
       <c r="G17" t="n">
         <v>20</v>
       </c>
       <c r="H17" t="n">
-        <v>2.2</v>
+        <v>3.1</v>
       </c>
       <c r="I17" t="n">
-        <v>-48.375</v>
+        <v>32</v>
       </c>
       <c r="J17" t="n">
-        <v>36.7</v>
+        <v>23.45</v>
       </c>
       <c r="K17" t="n">
-        <v>102.5</v>
+        <v>151.5</v>
       </c>
       <c r="L17" t="n">
         <v>90</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -1348,7 +1352,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>stut</t>
+          <t>deur</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1357,31 +1361,31 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F18" t="n">
-        <v>79.40000000000001</v>
+        <v>297</v>
       </c>
       <c r="G18" t="n">
         <v>20</v>
       </c>
       <c r="H18" t="n">
-        <v>2.2</v>
+        <v>3.1</v>
       </c>
       <c r="I18" t="n">
-        <v>-48.375</v>
+        <v>12</v>
       </c>
       <c r="J18" t="n">
-        <v>36.7</v>
+        <v>23.45</v>
       </c>
       <c r="K18" t="n">
-        <v>37.5</v>
+        <v>151.5</v>
       </c>
       <c r="L18" t="n">
         <v>90</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -1401,46 +1405,46 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>slot</t>
+          <t>deur</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>slot</t>
+          <t>plank</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="F19" t="n">
-        <v>7</v>
+        <v>297</v>
       </c>
       <c r="G19" t="n">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="H19" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I19" t="n">
+        <v>-8.000000000000002</v>
+      </c>
+      <c r="J19" t="n">
+        <v>23.45</v>
+      </c>
+      <c r="K19" t="n">
+        <v>151.5</v>
+      </c>
+      <c r="L19" t="n">
+        <v>90</v>
+      </c>
+      <c r="M19" t="n">
+        <v>90</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="n">
         <v>1</v>
-      </c>
-      <c r="I19" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="J19" t="n">
-        <v>40.5</v>
-      </c>
-      <c r="K19" t="n">
-        <v>102.5</v>
-      </c>
-      <c r="L19" t="n">
-        <v>90</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" t="n">
-        <v>0</v>
-      </c>
-      <c r="O19" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="20">
@@ -1454,40 +1458,40 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>slot</t>
+          <t>deur</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>slot</t>
+          <t>plank</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="F20" t="n">
-        <v>7</v>
+        <v>297</v>
       </c>
       <c r="G20" t="n">
-        <v>7</v>
+        <v>12.2</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>3.1</v>
       </c>
       <c r="I20" t="n">
-        <v>-92.5</v>
+        <v>-24.125</v>
       </c>
       <c r="J20" t="n">
-        <v>40.5</v>
+        <v>23.45</v>
       </c>
       <c r="K20" t="n">
-        <v>102.5</v>
+        <v>151.5</v>
       </c>
       <c r="L20" t="n">
         <v>90</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -1507,46 +1511,46 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>scharnier</t>
+          <t>deur</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>scharnier</t>
+          <t>plank</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="F21" t="n">
-        <v>5</v>
+        <v>297</v>
       </c>
       <c r="G21" t="n">
-        <v>10</v>
+        <v>12.2</v>
       </c>
       <c r="H21" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I21" t="n">
+        <v>-36.375</v>
+      </c>
+      <c r="J21" t="n">
+        <v>23.45</v>
+      </c>
+      <c r="K21" t="n">
+        <v>151.5</v>
+      </c>
+      <c r="L21" t="n">
+        <v>90</v>
+      </c>
+      <c r="M21" t="n">
+        <v>90</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
         <v>1</v>
-      </c>
-      <c r="I21" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="J21" t="n">
-        <v>40.5</v>
-      </c>
-      <c r="K21" t="n">
-        <v>167.5</v>
-      </c>
-      <c r="L21" t="n">
-        <v>90</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" t="n">
-        <v>0</v>
-      </c>
-      <c r="O21" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="22">
@@ -1555,42 +1559,38 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>voorkant</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>scharnier</t>
-        </is>
-      </c>
+          <t>voet</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr">
         <is>
-          <t>scharnier</t>
+          <t>blok</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G22" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I22" t="n">
-        <v>3.75</v>
+        <v>45.4</v>
       </c>
       <c r="J22" t="n">
-        <v>40.5</v>
+        <v>20.4</v>
       </c>
       <c r="K22" t="n">
-        <v>102.5</v>
+        <v>1.5</v>
       </c>
       <c r="L22" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
         <v>0</v>
@@ -1598,9 +1598,7 @@
       <c r="N22" t="n">
         <v>0</v>
       </c>
-      <c r="O22" t="n">
-        <v>2</v>
-      </c>
+      <c r="O22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1608,42 +1606,38 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>voorkant</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>scharnier</t>
-        </is>
-      </c>
+          <t>voet</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr">
         <is>
-          <t>scharnier</t>
+          <t>blok</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="F23" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G23" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I23" t="n">
-        <v>3.75</v>
+        <v>45.4</v>
       </c>
       <c r="J23" t="n">
-        <v>40.5</v>
+        <v>-20.4</v>
       </c>
       <c r="K23" t="n">
-        <v>37.5</v>
+        <v>1.5</v>
       </c>
       <c r="L23" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -1651,9 +1645,7 @@
       <c r="N23" t="n">
         <v>0</v>
       </c>
-      <c r="O23" t="n">
-        <v>2</v>
-      </c>
+      <c r="O23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1661,42 +1653,38 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>voorkant</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>scharnier</t>
-        </is>
-      </c>
+          <t>voet</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr">
         <is>
-          <t>scharnier</t>
+          <t>blok</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="F24" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G24" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I24" t="n">
-        <v>-92.5</v>
+        <v>-45.4</v>
       </c>
       <c r="J24" t="n">
-        <v>40.5</v>
+        <v>20.4</v>
       </c>
       <c r="K24" t="n">
-        <v>167.5</v>
+        <v>1.5</v>
       </c>
       <c r="L24" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -1704,9 +1692,7 @@
       <c r="N24" t="n">
         <v>0</v>
       </c>
-      <c r="O24" t="n">
-        <v>1</v>
-      </c>
+      <c r="O24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1714,42 +1700,38 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>voorkant</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>scharnier</t>
-        </is>
-      </c>
+          <t>voet</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr">
         <is>
-          <t>scharnier</t>
+          <t>blok</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F25" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G25" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I25" t="n">
-        <v>-92.5</v>
+        <v>-45.4</v>
       </c>
       <c r="J25" t="n">
-        <v>40.5</v>
+        <v>-20.4</v>
       </c>
       <c r="K25" t="n">
-        <v>102.5</v>
+        <v>1.5</v>
       </c>
       <c r="L25" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
         <v>0</v>
@@ -1757,9 +1739,7 @@
       <c r="N25" t="n">
         <v>0</v>
       </c>
-      <c r="O25" t="n">
-        <v>1</v>
-      </c>
+      <c r="O25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1767,42 +1747,38 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>voorkant</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>scharnier</t>
-        </is>
-      </c>
+          <t>vlonders</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr">
         <is>
-          <t>scharnier</t>
+          <t>plank</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>5</v>
+        <v>92.8</v>
       </c>
       <c r="G26" t="n">
-        <v>10</v>
+        <v>18.9</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v>3.1</v>
       </c>
       <c r="I26" t="n">
-        <v>-92.5</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>40.5</v>
+        <v>9.449999999999999</v>
       </c>
       <c r="K26" t="n">
-        <v>37.5</v>
+        <v>235.75</v>
       </c>
       <c r="L26" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -1810,9 +1786,7 @@
       <c r="N26" t="n">
         <v>0</v>
       </c>
-      <c r="O26" t="n">
-        <v>1</v>
-      </c>
+      <c r="O26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1820,52 +1794,46 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>voorkant</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>deur</t>
-        </is>
-      </c>
+          <t>vlonders</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr">
         <is>
           <t>plank</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="F27" t="n">
-        <v>195</v>
+        <v>92.8</v>
       </c>
       <c r="G27" t="n">
-        <v>20</v>
+        <v>18.9</v>
       </c>
       <c r="H27" t="n">
-        <v>2.2</v>
+        <v>3.1</v>
       </c>
       <c r="I27" t="n">
-        <v>82</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>38.9</v>
+        <v>9.449999999999999</v>
       </c>
       <c r="K27" t="n">
-        <v>102.5</v>
+        <v>13.65</v>
       </c>
       <c r="L27" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
-      <c r="O27" t="n">
-        <v>2</v>
-      </c>
+      <c r="O27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1873,52 +1841,46 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>voorkant</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>deur</t>
-        </is>
-      </c>
+          <t>vlonders</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr">
         <is>
           <t>plank</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="F28" t="n">
-        <v>195</v>
+        <v>92.8</v>
       </c>
       <c r="G28" t="n">
-        <v>20</v>
+        <v>18.9</v>
       </c>
       <c r="H28" t="n">
-        <v>2.2</v>
+        <v>3.1</v>
       </c>
       <c r="I28" t="n">
-        <v>61.99999999999999</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>38.9</v>
+        <v>-9.449999999999999</v>
       </c>
       <c r="K28" t="n">
-        <v>102.5</v>
+        <v>235.75</v>
       </c>
       <c r="L28" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
         <v>0</v>
       </c>
-      <c r="O28" t="n">
-        <v>2</v>
-      </c>
+      <c r="O28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1926,52 +1888,46 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>voorkant</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>deur</t>
-        </is>
-      </c>
+          <t>vlonders</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr">
         <is>
           <t>plank</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="F29" t="n">
-        <v>195</v>
+        <v>92.8</v>
       </c>
       <c r="G29" t="n">
-        <v>20</v>
+        <v>18.9</v>
       </c>
       <c r="H29" t="n">
-        <v>2.2</v>
+        <v>3.1</v>
       </c>
       <c r="I29" t="n">
-        <v>41.99999999999999</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>38.9</v>
+        <v>-9.449999999999999</v>
       </c>
       <c r="K29" t="n">
-        <v>102.5</v>
+        <v>13.65</v>
       </c>
       <c r="L29" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
       </c>
-      <c r="O29" t="n">
-        <v>2</v>
-      </c>
+      <c r="O29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1979,42 +1935,42 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>voorkant</t>
+          <t>ribben</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>deur</t>
+          <t>zeide</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>plank</t>
+          <t>balk</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F30" t="n">
-        <v>195</v>
+        <v>290.8</v>
       </c>
       <c r="G30" t="n">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="H30" t="n">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="I30" t="n">
-        <v>-14.25</v>
+        <v>45.4</v>
       </c>
       <c r="J30" t="n">
-        <v>38.9</v>
+        <v>20.4</v>
       </c>
       <c r="K30" t="n">
-        <v>102.5</v>
+        <v>151.5</v>
       </c>
       <c r="L30" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>90</v>
@@ -2023,7 +1979,7 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -2032,42 +1988,42 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>voorkant</t>
+          <t>ribben</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>deur</t>
+          <t>zeide</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>plank</t>
+          <t>balk</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F31" t="n">
-        <v>195</v>
+        <v>290.8</v>
       </c>
       <c r="G31" t="n">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="H31" t="n">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="I31" t="n">
-        <v>-34.25</v>
+        <v>45.4</v>
       </c>
       <c r="J31" t="n">
-        <v>38.9</v>
+        <v>-20.4</v>
       </c>
       <c r="K31" t="n">
-        <v>102.5</v>
+        <v>151.5</v>
       </c>
       <c r="L31" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
         <v>90</v>
@@ -2076,7 +2032,7 @@
         <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -2085,42 +2041,42 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>voorkant</t>
+          <t>ribben</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>deur</t>
+          <t>zeide</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>plank</t>
+          <t>balk</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F32" t="n">
-        <v>195</v>
+        <v>290.8</v>
       </c>
       <c r="G32" t="n">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="H32" t="n">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="I32" t="n">
-        <v>-54.25</v>
+        <v>-45.4</v>
       </c>
       <c r="J32" t="n">
-        <v>38.9</v>
+        <v>20.4</v>
       </c>
       <c r="K32" t="n">
-        <v>102.5</v>
+        <v>151.5</v>
       </c>
       <c r="L32" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>90</v>
@@ -2129,7 +2085,7 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33">
@@ -2138,42 +2094,42 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>voorkant</t>
+          <t>ribben</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>deur</t>
+          <t>zeide</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>plank</t>
+          <t>balk</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="F33" t="n">
-        <v>195</v>
+        <v>290.8</v>
       </c>
       <c r="G33" t="n">
-        <v>14.1</v>
+        <v>3</v>
       </c>
       <c r="H33" t="n">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="I33" t="n">
-        <v>24.93749999999999</v>
+        <v>-45.4</v>
       </c>
       <c r="J33" t="n">
-        <v>38.9</v>
+        <v>-20.4</v>
       </c>
       <c r="K33" t="n">
-        <v>102.5</v>
+        <v>151.5</v>
       </c>
       <c r="L33" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>90</v>
@@ -2191,51 +2147,51 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>voorkant</t>
+          <t>ribben</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>deur</t>
+          <t>tussen</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>plank</t>
+          <t>balk</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="F34" t="n">
-        <v>195</v>
+        <v>37.8</v>
       </c>
       <c r="G34" t="n">
-        <v>14.1</v>
+        <v>3</v>
       </c>
       <c r="H34" t="n">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="I34" t="n">
-        <v>10.8125</v>
+        <v>45.4</v>
       </c>
       <c r="J34" t="n">
-        <v>38.9</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>102.5</v>
+        <v>232.7</v>
       </c>
       <c r="L34" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="O34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -2244,51 +2200,51 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>voorkant</t>
+          <t>ribben</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>deur</t>
+          <t>tussen</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>plank</t>
+          <t>balk</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F35" t="n">
-        <v>195</v>
+        <v>37.8</v>
       </c>
       <c r="G35" t="n">
-        <v>14.1</v>
+        <v>3</v>
       </c>
       <c r="H35" t="n">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="I35" t="n">
-        <v>-71.3125</v>
+        <v>45.4</v>
       </c>
       <c r="J35" t="n">
-        <v>38.9</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>102.5</v>
+        <v>10.6</v>
       </c>
       <c r="L35" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="O35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -2297,51 +2253,51 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>voorkant</t>
+          <t>ribben</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>deur</t>
+          <t>tussen</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>plank</t>
+          <t>balk</t>
         </is>
       </c>
       <c r="E36" t="n">
+        <v>10</v>
+      </c>
+      <c r="F36" t="n">
+        <v>37.8</v>
+      </c>
+      <c r="G36" t="n">
+        <v>3</v>
+      </c>
+      <c r="H36" t="n">
+        <v>3</v>
+      </c>
+      <c r="I36" t="n">
+        <v>-45.4</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
+      <c r="K36" t="n">
+        <v>232.7</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="n">
+        <v>90</v>
+      </c>
+      <c r="O36" t="n">
         <v>2</v>
-      </c>
-      <c r="F36" t="n">
-        <v>195</v>
-      </c>
-      <c r="G36" t="n">
-        <v>14.1</v>
-      </c>
-      <c r="H36" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="I36" t="n">
-        <v>-85.4375</v>
-      </c>
-      <c r="J36" t="n">
-        <v>38.9</v>
-      </c>
-      <c r="K36" t="n">
-        <v>102.5</v>
-      </c>
-      <c r="L36" t="n">
-        <v>90</v>
-      </c>
-      <c r="M36" t="n">
-        <v>90</v>
-      </c>
-      <c r="N36" t="n">
-        <v>0</v>
-      </c>
-      <c r="O36" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="37">
@@ -2350,35 +2306,39 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>voet</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr"/>
+          <t>ribben</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>tussen</t>
+        </is>
+      </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>blok</t>
+          <t>balk</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="F37" t="n">
-        <v>5</v>
+        <v>37.8</v>
       </c>
       <c r="G37" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H37" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I37" t="n">
-        <v>95.3</v>
+        <v>-45.4</v>
       </c>
       <c r="J37" t="n">
-        <v>35.3</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>2.5</v>
+        <v>10.6</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -2387,9 +2347,11 @@
         <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
-      </c>
-      <c r="O37" t="inlineStr"/>
+        <v>90</v>
+      </c>
+      <c r="O37" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -2397,35 +2359,39 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>voet</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr"/>
+          <t>ribben</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>onder</t>
+        </is>
+      </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>blok</t>
+          <t>balk</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>5</v>
+        <v>37.8</v>
       </c>
       <c r="G38" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H38" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3</v>
+        <v>45.4</v>
       </c>
       <c r="J38" t="n">
-        <v>-35.3</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>2.5</v>
+        <v>7.6</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -2434,9 +2400,11 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
-      </c>
-      <c r="O38" t="inlineStr"/>
+        <v>90</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -2444,35 +2412,39 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>voet</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr"/>
+          <t>ribben</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>onder</t>
+        </is>
+      </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>blok</t>
+          <t>balk</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F39" t="n">
-        <v>5</v>
+        <v>37.8</v>
       </c>
       <c r="G39" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H39" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>-45.4</v>
       </c>
       <c r="J39" t="n">
-        <v>35.3</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>2.5</v>
+        <v>7.6</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -2481,9 +2453,11 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
-      </c>
-      <c r="O39" t="inlineStr"/>
+        <v>90</v>
+      </c>
+      <c r="O39" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -2491,35 +2465,39 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>voet</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr"/>
+          <t>ribben</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>boven</t>
+        </is>
+      </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>blok</t>
+          <t>balk</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F40" t="n">
-        <v>5</v>
+        <v>37.8</v>
       </c>
       <c r="G40" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H40" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>45.4</v>
       </c>
       <c r="J40" t="n">
-        <v>-35.3</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>2.5</v>
+        <v>295.4</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
@@ -2528,9 +2506,11 @@
         <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
-      </c>
-      <c r="O40" t="inlineStr"/>
+        <v>90</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -2538,35 +2518,39 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>voet</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr"/>
+          <t>ribben</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>boven</t>
+        </is>
+      </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>blok</t>
+          <t>balk</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="F41" t="n">
-        <v>5</v>
+        <v>37.8</v>
       </c>
       <c r="G41" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H41" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I41" t="n">
-        <v>-95.3</v>
+        <v>-45.4</v>
       </c>
       <c r="J41" t="n">
-        <v>35.3</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>2.5</v>
+        <v>295.4</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -2575,9 +2559,11 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
-      </c>
-      <c r="O41" t="inlineStr"/>
+        <v>90</v>
+      </c>
+      <c r="O41" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2585,35 +2571,39 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>voet</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr"/>
+          <t>ribben</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>achter</t>
+        </is>
+      </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>blok</t>
+          <t>balk</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="F42" t="n">
-        <v>5</v>
+        <v>87.8</v>
       </c>
       <c r="G42" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H42" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I42" t="n">
-        <v>-95.3</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>-35.3</v>
+        <v>-20.4</v>
       </c>
       <c r="K42" t="n">
-        <v>2.5</v>
+        <v>235.8</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -2624,7 +2614,9 @@
       <c r="N42" t="n">
         <v>0</v>
       </c>
-      <c r="O42" t="inlineStr"/>
+      <c r="O42" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2632,35 +2624,39 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>vlonders</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr"/>
+          <t>ribben</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>achter</t>
+        </is>
+      </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>plank</t>
+          <t>balk</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="F43" t="n">
-        <v>194.6</v>
+        <v>87.8</v>
       </c>
       <c r="G43" t="n">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="H43" t="n">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>-4.799999999999996</v>
+        <v>-20.4</v>
       </c>
       <c r="K43" t="n">
-        <v>85.10000000000001</v>
+        <v>13.7</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -2671,7 +2667,9 @@
       <c r="N43" t="n">
         <v>0</v>
       </c>
-      <c r="O43" t="inlineStr"/>
+      <c r="O43" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2679,35 +2677,39 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>vlonders</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr"/>
+          <t>onderstel</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>onderkant</t>
+        </is>
+      </c>
       <c r="D44" t="inlineStr">
         <is>
           <t>plank</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F44" t="n">
-        <v>194.6</v>
+        <v>93.8</v>
       </c>
       <c r="G44" t="n">
         <v>20</v>
       </c>
       <c r="H44" t="n">
-        <v>2.2</v>
+        <v>3.1</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>-24.8</v>
+        <v>-11.9</v>
       </c>
       <c r="K44" t="n">
-        <v>85.10000000000001</v>
+        <v>4.55</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
@@ -2726,10 +2728,14 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>vlonders</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr"/>
+          <t>onderstel</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>onderkant</t>
+        </is>
+      </c>
       <c r="D45" t="inlineStr">
         <is>
           <t>plank</t>
@@ -2739,22 +2745,22 @@
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>194.6</v>
+        <v>93.8</v>
       </c>
       <c r="G45" t="n">
-        <v>14.8</v>
+        <v>11.9</v>
       </c>
       <c r="H45" t="n">
-        <v>2.2</v>
+        <v>3.1</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>27.4</v>
+        <v>15.95</v>
       </c>
       <c r="K45" t="n">
-        <v>85.10000000000001</v>
+        <v>4.55</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -2773,10 +2779,14 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>vlonders</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr"/>
+          <t>onderstel</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>onderkant</t>
+        </is>
+      </c>
       <c r="D46" t="inlineStr">
         <is>
           <t>plank</t>
@@ -2786,22 +2796,22 @@
         <v>1</v>
       </c>
       <c r="F46" t="n">
-        <v>194.6</v>
+        <v>93.8</v>
       </c>
       <c r="G46" t="n">
-        <v>14.8</v>
+        <v>11.9</v>
       </c>
       <c r="H46" t="n">
-        <v>2.2</v>
+        <v>3.1</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.6</v>
+        <v>4.050000000000001</v>
       </c>
       <c r="K46" t="n">
-        <v>85.10000000000001</v>
+        <v>4.55</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
@@ -2820,52 +2830,50 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>ribben</t>
+          <t>onderstel</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>zeide</t>
+          <t>bovenkant</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>balk</t>
+          <t>plank</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F47" t="n">
-        <v>190.6</v>
+        <v>93.8</v>
       </c>
       <c r="G47" t="n">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="H47" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="I47" t="n">
-        <v>96.3</v>
+        <v>0</v>
       </c>
       <c r="J47" t="n">
-        <v>36.3</v>
+        <v>-11.9</v>
       </c>
       <c r="K47" t="n">
-        <v>102.5</v>
+        <v>298.45</v>
       </c>
       <c r="L47" t="n">
         <v>0</v>
       </c>
       <c r="M47" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="N47" t="n">
         <v>0</v>
       </c>
-      <c r="O47" t="n">
-        <v>0</v>
-      </c>
+      <c r="O47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2873,52 +2881,50 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>ribben</t>
+          <t>onderstel</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>zeide</t>
+          <t>bovenkant</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>balk</t>
+          <t>plank</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F48" t="n">
-        <v>190.6</v>
+        <v>93.8</v>
       </c>
       <c r="G48" t="n">
-        <v>3</v>
+        <v>11.9</v>
       </c>
       <c r="H48" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="I48" t="n">
-        <v>96.3</v>
+        <v>0</v>
       </c>
       <c r="J48" t="n">
-        <v>-36.3</v>
+        <v>15.95</v>
       </c>
       <c r="K48" t="n">
-        <v>102.5</v>
+        <v>298.45</v>
       </c>
       <c r="L48" t="n">
         <v>0</v>
       </c>
       <c r="M48" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="N48" t="n">
         <v>0</v>
       </c>
-      <c r="O48" t="n">
-        <v>0</v>
-      </c>
+      <c r="O48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2926,52 +2932,50 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>ribben</t>
+          <t>onderstel</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>zeide</t>
+          <t>bovenkant</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>balk</t>
+          <t>plank</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F49" t="n">
-        <v>190.6</v>
+        <v>93.8</v>
       </c>
       <c r="G49" t="n">
-        <v>3</v>
+        <v>11.9</v>
       </c>
       <c r="H49" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
       <c r="J49" t="n">
-        <v>36.3</v>
+        <v>4.050000000000001</v>
       </c>
       <c r="K49" t="n">
-        <v>102.5</v>
+        <v>298.45</v>
       </c>
       <c r="L49" t="n">
         <v>0</v>
       </c>
       <c r="M49" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="N49" t="n">
         <v>0</v>
       </c>
-      <c r="O49" t="n">
-        <v>1</v>
-      </c>
+      <c r="O49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2979,39 +2983,35 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>ribben</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>zeide</t>
-        </is>
-      </c>
+          <t>achterplank</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr"/>
       <c r="D50" t="inlineStr">
         <is>
-          <t>balk</t>
+          <t>plank</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F50" t="n">
-        <v>190.6</v>
+        <v>297</v>
       </c>
       <c r="G50" t="n">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="H50" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="I50" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="J50" t="n">
-        <v>-36.3</v>
+        <v>-23.45</v>
       </c>
       <c r="K50" t="n">
-        <v>102.5</v>
+        <v>151.5</v>
       </c>
       <c r="L50" t="n">
         <v>0</v>
@@ -3020,11 +3020,9 @@
         <v>90</v>
       </c>
       <c r="N50" t="n">
-        <v>0</v>
-      </c>
-      <c r="O50" t="n">
-        <v>1</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="O50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -3032,39 +3030,35 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>ribben</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>zeide</t>
-        </is>
-      </c>
+          <t>achterplank</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr"/>
       <c r="D51" t="inlineStr">
         <is>
-          <t>balk</t>
+          <t>plank</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="F51" t="n">
-        <v>190.6</v>
+        <v>297</v>
       </c>
       <c r="G51" t="n">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="H51" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="I51" t="n">
-        <v>-96.3</v>
+        <v>20</v>
       </c>
       <c r="J51" t="n">
-        <v>36.3</v>
+        <v>-23.45</v>
       </c>
       <c r="K51" t="n">
-        <v>102.5</v>
+        <v>151.5</v>
       </c>
       <c r="L51" t="n">
         <v>0</v>
@@ -3073,11 +3067,9 @@
         <v>90</v>
       </c>
       <c r="N51" t="n">
-        <v>0</v>
-      </c>
-      <c r="O51" t="n">
-        <v>2</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="O51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -3085,39 +3077,35 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>ribben</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>zeide</t>
-        </is>
-      </c>
+          <t>achterplank</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr"/>
       <c r="D52" t="inlineStr">
         <is>
-          <t>balk</t>
+          <t>plank</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="F52" t="n">
-        <v>190.6</v>
+        <v>297</v>
       </c>
       <c r="G52" t="n">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="H52" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="I52" t="n">
-        <v>-96.3</v>
+        <v>0</v>
       </c>
       <c r="J52" t="n">
-        <v>-36.3</v>
+        <v>-23.45</v>
       </c>
       <c r="K52" t="n">
-        <v>102.5</v>
+        <v>151.5</v>
       </c>
       <c r="L52" t="n">
         <v>0</v>
@@ -3126,11 +3114,9 @@
         <v>90</v>
       </c>
       <c r="N52" t="n">
-        <v>0</v>
-      </c>
-      <c r="O52" t="n">
-        <v>2</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="O52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -3138,52 +3124,46 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>ribben</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>tussen</t>
-        </is>
-      </c>
+          <t>achterplank</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr"/>
       <c r="D53" t="inlineStr">
         <is>
-          <t>balk</t>
+          <t>plank</t>
         </is>
       </c>
       <c r="E53" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F53" t="n">
-        <v>69.59999999999999</v>
+        <v>297</v>
       </c>
       <c r="G53" t="n">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="H53" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="I53" t="n">
-        <v>96.3</v>
+        <v>-20</v>
       </c>
       <c r="J53" t="n">
-        <v>0</v>
+        <v>-23.45</v>
       </c>
       <c r="K53" t="n">
-        <v>82.5</v>
+        <v>151.5</v>
       </c>
       <c r="L53" t="n">
         <v>0</v>
       </c>
       <c r="M53" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="N53" t="n">
         <v>90</v>
       </c>
-      <c r="O53" t="n">
-        <v>0</v>
-      </c>
+      <c r="O53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -3191,1407 +3171,46 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>ribben</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>tussen</t>
-        </is>
-      </c>
+          <t>achterplank</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr"/>
       <c r="D54" t="inlineStr">
         <is>
-          <t>balk</t>
+          <t>plank</t>
         </is>
       </c>
       <c r="E54" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F54" t="n">
-        <v>69.59999999999999</v>
+        <v>297</v>
       </c>
       <c r="G54" t="n">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="H54" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="I54" t="n">
-        <v>0</v>
+        <v>-40</v>
       </c>
       <c r="J54" t="n">
-        <v>0</v>
+        <v>-23.45</v>
       </c>
       <c r="K54" t="n">
-        <v>82.5</v>
+        <v>151.5</v>
       </c>
       <c r="L54" t="n">
         <v>0</v>
       </c>
       <c r="M54" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="N54" t="n">
         <v>90</v>
       </c>
-      <c r="O54" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="n">
-        <v>53</v>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>ribben</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>tussen</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>balk</t>
-        </is>
-      </c>
-      <c r="E55" t="n">
-        <v>14</v>
-      </c>
-      <c r="F55" t="n">
-        <v>69.59999999999999</v>
-      </c>
-      <c r="G55" t="n">
-        <v>3</v>
-      </c>
-      <c r="H55" t="n">
-        <v>3</v>
-      </c>
-      <c r="I55" t="n">
-        <v>-96.3</v>
-      </c>
-      <c r="J55" t="n">
-        <v>0</v>
-      </c>
-      <c r="K55" t="n">
-        <v>82.5</v>
-      </c>
-      <c r="L55" t="n">
-        <v>0</v>
-      </c>
-      <c r="M55" t="n">
-        <v>0</v>
-      </c>
-      <c r="N55" t="n">
-        <v>90</v>
-      </c>
-      <c r="O55" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="n">
-        <v>54</v>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>ribben</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>onder</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>balk</t>
-        </is>
-      </c>
-      <c r="E56" t="n">
-        <v>0</v>
-      </c>
-      <c r="F56" t="n">
-        <v>69.59999999999999</v>
-      </c>
-      <c r="G56" t="n">
-        <v>3</v>
-      </c>
-      <c r="H56" t="n">
-        <v>3</v>
-      </c>
-      <c r="I56" t="n">
-        <v>96.3</v>
-      </c>
-      <c r="J56" t="n">
-        <v>0</v>
-      </c>
-      <c r="K56" t="n">
-        <v>8.699999999999999</v>
-      </c>
-      <c r="L56" t="n">
-        <v>0</v>
-      </c>
-      <c r="M56" t="n">
-        <v>0</v>
-      </c>
-      <c r="N56" t="n">
-        <v>90</v>
-      </c>
-      <c r="O56" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="n">
-        <v>55</v>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>ribben</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>onder</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>balk</t>
-        </is>
-      </c>
-      <c r="E57" t="n">
-        <v>5</v>
-      </c>
-      <c r="F57" t="n">
-        <v>69.59999999999999</v>
-      </c>
-      <c r="G57" t="n">
-        <v>3</v>
-      </c>
-      <c r="H57" t="n">
-        <v>3</v>
-      </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
-      <c r="J57" t="n">
-        <v>0</v>
-      </c>
-      <c r="K57" t="n">
-        <v>8.699999999999999</v>
-      </c>
-      <c r="L57" t="n">
-        <v>0</v>
-      </c>
-      <c r="M57" t="n">
-        <v>0</v>
-      </c>
-      <c r="N57" t="n">
-        <v>90</v>
-      </c>
-      <c r="O57" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="1" t="n">
-        <v>56</v>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>ribben</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>onder</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>balk</t>
-        </is>
-      </c>
-      <c r="E58" t="n">
-        <v>10</v>
-      </c>
-      <c r="F58" t="n">
-        <v>69.59999999999999</v>
-      </c>
-      <c r="G58" t="n">
-        <v>3</v>
-      </c>
-      <c r="H58" t="n">
-        <v>3</v>
-      </c>
-      <c r="I58" t="n">
-        <v>-96.3</v>
-      </c>
-      <c r="J58" t="n">
-        <v>0</v>
-      </c>
-      <c r="K58" t="n">
-        <v>8.699999999999999</v>
-      </c>
-      <c r="L58" t="n">
-        <v>0</v>
-      </c>
-      <c r="M58" t="n">
-        <v>0</v>
-      </c>
-      <c r="N58" t="n">
-        <v>90</v>
-      </c>
-      <c r="O58" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="1" t="n">
-        <v>57</v>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>ribben</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>boven</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>balk</t>
-        </is>
-      </c>
-      <c r="E59" t="n">
-        <v>3</v>
-      </c>
-      <c r="F59" t="n">
-        <v>69.59999999999999</v>
-      </c>
-      <c r="G59" t="n">
-        <v>3</v>
-      </c>
-      <c r="H59" t="n">
-        <v>3</v>
-      </c>
-      <c r="I59" t="n">
-        <v>96.3</v>
-      </c>
-      <c r="J59" t="n">
-        <v>0</v>
-      </c>
-      <c r="K59" t="n">
-        <v>196.3</v>
-      </c>
-      <c r="L59" t="n">
-        <v>0</v>
-      </c>
-      <c r="M59" t="n">
-        <v>0</v>
-      </c>
-      <c r="N59" t="n">
-        <v>90</v>
-      </c>
-      <c r="O59" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="1" t="n">
-        <v>58</v>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>ribben</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>boven</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>balk</t>
-        </is>
-      </c>
-      <c r="E60" t="n">
-        <v>8</v>
-      </c>
-      <c r="F60" t="n">
-        <v>69.59999999999999</v>
-      </c>
-      <c r="G60" t="n">
-        <v>3</v>
-      </c>
-      <c r="H60" t="n">
-        <v>3</v>
-      </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
-      <c r="J60" t="n">
-        <v>0</v>
-      </c>
-      <c r="K60" t="n">
-        <v>196.3</v>
-      </c>
-      <c r="L60" t="n">
-        <v>0</v>
-      </c>
-      <c r="M60" t="n">
-        <v>0</v>
-      </c>
-      <c r="N60" t="n">
-        <v>90</v>
-      </c>
-      <c r="O60" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="1" t="n">
-        <v>59</v>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>ribben</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>boven</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>balk</t>
-        </is>
-      </c>
-      <c r="E61" t="n">
-        <v>13</v>
-      </c>
-      <c r="F61" t="n">
-        <v>69.59999999999999</v>
-      </c>
-      <c r="G61" t="n">
-        <v>3</v>
-      </c>
-      <c r="H61" t="n">
-        <v>3</v>
-      </c>
-      <c r="I61" t="n">
-        <v>-96.3</v>
-      </c>
-      <c r="J61" t="n">
-        <v>0</v>
-      </c>
-      <c r="K61" t="n">
-        <v>196.3</v>
-      </c>
-      <c r="L61" t="n">
-        <v>0</v>
-      </c>
-      <c r="M61" t="n">
-        <v>0</v>
-      </c>
-      <c r="N61" t="n">
-        <v>90</v>
-      </c>
-      <c r="O61" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="1" t="n">
-        <v>60</v>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>ribben</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>achter</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>balk</t>
-        </is>
-      </c>
-      <c r="E62" t="n">
-        <v>15</v>
-      </c>
-      <c r="F62" t="n">
-        <v>93.3</v>
-      </c>
-      <c r="G62" t="n">
-        <v>3</v>
-      </c>
-      <c r="H62" t="n">
-        <v>3</v>
-      </c>
-      <c r="I62" t="n">
-        <v>48.15</v>
-      </c>
-      <c r="J62" t="n">
-        <v>-36.3</v>
-      </c>
-      <c r="K62" t="n">
-        <v>84.7</v>
-      </c>
-      <c r="L62" t="n">
-        <v>0</v>
-      </c>
-      <c r="M62" t="n">
-        <v>0</v>
-      </c>
-      <c r="N62" t="n">
-        <v>0</v>
-      </c>
-      <c r="O62" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="1" t="n">
-        <v>61</v>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>ribben</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>achter</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>balk</t>
-        </is>
-      </c>
-      <c r="E63" t="n">
-        <v>16</v>
-      </c>
-      <c r="F63" t="n">
-        <v>93.3</v>
-      </c>
-      <c r="G63" t="n">
-        <v>3</v>
-      </c>
-      <c r="H63" t="n">
-        <v>3</v>
-      </c>
-      <c r="I63" t="n">
-        <v>-48.15</v>
-      </c>
-      <c r="J63" t="n">
-        <v>-36.3</v>
-      </c>
-      <c r="K63" t="n">
-        <v>84.7</v>
-      </c>
-      <c r="L63" t="n">
-        <v>0</v>
-      </c>
-      <c r="M63" t="n">
-        <v>0</v>
-      </c>
-      <c r="N63" t="n">
-        <v>0</v>
-      </c>
-      <c r="O63" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="1" t="n">
-        <v>62</v>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>onderstel</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>onderkant</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>plank</t>
-        </is>
-      </c>
-      <c r="E64" t="n">
-        <v>2</v>
-      </c>
-      <c r="F64" t="n">
-        <v>195.6</v>
-      </c>
-      <c r="G64" t="n">
-        <v>20</v>
-      </c>
-      <c r="H64" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
-      <c r="J64" t="n">
-        <v>-7.799999999999997</v>
-      </c>
-      <c r="K64" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="L64" t="n">
-        <v>0</v>
-      </c>
-      <c r="M64" t="n">
-        <v>0</v>
-      </c>
-      <c r="N64" t="n">
-        <v>0</v>
-      </c>
-      <c r="O64" t="inlineStr"/>
-    </row>
-    <row r="65">
-      <c r="A65" s="1" t="n">
-        <v>63</v>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>onderstel</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>onderkant</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>plank</t>
-        </is>
-      </c>
-      <c r="E65" t="n">
-        <v>3</v>
-      </c>
-      <c r="F65" t="n">
-        <v>195.6</v>
-      </c>
-      <c r="G65" t="n">
-        <v>20</v>
-      </c>
-      <c r="H65" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
-      <c r="J65" t="n">
-        <v>-27.8</v>
-      </c>
-      <c r="K65" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="L65" t="n">
-        <v>0</v>
-      </c>
-      <c r="M65" t="n">
-        <v>0</v>
-      </c>
-      <c r="N65" t="n">
-        <v>0</v>
-      </c>
-      <c r="O65" t="inlineStr"/>
-    </row>
-    <row r="66">
-      <c r="A66" s="1" t="n">
-        <v>64</v>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>onderstel</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>onderkant</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>plank</t>
-        </is>
-      </c>
-      <c r="E66" t="n">
-        <v>0</v>
-      </c>
-      <c r="F66" t="n">
-        <v>195.6</v>
-      </c>
-      <c r="G66" t="n">
-        <v>17.8</v>
-      </c>
-      <c r="H66" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
-      <c r="J66" t="n">
-        <v>28.9</v>
-      </c>
-      <c r="K66" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="L66" t="n">
-        <v>0</v>
-      </c>
-      <c r="M66" t="n">
-        <v>0</v>
-      </c>
-      <c r="N66" t="n">
-        <v>0</v>
-      </c>
-      <c r="O66" t="inlineStr"/>
-    </row>
-    <row r="67">
-      <c r="A67" s="1" t="n">
-        <v>65</v>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>onderstel</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>onderkant</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>plank</t>
-        </is>
-      </c>
-      <c r="E67" t="n">
-        <v>1</v>
-      </c>
-      <c r="F67" t="n">
-        <v>195.6</v>
-      </c>
-      <c r="G67" t="n">
-        <v>17.8</v>
-      </c>
-      <c r="H67" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
-      <c r="J67" t="n">
-        <v>11.1</v>
-      </c>
-      <c r="K67" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="L67" t="n">
-        <v>0</v>
-      </c>
-      <c r="M67" t="n">
-        <v>0</v>
-      </c>
-      <c r="N67" t="n">
-        <v>0</v>
-      </c>
-      <c r="O67" t="inlineStr"/>
-    </row>
-    <row r="68">
-      <c r="A68" s="1" t="n">
-        <v>66</v>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>onderstel</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>bovenkant</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>plank</t>
-        </is>
-      </c>
-      <c r="E68" t="n">
-        <v>6</v>
-      </c>
-      <c r="F68" t="n">
-        <v>195.6</v>
-      </c>
-      <c r="G68" t="n">
-        <v>20</v>
-      </c>
-      <c r="H68" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
-      <c r="J68" t="n">
-        <v>-7.799999999999997</v>
-      </c>
-      <c r="K68" t="n">
-        <v>198.9</v>
-      </c>
-      <c r="L68" t="n">
-        <v>0</v>
-      </c>
-      <c r="M68" t="n">
-        <v>0</v>
-      </c>
-      <c r="N68" t="n">
-        <v>0</v>
-      </c>
-      <c r="O68" t="inlineStr"/>
-    </row>
-    <row r="69">
-      <c r="A69" s="1" t="n">
-        <v>67</v>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>onderstel</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>bovenkant</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>plank</t>
-        </is>
-      </c>
-      <c r="E69" t="n">
-        <v>7</v>
-      </c>
-      <c r="F69" t="n">
-        <v>195.6</v>
-      </c>
-      <c r="G69" t="n">
-        <v>20</v>
-      </c>
-      <c r="H69" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>-27.8</v>
-      </c>
-      <c r="K69" t="n">
-        <v>198.9</v>
-      </c>
-      <c r="L69" t="n">
-        <v>0</v>
-      </c>
-      <c r="M69" t="n">
-        <v>0</v>
-      </c>
-      <c r="N69" t="n">
-        <v>0</v>
-      </c>
-      <c r="O69" t="inlineStr"/>
-    </row>
-    <row r="70">
-      <c r="A70" s="1" t="n">
-        <v>68</v>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>onderstel</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>bovenkant</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>plank</t>
-        </is>
-      </c>
-      <c r="E70" t="n">
-        <v>4</v>
-      </c>
-      <c r="F70" t="n">
-        <v>195.6</v>
-      </c>
-      <c r="G70" t="n">
-        <v>17.8</v>
-      </c>
-      <c r="H70" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
-      <c r="J70" t="n">
-        <v>28.9</v>
-      </c>
-      <c r="K70" t="n">
-        <v>198.9</v>
-      </c>
-      <c r="L70" t="n">
-        <v>0</v>
-      </c>
-      <c r="M70" t="n">
-        <v>0</v>
-      </c>
-      <c r="N70" t="n">
-        <v>0</v>
-      </c>
-      <c r="O70" t="inlineStr"/>
-    </row>
-    <row r="71">
-      <c r="A71" s="1" t="n">
-        <v>69</v>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>onderstel</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>bovenkant</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>plank</t>
-        </is>
-      </c>
-      <c r="E71" t="n">
-        <v>5</v>
-      </c>
-      <c r="F71" t="n">
-        <v>195.6</v>
-      </c>
-      <c r="G71" t="n">
-        <v>17.8</v>
-      </c>
-      <c r="H71" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
-      <c r="J71" t="n">
-        <v>11.1</v>
-      </c>
-      <c r="K71" t="n">
-        <v>198.9</v>
-      </c>
-      <c r="L71" t="n">
-        <v>0</v>
-      </c>
-      <c r="M71" t="n">
-        <v>0</v>
-      </c>
-      <c r="N71" t="n">
-        <v>0</v>
-      </c>
-      <c r="O71" t="inlineStr"/>
-    </row>
-    <row r="72">
-      <c r="A72" s="1" t="n">
-        <v>70</v>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>achterplank</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr"/>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>plank</t>
-        </is>
-      </c>
-      <c r="E72" t="n">
-        <v>0</v>
-      </c>
-      <c r="F72" t="n">
-        <v>195</v>
-      </c>
-      <c r="G72" t="n">
-        <v>20</v>
-      </c>
-      <c r="H72" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="I72" t="n">
-        <v>90</v>
-      </c>
-      <c r="J72" t="n">
-        <v>-38.9</v>
-      </c>
-      <c r="K72" t="n">
-        <v>102.5</v>
-      </c>
-      <c r="L72" t="n">
-        <v>0</v>
-      </c>
-      <c r="M72" t="n">
-        <v>90</v>
-      </c>
-      <c r="N72" t="n">
-        <v>90</v>
-      </c>
-      <c r="O72" t="inlineStr"/>
-    </row>
-    <row r="73">
-      <c r="A73" s="1" t="n">
-        <v>71</v>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>achterplank</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr"/>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>plank</t>
-        </is>
-      </c>
-      <c r="E73" t="n">
-        <v>1</v>
-      </c>
-      <c r="F73" t="n">
-        <v>195</v>
-      </c>
-      <c r="G73" t="n">
-        <v>20</v>
-      </c>
-      <c r="H73" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="I73" t="n">
-        <v>70</v>
-      </c>
-      <c r="J73" t="n">
-        <v>-38.9</v>
-      </c>
-      <c r="K73" t="n">
-        <v>102.5</v>
-      </c>
-      <c r="L73" t="n">
-        <v>0</v>
-      </c>
-      <c r="M73" t="n">
-        <v>90</v>
-      </c>
-      <c r="N73" t="n">
-        <v>90</v>
-      </c>
-      <c r="O73" t="inlineStr"/>
-    </row>
-    <row r="74">
-      <c r="A74" s="1" t="n">
-        <v>72</v>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>achterplank</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr"/>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>plank</t>
-        </is>
-      </c>
-      <c r="E74" t="n">
-        <v>2</v>
-      </c>
-      <c r="F74" t="n">
-        <v>195</v>
-      </c>
-      <c r="G74" t="n">
-        <v>20</v>
-      </c>
-      <c r="H74" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="I74" t="n">
-        <v>50</v>
-      </c>
-      <c r="J74" t="n">
-        <v>-38.9</v>
-      </c>
-      <c r="K74" t="n">
-        <v>102.5</v>
-      </c>
-      <c r="L74" t="n">
-        <v>0</v>
-      </c>
-      <c r="M74" t="n">
-        <v>90</v>
-      </c>
-      <c r="N74" t="n">
-        <v>90</v>
-      </c>
-      <c r="O74" t="inlineStr"/>
-    </row>
-    <row r="75">
-      <c r="A75" s="1" t="n">
-        <v>73</v>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>achterplank</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr"/>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>plank</t>
-        </is>
-      </c>
-      <c r="E75" t="n">
-        <v>3</v>
-      </c>
-      <c r="F75" t="n">
-        <v>195</v>
-      </c>
-      <c r="G75" t="n">
-        <v>20</v>
-      </c>
-      <c r="H75" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="I75" t="n">
-        <v>30</v>
-      </c>
-      <c r="J75" t="n">
-        <v>-38.9</v>
-      </c>
-      <c r="K75" t="n">
-        <v>102.5</v>
-      </c>
-      <c r="L75" t="n">
-        <v>0</v>
-      </c>
-      <c r="M75" t="n">
-        <v>90</v>
-      </c>
-      <c r="N75" t="n">
-        <v>90</v>
-      </c>
-      <c r="O75" t="inlineStr"/>
-    </row>
-    <row r="76">
-      <c r="A76" s="1" t="n">
-        <v>74</v>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>achterplank</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr"/>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>plank</t>
-        </is>
-      </c>
-      <c r="E76" t="n">
-        <v>4</v>
-      </c>
-      <c r="F76" t="n">
-        <v>195</v>
-      </c>
-      <c r="G76" t="n">
-        <v>20</v>
-      </c>
-      <c r="H76" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="I76" t="n">
-        <v>10</v>
-      </c>
-      <c r="J76" t="n">
-        <v>-38.9</v>
-      </c>
-      <c r="K76" t="n">
-        <v>102.5</v>
-      </c>
-      <c r="L76" t="n">
-        <v>0</v>
-      </c>
-      <c r="M76" t="n">
-        <v>90</v>
-      </c>
-      <c r="N76" t="n">
-        <v>90</v>
-      </c>
-      <c r="O76" t="inlineStr"/>
-    </row>
-    <row r="77">
-      <c r="A77" s="1" t="n">
-        <v>75</v>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>achterplank</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr"/>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>plank</t>
-        </is>
-      </c>
-      <c r="E77" t="n">
-        <v>5</v>
-      </c>
-      <c r="F77" t="n">
-        <v>195</v>
-      </c>
-      <c r="G77" t="n">
-        <v>20</v>
-      </c>
-      <c r="H77" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="I77" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J77" t="n">
-        <v>-38.9</v>
-      </c>
-      <c r="K77" t="n">
-        <v>102.5</v>
-      </c>
-      <c r="L77" t="n">
-        <v>0</v>
-      </c>
-      <c r="M77" t="n">
-        <v>90</v>
-      </c>
-      <c r="N77" t="n">
-        <v>90</v>
-      </c>
-      <c r="O77" t="inlineStr"/>
-    </row>
-    <row r="78">
-      <c r="A78" s="1" t="n">
-        <v>76</v>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>achterplank</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr"/>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>plank</t>
-        </is>
-      </c>
-      <c r="E78" t="n">
-        <v>6</v>
-      </c>
-      <c r="F78" t="n">
-        <v>195</v>
-      </c>
-      <c r="G78" t="n">
-        <v>20</v>
-      </c>
-      <c r="H78" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="I78" t="n">
-        <v>-30</v>
-      </c>
-      <c r="J78" t="n">
-        <v>-38.9</v>
-      </c>
-      <c r="K78" t="n">
-        <v>102.5</v>
-      </c>
-      <c r="L78" t="n">
-        <v>0</v>
-      </c>
-      <c r="M78" t="n">
-        <v>90</v>
-      </c>
-      <c r="N78" t="n">
-        <v>90</v>
-      </c>
-      <c r="O78" t="inlineStr"/>
-    </row>
-    <row r="79">
-      <c r="A79" s="1" t="n">
-        <v>77</v>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>achterplank</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr"/>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>plank</t>
-        </is>
-      </c>
-      <c r="E79" t="n">
-        <v>7</v>
-      </c>
-      <c r="F79" t="n">
-        <v>195</v>
-      </c>
-      <c r="G79" t="n">
-        <v>20</v>
-      </c>
-      <c r="H79" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="I79" t="n">
-        <v>-50</v>
-      </c>
-      <c r="J79" t="n">
-        <v>-38.9</v>
-      </c>
-      <c r="K79" t="n">
-        <v>102.5</v>
-      </c>
-      <c r="L79" t="n">
-        <v>0</v>
-      </c>
-      <c r="M79" t="n">
-        <v>90</v>
-      </c>
-      <c r="N79" t="n">
-        <v>90</v>
-      </c>
-      <c r="O79" t="inlineStr"/>
-    </row>
-    <row r="80">
-      <c r="A80" s="1" t="n">
-        <v>78</v>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>achterplank</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr"/>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>plank</t>
-        </is>
-      </c>
-      <c r="E80" t="n">
-        <v>8</v>
-      </c>
-      <c r="F80" t="n">
-        <v>195</v>
-      </c>
-      <c r="G80" t="n">
-        <v>20</v>
-      </c>
-      <c r="H80" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="I80" t="n">
-        <v>-70</v>
-      </c>
-      <c r="J80" t="n">
-        <v>-38.9</v>
-      </c>
-      <c r="K80" t="n">
-        <v>102.5</v>
-      </c>
-      <c r="L80" t="n">
-        <v>0</v>
-      </c>
-      <c r="M80" t="n">
-        <v>90</v>
-      </c>
-      <c r="N80" t="n">
-        <v>90</v>
-      </c>
-      <c r="O80" t="inlineStr"/>
-    </row>
-    <row r="81">
-      <c r="A81" s="1" t="n">
-        <v>79</v>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>achterplank</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr"/>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>plank</t>
-        </is>
-      </c>
-      <c r="E81" t="n">
-        <v>9</v>
-      </c>
-      <c r="F81" t="n">
-        <v>195</v>
-      </c>
-      <c r="G81" t="n">
-        <v>20</v>
-      </c>
-      <c r="H81" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="I81" t="n">
-        <v>-90</v>
-      </c>
-      <c r="J81" t="n">
-        <v>-38.9</v>
-      </c>
-      <c r="K81" t="n">
-        <v>102.5</v>
-      </c>
-      <c r="L81" t="n">
-        <v>0</v>
-      </c>
-      <c r="M81" t="n">
-        <v>90</v>
-      </c>
-      <c r="N81" t="n">
-        <v>90</v>
-      </c>
-      <c r="O81" t="inlineStr"/>
+      <c r="O54" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/plankenlijst.xlsx
+++ b/plankenlijst.xlsx
@@ -528,22 +528,22 @@
         <v>5</v>
       </c>
       <c r="F2" t="n">
-        <v>297</v>
+        <v>695</v>
       </c>
       <c r="G2" t="n">
         <v>20</v>
       </c>
       <c r="H2" t="n">
-        <v>3.1</v>
+        <v>2.2</v>
       </c>
       <c r="I2" t="n">
-        <v>-48.45</v>
+        <v>-48.9</v>
       </c>
       <c r="J2" t="n">
-        <v>-11.9</v>
+        <v>-12.80000000000001</v>
       </c>
       <c r="K2" t="n">
-        <v>151.5</v>
+        <v>352.5</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -579,22 +579,22 @@
         <v>3</v>
       </c>
       <c r="F3" t="n">
-        <v>297</v>
+        <v>695</v>
       </c>
       <c r="G3" t="n">
-        <v>11.9</v>
+        <v>12.8</v>
       </c>
       <c r="H3" t="n">
-        <v>3.1</v>
+        <v>2.2</v>
       </c>
       <c r="I3" t="n">
-        <v>-48.45</v>
+        <v>-48.9</v>
       </c>
       <c r="J3" t="n">
-        <v>15.95</v>
+        <v>16.4</v>
       </c>
       <c r="K3" t="n">
-        <v>151.5</v>
+        <v>352.5</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -630,22 +630,22 @@
         <v>4</v>
       </c>
       <c r="F4" t="n">
-        <v>297</v>
+        <v>695</v>
       </c>
       <c r="G4" t="n">
-        <v>11.9</v>
+        <v>12.8</v>
       </c>
       <c r="H4" t="n">
-        <v>3.1</v>
+        <v>2.2</v>
       </c>
       <c r="I4" t="n">
-        <v>-48.45</v>
+        <v>-48.9</v>
       </c>
       <c r="J4" t="n">
-        <v>4.050000000000001</v>
+        <v>3.599999999999995</v>
       </c>
       <c r="K4" t="n">
-        <v>151.5</v>
+        <v>352.5</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -681,22 +681,22 @@
         <v>2</v>
       </c>
       <c r="F5" t="n">
-        <v>297</v>
+        <v>695</v>
       </c>
       <c r="G5" t="n">
         <v>20</v>
       </c>
       <c r="H5" t="n">
-        <v>3.1</v>
+        <v>2.2</v>
       </c>
       <c r="I5" t="n">
-        <v>48.45</v>
+        <v>48.9</v>
       </c>
       <c r="J5" t="n">
-        <v>-11.9</v>
+        <v>-12.80000000000001</v>
       </c>
       <c r="K5" t="n">
-        <v>151.5</v>
+        <v>352.5</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -732,22 +732,22 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>297</v>
+        <v>695</v>
       </c>
       <c r="G6" t="n">
-        <v>11.9</v>
+        <v>12.8</v>
       </c>
       <c r="H6" t="n">
-        <v>3.1</v>
+        <v>2.2</v>
       </c>
       <c r="I6" t="n">
-        <v>48.45</v>
+        <v>48.9</v>
       </c>
       <c r="J6" t="n">
-        <v>15.95</v>
+        <v>16.4</v>
       </c>
       <c r="K6" t="n">
-        <v>151.5</v>
+        <v>352.5</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -783,22 +783,22 @@
         <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>297</v>
+        <v>695</v>
       </c>
       <c r="G7" t="n">
-        <v>11.9</v>
+        <v>12.8</v>
       </c>
       <c r="H7" t="n">
-        <v>3.1</v>
+        <v>2.2</v>
       </c>
       <c r="I7" t="n">
-        <v>48.45</v>
+        <v>48.9</v>
       </c>
       <c r="J7" t="n">
-        <v>4.050000000000001</v>
+        <v>3.599999999999995</v>
       </c>
       <c r="K7" t="n">
-        <v>151.5</v>
+        <v>352.5</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -834,22 +834,22 @@
         <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>297</v>
+        <v>695</v>
       </c>
       <c r="G8" t="n">
         <v>7.5</v>
       </c>
       <c r="H8" t="n">
-        <v>3.1</v>
+        <v>2.2</v>
       </c>
       <c r="I8" t="n">
         <v>46.25</v>
       </c>
       <c r="J8" t="n">
-        <v>23.45</v>
+        <v>23.9</v>
       </c>
       <c r="K8" t="n">
-        <v>151.5</v>
+        <v>352.5</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -887,22 +887,22 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>297</v>
+        <v>695</v>
       </c>
       <c r="G9" t="n">
         <v>7.5</v>
       </c>
       <c r="H9" t="n">
-        <v>3.1</v>
+        <v>2.2</v>
       </c>
       <c r="I9" t="n">
         <v>-46.25</v>
       </c>
       <c r="J9" t="n">
-        <v>23.45</v>
+        <v>23.9</v>
       </c>
       <c r="K9" t="n">
-        <v>151.5</v>
+        <v>352.5</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -946,16 +946,16 @@
         <v>20</v>
       </c>
       <c r="H10" t="n">
-        <v>3.1</v>
+        <v>2.2</v>
       </c>
       <c r="I10" t="n">
         <v>-0.25</v>
       </c>
       <c r="J10" t="n">
-        <v>20.35</v>
+        <v>21.7</v>
       </c>
       <c r="K10" t="n">
-        <v>250.5</v>
+        <v>584.1666666666666</v>
       </c>
       <c r="L10" t="n">
         <v>90</v>
@@ -999,16 +999,16 @@
         <v>20</v>
       </c>
       <c r="H11" t="n">
-        <v>3.1</v>
+        <v>2.2</v>
       </c>
       <c r="I11" t="n">
         <v>-0.25</v>
       </c>
       <c r="J11" t="n">
-        <v>20.35</v>
+        <v>21.7</v>
       </c>
       <c r="K11" t="n">
-        <v>151.5</v>
+        <v>352.5</v>
       </c>
       <c r="L11" t="n">
         <v>90</v>
@@ -1052,16 +1052,16 @@
         <v>20</v>
       </c>
       <c r="H12" t="n">
-        <v>3.1</v>
+        <v>2.2</v>
       </c>
       <c r="I12" t="n">
         <v>-0.25</v>
       </c>
       <c r="J12" t="n">
-        <v>20.35</v>
+        <v>21.7</v>
       </c>
       <c r="K12" t="n">
-        <v>52.5</v>
+        <v>120.8333333333333</v>
       </c>
       <c r="L12" t="n">
         <v>90</v>
@@ -1114,7 +1114,7 @@
         <v>25.5</v>
       </c>
       <c r="K13" t="n">
-        <v>151.5</v>
+        <v>352.5</v>
       </c>
       <c r="L13" t="n">
         <v>90</v>
@@ -1167,7 +1167,7 @@
         <v>25.5</v>
       </c>
       <c r="K14" t="n">
-        <v>250.5</v>
+        <v>584.1666666666666</v>
       </c>
       <c r="L14" t="n">
         <v>90</v>
@@ -1220,7 +1220,7 @@
         <v>25.5</v>
       </c>
       <c r="K15" t="n">
-        <v>151.5</v>
+        <v>352.5</v>
       </c>
       <c r="L15" t="n">
         <v>90</v>
@@ -1273,7 +1273,7 @@
         <v>25.5</v>
       </c>
       <c r="K16" t="n">
-        <v>52.5</v>
+        <v>120.8333333333333</v>
       </c>
       <c r="L16" t="n">
         <v>90</v>
@@ -1311,22 +1311,22 @@
         <v>6</v>
       </c>
       <c r="F17" t="n">
-        <v>297</v>
+        <v>695</v>
       </c>
       <c r="G17" t="n">
         <v>20</v>
       </c>
       <c r="H17" t="n">
-        <v>3.1</v>
+        <v>2.2</v>
       </c>
       <c r="I17" t="n">
         <v>32</v>
       </c>
       <c r="J17" t="n">
-        <v>23.45</v>
+        <v>23.9</v>
       </c>
       <c r="K17" t="n">
-        <v>151.5</v>
+        <v>352.5</v>
       </c>
       <c r="L17" t="n">
         <v>90</v>
@@ -1364,22 +1364,22 @@
         <v>5</v>
       </c>
       <c r="F18" t="n">
-        <v>297</v>
+        <v>695</v>
       </c>
       <c r="G18" t="n">
         <v>20</v>
       </c>
       <c r="H18" t="n">
-        <v>3.1</v>
+        <v>2.2</v>
       </c>
       <c r="I18" t="n">
         <v>12</v>
       </c>
       <c r="J18" t="n">
-        <v>23.45</v>
+        <v>23.9</v>
       </c>
       <c r="K18" t="n">
-        <v>151.5</v>
+        <v>352.5</v>
       </c>
       <c r="L18" t="n">
         <v>90</v>
@@ -1417,22 +1417,22 @@
         <v>4</v>
       </c>
       <c r="F19" t="n">
-        <v>297</v>
+        <v>695</v>
       </c>
       <c r="G19" t="n">
         <v>20</v>
       </c>
       <c r="H19" t="n">
-        <v>3.1</v>
+        <v>2.2</v>
       </c>
       <c r="I19" t="n">
         <v>-8.000000000000002</v>
       </c>
       <c r="J19" t="n">
-        <v>23.45</v>
+        <v>23.9</v>
       </c>
       <c r="K19" t="n">
-        <v>151.5</v>
+        <v>352.5</v>
       </c>
       <c r="L19" t="n">
         <v>90</v>
@@ -1470,22 +1470,22 @@
         <v>3</v>
       </c>
       <c r="F20" t="n">
-        <v>297</v>
+        <v>695</v>
       </c>
       <c r="G20" t="n">
         <v>12.2</v>
       </c>
       <c r="H20" t="n">
-        <v>3.1</v>
+        <v>2.2</v>
       </c>
       <c r="I20" t="n">
         <v>-24.125</v>
       </c>
       <c r="J20" t="n">
-        <v>23.45</v>
+        <v>23.9</v>
       </c>
       <c r="K20" t="n">
-        <v>151.5</v>
+        <v>352.5</v>
       </c>
       <c r="L20" t="n">
         <v>90</v>
@@ -1523,22 +1523,22 @@
         <v>2</v>
       </c>
       <c r="F21" t="n">
-        <v>297</v>
+        <v>695</v>
       </c>
       <c r="G21" t="n">
         <v>12.2</v>
       </c>
       <c r="H21" t="n">
-        <v>3.1</v>
+        <v>2.2</v>
       </c>
       <c r="I21" t="n">
         <v>-36.375</v>
       </c>
       <c r="J21" t="n">
-        <v>23.45</v>
+        <v>23.9</v>
       </c>
       <c r="K21" t="n">
-        <v>151.5</v>
+        <v>352.5</v>
       </c>
       <c r="L21" t="n">
         <v>90</v>
@@ -1572,22 +1572,22 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G22" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H22" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I22" t="n">
-        <v>45.4</v>
+        <v>45.3</v>
       </c>
       <c r="J22" t="n">
-        <v>20.4</v>
+        <v>20.3</v>
       </c>
       <c r="K22" t="n">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -1619,22 +1619,22 @@
         <v>1</v>
       </c>
       <c r="F23" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G23" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H23" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I23" t="n">
-        <v>45.4</v>
+        <v>45.3</v>
       </c>
       <c r="J23" t="n">
-        <v>-20.4</v>
+        <v>-20.3</v>
       </c>
       <c r="K23" t="n">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -1666,22 +1666,22 @@
         <v>3</v>
       </c>
       <c r="F24" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G24" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H24" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I24" t="n">
-        <v>-45.4</v>
+        <v>-45.3</v>
       </c>
       <c r="J24" t="n">
-        <v>20.4</v>
+        <v>20.3</v>
       </c>
       <c r="K24" t="n">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -1713,22 +1713,22 @@
         <v>2</v>
       </c>
       <c r="F25" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G25" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H25" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I25" t="n">
-        <v>-45.4</v>
+        <v>-45.3</v>
       </c>
       <c r="J25" t="n">
-        <v>-20.4</v>
+        <v>-20.3</v>
       </c>
       <c r="K25" t="n">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -1760,22 +1760,22 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>92.8</v>
+        <v>94.59999999999999</v>
       </c>
       <c r="G26" t="n">
-        <v>18.9</v>
+        <v>19.8</v>
       </c>
       <c r="H26" t="n">
-        <v>3.1</v>
+        <v>2.2</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>9.449999999999999</v>
+        <v>9.9</v>
       </c>
       <c r="K26" t="n">
-        <v>235.75</v>
+        <v>395.4999999999999</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -1807,22 +1807,22 @@
         <v>2</v>
       </c>
       <c r="F27" t="n">
-        <v>92.8</v>
+        <v>94.59999999999999</v>
       </c>
       <c r="G27" t="n">
-        <v>18.9</v>
+        <v>19.8</v>
       </c>
       <c r="H27" t="n">
-        <v>3.1</v>
+        <v>2.2</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>9.449999999999999</v>
+        <v>9.9</v>
       </c>
       <c r="K27" t="n">
-        <v>13.65</v>
+        <v>266.6</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -1854,22 +1854,22 @@
         <v>1</v>
       </c>
       <c r="F28" t="n">
-        <v>92.8</v>
+        <v>94.59999999999999</v>
       </c>
       <c r="G28" t="n">
-        <v>18.9</v>
+        <v>19.8</v>
       </c>
       <c r="H28" t="n">
-        <v>3.1</v>
+        <v>2.2</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>-9.449999999999999</v>
+        <v>-9.9</v>
       </c>
       <c r="K28" t="n">
-        <v>235.75</v>
+        <v>395.4999999999999</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
@@ -1901,22 +1901,22 @@
         <v>3</v>
       </c>
       <c r="F29" t="n">
-        <v>92.8</v>
+        <v>94.59999999999999</v>
       </c>
       <c r="G29" t="n">
-        <v>18.9</v>
+        <v>19.8</v>
       </c>
       <c r="H29" t="n">
-        <v>3.1</v>
+        <v>2.2</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>-9.449999999999999</v>
+        <v>-9.9</v>
       </c>
       <c r="K29" t="n">
-        <v>13.65</v>
+        <v>266.6</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -1952,7 +1952,7 @@
         <v>1</v>
       </c>
       <c r="F30" t="n">
-        <v>290.8</v>
+        <v>690.6</v>
       </c>
       <c r="G30" t="n">
         <v>3</v>
@@ -1961,13 +1961,13 @@
         <v>3</v>
       </c>
       <c r="I30" t="n">
-        <v>45.4</v>
+        <v>46.3</v>
       </c>
       <c r="J30" t="n">
-        <v>20.4</v>
+        <v>21.3</v>
       </c>
       <c r="K30" t="n">
-        <v>151.5</v>
+        <v>352.5</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -2005,7 +2005,7 @@
         <v>2</v>
       </c>
       <c r="F31" t="n">
-        <v>290.8</v>
+        <v>690.6</v>
       </c>
       <c r="G31" t="n">
         <v>3</v>
@@ -2014,13 +2014,13 @@
         <v>3</v>
       </c>
       <c r="I31" t="n">
-        <v>45.4</v>
+        <v>46.3</v>
       </c>
       <c r="J31" t="n">
-        <v>-20.4</v>
+        <v>-21.3</v>
       </c>
       <c r="K31" t="n">
-        <v>151.5</v>
+        <v>352.5</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
@@ -2058,7 +2058,7 @@
         <v>7</v>
       </c>
       <c r="F32" t="n">
-        <v>290.8</v>
+        <v>690.6</v>
       </c>
       <c r="G32" t="n">
         <v>3</v>
@@ -2067,13 +2067,13 @@
         <v>3</v>
       </c>
       <c r="I32" t="n">
-        <v>-45.4</v>
+        <v>-46.3</v>
       </c>
       <c r="J32" t="n">
-        <v>20.4</v>
+        <v>21.3</v>
       </c>
       <c r="K32" t="n">
-        <v>151.5</v>
+        <v>352.5</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -2111,7 +2111,7 @@
         <v>8</v>
       </c>
       <c r="F33" t="n">
-        <v>290.8</v>
+        <v>690.6</v>
       </c>
       <c r="G33" t="n">
         <v>3</v>
@@ -2120,13 +2120,13 @@
         <v>3</v>
       </c>
       <c r="I33" t="n">
-        <v>-45.4</v>
+        <v>-46.3</v>
       </c>
       <c r="J33" t="n">
-        <v>-20.4</v>
+        <v>-21.3</v>
       </c>
       <c r="K33" t="n">
-        <v>151.5</v>
+        <v>352.5</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -2164,7 +2164,7 @@
         <v>4</v>
       </c>
       <c r="F34" t="n">
-        <v>37.8</v>
+        <v>39.6</v>
       </c>
       <c r="G34" t="n">
         <v>3</v>
@@ -2173,13 +2173,13 @@
         <v>3</v>
       </c>
       <c r="I34" t="n">
-        <v>45.4</v>
+        <v>46.3</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>232.7</v>
+        <v>392.9</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
@@ -2217,7 +2217,7 @@
         <v>5</v>
       </c>
       <c r="F35" t="n">
-        <v>37.8</v>
+        <v>39.6</v>
       </c>
       <c r="G35" t="n">
         <v>3</v>
@@ -2226,13 +2226,13 @@
         <v>3</v>
       </c>
       <c r="I35" t="n">
-        <v>45.4</v>
+        <v>46.3</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>10.6</v>
+        <v>264</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
@@ -2270,7 +2270,7 @@
         <v>10</v>
       </c>
       <c r="F36" t="n">
-        <v>37.8</v>
+        <v>39.6</v>
       </c>
       <c r="G36" t="n">
         <v>3</v>
@@ -2279,13 +2279,13 @@
         <v>3</v>
       </c>
       <c r="I36" t="n">
-        <v>-45.4</v>
+        <v>-46.3</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>232.7</v>
+        <v>392.9</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -2323,7 +2323,7 @@
         <v>11</v>
       </c>
       <c r="F37" t="n">
-        <v>37.8</v>
+        <v>39.6</v>
       </c>
       <c r="G37" t="n">
         <v>3</v>
@@ -2332,13 +2332,13 @@
         <v>3</v>
       </c>
       <c r="I37" t="n">
-        <v>-45.4</v>
+        <v>-46.3</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>10.6</v>
+        <v>264</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -2376,7 +2376,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>37.8</v>
+        <v>39.6</v>
       </c>
       <c r="G38" t="n">
         <v>3</v>
@@ -2385,13 +2385,13 @@
         <v>3</v>
       </c>
       <c r="I38" t="n">
-        <v>45.4</v>
+        <v>46.3</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>7.6</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -2429,7 +2429,7 @@
         <v>6</v>
       </c>
       <c r="F39" t="n">
-        <v>37.8</v>
+        <v>39.6</v>
       </c>
       <c r="G39" t="n">
         <v>3</v>
@@ -2438,13 +2438,13 @@
         <v>3</v>
       </c>
       <c r="I39" t="n">
-        <v>-45.4</v>
+        <v>-46.3</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>7.6</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -2482,7 +2482,7 @@
         <v>3</v>
       </c>
       <c r="F40" t="n">
-        <v>37.8</v>
+        <v>39.6</v>
       </c>
       <c r="G40" t="n">
         <v>3</v>
@@ -2491,13 +2491,13 @@
         <v>3</v>
       </c>
       <c r="I40" t="n">
-        <v>45.4</v>
+        <v>46.3</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>295.4</v>
+        <v>696.3</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
@@ -2535,7 +2535,7 @@
         <v>9</v>
       </c>
       <c r="F41" t="n">
-        <v>37.8</v>
+        <v>39.6</v>
       </c>
       <c r="G41" t="n">
         <v>3</v>
@@ -2544,13 +2544,13 @@
         <v>3</v>
       </c>
       <c r="I41" t="n">
-        <v>-45.4</v>
+        <v>-46.3</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>295.4</v>
+        <v>696.3</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -2588,7 +2588,7 @@
         <v>12</v>
       </c>
       <c r="F42" t="n">
-        <v>87.8</v>
+        <v>89.59999999999999</v>
       </c>
       <c r="G42" t="n">
         <v>3</v>
@@ -2600,10 +2600,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>-20.4</v>
+        <v>-21.3</v>
       </c>
       <c r="K42" t="n">
-        <v>235.8</v>
+        <v>395.1</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -2641,7 +2641,7 @@
         <v>13</v>
       </c>
       <c r="F43" t="n">
-        <v>87.8</v>
+        <v>89.59999999999999</v>
       </c>
       <c r="G43" t="n">
         <v>3</v>
@@ -2653,10 +2653,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>-20.4</v>
+        <v>-21.3</v>
       </c>
       <c r="K43" t="n">
-        <v>13.7</v>
+        <v>266.2</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -2694,22 +2694,22 @@
         <v>2</v>
       </c>
       <c r="F44" t="n">
-        <v>93.8</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="G44" t="n">
         <v>20</v>
       </c>
       <c r="H44" t="n">
-        <v>3.1</v>
+        <v>2.2</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>-11.9</v>
+        <v>-12.80000000000001</v>
       </c>
       <c r="K44" t="n">
-        <v>4.55</v>
+        <v>6.1</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
@@ -2745,22 +2745,22 @@
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>93.8</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="G45" t="n">
-        <v>11.9</v>
+        <v>12.8</v>
       </c>
       <c r="H45" t="n">
-        <v>3.1</v>
+        <v>2.2</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>15.95</v>
+        <v>16.4</v>
       </c>
       <c r="K45" t="n">
-        <v>4.55</v>
+        <v>6.1</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -2796,22 +2796,22 @@
         <v>1</v>
       </c>
       <c r="F46" t="n">
-        <v>93.8</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="G46" t="n">
-        <v>11.9</v>
+        <v>12.8</v>
       </c>
       <c r="H46" t="n">
-        <v>3.1</v>
+        <v>2.2</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>4.050000000000001</v>
+        <v>3.599999999999995</v>
       </c>
       <c r="K46" t="n">
-        <v>4.55</v>
+        <v>6.1</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
@@ -2847,22 +2847,22 @@
         <v>5</v>
       </c>
       <c r="F47" t="n">
-        <v>93.8</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="G47" t="n">
         <v>20</v>
       </c>
       <c r="H47" t="n">
-        <v>3.1</v>
+        <v>2.2</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
       <c r="J47" t="n">
-        <v>-11.9</v>
+        <v>-12.80000000000001</v>
       </c>
       <c r="K47" t="n">
-        <v>298.45</v>
+        <v>698.9</v>
       </c>
       <c r="L47" t="n">
         <v>0</v>
@@ -2898,22 +2898,22 @@
         <v>3</v>
       </c>
       <c r="F48" t="n">
-        <v>93.8</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="G48" t="n">
-        <v>11.9</v>
+        <v>12.8</v>
       </c>
       <c r="H48" t="n">
-        <v>3.1</v>
+        <v>2.2</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
       <c r="J48" t="n">
-        <v>15.95</v>
+        <v>16.4</v>
       </c>
       <c r="K48" t="n">
-        <v>298.45</v>
+        <v>698.9</v>
       </c>
       <c r="L48" t="n">
         <v>0</v>
@@ -2949,22 +2949,22 @@
         <v>4</v>
       </c>
       <c r="F49" t="n">
-        <v>93.8</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="G49" t="n">
-        <v>11.9</v>
+        <v>12.8</v>
       </c>
       <c r="H49" t="n">
-        <v>3.1</v>
+        <v>2.2</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
       <c r="J49" t="n">
-        <v>4.050000000000001</v>
+        <v>3.599999999999995</v>
       </c>
       <c r="K49" t="n">
-        <v>298.45</v>
+        <v>698.9</v>
       </c>
       <c r="L49" t="n">
         <v>0</v>
@@ -2996,22 +2996,22 @@
         <v>0</v>
       </c>
       <c r="F50" t="n">
-        <v>297</v>
+        <v>695</v>
       </c>
       <c r="G50" t="n">
         <v>20</v>
       </c>
       <c r="H50" t="n">
-        <v>3.1</v>
+        <v>2.2</v>
       </c>
       <c r="I50" t="n">
         <v>40</v>
       </c>
       <c r="J50" t="n">
-        <v>-23.45</v>
+        <v>-23.9</v>
       </c>
       <c r="K50" t="n">
-        <v>151.5</v>
+        <v>352.5</v>
       </c>
       <c r="L50" t="n">
         <v>0</v>
@@ -3043,22 +3043,22 @@
         <v>1</v>
       </c>
       <c r="F51" t="n">
-        <v>297</v>
+        <v>695</v>
       </c>
       <c r="G51" t="n">
         <v>20</v>
       </c>
       <c r="H51" t="n">
-        <v>3.1</v>
+        <v>2.2</v>
       </c>
       <c r="I51" t="n">
         <v>20</v>
       </c>
       <c r="J51" t="n">
-        <v>-23.45</v>
+        <v>-23.9</v>
       </c>
       <c r="K51" t="n">
-        <v>151.5</v>
+        <v>352.5</v>
       </c>
       <c r="L51" t="n">
         <v>0</v>
@@ -3090,22 +3090,22 @@
         <v>2</v>
       </c>
       <c r="F52" t="n">
-        <v>297</v>
+        <v>695</v>
       </c>
       <c r="G52" t="n">
         <v>20</v>
       </c>
       <c r="H52" t="n">
-        <v>3.1</v>
+        <v>2.2</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
       <c r="J52" t="n">
-        <v>-23.45</v>
+        <v>-23.9</v>
       </c>
       <c r="K52" t="n">
-        <v>151.5</v>
+        <v>352.5</v>
       </c>
       <c r="L52" t="n">
         <v>0</v>
@@ -3137,22 +3137,22 @@
         <v>3</v>
       </c>
       <c r="F53" t="n">
-        <v>297</v>
+        <v>695</v>
       </c>
       <c r="G53" t="n">
         <v>20</v>
       </c>
       <c r="H53" t="n">
-        <v>3.1</v>
+        <v>2.2</v>
       </c>
       <c r="I53" t="n">
         <v>-20</v>
       </c>
       <c r="J53" t="n">
-        <v>-23.45</v>
+        <v>-23.9</v>
       </c>
       <c r="K53" t="n">
-        <v>151.5</v>
+        <v>352.5</v>
       </c>
       <c r="L53" t="n">
         <v>0</v>
@@ -3184,22 +3184,22 @@
         <v>4</v>
       </c>
       <c r="F54" t="n">
-        <v>297</v>
+        <v>695</v>
       </c>
       <c r="G54" t="n">
         <v>20</v>
       </c>
       <c r="H54" t="n">
-        <v>3.1</v>
+        <v>2.2</v>
       </c>
       <c r="I54" t="n">
         <v>-40</v>
       </c>
       <c r="J54" t="n">
-        <v>-23.45</v>
+        <v>-23.9</v>
       </c>
       <c r="K54" t="n">
-        <v>151.5</v>
+        <v>352.5</v>
       </c>
       <c r="L54" t="n">
         <v>0</v>

--- a/plankenlijst.xlsx
+++ b/plankenlijst.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O54"/>
+  <dimension ref="A1:O89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -525,25 +525,25 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F2" t="n">
-        <v>695</v>
+        <v>295</v>
       </c>
       <c r="G2" t="n">
-        <v>20</v>
+        <v>37.8</v>
       </c>
       <c r="H2" t="n">
         <v>2.2</v>
       </c>
       <c r="I2" t="n">
-        <v>-48.9</v>
+        <v>-198.9</v>
       </c>
       <c r="J2" t="n">
-        <v>-12.80000000000001</v>
+        <v>18.9</v>
       </c>
       <c r="K2" t="n">
-        <v>352.5</v>
+        <v>152.5</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -579,22 +579,22 @@
         <v>3</v>
       </c>
       <c r="F3" t="n">
-        <v>695</v>
+        <v>295</v>
       </c>
       <c r="G3" t="n">
-        <v>12.8</v>
+        <v>37.8</v>
       </c>
       <c r="H3" t="n">
         <v>2.2</v>
       </c>
       <c r="I3" t="n">
-        <v>-48.9</v>
+        <v>-198.9</v>
       </c>
       <c r="J3" t="n">
-        <v>16.4</v>
+        <v>-18.9</v>
       </c>
       <c r="K3" t="n">
-        <v>352.5</v>
+        <v>152.5</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -618,7 +618,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>rechts</t>
+          <t>links</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -627,25 +627,25 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>695</v>
+        <v>295</v>
       </c>
       <c r="G4" t="n">
-        <v>12.8</v>
+        <v>37.8</v>
       </c>
       <c r="H4" t="n">
         <v>2.2</v>
       </c>
       <c r="I4" t="n">
-        <v>-48.9</v>
+        <v>198.9</v>
       </c>
       <c r="J4" t="n">
-        <v>3.599999999999995</v>
+        <v>18.9</v>
       </c>
       <c r="K4" t="n">
-        <v>352.5</v>
+        <v>152.5</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -678,25 +678,25 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>695</v>
+        <v>295</v>
       </c>
       <c r="G5" t="n">
-        <v>20</v>
+        <v>37.8</v>
       </c>
       <c r="H5" t="n">
         <v>2.2</v>
       </c>
       <c r="I5" t="n">
-        <v>48.9</v>
+        <v>198.9</v>
       </c>
       <c r="J5" t="n">
-        <v>-12.80000000000001</v>
+        <v>-18.9</v>
       </c>
       <c r="K5" t="n">
-        <v>352.5</v>
+        <v>152.5</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -715,12 +715,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>zeiplanken</t>
+          <t>voorkant</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>links</t>
+          <t>voorplank</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -729,25 +729,25 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>695</v>
+        <v>295</v>
       </c>
       <c r="G6" t="n">
-        <v>12.8</v>
+        <v>7.5</v>
       </c>
       <c r="H6" t="n">
         <v>2.2</v>
       </c>
       <c r="I6" t="n">
-        <v>48.9</v>
+        <v>196.25</v>
       </c>
       <c r="J6" t="n">
-        <v>16.4</v>
+        <v>38.9</v>
       </c>
       <c r="K6" t="n">
-        <v>352.5</v>
+        <v>152.5</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -756,9 +756,11 @@
         <v>90</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="inlineStr"/>
+        <v>90</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -766,12 +768,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>zeiplanken</t>
+          <t>voorkant</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>links</t>
+          <t>voorplank</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -780,25 +782,25 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="F7" t="n">
-        <v>695</v>
+        <v>295</v>
       </c>
       <c r="G7" t="n">
-        <v>12.8</v>
+        <v>7.5</v>
       </c>
       <c r="H7" t="n">
         <v>2.2</v>
       </c>
       <c r="I7" t="n">
-        <v>48.9</v>
+        <v>65.41666666666669</v>
       </c>
       <c r="J7" t="n">
-        <v>3.599999999999995</v>
+        <v>38.9</v>
       </c>
       <c r="K7" t="n">
-        <v>352.5</v>
+        <v>152.5</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -807,9 +809,11 @@
         <v>90</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="inlineStr"/>
+        <v>90</v>
+      </c>
+      <c r="O7" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -831,10 +835,10 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="F8" t="n">
-        <v>695</v>
+        <v>295</v>
       </c>
       <c r="G8" t="n">
         <v>7.5</v>
@@ -843,13 +847,13 @@
         <v>2.2</v>
       </c>
       <c r="I8" t="n">
-        <v>46.25</v>
+        <v>-65.41666666666666</v>
       </c>
       <c r="J8" t="n">
-        <v>23.9</v>
+        <v>38.9</v>
       </c>
       <c r="K8" t="n">
-        <v>352.5</v>
+        <v>152.5</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -861,7 +865,7 @@
         <v>90</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9">
@@ -887,7 +891,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>695</v>
+        <v>295</v>
       </c>
       <c r="G9" t="n">
         <v>7.5</v>
@@ -896,13 +900,13 @@
         <v>2.2</v>
       </c>
       <c r="I9" t="n">
-        <v>-46.25</v>
+        <v>-196.25</v>
       </c>
       <c r="J9" t="n">
-        <v>23.9</v>
+        <v>38.9</v>
       </c>
       <c r="K9" t="n">
-        <v>352.5</v>
+        <v>152.5</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -937,25 +941,25 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="F10" t="n">
-        <v>76</v>
+        <v>110.5</v>
       </c>
       <c r="G10" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="H10" t="n">
         <v>2.2</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.25</v>
+        <v>130.5833333333333</v>
       </c>
       <c r="J10" t="n">
-        <v>21.7</v>
+        <v>36.7</v>
       </c>
       <c r="K10" t="n">
-        <v>584.1666666666666</v>
+        <v>250.8333333333333</v>
       </c>
       <c r="L10" t="n">
         <v>90</v>
@@ -967,7 +971,7 @@
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11">
@@ -990,25 +994,25 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="F11" t="n">
-        <v>76</v>
+        <v>110.5</v>
       </c>
       <c r="G11" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="H11" t="n">
         <v>2.2</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.25</v>
+        <v>130.5833333333333</v>
       </c>
       <c r="J11" t="n">
-        <v>21.7</v>
+        <v>36.7</v>
       </c>
       <c r="K11" t="n">
-        <v>352.5</v>
+        <v>152.5</v>
       </c>
       <c r="L11" t="n">
         <v>90</v>
@@ -1020,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12">
@@ -1043,25 +1047,25 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="F12" t="n">
-        <v>76</v>
+        <v>110.5</v>
       </c>
       <c r="G12" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="H12" t="n">
         <v>2.2</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.25</v>
+        <v>130.5833333333333</v>
       </c>
       <c r="J12" t="n">
-        <v>21.7</v>
+        <v>36.7</v>
       </c>
       <c r="K12" t="n">
-        <v>120.8333333333333</v>
+        <v>54.16666666666666</v>
       </c>
       <c r="L12" t="n">
         <v>90</v>
@@ -1073,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13">
@@ -1087,34 +1091,34 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>slot</t>
+          <t>stut</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>slot</t>
+          <t>plank</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F13" t="n">
-        <v>7</v>
+        <v>110.5</v>
       </c>
       <c r="G13" t="n">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>2.2</v>
       </c>
       <c r="I13" t="n">
-        <v>-42.5</v>
+        <v>-0.2499999999999929</v>
       </c>
       <c r="J13" t="n">
-        <v>25.5</v>
+        <v>36.7</v>
       </c>
       <c r="K13" t="n">
-        <v>352.5</v>
+        <v>250.8333333333333</v>
       </c>
       <c r="L13" t="n">
         <v>90</v>
@@ -1126,7 +1130,7 @@
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14">
@@ -1140,34 +1144,34 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>scharnier</t>
+          <t>stut</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>scharnier</t>
+          <t>plank</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F14" t="n">
-        <v>5</v>
+        <v>110.5</v>
       </c>
       <c r="G14" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>2.2</v>
       </c>
       <c r="I14" t="n">
-        <v>-42.5</v>
+        <v>-0.2499999999999929</v>
       </c>
       <c r="J14" t="n">
-        <v>25.5</v>
+        <v>36.7</v>
       </c>
       <c r="K14" t="n">
-        <v>584.1666666666666</v>
+        <v>152.5</v>
       </c>
       <c r="L14" t="n">
         <v>90</v>
@@ -1179,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15">
@@ -1193,34 +1197,34 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>scharnier</t>
+          <t>stut</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>scharnier</t>
+          <t>plank</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F15" t="n">
-        <v>5</v>
+        <v>110.5</v>
       </c>
       <c r="G15" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>2.2</v>
       </c>
       <c r="I15" t="n">
-        <v>-42.5</v>
+        <v>-0.2499999999999929</v>
       </c>
       <c r="J15" t="n">
-        <v>25.5</v>
+        <v>36.7</v>
       </c>
       <c r="K15" t="n">
-        <v>352.5</v>
+        <v>54.16666666666666</v>
       </c>
       <c r="L15" t="n">
         <v>90</v>
@@ -1232,7 +1236,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16">
@@ -1246,34 +1250,34 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>scharnier</t>
+          <t>stut</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>scharnier</t>
+          <t>plank</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F16" t="n">
-        <v>5</v>
+        <v>110.5</v>
       </c>
       <c r="G16" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>2.2</v>
       </c>
       <c r="I16" t="n">
-        <v>-42.5</v>
+        <v>-131.0833333333333</v>
       </c>
       <c r="J16" t="n">
-        <v>25.5</v>
+        <v>36.7</v>
       </c>
       <c r="K16" t="n">
-        <v>120.8333333333333</v>
+        <v>250.8333333333333</v>
       </c>
       <c r="L16" t="n">
         <v>90</v>
@@ -1299,7 +1303,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>deur</t>
+          <t>stut</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1311,28 +1315,28 @@
         <v>6</v>
       </c>
       <c r="F17" t="n">
-        <v>695</v>
+        <v>110.5</v>
       </c>
       <c r="G17" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="H17" t="n">
         <v>2.2</v>
       </c>
       <c r="I17" t="n">
-        <v>32</v>
+        <v>-131.0833333333333</v>
       </c>
       <c r="J17" t="n">
-        <v>23.9</v>
+        <v>36.7</v>
       </c>
       <c r="K17" t="n">
-        <v>352.5</v>
+        <v>152.5</v>
       </c>
       <c r="L17" t="n">
         <v>90</v>
       </c>
       <c r="M17" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -1352,7 +1356,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>deur</t>
+          <t>stut</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1361,31 +1365,31 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F18" t="n">
-        <v>695</v>
+        <v>110.5</v>
       </c>
       <c r="G18" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="H18" t="n">
         <v>2.2</v>
       </c>
       <c r="I18" t="n">
-        <v>12</v>
+        <v>-131.0833333333333</v>
       </c>
       <c r="J18" t="n">
-        <v>23.9</v>
+        <v>36.7</v>
       </c>
       <c r="K18" t="n">
-        <v>352.5</v>
+        <v>54.16666666666666</v>
       </c>
       <c r="L18" t="n">
         <v>90</v>
       </c>
       <c r="M18" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -1405,46 +1409,46 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>deur</t>
+          <t>slot</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>plank</t>
+          <t>slot</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="F19" t="n">
-        <v>695</v>
+        <v>7</v>
       </c>
       <c r="G19" t="n">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="H19" t="n">
-        <v>2.2</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
-        <v>-8.000000000000002</v>
+        <v>69.16666666666669</v>
       </c>
       <c r="J19" t="n">
-        <v>23.9</v>
+        <v>40.5</v>
       </c>
       <c r="K19" t="n">
-        <v>352.5</v>
+        <v>152.5</v>
       </c>
       <c r="L19" t="n">
         <v>90</v>
       </c>
       <c r="M19" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20">
@@ -1458,46 +1462,46 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>deur</t>
+          <t>slot</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>plank</t>
+          <t>slot</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="F20" t="n">
-        <v>695</v>
+        <v>7</v>
       </c>
       <c r="G20" t="n">
-        <v>12.2</v>
+        <v>7</v>
       </c>
       <c r="H20" t="n">
-        <v>2.2</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
-        <v>-24.125</v>
+        <v>-61.66666666666666</v>
       </c>
       <c r="J20" t="n">
-        <v>23.9</v>
+        <v>40.5</v>
       </c>
       <c r="K20" t="n">
-        <v>352.5</v>
+        <v>152.5</v>
       </c>
       <c r="L20" t="n">
         <v>90</v>
       </c>
       <c r="M20" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21">
@@ -1511,40 +1515,40 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>deur</t>
+          <t>slot</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>plank</t>
+          <t>slot</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="F21" t="n">
-        <v>695</v>
+        <v>7</v>
       </c>
       <c r="G21" t="n">
-        <v>12.2</v>
+        <v>7</v>
       </c>
       <c r="H21" t="n">
-        <v>2.2</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
-        <v>-36.375</v>
+        <v>-192.5</v>
       </c>
       <c r="J21" t="n">
-        <v>23.9</v>
+        <v>40.5</v>
       </c>
       <c r="K21" t="n">
-        <v>352.5</v>
+        <v>152.5</v>
       </c>
       <c r="L21" t="n">
         <v>90</v>
       </c>
       <c r="M21" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -1559,38 +1563,42 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>voet</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr"/>
+          <t>voorkant</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>scharnier</t>
+        </is>
+      </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>blok</t>
+          <t>scharnier</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="F22" t="n">
         <v>5</v>
       </c>
       <c r="G22" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H22" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
-        <v>45.3</v>
+        <v>69.16666666666669</v>
       </c>
       <c r="J22" t="n">
-        <v>20.3</v>
+        <v>40.5</v>
       </c>
       <c r="K22" t="n">
-        <v>2.5</v>
+        <v>250.8333333333333</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="M22" t="n">
         <v>0</v>
@@ -1598,7 +1606,9 @@
       <c r="N22" t="n">
         <v>0</v>
       </c>
-      <c r="O22" t="inlineStr"/>
+      <c r="O22" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1606,38 +1616,42 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>voet</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr"/>
+          <t>voorkant</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>scharnier</t>
+        </is>
+      </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>blok</t>
+          <t>scharnier</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="F23" t="n">
         <v>5</v>
       </c>
       <c r="G23" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H23" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
-        <v>45.3</v>
+        <v>69.16666666666669</v>
       </c>
       <c r="J23" t="n">
-        <v>-20.3</v>
+        <v>40.5</v>
       </c>
       <c r="K23" t="n">
-        <v>2.5</v>
+        <v>152.5</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -1645,7 +1659,9 @@
       <c r="N23" t="n">
         <v>0</v>
       </c>
-      <c r="O23" t="inlineStr"/>
+      <c r="O23" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1653,38 +1669,42 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>voet</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr"/>
+          <t>voorkant</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>scharnier</t>
+        </is>
+      </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>blok</t>
+          <t>scharnier</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="F24" t="n">
         <v>5</v>
       </c>
       <c r="G24" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H24" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
-        <v>-45.3</v>
+        <v>69.16666666666669</v>
       </c>
       <c r="J24" t="n">
-        <v>20.3</v>
+        <v>40.5</v>
       </c>
       <c r="K24" t="n">
-        <v>2.5</v>
+        <v>54.16666666666666</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -1692,7 +1712,9 @@
       <c r="N24" t="n">
         <v>0</v>
       </c>
-      <c r="O24" t="inlineStr"/>
+      <c r="O24" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1700,38 +1722,42 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>voet</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr"/>
+          <t>voorkant</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>scharnier</t>
+        </is>
+      </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>blok</t>
+          <t>scharnier</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="F25" t="n">
         <v>5</v>
       </c>
       <c r="G25" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H25" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
-        <v>-45.3</v>
+        <v>-61.66666666666666</v>
       </c>
       <c r="J25" t="n">
-        <v>-20.3</v>
+        <v>40.5</v>
       </c>
       <c r="K25" t="n">
-        <v>2.5</v>
+        <v>250.8333333333333</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="M25" t="n">
         <v>0</v>
@@ -1739,7 +1765,9 @@
       <c r="N25" t="n">
         <v>0</v>
       </c>
-      <c r="O25" t="inlineStr"/>
+      <c r="O25" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1747,38 +1775,42 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>vlonders</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr"/>
+          <t>voorkant</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>scharnier</t>
+        </is>
+      </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>plank</t>
+          <t>scharnier</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F26" t="n">
-        <v>94.59999999999999</v>
+        <v>5</v>
       </c>
       <c r="G26" t="n">
-        <v>19.8</v>
+        <v>10</v>
       </c>
       <c r="H26" t="n">
-        <v>2.2</v>
+        <v>1</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>-61.66666666666666</v>
       </c>
       <c r="J26" t="n">
-        <v>9.9</v>
+        <v>40.5</v>
       </c>
       <c r="K26" t="n">
-        <v>395.4999999999999</v>
+        <v>152.5</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -1786,7 +1818,9 @@
       <c r="N26" t="n">
         <v>0</v>
       </c>
-      <c r="O26" t="inlineStr"/>
+      <c r="O26" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1794,46 +1828,52 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>vlonders</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr"/>
+          <t>voorkant</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>scharnier</t>
+        </is>
+      </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>plank</t>
+          <t>scharnier</t>
         </is>
       </c>
       <c r="E27" t="n">
+        <v>21</v>
+      </c>
+      <c r="F27" t="n">
+        <v>5</v>
+      </c>
+      <c r="G27" t="n">
+        <v>10</v>
+      </c>
+      <c r="H27" t="n">
+        <v>1</v>
+      </c>
+      <c r="I27" t="n">
+        <v>-61.66666666666666</v>
+      </c>
+      <c r="J27" t="n">
+        <v>40.5</v>
+      </c>
+      <c r="K27" t="n">
+        <v>54.16666666666666</v>
+      </c>
+      <c r="L27" t="n">
+        <v>90</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="n">
         <v>2</v>
       </c>
-      <c r="F27" t="n">
-        <v>94.59999999999999</v>
-      </c>
-      <c r="G27" t="n">
-        <v>19.8</v>
-      </c>
-      <c r="H27" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" t="n">
-        <v>9.9</v>
-      </c>
-      <c r="K27" t="n">
-        <v>266.6</v>
-      </c>
-      <c r="L27" t="n">
-        <v>0</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="n">
-        <v>0</v>
-      </c>
-      <c r="O27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1841,38 +1881,42 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>vlonders</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr"/>
+          <t>voorkant</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>scharnier</t>
+        </is>
+      </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>plank</t>
+          <t>scharnier</t>
         </is>
       </c>
       <c r="E28" t="n">
+        <v>11</v>
+      </c>
+      <c r="F28" t="n">
+        <v>5</v>
+      </c>
+      <c r="G28" t="n">
+        <v>10</v>
+      </c>
+      <c r="H28" t="n">
         <v>1</v>
       </c>
-      <c r="F28" t="n">
-        <v>94.59999999999999</v>
-      </c>
-      <c r="G28" t="n">
-        <v>19.8</v>
-      </c>
-      <c r="H28" t="n">
-        <v>2.2</v>
-      </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>-192.5</v>
       </c>
       <c r="J28" t="n">
-        <v>-9.9</v>
+        <v>40.5</v>
       </c>
       <c r="K28" t="n">
-        <v>395.4999999999999</v>
+        <v>250.8333333333333</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="M28" t="n">
         <v>0</v>
@@ -1880,7 +1924,9 @@
       <c r="N28" t="n">
         <v>0</v>
       </c>
-      <c r="O28" t="inlineStr"/>
+      <c r="O28" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1888,38 +1934,42 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>vlonders</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr"/>
+          <t>voorkant</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>scharnier</t>
+        </is>
+      </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>plank</t>
+          <t>scharnier</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="F29" t="n">
-        <v>94.59999999999999</v>
+        <v>5</v>
       </c>
       <c r="G29" t="n">
-        <v>19.8</v>
+        <v>10</v>
       </c>
       <c r="H29" t="n">
-        <v>2.2</v>
+        <v>1</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>-192.5</v>
       </c>
       <c r="J29" t="n">
-        <v>-9.9</v>
+        <v>40.5</v>
       </c>
       <c r="K29" t="n">
-        <v>266.6</v>
+        <v>152.5</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -1927,7 +1977,9 @@
       <c r="N29" t="n">
         <v>0</v>
       </c>
-      <c r="O29" t="inlineStr"/>
+      <c r="O29" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1935,51 +1987,51 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>ribben</t>
+          <t>voorkant</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>zeide</t>
+          <t>scharnier</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>balk</t>
+          <t>scharnier</t>
         </is>
       </c>
       <c r="E30" t="n">
+        <v>10</v>
+      </c>
+      <c r="F30" t="n">
+        <v>5</v>
+      </c>
+      <c r="G30" t="n">
+        <v>10</v>
+      </c>
+      <c r="H30" t="n">
         <v>1</v>
       </c>
-      <c r="F30" t="n">
-        <v>690.6</v>
-      </c>
-      <c r="G30" t="n">
-        <v>3</v>
-      </c>
-      <c r="H30" t="n">
-        <v>3</v>
-      </c>
       <c r="I30" t="n">
-        <v>46.3</v>
+        <v>-192.5</v>
       </c>
       <c r="J30" t="n">
-        <v>21.3</v>
+        <v>40.5</v>
       </c>
       <c r="K30" t="n">
-        <v>352.5</v>
+        <v>54.16666666666666</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="M30" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
@@ -1988,42 +2040,42 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>ribben</t>
+          <t>voorkant</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>zeide</t>
+          <t>deur</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>balk</t>
+          <t>plank</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="F31" t="n">
-        <v>690.6</v>
+        <v>295</v>
       </c>
       <c r="G31" t="n">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="H31" t="n">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="I31" t="n">
-        <v>46.3</v>
+        <v>172</v>
       </c>
       <c r="J31" t="n">
-        <v>-21.3</v>
+        <v>38.9</v>
       </c>
       <c r="K31" t="n">
-        <v>352.5</v>
+        <v>152.5</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="M31" t="n">
         <v>90</v>
@@ -2032,7 +2084,7 @@
         <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32">
@@ -2041,42 +2093,42 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>ribben</t>
+          <t>voorkant</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>zeide</t>
+          <t>deur</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>balk</t>
+          <t>plank</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="F32" t="n">
-        <v>690.6</v>
+        <v>295</v>
       </c>
       <c r="G32" t="n">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="H32" t="n">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="I32" t="n">
-        <v>-46.3</v>
+        <v>132</v>
       </c>
       <c r="J32" t="n">
-        <v>21.3</v>
+        <v>38.9</v>
       </c>
       <c r="K32" t="n">
-        <v>352.5</v>
+        <v>152.5</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="M32" t="n">
         <v>90</v>
@@ -2085,7 +2137,7 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33">
@@ -2094,42 +2146,42 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>ribben</t>
+          <t>voorkant</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>zeide</t>
+          <t>deur</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>balk</t>
+          <t>plank</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="F33" t="n">
-        <v>690.6</v>
+        <v>295</v>
       </c>
       <c r="G33" t="n">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="H33" t="n">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="I33" t="n">
-        <v>-46.3</v>
+        <v>41.16666666666666</v>
       </c>
       <c r="J33" t="n">
-        <v>-21.3</v>
+        <v>38.9</v>
       </c>
       <c r="K33" t="n">
-        <v>352.5</v>
+        <v>152.5</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="M33" t="n">
         <v>90</v>
@@ -2147,51 +2199,51 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>ribben</t>
+          <t>voorkant</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>tussen</t>
+          <t>deur</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>balk</t>
+          <t>plank</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="F34" t="n">
-        <v>39.6</v>
+        <v>295</v>
       </c>
       <c r="G34" t="n">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="H34" t="n">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="I34" t="n">
-        <v>46.3</v>
+        <v>1.166666666666664</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>38.9</v>
       </c>
       <c r="K34" t="n">
-        <v>392.9</v>
+        <v>152.5</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="N34" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35">
@@ -2200,51 +2252,51 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>ribben</t>
+          <t>voorkant</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>tussen</t>
+          <t>deur</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>balk</t>
+          <t>plank</t>
         </is>
       </c>
       <c r="E35" t="n">
         <v>5</v>
       </c>
       <c r="F35" t="n">
-        <v>39.6</v>
+        <v>295</v>
       </c>
       <c r="G35" t="n">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="H35" t="n">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="I35" t="n">
-        <v>46.3</v>
+        <v>-89.66666666666663</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>38.9</v>
       </c>
       <c r="K35" t="n">
-        <v>264</v>
+        <v>152.5</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="N35" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
@@ -2253,51 +2305,51 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>ribben</t>
+          <t>voorkant</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>tussen</t>
+          <t>deur</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>balk</t>
+          <t>plank</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F36" t="n">
-        <v>39.6</v>
+        <v>295</v>
       </c>
       <c r="G36" t="n">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="H36" t="n">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="I36" t="n">
-        <v>-46.3</v>
+        <v>-129.6666666666666</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>38.9</v>
       </c>
       <c r="K36" t="n">
-        <v>392.9</v>
+        <v>152.5</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="N36" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37">
@@ -2306,51 +2358,51 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>ribben</t>
+          <t>voorkant</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>tussen</t>
+          <t>deur</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>balk</t>
+          <t>plank</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="F37" t="n">
-        <v>39.6</v>
+        <v>295</v>
       </c>
       <c r="G37" t="n">
-        <v>3</v>
+        <v>21.4</v>
       </c>
       <c r="H37" t="n">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="I37" t="n">
-        <v>-46.3</v>
+        <v>101.2916666666667</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>38.9</v>
       </c>
       <c r="K37" t="n">
-        <v>264</v>
+        <v>152.5</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="N37" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="38">
@@ -2359,51 +2411,51 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>ribben</t>
+          <t>voorkant</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>onder</t>
+          <t>deur</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>balk</t>
+          <t>plank</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="F38" t="n">
-        <v>39.6</v>
+        <v>295</v>
       </c>
       <c r="G38" t="n">
-        <v>3</v>
+        <v>21.4</v>
       </c>
       <c r="H38" t="n">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="I38" t="n">
-        <v>46.3</v>
+        <v>79.87500000000001</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>38.9</v>
       </c>
       <c r="K38" t="n">
-        <v>8.699999999999999</v>
+        <v>152.5</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="N38" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="39">
@@ -2412,48 +2464,48 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>ribben</t>
+          <t>voorkant</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>onder</t>
+          <t>deur</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>balk</t>
+          <t>plank</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="F39" t="n">
-        <v>39.6</v>
+        <v>295</v>
       </c>
       <c r="G39" t="n">
-        <v>3</v>
+        <v>21.4</v>
       </c>
       <c r="H39" t="n">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="I39" t="n">
-        <v>-46.3</v>
+        <v>-29.54166666666667</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>38.9</v>
       </c>
       <c r="K39" t="n">
-        <v>8.699999999999999</v>
+        <v>152.5</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="N39" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>2</v>
@@ -2465,51 +2517,51 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>ribben</t>
+          <t>voorkant</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>boven</t>
+          <t>deur</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>balk</t>
+          <t>plank</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="F40" t="n">
-        <v>39.6</v>
+        <v>295</v>
       </c>
       <c r="G40" t="n">
-        <v>3</v>
+        <v>21.4</v>
       </c>
       <c r="H40" t="n">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="I40" t="n">
-        <v>46.3</v>
+        <v>-50.95833333333333</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>38.9</v>
       </c>
       <c r="K40" t="n">
-        <v>696.3</v>
+        <v>152.5</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="N40" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41">
@@ -2518,51 +2570,51 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>ribben</t>
+          <t>voorkant</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>boven</t>
+          <t>deur</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>balk</t>
+          <t>plank</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="F41" t="n">
-        <v>39.6</v>
+        <v>295</v>
       </c>
       <c r="G41" t="n">
-        <v>3</v>
+        <v>21.4</v>
       </c>
       <c r="H41" t="n">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="I41" t="n">
-        <v>-46.3</v>
+        <v>-160.375</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>38.9</v>
       </c>
       <c r="K41" t="n">
-        <v>696.3</v>
+        <v>152.5</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="N41" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42">
@@ -2571,51 +2623,51 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>ribben</t>
+          <t>voorkant</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>achter</t>
+          <t>deur</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>balk</t>
+          <t>plank</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="F42" t="n">
-        <v>89.59999999999999</v>
+        <v>295</v>
       </c>
       <c r="G42" t="n">
-        <v>3</v>
+        <v>21.4</v>
       </c>
       <c r="H42" t="n">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>-181.7916666666667</v>
       </c>
       <c r="J42" t="n">
-        <v>-21.3</v>
+        <v>38.9</v>
       </c>
       <c r="K42" t="n">
-        <v>395.1</v>
+        <v>152.5</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43">
@@ -2624,39 +2676,35 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>ribben</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>achter</t>
-        </is>
-      </c>
+          <t>voet</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr"/>
       <c r="D43" t="inlineStr">
         <is>
-          <t>balk</t>
+          <t>blok</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>89.59999999999999</v>
+        <v>5</v>
       </c>
       <c r="G43" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H43" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>195.3</v>
       </c>
       <c r="J43" t="n">
-        <v>-21.3</v>
+        <v>35.3</v>
       </c>
       <c r="K43" t="n">
-        <v>266.2</v>
+        <v>2.5</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -2667,9 +2715,7 @@
       <c r="N43" t="n">
         <v>0</v>
       </c>
-      <c r="O43" t="n">
-        <v>0</v>
-      </c>
+      <c r="O43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2677,39 +2723,35 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>onderstel</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>onderkant</t>
-        </is>
-      </c>
+          <t>voet</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr"/>
       <c r="D44" t="inlineStr">
         <is>
-          <t>plank</t>
+          <t>blok</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F44" t="n">
-        <v>95.59999999999999</v>
+        <v>5</v>
       </c>
       <c r="G44" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="H44" t="n">
-        <v>2.2</v>
+        <v>5</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>195.3</v>
       </c>
       <c r="J44" t="n">
-        <v>-12.80000000000001</v>
+        <v>-35.3</v>
       </c>
       <c r="K44" t="n">
-        <v>6.1</v>
+        <v>2.5</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
@@ -2728,39 +2770,35 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>onderstel</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>onderkant</t>
-        </is>
-      </c>
+          <t>voet</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr"/>
       <c r="D45" t="inlineStr">
         <is>
-          <t>plank</t>
+          <t>blok</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F45" t="n">
-        <v>95.59999999999999</v>
+        <v>5</v>
       </c>
       <c r="G45" t="n">
-        <v>12.8</v>
+        <v>5</v>
       </c>
       <c r="H45" t="n">
-        <v>2.2</v>
+        <v>5</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>65.43333333333334</v>
       </c>
       <c r="J45" t="n">
-        <v>16.4</v>
+        <v>35.3</v>
       </c>
       <c r="K45" t="n">
-        <v>6.1</v>
+        <v>2.5</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -2779,39 +2817,35 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>onderstel</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>onderkant</t>
-        </is>
-      </c>
+          <t>voet</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr"/>
       <c r="D46" t="inlineStr">
         <is>
-          <t>plank</t>
+          <t>blok</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F46" t="n">
-        <v>95.59999999999999</v>
+        <v>5</v>
       </c>
       <c r="G46" t="n">
-        <v>12.8</v>
+        <v>5</v>
       </c>
       <c r="H46" t="n">
-        <v>2.2</v>
+        <v>5</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>65.43333333333334</v>
       </c>
       <c r="J46" t="n">
-        <v>3.599999999999995</v>
+        <v>-35.3</v>
       </c>
       <c r="K46" t="n">
-        <v>6.1</v>
+        <v>2.5</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
@@ -2830,39 +2864,35 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>onderstel</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>bovenkant</t>
-        </is>
-      </c>
+          <t>voet</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr"/>
       <c r="D47" t="inlineStr">
         <is>
-          <t>plank</t>
+          <t>blok</t>
         </is>
       </c>
       <c r="E47" t="n">
         <v>5</v>
       </c>
       <c r="F47" t="n">
-        <v>95.59999999999999</v>
+        <v>5</v>
       </c>
       <c r="G47" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="H47" t="n">
-        <v>2.2</v>
+        <v>5</v>
       </c>
       <c r="I47" t="n">
-        <v>0</v>
+        <v>-65.43333333333334</v>
       </c>
       <c r="J47" t="n">
-        <v>-12.80000000000001</v>
+        <v>35.3</v>
       </c>
       <c r="K47" t="n">
-        <v>698.9</v>
+        <v>2.5</v>
       </c>
       <c r="L47" t="n">
         <v>0</v>
@@ -2881,39 +2911,35 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>onderstel</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>bovenkant</t>
-        </is>
-      </c>
+          <t>voet</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr"/>
       <c r="D48" t="inlineStr">
         <is>
-          <t>plank</t>
+          <t>blok</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F48" t="n">
-        <v>95.59999999999999</v>
+        <v>5</v>
       </c>
       <c r="G48" t="n">
-        <v>12.8</v>
+        <v>5</v>
       </c>
       <c r="H48" t="n">
-        <v>2.2</v>
+        <v>5</v>
       </c>
       <c r="I48" t="n">
-        <v>0</v>
+        <v>-65.43333333333334</v>
       </c>
       <c r="J48" t="n">
-        <v>16.4</v>
+        <v>-35.3</v>
       </c>
       <c r="K48" t="n">
-        <v>698.9</v>
+        <v>2.5</v>
       </c>
       <c r="L48" t="n">
         <v>0</v>
@@ -2932,39 +2958,35 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>onderstel</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>bovenkant</t>
-        </is>
-      </c>
+          <t>voet</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr"/>
       <c r="D49" t="inlineStr">
         <is>
-          <t>plank</t>
+          <t>blok</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F49" t="n">
-        <v>95.59999999999999</v>
+        <v>5</v>
       </c>
       <c r="G49" t="n">
-        <v>12.8</v>
+        <v>5</v>
       </c>
       <c r="H49" t="n">
-        <v>2.2</v>
+        <v>5</v>
       </c>
       <c r="I49" t="n">
-        <v>0</v>
+        <v>-195.3</v>
       </c>
       <c r="J49" t="n">
-        <v>3.599999999999995</v>
+        <v>35.3</v>
       </c>
       <c r="K49" t="n">
-        <v>698.9</v>
+        <v>2.5</v>
       </c>
       <c r="L49" t="n">
         <v>0</v>
@@ -2983,44 +3005,44 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>achterplank</t>
+          <t>voet</t>
         </is>
       </c>
       <c r="C50" t="inlineStr"/>
       <c r="D50" t="inlineStr">
         <is>
-          <t>plank</t>
+          <t>blok</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F50" t="n">
-        <v>695</v>
+        <v>5</v>
       </c>
       <c r="G50" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="H50" t="n">
-        <v>2.2</v>
+        <v>5</v>
       </c>
       <c r="I50" t="n">
-        <v>40</v>
+        <v>-195.3</v>
       </c>
       <c r="J50" t="n">
-        <v>-23.9</v>
+        <v>-35.3</v>
       </c>
       <c r="K50" t="n">
-        <v>352.5</v>
+        <v>2.5</v>
       </c>
       <c r="L50" t="n">
         <v>0</v>
       </c>
       <c r="M50" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="N50" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="O50" t="inlineStr"/>
     </row>
@@ -3030,7 +3052,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>achterplank</t>
+          <t>vlonders</t>
         </is>
       </c>
       <c r="C51" t="inlineStr"/>
@@ -3040,34 +3062,34 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F51" t="n">
-        <v>695</v>
+        <v>394.6</v>
       </c>
       <c r="G51" t="n">
-        <v>20</v>
+        <v>34.8</v>
       </c>
       <c r="H51" t="n">
         <v>2.2</v>
       </c>
       <c r="I51" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="J51" t="n">
-        <v>-23.9</v>
+        <v>17.4</v>
       </c>
       <c r="K51" t="n">
-        <v>352.5</v>
+        <v>142.9</v>
       </c>
       <c r="L51" t="n">
         <v>0</v>
       </c>
       <c r="M51" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="N51" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="O51" t="inlineStr"/>
     </row>
@@ -3077,7 +3099,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>achterplank</t>
+          <t>vlonders</t>
         </is>
       </c>
       <c r="C52" t="inlineStr"/>
@@ -3087,13 +3109,13 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F52" t="n">
-        <v>695</v>
+        <v>394.6</v>
       </c>
       <c r="G52" t="n">
-        <v>20</v>
+        <v>34.8</v>
       </c>
       <c r="H52" t="n">
         <v>2.2</v>
@@ -3102,19 +3124,19 @@
         <v>0</v>
       </c>
       <c r="J52" t="n">
-        <v>-23.9</v>
+        <v>-17.4</v>
       </c>
       <c r="K52" t="n">
-        <v>352.5</v>
+        <v>142.9</v>
       </c>
       <c r="L52" t="n">
         <v>0</v>
       </c>
       <c r="M52" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="N52" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="O52" t="inlineStr"/>
     </row>
@@ -3124,35 +3146,39 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>achterplank</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr"/>
+          <t>ribben</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>zeide</t>
+        </is>
+      </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>plank</t>
+          <t>balk</t>
         </is>
       </c>
       <c r="E53" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F53" t="n">
-        <v>695</v>
+        <v>290.6</v>
       </c>
       <c r="G53" t="n">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="H53" t="n">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="I53" t="n">
-        <v>-20</v>
+        <v>196.3</v>
       </c>
       <c r="J53" t="n">
-        <v>-23.9</v>
+        <v>36.3</v>
       </c>
       <c r="K53" t="n">
-        <v>352.5</v>
+        <v>152.5</v>
       </c>
       <c r="L53" t="n">
         <v>0</v>
@@ -3161,9 +3187,11 @@
         <v>90</v>
       </c>
       <c r="N53" t="n">
-        <v>90</v>
-      </c>
-      <c r="O53" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="O53" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -3171,46 +3199,1839 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
+          <t>ribben</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>zeide</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>balk</t>
+        </is>
+      </c>
+      <c r="E54" t="n">
+        <v>2</v>
+      </c>
+      <c r="F54" t="n">
+        <v>290.6</v>
+      </c>
+      <c r="G54" t="n">
+        <v>3</v>
+      </c>
+      <c r="H54" t="n">
+        <v>3</v>
+      </c>
+      <c r="I54" t="n">
+        <v>196.3</v>
+      </c>
+      <c r="J54" t="n">
+        <v>-36.3</v>
+      </c>
+      <c r="K54" t="n">
+        <v>152.5</v>
+      </c>
+      <c r="L54" t="n">
+        <v>0</v>
+      </c>
+      <c r="M54" t="n">
+        <v>90</v>
+      </c>
+      <c r="N54" t="n">
+        <v>0</v>
+      </c>
+      <c r="O54" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>ribben</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>zeide</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>balk</t>
+        </is>
+      </c>
+      <c r="E55" t="n">
+        <v>6</v>
+      </c>
+      <c r="F55" t="n">
+        <v>290.6</v>
+      </c>
+      <c r="G55" t="n">
+        <v>3</v>
+      </c>
+      <c r="H55" t="n">
+        <v>3</v>
+      </c>
+      <c r="I55" t="n">
+        <v>65.43333333333334</v>
+      </c>
+      <c r="J55" t="n">
+        <v>36.3</v>
+      </c>
+      <c r="K55" t="n">
+        <v>152.5</v>
+      </c>
+      <c r="L55" t="n">
+        <v>0</v>
+      </c>
+      <c r="M55" t="n">
+        <v>90</v>
+      </c>
+      <c r="N55" t="n">
+        <v>0</v>
+      </c>
+      <c r="O55" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>ribben</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>zeide</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>balk</t>
+        </is>
+      </c>
+      <c r="E56" t="n">
+        <v>7</v>
+      </c>
+      <c r="F56" t="n">
+        <v>290.6</v>
+      </c>
+      <c r="G56" t="n">
+        <v>3</v>
+      </c>
+      <c r="H56" t="n">
+        <v>3</v>
+      </c>
+      <c r="I56" t="n">
+        <v>65.43333333333334</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-36.3</v>
+      </c>
+      <c r="K56" t="n">
+        <v>152.5</v>
+      </c>
+      <c r="L56" t="n">
+        <v>0</v>
+      </c>
+      <c r="M56" t="n">
+        <v>90</v>
+      </c>
+      <c r="N56" t="n">
+        <v>0</v>
+      </c>
+      <c r="O56" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>ribben</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>zeide</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>balk</t>
+        </is>
+      </c>
+      <c r="E57" t="n">
+        <v>11</v>
+      </c>
+      <c r="F57" t="n">
+        <v>290.6</v>
+      </c>
+      <c r="G57" t="n">
+        <v>3</v>
+      </c>
+      <c r="H57" t="n">
+        <v>3</v>
+      </c>
+      <c r="I57" t="n">
+        <v>-65.43333333333334</v>
+      </c>
+      <c r="J57" t="n">
+        <v>36.3</v>
+      </c>
+      <c r="K57" t="n">
+        <v>152.5</v>
+      </c>
+      <c r="L57" t="n">
+        <v>0</v>
+      </c>
+      <c r="M57" t="n">
+        <v>90</v>
+      </c>
+      <c r="N57" t="n">
+        <v>0</v>
+      </c>
+      <c r="O57" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>ribben</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>zeide</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>balk</t>
+        </is>
+      </c>
+      <c r="E58" t="n">
+        <v>12</v>
+      </c>
+      <c r="F58" t="n">
+        <v>290.6</v>
+      </c>
+      <c r="G58" t="n">
+        <v>3</v>
+      </c>
+      <c r="H58" t="n">
+        <v>3</v>
+      </c>
+      <c r="I58" t="n">
+        <v>-65.43333333333334</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-36.3</v>
+      </c>
+      <c r="K58" t="n">
+        <v>152.5</v>
+      </c>
+      <c r="L58" t="n">
+        <v>0</v>
+      </c>
+      <c r="M58" t="n">
+        <v>90</v>
+      </c>
+      <c r="N58" t="n">
+        <v>0</v>
+      </c>
+      <c r="O58" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>ribben</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>zeide</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>balk</t>
+        </is>
+      </c>
+      <c r="E59" t="n">
+        <v>16</v>
+      </c>
+      <c r="F59" t="n">
+        <v>290.6</v>
+      </c>
+      <c r="G59" t="n">
+        <v>3</v>
+      </c>
+      <c r="H59" t="n">
+        <v>3</v>
+      </c>
+      <c r="I59" t="n">
+        <v>-196.3</v>
+      </c>
+      <c r="J59" t="n">
+        <v>36.3</v>
+      </c>
+      <c r="K59" t="n">
+        <v>152.5</v>
+      </c>
+      <c r="L59" t="n">
+        <v>0</v>
+      </c>
+      <c r="M59" t="n">
+        <v>90</v>
+      </c>
+      <c r="N59" t="n">
+        <v>0</v>
+      </c>
+      <c r="O59" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>ribben</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>zeide</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>balk</t>
+        </is>
+      </c>
+      <c r="E60" t="n">
+        <v>17</v>
+      </c>
+      <c r="F60" t="n">
+        <v>290.6</v>
+      </c>
+      <c r="G60" t="n">
+        <v>3</v>
+      </c>
+      <c r="H60" t="n">
+        <v>3</v>
+      </c>
+      <c r="I60" t="n">
+        <v>-196.3</v>
+      </c>
+      <c r="J60" t="n">
+        <v>-36.3</v>
+      </c>
+      <c r="K60" t="n">
+        <v>152.5</v>
+      </c>
+      <c r="L60" t="n">
+        <v>0</v>
+      </c>
+      <c r="M60" t="n">
+        <v>90</v>
+      </c>
+      <c r="N60" t="n">
+        <v>0</v>
+      </c>
+      <c r="O60" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>ribben</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>tussen</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>balk</t>
+        </is>
+      </c>
+      <c r="E61" t="n">
+        <v>4</v>
+      </c>
+      <c r="F61" t="n">
+        <v>69.59999999999999</v>
+      </c>
+      <c r="G61" t="n">
+        <v>3</v>
+      </c>
+      <c r="H61" t="n">
+        <v>3</v>
+      </c>
+      <c r="I61" t="n">
+        <v>196.3</v>
+      </c>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
+      <c r="K61" t="n">
+        <v>140.3</v>
+      </c>
+      <c r="L61" t="n">
+        <v>0</v>
+      </c>
+      <c r="M61" t="n">
+        <v>0</v>
+      </c>
+      <c r="N61" t="n">
+        <v>90</v>
+      </c>
+      <c r="O61" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>ribben</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>tussen</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>balk</t>
+        </is>
+      </c>
+      <c r="E62" t="n">
+        <v>9</v>
+      </c>
+      <c r="F62" t="n">
+        <v>69.59999999999999</v>
+      </c>
+      <c r="G62" t="n">
+        <v>3</v>
+      </c>
+      <c r="H62" t="n">
+        <v>3</v>
+      </c>
+      <c r="I62" t="n">
+        <v>65.43333333333334</v>
+      </c>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
+      <c r="K62" t="n">
+        <v>140.3</v>
+      </c>
+      <c r="L62" t="n">
+        <v>0</v>
+      </c>
+      <c r="M62" t="n">
+        <v>0</v>
+      </c>
+      <c r="N62" t="n">
+        <v>90</v>
+      </c>
+      <c r="O62" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>ribben</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>tussen</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>balk</t>
+        </is>
+      </c>
+      <c r="E63" t="n">
+        <v>14</v>
+      </c>
+      <c r="F63" t="n">
+        <v>69.59999999999999</v>
+      </c>
+      <c r="G63" t="n">
+        <v>3</v>
+      </c>
+      <c r="H63" t="n">
+        <v>3</v>
+      </c>
+      <c r="I63" t="n">
+        <v>-65.43333333333334</v>
+      </c>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
+      <c r="K63" t="n">
+        <v>140.3</v>
+      </c>
+      <c r="L63" t="n">
+        <v>0</v>
+      </c>
+      <c r="M63" t="n">
+        <v>0</v>
+      </c>
+      <c r="N63" t="n">
+        <v>90</v>
+      </c>
+      <c r="O63" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>ribben</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>tussen</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>balk</t>
+        </is>
+      </c>
+      <c r="E64" t="n">
+        <v>19</v>
+      </c>
+      <c r="F64" t="n">
+        <v>69.59999999999999</v>
+      </c>
+      <c r="G64" t="n">
+        <v>3</v>
+      </c>
+      <c r="H64" t="n">
+        <v>3</v>
+      </c>
+      <c r="I64" t="n">
+        <v>-196.3</v>
+      </c>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
+      <c r="K64" t="n">
+        <v>140.3</v>
+      </c>
+      <c r="L64" t="n">
+        <v>0</v>
+      </c>
+      <c r="M64" t="n">
+        <v>0</v>
+      </c>
+      <c r="N64" t="n">
+        <v>90</v>
+      </c>
+      <c r="O64" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>ribben</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>onder</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>balk</t>
+        </is>
+      </c>
+      <c r="E65" t="n">
+        <v>0</v>
+      </c>
+      <c r="F65" t="n">
+        <v>69.59999999999999</v>
+      </c>
+      <c r="G65" t="n">
+        <v>3</v>
+      </c>
+      <c r="H65" t="n">
+        <v>3</v>
+      </c>
+      <c r="I65" t="n">
+        <v>196.3</v>
+      </c>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
+      <c r="K65" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="L65" t="n">
+        <v>0</v>
+      </c>
+      <c r="M65" t="n">
+        <v>0</v>
+      </c>
+      <c r="N65" t="n">
+        <v>90</v>
+      </c>
+      <c r="O65" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>ribben</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>onder</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>balk</t>
+        </is>
+      </c>
+      <c r="E66" t="n">
+        <v>5</v>
+      </c>
+      <c r="F66" t="n">
+        <v>69.59999999999999</v>
+      </c>
+      <c r="G66" t="n">
+        <v>3</v>
+      </c>
+      <c r="H66" t="n">
+        <v>3</v>
+      </c>
+      <c r="I66" t="n">
+        <v>65.43333333333334</v>
+      </c>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
+      <c r="K66" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="L66" t="n">
+        <v>0</v>
+      </c>
+      <c r="M66" t="n">
+        <v>0</v>
+      </c>
+      <c r="N66" t="n">
+        <v>90</v>
+      </c>
+      <c r="O66" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>ribben</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>onder</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>balk</t>
+        </is>
+      </c>
+      <c r="E67" t="n">
+        <v>10</v>
+      </c>
+      <c r="F67" t="n">
+        <v>69.59999999999999</v>
+      </c>
+      <c r="G67" t="n">
+        <v>3</v>
+      </c>
+      <c r="H67" t="n">
+        <v>3</v>
+      </c>
+      <c r="I67" t="n">
+        <v>-65.43333333333334</v>
+      </c>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
+      <c r="K67" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="L67" t="n">
+        <v>0</v>
+      </c>
+      <c r="M67" t="n">
+        <v>0</v>
+      </c>
+      <c r="N67" t="n">
+        <v>90</v>
+      </c>
+      <c r="O67" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>ribben</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>onder</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>balk</t>
+        </is>
+      </c>
+      <c r="E68" t="n">
+        <v>15</v>
+      </c>
+      <c r="F68" t="n">
+        <v>69.59999999999999</v>
+      </c>
+      <c r="G68" t="n">
+        <v>3</v>
+      </c>
+      <c r="H68" t="n">
+        <v>3</v>
+      </c>
+      <c r="I68" t="n">
+        <v>-196.3</v>
+      </c>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
+      <c r="K68" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="L68" t="n">
+        <v>0</v>
+      </c>
+      <c r="M68" t="n">
+        <v>0</v>
+      </c>
+      <c r="N68" t="n">
+        <v>90</v>
+      </c>
+      <c r="O68" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>ribben</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>boven</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>balk</t>
+        </is>
+      </c>
+      <c r="E69" t="n">
+        <v>3</v>
+      </c>
+      <c r="F69" t="n">
+        <v>69.59999999999999</v>
+      </c>
+      <c r="G69" t="n">
+        <v>3</v>
+      </c>
+      <c r="H69" t="n">
+        <v>3</v>
+      </c>
+      <c r="I69" t="n">
+        <v>196.3</v>
+      </c>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
+      <c r="K69" t="n">
+        <v>296.3</v>
+      </c>
+      <c r="L69" t="n">
+        <v>0</v>
+      </c>
+      <c r="M69" t="n">
+        <v>0</v>
+      </c>
+      <c r="N69" t="n">
+        <v>90</v>
+      </c>
+      <c r="O69" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>ribben</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>boven</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>balk</t>
+        </is>
+      </c>
+      <c r="E70" t="n">
+        <v>8</v>
+      </c>
+      <c r="F70" t="n">
+        <v>69.59999999999999</v>
+      </c>
+      <c r="G70" t="n">
+        <v>3</v>
+      </c>
+      <c r="H70" t="n">
+        <v>3</v>
+      </c>
+      <c r="I70" t="n">
+        <v>65.43333333333334</v>
+      </c>
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
+      <c r="K70" t="n">
+        <v>296.3</v>
+      </c>
+      <c r="L70" t="n">
+        <v>0</v>
+      </c>
+      <c r="M70" t="n">
+        <v>0</v>
+      </c>
+      <c r="N70" t="n">
+        <v>90</v>
+      </c>
+      <c r="O70" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>ribben</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>boven</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>balk</t>
+        </is>
+      </c>
+      <c r="E71" t="n">
+        <v>13</v>
+      </c>
+      <c r="F71" t="n">
+        <v>69.59999999999999</v>
+      </c>
+      <c r="G71" t="n">
+        <v>3</v>
+      </c>
+      <c r="H71" t="n">
+        <v>3</v>
+      </c>
+      <c r="I71" t="n">
+        <v>-65.43333333333334</v>
+      </c>
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
+      <c r="K71" t="n">
+        <v>296.3</v>
+      </c>
+      <c r="L71" t="n">
+        <v>0</v>
+      </c>
+      <c r="M71" t="n">
+        <v>0</v>
+      </c>
+      <c r="N71" t="n">
+        <v>90</v>
+      </c>
+      <c r="O71" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>ribben</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>boven</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>balk</t>
+        </is>
+      </c>
+      <c r="E72" t="n">
+        <v>18</v>
+      </c>
+      <c r="F72" t="n">
+        <v>69.59999999999999</v>
+      </c>
+      <c r="G72" t="n">
+        <v>3</v>
+      </c>
+      <c r="H72" t="n">
+        <v>3</v>
+      </c>
+      <c r="I72" t="n">
+        <v>-196.3</v>
+      </c>
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
+      <c r="K72" t="n">
+        <v>296.3</v>
+      </c>
+      <c r="L72" t="n">
+        <v>0</v>
+      </c>
+      <c r="M72" t="n">
+        <v>0</v>
+      </c>
+      <c r="N72" t="n">
+        <v>90</v>
+      </c>
+      <c r="O72" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>ribben</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>achter</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>balk</t>
+        </is>
+      </c>
+      <c r="E73" t="n">
+        <v>21</v>
+      </c>
+      <c r="F73" t="n">
+        <v>127.8666666666667</v>
+      </c>
+      <c r="G73" t="n">
+        <v>3</v>
+      </c>
+      <c r="H73" t="n">
+        <v>3</v>
+      </c>
+      <c r="I73" t="n">
+        <v>130.8666666666667</v>
+      </c>
+      <c r="J73" t="n">
+        <v>-36.3</v>
+      </c>
+      <c r="K73" t="n">
+        <v>142.5</v>
+      </c>
+      <c r="L73" t="n">
+        <v>0</v>
+      </c>
+      <c r="M73" t="n">
+        <v>0</v>
+      </c>
+      <c r="N73" t="n">
+        <v>0</v>
+      </c>
+      <c r="O73" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>ribben</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>achter</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>balk</t>
+        </is>
+      </c>
+      <c r="E74" t="n">
+        <v>20</v>
+      </c>
+      <c r="F74" t="n">
+        <v>127.8666666666667</v>
+      </c>
+      <c r="G74" t="n">
+        <v>3</v>
+      </c>
+      <c r="H74" t="n">
+        <v>3</v>
+      </c>
+      <c r="I74" t="n">
+        <v>0</v>
+      </c>
+      <c r="J74" t="n">
+        <v>-36.3</v>
+      </c>
+      <c r="K74" t="n">
+        <v>142.5</v>
+      </c>
+      <c r="L74" t="n">
+        <v>0</v>
+      </c>
+      <c r="M74" t="n">
+        <v>0</v>
+      </c>
+      <c r="N74" t="n">
+        <v>0</v>
+      </c>
+      <c r="O74" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>ribben</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>achter</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>balk</t>
+        </is>
+      </c>
+      <c r="E75" t="n">
+        <v>22</v>
+      </c>
+      <c r="F75" t="n">
+        <v>127.8666666666667</v>
+      </c>
+      <c r="G75" t="n">
+        <v>3</v>
+      </c>
+      <c r="H75" t="n">
+        <v>3</v>
+      </c>
+      <c r="I75" t="n">
+        <v>-130.8666666666667</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-36.3</v>
+      </c>
+      <c r="K75" t="n">
+        <v>142.5</v>
+      </c>
+      <c r="L75" t="n">
+        <v>0</v>
+      </c>
+      <c r="M75" t="n">
+        <v>0</v>
+      </c>
+      <c r="N75" t="n">
+        <v>0</v>
+      </c>
+      <c r="O75" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>onderstel</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>onderkant</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>plank</t>
+        </is>
+      </c>
+      <c r="E76" t="n">
+        <v>0</v>
+      </c>
+      <c r="F76" t="n">
+        <v>395.6</v>
+      </c>
+      <c r="G76" t="n">
+        <v>37.8</v>
+      </c>
+      <c r="H76" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="I76" t="n">
+        <v>0</v>
+      </c>
+      <c r="J76" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="K76" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="L76" t="n">
+        <v>0</v>
+      </c>
+      <c r="M76" t="n">
+        <v>0</v>
+      </c>
+      <c r="N76" t="n">
+        <v>0</v>
+      </c>
+      <c r="O76" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>onderstel</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>onderkant</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>plank</t>
+        </is>
+      </c>
+      <c r="E77" t="n">
+        <v>1</v>
+      </c>
+      <c r="F77" t="n">
+        <v>395.6</v>
+      </c>
+      <c r="G77" t="n">
+        <v>37.8</v>
+      </c>
+      <c r="H77" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-18.9</v>
+      </c>
+      <c r="K77" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="L77" t="n">
+        <v>0</v>
+      </c>
+      <c r="M77" t="n">
+        <v>0</v>
+      </c>
+      <c r="N77" t="n">
+        <v>0</v>
+      </c>
+      <c r="O77" t="inlineStr"/>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>onderstel</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>bovenkant</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>plank</t>
+        </is>
+      </c>
+      <c r="E78" t="n">
+        <v>2</v>
+      </c>
+      <c r="F78" t="n">
+        <v>395.6</v>
+      </c>
+      <c r="G78" t="n">
+        <v>37.8</v>
+      </c>
+      <c r="H78" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="I78" t="n">
+        <v>0</v>
+      </c>
+      <c r="J78" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="K78" t="n">
+        <v>298.9</v>
+      </c>
+      <c r="L78" t="n">
+        <v>0</v>
+      </c>
+      <c r="M78" t="n">
+        <v>0</v>
+      </c>
+      <c r="N78" t="n">
+        <v>0</v>
+      </c>
+      <c r="O78" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>onderstel</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>bovenkant</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>plank</t>
+        </is>
+      </c>
+      <c r="E79" t="n">
+        <v>3</v>
+      </c>
+      <c r="F79" t="n">
+        <v>395.6</v>
+      </c>
+      <c r="G79" t="n">
+        <v>37.8</v>
+      </c>
+      <c r="H79" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-18.9</v>
+      </c>
+      <c r="K79" t="n">
+        <v>298.9</v>
+      </c>
+      <c r="L79" t="n">
+        <v>0</v>
+      </c>
+      <c r="M79" t="n">
+        <v>0</v>
+      </c>
+      <c r="N79" t="n">
+        <v>0</v>
+      </c>
+      <c r="O79" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
           <t>achterplank</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr"/>
-      <c r="D54" t="inlineStr">
+      <c r="C80" t="inlineStr"/>
+      <c r="D80" t="inlineStr">
         <is>
           <t>plank</t>
         </is>
       </c>
-      <c r="E54" t="n">
+      <c r="E80" t="n">
+        <v>0</v>
+      </c>
+      <c r="F80" t="n">
+        <v>295</v>
+      </c>
+      <c r="G80" t="n">
+        <v>40</v>
+      </c>
+      <c r="H80" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="I80" t="n">
+        <v>180</v>
+      </c>
+      <c r="J80" t="n">
+        <v>-38.9</v>
+      </c>
+      <c r="K80" t="n">
+        <v>152.5</v>
+      </c>
+      <c r="L80" t="n">
+        <v>0</v>
+      </c>
+      <c r="M80" t="n">
+        <v>90</v>
+      </c>
+      <c r="N80" t="n">
+        <v>90</v>
+      </c>
+      <c r="O80" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>achterplank</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr"/>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>plank</t>
+        </is>
+      </c>
+      <c r="E81" t="n">
+        <v>1</v>
+      </c>
+      <c r="F81" t="n">
+        <v>295</v>
+      </c>
+      <c r="G81" t="n">
+        <v>40</v>
+      </c>
+      <c r="H81" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="I81" t="n">
+        <v>140</v>
+      </c>
+      <c r="J81" t="n">
+        <v>-38.9</v>
+      </c>
+      <c r="K81" t="n">
+        <v>152.5</v>
+      </c>
+      <c r="L81" t="n">
+        <v>0</v>
+      </c>
+      <c r="M81" t="n">
+        <v>90</v>
+      </c>
+      <c r="N81" t="n">
+        <v>90</v>
+      </c>
+      <c r="O81" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>achterplank</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr"/>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>plank</t>
+        </is>
+      </c>
+      <c r="E82" t="n">
+        <v>2</v>
+      </c>
+      <c r="F82" t="n">
+        <v>295</v>
+      </c>
+      <c r="G82" t="n">
+        <v>40</v>
+      </c>
+      <c r="H82" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="I82" t="n">
+        <v>100</v>
+      </c>
+      <c r="J82" t="n">
+        <v>-38.9</v>
+      </c>
+      <c r="K82" t="n">
+        <v>152.5</v>
+      </c>
+      <c r="L82" t="n">
+        <v>0</v>
+      </c>
+      <c r="M82" t="n">
+        <v>90</v>
+      </c>
+      <c r="N82" t="n">
+        <v>90</v>
+      </c>
+      <c r="O82" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>achterplank</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr"/>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>plank</t>
+        </is>
+      </c>
+      <c r="E83" t="n">
+        <v>3</v>
+      </c>
+      <c r="F83" t="n">
+        <v>295</v>
+      </c>
+      <c r="G83" t="n">
+        <v>40</v>
+      </c>
+      <c r="H83" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="I83" t="n">
+        <v>60</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-38.9</v>
+      </c>
+      <c r="K83" t="n">
+        <v>152.5</v>
+      </c>
+      <c r="L83" t="n">
+        <v>0</v>
+      </c>
+      <c r="M83" t="n">
+        <v>90</v>
+      </c>
+      <c r="N83" t="n">
+        <v>90</v>
+      </c>
+      <c r="O83" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>achterplank</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr"/>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>plank</t>
+        </is>
+      </c>
+      <c r="E84" t="n">
         <v>4</v>
       </c>
-      <c r="F54" t="n">
-        <v>695</v>
-      </c>
-      <c r="G54" t="n">
+      <c r="F84" t="n">
+        <v>295</v>
+      </c>
+      <c r="G84" t="n">
+        <v>40</v>
+      </c>
+      <c r="H84" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="I84" t="n">
         <v>20</v>
       </c>
-      <c r="H54" t="n">
+      <c r="J84" t="n">
+        <v>-38.9</v>
+      </c>
+      <c r="K84" t="n">
+        <v>152.5</v>
+      </c>
+      <c r="L84" t="n">
+        <v>0</v>
+      </c>
+      <c r="M84" t="n">
+        <v>90</v>
+      </c>
+      <c r="N84" t="n">
+        <v>90</v>
+      </c>
+      <c r="O84" t="inlineStr"/>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>achterplank</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr"/>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>plank</t>
+        </is>
+      </c>
+      <c r="E85" t="n">
+        <v>5</v>
+      </c>
+      <c r="F85" t="n">
+        <v>295</v>
+      </c>
+      <c r="G85" t="n">
+        <v>40</v>
+      </c>
+      <c r="H85" t="n">
         <v>2.2</v>
       </c>
-      <c r="I54" t="n">
-        <v>-40</v>
-      </c>
-      <c r="J54" t="n">
-        <v>-23.9</v>
-      </c>
-      <c r="K54" t="n">
-        <v>352.5</v>
-      </c>
-      <c r="L54" t="n">
-        <v>0</v>
-      </c>
-      <c r="M54" t="n">
-        <v>90</v>
-      </c>
-      <c r="N54" t="n">
-        <v>90</v>
-      </c>
-      <c r="O54" t="inlineStr"/>
+      <c r="I85" t="n">
+        <v>-20</v>
+      </c>
+      <c r="J85" t="n">
+        <v>-38.9</v>
+      </c>
+      <c r="K85" t="n">
+        <v>152.5</v>
+      </c>
+      <c r="L85" t="n">
+        <v>0</v>
+      </c>
+      <c r="M85" t="n">
+        <v>90</v>
+      </c>
+      <c r="N85" t="n">
+        <v>90</v>
+      </c>
+      <c r="O85" t="inlineStr"/>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>achterplank</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr"/>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>plank</t>
+        </is>
+      </c>
+      <c r="E86" t="n">
+        <v>6</v>
+      </c>
+      <c r="F86" t="n">
+        <v>295</v>
+      </c>
+      <c r="G86" t="n">
+        <v>40</v>
+      </c>
+      <c r="H86" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="I86" t="n">
+        <v>-60</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-38.9</v>
+      </c>
+      <c r="K86" t="n">
+        <v>152.5</v>
+      </c>
+      <c r="L86" t="n">
+        <v>0</v>
+      </c>
+      <c r="M86" t="n">
+        <v>90</v>
+      </c>
+      <c r="N86" t="n">
+        <v>90</v>
+      </c>
+      <c r="O86" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>achterplank</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr"/>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>plank</t>
+        </is>
+      </c>
+      <c r="E87" t="n">
+        <v>7</v>
+      </c>
+      <c r="F87" t="n">
+        <v>295</v>
+      </c>
+      <c r="G87" t="n">
+        <v>40</v>
+      </c>
+      <c r="H87" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="I87" t="n">
+        <v>-100</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-38.9</v>
+      </c>
+      <c r="K87" t="n">
+        <v>152.5</v>
+      </c>
+      <c r="L87" t="n">
+        <v>0</v>
+      </c>
+      <c r="M87" t="n">
+        <v>90</v>
+      </c>
+      <c r="N87" t="n">
+        <v>90</v>
+      </c>
+      <c r="O87" t="inlineStr"/>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>achterplank</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr"/>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>plank</t>
+        </is>
+      </c>
+      <c r="E88" t="n">
+        <v>8</v>
+      </c>
+      <c r="F88" t="n">
+        <v>295</v>
+      </c>
+      <c r="G88" t="n">
+        <v>40</v>
+      </c>
+      <c r="H88" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="I88" t="n">
+        <v>-140</v>
+      </c>
+      <c r="J88" t="n">
+        <v>-38.9</v>
+      </c>
+      <c r="K88" t="n">
+        <v>152.5</v>
+      </c>
+      <c r="L88" t="n">
+        <v>0</v>
+      </c>
+      <c r="M88" t="n">
+        <v>90</v>
+      </c>
+      <c r="N88" t="n">
+        <v>90</v>
+      </c>
+      <c r="O88" t="inlineStr"/>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>achterplank</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr"/>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>plank</t>
+        </is>
+      </c>
+      <c r="E89" t="n">
+        <v>9</v>
+      </c>
+      <c r="F89" t="n">
+        <v>295</v>
+      </c>
+      <c r="G89" t="n">
+        <v>40</v>
+      </c>
+      <c r="H89" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="I89" t="n">
+        <v>-180</v>
+      </c>
+      <c r="J89" t="n">
+        <v>-38.9</v>
+      </c>
+      <c r="K89" t="n">
+        <v>152.5</v>
+      </c>
+      <c r="L89" t="n">
+        <v>0</v>
+      </c>
+      <c r="M89" t="n">
+        <v>90</v>
+      </c>
+      <c r="N89" t="n">
+        <v>90</v>
+      </c>
+      <c r="O89" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/plankenlijst.xlsx
+++ b/plankenlijst.xlsx
@@ -531,16 +531,16 @@
         <v>295</v>
       </c>
       <c r="G2" t="n">
-        <v>37.8</v>
+        <v>36.997</v>
       </c>
       <c r="H2" t="n">
-        <v>2.2</v>
+        <v>3.003</v>
       </c>
       <c r="I2" t="n">
-        <v>-198.9</v>
+        <v>-198.4985</v>
       </c>
       <c r="J2" t="n">
-        <v>18.9</v>
+        <v>18.4985</v>
       </c>
       <c r="K2" t="n">
         <v>152.5</v>
@@ -582,16 +582,16 @@
         <v>295</v>
       </c>
       <c r="G3" t="n">
-        <v>37.8</v>
+        <v>36.997</v>
       </c>
       <c r="H3" t="n">
-        <v>2.2</v>
+        <v>3.003</v>
       </c>
       <c r="I3" t="n">
-        <v>-198.9</v>
+        <v>-198.4985</v>
       </c>
       <c r="J3" t="n">
-        <v>-18.9</v>
+        <v>-18.4985</v>
       </c>
       <c r="K3" t="n">
         <v>152.5</v>
@@ -633,16 +633,16 @@
         <v>295</v>
       </c>
       <c r="G4" t="n">
-        <v>37.8</v>
+        <v>36.997</v>
       </c>
       <c r="H4" t="n">
-        <v>2.2</v>
+        <v>3.003</v>
       </c>
       <c r="I4" t="n">
-        <v>198.9</v>
+        <v>198.4985</v>
       </c>
       <c r="J4" t="n">
-        <v>18.9</v>
+        <v>18.4985</v>
       </c>
       <c r="K4" t="n">
         <v>152.5</v>
@@ -684,16 +684,16 @@
         <v>295</v>
       </c>
       <c r="G5" t="n">
-        <v>37.8</v>
+        <v>36.997</v>
       </c>
       <c r="H5" t="n">
-        <v>2.2</v>
+        <v>3.003</v>
       </c>
       <c r="I5" t="n">
-        <v>198.9</v>
+        <v>198.4985</v>
       </c>
       <c r="J5" t="n">
-        <v>-18.9</v>
+        <v>-18.4985</v>
       </c>
       <c r="K5" t="n">
         <v>152.5</v>
@@ -738,13 +738,13 @@
         <v>7.5</v>
       </c>
       <c r="H6" t="n">
-        <v>2.2</v>
+        <v>3.003</v>
       </c>
       <c r="I6" t="n">
         <v>196.25</v>
       </c>
       <c r="J6" t="n">
-        <v>38.9</v>
+        <v>38.4985</v>
       </c>
       <c r="K6" t="n">
         <v>152.5</v>
@@ -791,13 +791,13 @@
         <v>7.5</v>
       </c>
       <c r="H7" t="n">
-        <v>2.2</v>
+        <v>3.003</v>
       </c>
       <c r="I7" t="n">
         <v>65.41666666666669</v>
       </c>
       <c r="J7" t="n">
-        <v>38.9</v>
+        <v>38.4985</v>
       </c>
       <c r="K7" t="n">
         <v>152.5</v>
@@ -844,13 +844,13 @@
         <v>7.5</v>
       </c>
       <c r="H8" t="n">
-        <v>2.2</v>
+        <v>3.003</v>
       </c>
       <c r="I8" t="n">
         <v>-65.41666666666666</v>
       </c>
       <c r="J8" t="n">
-        <v>38.9</v>
+        <v>38.4985</v>
       </c>
       <c r="K8" t="n">
         <v>152.5</v>
@@ -897,13 +897,13 @@
         <v>7.5</v>
       </c>
       <c r="H9" t="n">
-        <v>2.2</v>
+        <v>3.003</v>
       </c>
       <c r="I9" t="n">
         <v>-196.25</v>
       </c>
       <c r="J9" t="n">
-        <v>38.9</v>
+        <v>38.4985</v>
       </c>
       <c r="K9" t="n">
         <v>152.5</v>
@@ -950,13 +950,13 @@
         <v>40</v>
       </c>
       <c r="H10" t="n">
-        <v>2.2</v>
+        <v>3.003</v>
       </c>
       <c r="I10" t="n">
         <v>130.5833333333333</v>
       </c>
       <c r="J10" t="n">
-        <v>36.7</v>
+        <v>35.4955</v>
       </c>
       <c r="K10" t="n">
         <v>250.8333333333333</v>
@@ -1003,13 +1003,13 @@
         <v>40</v>
       </c>
       <c r="H11" t="n">
-        <v>2.2</v>
+        <v>3.003</v>
       </c>
       <c r="I11" t="n">
         <v>130.5833333333333</v>
       </c>
       <c r="J11" t="n">
-        <v>36.7</v>
+        <v>35.4955</v>
       </c>
       <c r="K11" t="n">
         <v>152.5</v>
@@ -1056,13 +1056,13 @@
         <v>40</v>
       </c>
       <c r="H12" t="n">
-        <v>2.2</v>
+        <v>3.003</v>
       </c>
       <c r="I12" t="n">
         <v>130.5833333333333</v>
       </c>
       <c r="J12" t="n">
-        <v>36.7</v>
+        <v>35.4955</v>
       </c>
       <c r="K12" t="n">
         <v>54.16666666666666</v>
@@ -1109,13 +1109,13 @@
         <v>40</v>
       </c>
       <c r="H13" t="n">
-        <v>2.2</v>
+        <v>3.003</v>
       </c>
       <c r="I13" t="n">
         <v>-0.2499999999999929</v>
       </c>
       <c r="J13" t="n">
-        <v>36.7</v>
+        <v>35.4955</v>
       </c>
       <c r="K13" t="n">
         <v>250.8333333333333</v>
@@ -1162,13 +1162,13 @@
         <v>40</v>
       </c>
       <c r="H14" t="n">
-        <v>2.2</v>
+        <v>3.003</v>
       </c>
       <c r="I14" t="n">
         <v>-0.2499999999999929</v>
       </c>
       <c r="J14" t="n">
-        <v>36.7</v>
+        <v>35.4955</v>
       </c>
       <c r="K14" t="n">
         <v>152.5</v>
@@ -1215,13 +1215,13 @@
         <v>40</v>
       </c>
       <c r="H15" t="n">
-        <v>2.2</v>
+        <v>3.003</v>
       </c>
       <c r="I15" t="n">
         <v>-0.2499999999999929</v>
       </c>
       <c r="J15" t="n">
-        <v>36.7</v>
+        <v>35.4955</v>
       </c>
       <c r="K15" t="n">
         <v>54.16666666666666</v>
@@ -1268,13 +1268,13 @@
         <v>40</v>
       </c>
       <c r="H16" t="n">
-        <v>2.2</v>
+        <v>3.003</v>
       </c>
       <c r="I16" t="n">
         <v>-131.0833333333333</v>
       </c>
       <c r="J16" t="n">
-        <v>36.7</v>
+        <v>35.4955</v>
       </c>
       <c r="K16" t="n">
         <v>250.8333333333333</v>
@@ -1321,13 +1321,13 @@
         <v>40</v>
       </c>
       <c r="H17" t="n">
-        <v>2.2</v>
+        <v>3.003</v>
       </c>
       <c r="I17" t="n">
         <v>-131.0833333333333</v>
       </c>
       <c r="J17" t="n">
-        <v>36.7</v>
+        <v>35.4955</v>
       </c>
       <c r="K17" t="n">
         <v>152.5</v>
@@ -1374,13 +1374,13 @@
         <v>40</v>
       </c>
       <c r="H18" t="n">
-        <v>2.2</v>
+        <v>3.003</v>
       </c>
       <c r="I18" t="n">
         <v>-131.0833333333333</v>
       </c>
       <c r="J18" t="n">
-        <v>36.7</v>
+        <v>35.4955</v>
       </c>
       <c r="K18" t="n">
         <v>54.16666666666666</v>
@@ -2063,13 +2063,13 @@
         <v>40</v>
       </c>
       <c r="H31" t="n">
-        <v>2.2</v>
+        <v>3.003</v>
       </c>
       <c r="I31" t="n">
         <v>172</v>
       </c>
       <c r="J31" t="n">
-        <v>38.9</v>
+        <v>38.4985</v>
       </c>
       <c r="K31" t="n">
         <v>152.5</v>
@@ -2116,13 +2116,13 @@
         <v>40</v>
       </c>
       <c r="H32" t="n">
-        <v>2.2</v>
+        <v>3.003</v>
       </c>
       <c r="I32" t="n">
         <v>132</v>
       </c>
       <c r="J32" t="n">
-        <v>38.9</v>
+        <v>38.4985</v>
       </c>
       <c r="K32" t="n">
         <v>152.5</v>
@@ -2169,13 +2169,13 @@
         <v>40</v>
       </c>
       <c r="H33" t="n">
-        <v>2.2</v>
+        <v>3.003</v>
       </c>
       <c r="I33" t="n">
         <v>41.16666666666666</v>
       </c>
       <c r="J33" t="n">
-        <v>38.9</v>
+        <v>38.4985</v>
       </c>
       <c r="K33" t="n">
         <v>152.5</v>
@@ -2222,13 +2222,13 @@
         <v>40</v>
       </c>
       <c r="H34" t="n">
-        <v>2.2</v>
+        <v>3.003</v>
       </c>
       <c r="I34" t="n">
         <v>1.166666666666664</v>
       </c>
       <c r="J34" t="n">
-        <v>38.9</v>
+        <v>38.4985</v>
       </c>
       <c r="K34" t="n">
         <v>152.5</v>
@@ -2275,13 +2275,13 @@
         <v>40</v>
       </c>
       <c r="H35" t="n">
-        <v>2.2</v>
+        <v>3.003</v>
       </c>
       <c r="I35" t="n">
         <v>-89.66666666666663</v>
       </c>
       <c r="J35" t="n">
-        <v>38.9</v>
+        <v>38.4985</v>
       </c>
       <c r="K35" t="n">
         <v>152.5</v>
@@ -2328,13 +2328,13 @@
         <v>40</v>
       </c>
       <c r="H36" t="n">
-        <v>2.2</v>
+        <v>3.003</v>
       </c>
       <c r="I36" t="n">
         <v>-129.6666666666666</v>
       </c>
       <c r="J36" t="n">
-        <v>38.9</v>
+        <v>38.4985</v>
       </c>
       <c r="K36" t="n">
         <v>152.5</v>
@@ -2381,13 +2381,13 @@
         <v>21.4</v>
       </c>
       <c r="H37" t="n">
-        <v>2.2</v>
+        <v>3.003</v>
       </c>
       <c r="I37" t="n">
         <v>101.2916666666667</v>
       </c>
       <c r="J37" t="n">
-        <v>38.9</v>
+        <v>38.4985</v>
       </c>
       <c r="K37" t="n">
         <v>152.5</v>
@@ -2434,13 +2434,13 @@
         <v>21.4</v>
       </c>
       <c r="H38" t="n">
-        <v>2.2</v>
+        <v>3.003</v>
       </c>
       <c r="I38" t="n">
         <v>79.87500000000001</v>
       </c>
       <c r="J38" t="n">
-        <v>38.9</v>
+        <v>38.4985</v>
       </c>
       <c r="K38" t="n">
         <v>152.5</v>
@@ -2487,13 +2487,13 @@
         <v>21.4</v>
       </c>
       <c r="H39" t="n">
-        <v>2.2</v>
+        <v>3.003</v>
       </c>
       <c r="I39" t="n">
         <v>-29.54166666666667</v>
       </c>
       <c r="J39" t="n">
-        <v>38.9</v>
+        <v>38.4985</v>
       </c>
       <c r="K39" t="n">
         <v>152.5</v>
@@ -2540,13 +2540,13 @@
         <v>21.4</v>
       </c>
       <c r="H40" t="n">
-        <v>2.2</v>
+        <v>3.003</v>
       </c>
       <c r="I40" t="n">
         <v>-50.95833333333333</v>
       </c>
       <c r="J40" t="n">
-        <v>38.9</v>
+        <v>38.4985</v>
       </c>
       <c r="K40" t="n">
         <v>152.5</v>
@@ -2593,13 +2593,13 @@
         <v>21.4</v>
       </c>
       <c r="H41" t="n">
-        <v>2.2</v>
+        <v>3.003</v>
       </c>
       <c r="I41" t="n">
         <v>-160.375</v>
       </c>
       <c r="J41" t="n">
-        <v>38.9</v>
+        <v>38.4985</v>
       </c>
       <c r="K41" t="n">
         <v>152.5</v>
@@ -2646,13 +2646,13 @@
         <v>21.4</v>
       </c>
       <c r="H42" t="n">
-        <v>2.2</v>
+        <v>3.003</v>
       </c>
       <c r="I42" t="n">
         <v>-181.7916666666667</v>
       </c>
       <c r="J42" t="n">
-        <v>38.9</v>
+        <v>38.4985</v>
       </c>
       <c r="K42" t="n">
         <v>152.5</v>
@@ -2698,10 +2698,10 @@
         <v>5</v>
       </c>
       <c r="I43" t="n">
-        <v>195.3</v>
+        <v>194.497</v>
       </c>
       <c r="J43" t="n">
-        <v>35.3</v>
+        <v>34.497</v>
       </c>
       <c r="K43" t="n">
         <v>2.5</v>
@@ -2745,10 +2745,10 @@
         <v>5</v>
       </c>
       <c r="I44" t="n">
-        <v>195.3</v>
+        <v>194.497</v>
       </c>
       <c r="J44" t="n">
-        <v>-35.3</v>
+        <v>-34.497</v>
       </c>
       <c r="K44" t="n">
         <v>2.5</v>
@@ -2792,10 +2792,10 @@
         <v>5</v>
       </c>
       <c r="I45" t="n">
-        <v>65.43333333333334</v>
+        <v>65.16566666666667</v>
       </c>
       <c r="J45" t="n">
-        <v>35.3</v>
+        <v>34.497</v>
       </c>
       <c r="K45" t="n">
         <v>2.5</v>
@@ -2839,10 +2839,10 @@
         <v>5</v>
       </c>
       <c r="I46" t="n">
-        <v>65.43333333333334</v>
+        <v>65.16566666666667</v>
       </c>
       <c r="J46" t="n">
-        <v>-35.3</v>
+        <v>-34.497</v>
       </c>
       <c r="K46" t="n">
         <v>2.5</v>
@@ -2886,10 +2886,10 @@
         <v>5</v>
       </c>
       <c r="I47" t="n">
-        <v>-65.43333333333334</v>
+        <v>-65.16566666666667</v>
       </c>
       <c r="J47" t="n">
-        <v>35.3</v>
+        <v>34.497</v>
       </c>
       <c r="K47" t="n">
         <v>2.5</v>
@@ -2933,10 +2933,10 @@
         <v>5</v>
       </c>
       <c r="I48" t="n">
-        <v>-65.43333333333334</v>
+        <v>-65.16566666666667</v>
       </c>
       <c r="J48" t="n">
-        <v>-35.3</v>
+        <v>-34.497</v>
       </c>
       <c r="K48" t="n">
         <v>2.5</v>
@@ -2980,10 +2980,10 @@
         <v>5</v>
       </c>
       <c r="I49" t="n">
-        <v>-195.3</v>
+        <v>-194.497</v>
       </c>
       <c r="J49" t="n">
-        <v>35.3</v>
+        <v>34.497</v>
       </c>
       <c r="K49" t="n">
         <v>2.5</v>
@@ -3027,10 +3027,10 @@
         <v>5</v>
       </c>
       <c r="I50" t="n">
-        <v>-195.3</v>
+        <v>-194.497</v>
       </c>
       <c r="J50" t="n">
-        <v>-35.3</v>
+        <v>-34.497</v>
       </c>
       <c r="K50" t="n">
         <v>2.5</v>
@@ -3065,22 +3065,22 @@
         <v>0</v>
       </c>
       <c r="F51" t="n">
-        <v>394.6</v>
+        <v>392.994</v>
       </c>
       <c r="G51" t="n">
-        <v>34.8</v>
+        <v>33.997</v>
       </c>
       <c r="H51" t="n">
-        <v>2.2</v>
+        <v>3.003</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
       <c r="J51" t="n">
-        <v>17.4</v>
+        <v>16.9985</v>
       </c>
       <c r="K51" t="n">
-        <v>142.9</v>
+        <v>147.6045</v>
       </c>
       <c r="L51" t="n">
         <v>0</v>
@@ -3112,22 +3112,22 @@
         <v>1</v>
       </c>
       <c r="F52" t="n">
-        <v>394.6</v>
+        <v>392.994</v>
       </c>
       <c r="G52" t="n">
-        <v>34.8</v>
+        <v>33.997</v>
       </c>
       <c r="H52" t="n">
-        <v>2.2</v>
+        <v>3.003</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
       <c r="J52" t="n">
-        <v>-17.4</v>
+        <v>-16.9985</v>
       </c>
       <c r="K52" t="n">
-        <v>142.9</v>
+        <v>147.6045</v>
       </c>
       <c r="L52" t="n">
         <v>0</v>
@@ -3163,7 +3163,7 @@
         <v>1</v>
       </c>
       <c r="F53" t="n">
-        <v>290.6</v>
+        <v>288.994</v>
       </c>
       <c r="G53" t="n">
         <v>3</v>
@@ -3172,10 +3172,10 @@
         <v>3</v>
       </c>
       <c r="I53" t="n">
-        <v>196.3</v>
+        <v>195.497</v>
       </c>
       <c r="J53" t="n">
-        <v>36.3</v>
+        <v>35.497</v>
       </c>
       <c r="K53" t="n">
         <v>152.5</v>
@@ -3216,7 +3216,7 @@
         <v>2</v>
       </c>
       <c r="F54" t="n">
-        <v>290.6</v>
+        <v>288.994</v>
       </c>
       <c r="G54" t="n">
         <v>3</v>
@@ -3225,10 +3225,10 @@
         <v>3</v>
       </c>
       <c r="I54" t="n">
-        <v>196.3</v>
+        <v>195.497</v>
       </c>
       <c r="J54" t="n">
-        <v>-36.3</v>
+        <v>-35.497</v>
       </c>
       <c r="K54" t="n">
         <v>152.5</v>
@@ -3269,7 +3269,7 @@
         <v>6</v>
       </c>
       <c r="F55" t="n">
-        <v>290.6</v>
+        <v>288.994</v>
       </c>
       <c r="G55" t="n">
         <v>3</v>
@@ -3278,10 +3278,10 @@
         <v>3</v>
       </c>
       <c r="I55" t="n">
-        <v>65.43333333333334</v>
+        <v>65.16566666666667</v>
       </c>
       <c r="J55" t="n">
-        <v>36.3</v>
+        <v>35.497</v>
       </c>
       <c r="K55" t="n">
         <v>152.5</v>
@@ -3322,7 +3322,7 @@
         <v>7</v>
       </c>
       <c r="F56" t="n">
-        <v>290.6</v>
+        <v>288.994</v>
       </c>
       <c r="G56" t="n">
         <v>3</v>
@@ -3331,10 +3331,10 @@
         <v>3</v>
       </c>
       <c r="I56" t="n">
-        <v>65.43333333333334</v>
+        <v>65.16566666666667</v>
       </c>
       <c r="J56" t="n">
-        <v>-36.3</v>
+        <v>-35.497</v>
       </c>
       <c r="K56" t="n">
         <v>152.5</v>
@@ -3375,7 +3375,7 @@
         <v>11</v>
       </c>
       <c r="F57" t="n">
-        <v>290.6</v>
+        <v>288.994</v>
       </c>
       <c r="G57" t="n">
         <v>3</v>
@@ -3384,10 +3384,10 @@
         <v>3</v>
       </c>
       <c r="I57" t="n">
-        <v>-65.43333333333334</v>
+        <v>-65.16566666666667</v>
       </c>
       <c r="J57" t="n">
-        <v>36.3</v>
+        <v>35.497</v>
       </c>
       <c r="K57" t="n">
         <v>152.5</v>
@@ -3428,7 +3428,7 @@
         <v>12</v>
       </c>
       <c r="F58" t="n">
-        <v>290.6</v>
+        <v>288.994</v>
       </c>
       <c r="G58" t="n">
         <v>3</v>
@@ -3437,10 +3437,10 @@
         <v>3</v>
       </c>
       <c r="I58" t="n">
-        <v>-65.43333333333334</v>
+        <v>-65.16566666666667</v>
       </c>
       <c r="J58" t="n">
-        <v>-36.3</v>
+        <v>-35.497</v>
       </c>
       <c r="K58" t="n">
         <v>152.5</v>
@@ -3481,7 +3481,7 @@
         <v>16</v>
       </c>
       <c r="F59" t="n">
-        <v>290.6</v>
+        <v>288.994</v>
       </c>
       <c r="G59" t="n">
         <v>3</v>
@@ -3490,10 +3490,10 @@
         <v>3</v>
       </c>
       <c r="I59" t="n">
-        <v>-196.3</v>
+        <v>-195.497</v>
       </c>
       <c r="J59" t="n">
-        <v>36.3</v>
+        <v>35.497</v>
       </c>
       <c r="K59" t="n">
         <v>152.5</v>
@@ -3534,7 +3534,7 @@
         <v>17</v>
       </c>
       <c r="F60" t="n">
-        <v>290.6</v>
+        <v>288.994</v>
       </c>
       <c r="G60" t="n">
         <v>3</v>
@@ -3543,10 +3543,10 @@
         <v>3</v>
       </c>
       <c r="I60" t="n">
-        <v>-196.3</v>
+        <v>-195.497</v>
       </c>
       <c r="J60" t="n">
-        <v>-36.3</v>
+        <v>-35.497</v>
       </c>
       <c r="K60" t="n">
         <v>152.5</v>
@@ -3587,7 +3587,7 @@
         <v>4</v>
       </c>
       <c r="F61" t="n">
-        <v>69.59999999999999</v>
+        <v>67.994</v>
       </c>
       <c r="G61" t="n">
         <v>3</v>
@@ -3596,13 +3596,13 @@
         <v>3</v>
       </c>
       <c r="I61" t="n">
-        <v>196.3</v>
+        <v>195.497</v>
       </c>
       <c r="J61" t="n">
         <v>0</v>
       </c>
       <c r="K61" t="n">
-        <v>140.3</v>
+        <v>144.603</v>
       </c>
       <c r="L61" t="n">
         <v>0</v>
@@ -3640,7 +3640,7 @@
         <v>9</v>
       </c>
       <c r="F62" t="n">
-        <v>69.59999999999999</v>
+        <v>67.994</v>
       </c>
       <c r="G62" t="n">
         <v>3</v>
@@ -3649,13 +3649,13 @@
         <v>3</v>
       </c>
       <c r="I62" t="n">
-        <v>65.43333333333334</v>
+        <v>65.16566666666667</v>
       </c>
       <c r="J62" t="n">
         <v>0</v>
       </c>
       <c r="K62" t="n">
-        <v>140.3</v>
+        <v>144.603</v>
       </c>
       <c r="L62" t="n">
         <v>0</v>
@@ -3693,7 +3693,7 @@
         <v>14</v>
       </c>
       <c r="F63" t="n">
-        <v>69.59999999999999</v>
+        <v>67.994</v>
       </c>
       <c r="G63" t="n">
         <v>3</v>
@@ -3702,13 +3702,13 @@
         <v>3</v>
       </c>
       <c r="I63" t="n">
-        <v>-65.43333333333334</v>
+        <v>-65.16566666666667</v>
       </c>
       <c r="J63" t="n">
         <v>0</v>
       </c>
       <c r="K63" t="n">
-        <v>140.3</v>
+        <v>144.603</v>
       </c>
       <c r="L63" t="n">
         <v>0</v>
@@ -3746,7 +3746,7 @@
         <v>19</v>
       </c>
       <c r="F64" t="n">
-        <v>69.59999999999999</v>
+        <v>67.994</v>
       </c>
       <c r="G64" t="n">
         <v>3</v>
@@ -3755,13 +3755,13 @@
         <v>3</v>
       </c>
       <c r="I64" t="n">
-        <v>-196.3</v>
+        <v>-195.497</v>
       </c>
       <c r="J64" t="n">
         <v>0</v>
       </c>
       <c r="K64" t="n">
-        <v>140.3</v>
+        <v>144.603</v>
       </c>
       <c r="L64" t="n">
         <v>0</v>
@@ -3799,7 +3799,7 @@
         <v>0</v>
       </c>
       <c r="F65" t="n">
-        <v>69.59999999999999</v>
+        <v>67.994</v>
       </c>
       <c r="G65" t="n">
         <v>3</v>
@@ -3808,13 +3808,13 @@
         <v>3</v>
       </c>
       <c r="I65" t="n">
-        <v>196.3</v>
+        <v>195.497</v>
       </c>
       <c r="J65" t="n">
         <v>0</v>
       </c>
       <c r="K65" t="n">
-        <v>8.699999999999999</v>
+        <v>9.503</v>
       </c>
       <c r="L65" t="n">
         <v>0</v>
@@ -3852,7 +3852,7 @@
         <v>5</v>
       </c>
       <c r="F66" t="n">
-        <v>69.59999999999999</v>
+        <v>67.994</v>
       </c>
       <c r="G66" t="n">
         <v>3</v>
@@ -3861,13 +3861,13 @@
         <v>3</v>
       </c>
       <c r="I66" t="n">
-        <v>65.43333333333334</v>
+        <v>65.16566666666667</v>
       </c>
       <c r="J66" t="n">
         <v>0</v>
       </c>
       <c r="K66" t="n">
-        <v>8.699999999999999</v>
+        <v>9.503</v>
       </c>
       <c r="L66" t="n">
         <v>0</v>
@@ -3905,7 +3905,7 @@
         <v>10</v>
       </c>
       <c r="F67" t="n">
-        <v>69.59999999999999</v>
+        <v>67.994</v>
       </c>
       <c r="G67" t="n">
         <v>3</v>
@@ -3914,13 +3914,13 @@
         <v>3</v>
       </c>
       <c r="I67" t="n">
-        <v>-65.43333333333334</v>
+        <v>-65.16566666666667</v>
       </c>
       <c r="J67" t="n">
         <v>0</v>
       </c>
       <c r="K67" t="n">
-        <v>8.699999999999999</v>
+        <v>9.503</v>
       </c>
       <c r="L67" t="n">
         <v>0</v>
@@ -3958,7 +3958,7 @@
         <v>15</v>
       </c>
       <c r="F68" t="n">
-        <v>69.59999999999999</v>
+        <v>67.994</v>
       </c>
       <c r="G68" t="n">
         <v>3</v>
@@ -3967,13 +3967,13 @@
         <v>3</v>
       </c>
       <c r="I68" t="n">
-        <v>-196.3</v>
+        <v>-195.497</v>
       </c>
       <c r="J68" t="n">
         <v>0</v>
       </c>
       <c r="K68" t="n">
-        <v>8.699999999999999</v>
+        <v>9.503</v>
       </c>
       <c r="L68" t="n">
         <v>0</v>
@@ -4011,7 +4011,7 @@
         <v>3</v>
       </c>
       <c r="F69" t="n">
-        <v>69.59999999999999</v>
+        <v>67.994</v>
       </c>
       <c r="G69" t="n">
         <v>3</v>
@@ -4020,13 +4020,13 @@
         <v>3</v>
       </c>
       <c r="I69" t="n">
-        <v>196.3</v>
+        <v>195.497</v>
       </c>
       <c r="J69" t="n">
         <v>0</v>
       </c>
       <c r="K69" t="n">
-        <v>296.3</v>
+        <v>295.497</v>
       </c>
       <c r="L69" t="n">
         <v>0</v>
@@ -4064,7 +4064,7 @@
         <v>8</v>
       </c>
       <c r="F70" t="n">
-        <v>69.59999999999999</v>
+        <v>67.994</v>
       </c>
       <c r="G70" t="n">
         <v>3</v>
@@ -4073,13 +4073,13 @@
         <v>3</v>
       </c>
       <c r="I70" t="n">
-        <v>65.43333333333334</v>
+        <v>65.16566666666667</v>
       </c>
       <c r="J70" t="n">
         <v>0</v>
       </c>
       <c r="K70" t="n">
-        <v>296.3</v>
+        <v>295.497</v>
       </c>
       <c r="L70" t="n">
         <v>0</v>
@@ -4117,7 +4117,7 @@
         <v>13</v>
       </c>
       <c r="F71" t="n">
-        <v>69.59999999999999</v>
+        <v>67.994</v>
       </c>
       <c r="G71" t="n">
         <v>3</v>
@@ -4126,13 +4126,13 @@
         <v>3</v>
       </c>
       <c r="I71" t="n">
-        <v>-65.43333333333334</v>
+        <v>-65.16566666666667</v>
       </c>
       <c r="J71" t="n">
         <v>0</v>
       </c>
       <c r="K71" t="n">
-        <v>296.3</v>
+        <v>295.497</v>
       </c>
       <c r="L71" t="n">
         <v>0</v>
@@ -4170,7 +4170,7 @@
         <v>18</v>
       </c>
       <c r="F72" t="n">
-        <v>69.59999999999999</v>
+        <v>67.994</v>
       </c>
       <c r="G72" t="n">
         <v>3</v>
@@ -4179,13 +4179,13 @@
         <v>3</v>
       </c>
       <c r="I72" t="n">
-        <v>-196.3</v>
+        <v>-195.497</v>
       </c>
       <c r="J72" t="n">
         <v>0</v>
       </c>
       <c r="K72" t="n">
-        <v>296.3</v>
+        <v>295.497</v>
       </c>
       <c r="L72" t="n">
         <v>0</v>
@@ -4223,7 +4223,7 @@
         <v>21</v>
       </c>
       <c r="F73" t="n">
-        <v>127.8666666666667</v>
+        <v>127.3313333333333</v>
       </c>
       <c r="G73" t="n">
         <v>3</v>
@@ -4232,13 +4232,13 @@
         <v>3</v>
       </c>
       <c r="I73" t="n">
-        <v>130.8666666666667</v>
+        <v>130.3313333333334</v>
       </c>
       <c r="J73" t="n">
-        <v>-36.3</v>
+        <v>-35.497</v>
       </c>
       <c r="K73" t="n">
-        <v>142.5</v>
+        <v>147.606</v>
       </c>
       <c r="L73" t="n">
         <v>0</v>
@@ -4276,7 +4276,7 @@
         <v>20</v>
       </c>
       <c r="F74" t="n">
-        <v>127.8666666666667</v>
+        <v>127.3313333333333</v>
       </c>
       <c r="G74" t="n">
         <v>3</v>
@@ -4288,10 +4288,10 @@
         <v>0</v>
       </c>
       <c r="J74" t="n">
-        <v>-36.3</v>
+        <v>-35.497</v>
       </c>
       <c r="K74" t="n">
-        <v>142.5</v>
+        <v>147.606</v>
       </c>
       <c r="L74" t="n">
         <v>0</v>
@@ -4329,7 +4329,7 @@
         <v>22</v>
       </c>
       <c r="F75" t="n">
-        <v>127.8666666666667</v>
+        <v>127.3313333333333</v>
       </c>
       <c r="G75" t="n">
         <v>3</v>
@@ -4338,13 +4338,13 @@
         <v>3</v>
       </c>
       <c r="I75" t="n">
-        <v>-130.8666666666667</v>
+        <v>-130.3313333333334</v>
       </c>
       <c r="J75" t="n">
-        <v>-36.3</v>
+        <v>-35.497</v>
       </c>
       <c r="K75" t="n">
-        <v>142.5</v>
+        <v>147.606</v>
       </c>
       <c r="L75" t="n">
         <v>0</v>
@@ -4382,22 +4382,22 @@
         <v>0</v>
       </c>
       <c r="F76" t="n">
-        <v>395.6</v>
+        <v>393.994</v>
       </c>
       <c r="G76" t="n">
-        <v>37.8</v>
+        <v>36.997</v>
       </c>
       <c r="H76" t="n">
-        <v>2.2</v>
+        <v>3.003</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
       <c r="J76" t="n">
-        <v>18.9</v>
+        <v>18.4985</v>
       </c>
       <c r="K76" t="n">
-        <v>6.1</v>
+        <v>6.5015</v>
       </c>
       <c r="L76" t="n">
         <v>0</v>
@@ -4433,22 +4433,22 @@
         <v>1</v>
       </c>
       <c r="F77" t="n">
-        <v>395.6</v>
+        <v>393.994</v>
       </c>
       <c r="G77" t="n">
-        <v>37.8</v>
+        <v>36.997</v>
       </c>
       <c r="H77" t="n">
-        <v>2.2</v>
+        <v>3.003</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
       <c r="J77" t="n">
-        <v>-18.9</v>
+        <v>-18.4985</v>
       </c>
       <c r="K77" t="n">
-        <v>6.1</v>
+        <v>6.5015</v>
       </c>
       <c r="L77" t="n">
         <v>0</v>
@@ -4484,22 +4484,22 @@
         <v>2</v>
       </c>
       <c r="F78" t="n">
-        <v>395.6</v>
+        <v>393.994</v>
       </c>
       <c r="G78" t="n">
-        <v>37.8</v>
+        <v>36.997</v>
       </c>
       <c r="H78" t="n">
-        <v>2.2</v>
+        <v>3.003</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
       <c r="J78" t="n">
-        <v>18.9</v>
+        <v>18.4985</v>
       </c>
       <c r="K78" t="n">
-        <v>298.9</v>
+        <v>298.4985</v>
       </c>
       <c r="L78" t="n">
         <v>0</v>
@@ -4535,22 +4535,22 @@
         <v>3</v>
       </c>
       <c r="F79" t="n">
-        <v>395.6</v>
+        <v>393.994</v>
       </c>
       <c r="G79" t="n">
-        <v>37.8</v>
+        <v>36.997</v>
       </c>
       <c r="H79" t="n">
-        <v>2.2</v>
+        <v>3.003</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
       <c r="J79" t="n">
-        <v>-18.9</v>
+        <v>-18.4985</v>
       </c>
       <c r="K79" t="n">
-        <v>298.9</v>
+        <v>298.4985</v>
       </c>
       <c r="L79" t="n">
         <v>0</v>
@@ -4588,13 +4588,13 @@
         <v>40</v>
       </c>
       <c r="H80" t="n">
-        <v>2.2</v>
+        <v>3.003</v>
       </c>
       <c r="I80" t="n">
         <v>180</v>
       </c>
       <c r="J80" t="n">
-        <v>-38.9</v>
+        <v>-38.4985</v>
       </c>
       <c r="K80" t="n">
         <v>152.5</v>
@@ -4635,13 +4635,13 @@
         <v>40</v>
       </c>
       <c r="H81" t="n">
-        <v>2.2</v>
+        <v>3.003</v>
       </c>
       <c r="I81" t="n">
         <v>140</v>
       </c>
       <c r="J81" t="n">
-        <v>-38.9</v>
+        <v>-38.4985</v>
       </c>
       <c r="K81" t="n">
         <v>152.5</v>
@@ -4682,13 +4682,13 @@
         <v>40</v>
       </c>
       <c r="H82" t="n">
-        <v>2.2</v>
+        <v>3.003</v>
       </c>
       <c r="I82" t="n">
         <v>100</v>
       </c>
       <c r="J82" t="n">
-        <v>-38.9</v>
+        <v>-38.4985</v>
       </c>
       <c r="K82" t="n">
         <v>152.5</v>
@@ -4729,13 +4729,13 @@
         <v>40</v>
       </c>
       <c r="H83" t="n">
-        <v>2.2</v>
+        <v>3.003</v>
       </c>
       <c r="I83" t="n">
         <v>60</v>
       </c>
       <c r="J83" t="n">
-        <v>-38.9</v>
+        <v>-38.4985</v>
       </c>
       <c r="K83" t="n">
         <v>152.5</v>
@@ -4776,13 +4776,13 @@
         <v>40</v>
       </c>
       <c r="H84" t="n">
-        <v>2.2</v>
+        <v>3.003</v>
       </c>
       <c r="I84" t="n">
         <v>20</v>
       </c>
       <c r="J84" t="n">
-        <v>-38.9</v>
+        <v>-38.4985</v>
       </c>
       <c r="K84" t="n">
         <v>152.5</v>
@@ -4823,13 +4823,13 @@
         <v>40</v>
       </c>
       <c r="H85" t="n">
-        <v>2.2</v>
+        <v>3.003</v>
       </c>
       <c r="I85" t="n">
         <v>-20</v>
       </c>
       <c r="J85" t="n">
-        <v>-38.9</v>
+        <v>-38.4985</v>
       </c>
       <c r="K85" t="n">
         <v>152.5</v>
@@ -4870,13 +4870,13 @@
         <v>40</v>
       </c>
       <c r="H86" t="n">
-        <v>2.2</v>
+        <v>3.003</v>
       </c>
       <c r="I86" t="n">
         <v>-60</v>
       </c>
       <c r="J86" t="n">
-        <v>-38.9</v>
+        <v>-38.4985</v>
       </c>
       <c r="K86" t="n">
         <v>152.5</v>
@@ -4917,13 +4917,13 @@
         <v>40</v>
       </c>
       <c r="H87" t="n">
-        <v>2.2</v>
+        <v>3.003</v>
       </c>
       <c r="I87" t="n">
         <v>-100</v>
       </c>
       <c r="J87" t="n">
-        <v>-38.9</v>
+        <v>-38.4985</v>
       </c>
       <c r="K87" t="n">
         <v>152.5</v>
@@ -4964,13 +4964,13 @@
         <v>40</v>
       </c>
       <c r="H88" t="n">
-        <v>2.2</v>
+        <v>3.003</v>
       </c>
       <c r="I88" t="n">
         <v>-140</v>
       </c>
       <c r="J88" t="n">
-        <v>-38.9</v>
+        <v>-38.4985</v>
       </c>
       <c r="K88" t="n">
         <v>152.5</v>
@@ -5011,13 +5011,13 @@
         <v>40</v>
       </c>
       <c r="H89" t="n">
-        <v>2.2</v>
+        <v>3.003</v>
       </c>
       <c r="I89" t="n">
         <v>-180</v>
       </c>
       <c r="J89" t="n">
-        <v>-38.9</v>
+        <v>-38.4985</v>
       </c>
       <c r="K89" t="n">
         <v>152.5</v>

--- a/plankenlijst.xlsx
+++ b/plankenlijst.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O89"/>
+  <dimension ref="A1:O99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -525,22 +525,22 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F2" t="n">
         <v>295</v>
       </c>
       <c r="G2" t="n">
-        <v>36.997</v>
+        <v>20</v>
       </c>
       <c r="H2" t="n">
         <v>3.003</v>
       </c>
       <c r="I2" t="n">
-        <v>-198.4985</v>
+        <v>-98.49850000000001</v>
       </c>
       <c r="J2" t="n">
-        <v>18.4985</v>
+        <v>-6.997</v>
       </c>
       <c r="K2" t="n">
         <v>152.5</v>
@@ -576,22 +576,22 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F3" t="n">
         <v>295</v>
       </c>
       <c r="G3" t="n">
-        <v>36.997</v>
+        <v>20</v>
       </c>
       <c r="H3" t="n">
         <v>3.003</v>
       </c>
       <c r="I3" t="n">
-        <v>-198.4985</v>
+        <v>-98.49850000000001</v>
       </c>
       <c r="J3" t="n">
-        <v>-18.4985</v>
+        <v>-26.997</v>
       </c>
       <c r="K3" t="n">
         <v>152.5</v>
@@ -618,7 +618,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>links</t>
+          <t>rechts</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -627,22 +627,22 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F4" t="n">
         <v>295</v>
       </c>
       <c r="G4" t="n">
-        <v>36.997</v>
+        <v>16.997</v>
       </c>
       <c r="H4" t="n">
         <v>3.003</v>
       </c>
       <c r="I4" t="n">
-        <v>198.4985</v>
+        <v>-98.49850000000001</v>
       </c>
       <c r="J4" t="n">
-        <v>18.4985</v>
+        <v>28.4985</v>
       </c>
       <c r="K4" t="n">
         <v>152.5</v>
@@ -669,7 +669,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>links</t>
+          <t>rechts</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -678,22 +678,22 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F5" t="n">
         <v>295</v>
       </c>
       <c r="G5" t="n">
-        <v>36.997</v>
+        <v>16.997</v>
       </c>
       <c r="H5" t="n">
         <v>3.003</v>
       </c>
       <c r="I5" t="n">
-        <v>198.4985</v>
+        <v>-98.49850000000001</v>
       </c>
       <c r="J5" t="n">
-        <v>-18.4985</v>
+        <v>11.5015</v>
       </c>
       <c r="K5" t="n">
         <v>152.5</v>
@@ -715,12 +715,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>voorkant</t>
+          <t>zeiplanken</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>voorplank</t>
+          <t>links</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -729,22 +729,22 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6" t="n">
         <v>295</v>
       </c>
       <c r="G6" t="n">
-        <v>7.5</v>
+        <v>20</v>
       </c>
       <c r="H6" t="n">
         <v>3.003</v>
       </c>
       <c r="I6" t="n">
-        <v>196.25</v>
+        <v>98.49850000000001</v>
       </c>
       <c r="J6" t="n">
-        <v>38.4985</v>
+        <v>-6.997</v>
       </c>
       <c r="K6" t="n">
         <v>152.5</v>
@@ -756,11 +756,9 @@
         <v>90</v>
       </c>
       <c r="N6" t="n">
-        <v>90</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -768,12 +766,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>voorkant</t>
+          <t>zeiplanken</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>voorplank</t>
+          <t>links</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -782,22 +780,22 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="F7" t="n">
         <v>295</v>
       </c>
       <c r="G7" t="n">
-        <v>7.5</v>
+        <v>20</v>
       </c>
       <c r="H7" t="n">
         <v>3.003</v>
       </c>
       <c r="I7" t="n">
-        <v>65.41666666666669</v>
+        <v>98.49850000000001</v>
       </c>
       <c r="J7" t="n">
-        <v>38.4985</v>
+        <v>-26.997</v>
       </c>
       <c r="K7" t="n">
         <v>152.5</v>
@@ -809,11 +807,9 @@
         <v>90</v>
       </c>
       <c r="N7" t="n">
-        <v>90</v>
-      </c>
-      <c r="O7" t="n">
-        <v>4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -821,12 +817,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>voorkant</t>
+          <t>zeiplanken</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>voorplank</t>
+          <t>links</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -835,22 +831,22 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>295</v>
       </c>
       <c r="G8" t="n">
-        <v>7.5</v>
+        <v>16.997</v>
       </c>
       <c r="H8" t="n">
         <v>3.003</v>
       </c>
       <c r="I8" t="n">
-        <v>-65.41666666666666</v>
+        <v>98.49850000000001</v>
       </c>
       <c r="J8" t="n">
-        <v>38.4985</v>
+        <v>28.4985</v>
       </c>
       <c r="K8" t="n">
         <v>152.5</v>
@@ -862,11 +858,9 @@
         <v>90</v>
       </c>
       <c r="N8" t="n">
-        <v>90</v>
-      </c>
-      <c r="O8" t="n">
-        <v>3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -874,12 +868,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>voorkant</t>
+          <t>zeiplanken</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>voorplank</t>
+          <t>links</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -888,22 +882,22 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9" t="n">
         <v>295</v>
       </c>
       <c r="G9" t="n">
-        <v>7.5</v>
+        <v>16.997</v>
       </c>
       <c r="H9" t="n">
         <v>3.003</v>
       </c>
       <c r="I9" t="n">
-        <v>-196.25</v>
+        <v>98.49850000000001</v>
       </c>
       <c r="J9" t="n">
-        <v>38.4985</v>
+        <v>11.5015</v>
       </c>
       <c r="K9" t="n">
         <v>152.5</v>
@@ -915,11 +909,9 @@
         <v>90</v>
       </c>
       <c r="N9" t="n">
-        <v>90</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -932,7 +924,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>stut</t>
+          <t>voorplank</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -941,37 +933,37 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>110.5</v>
+        <v>295</v>
       </c>
       <c r="G10" t="n">
-        <v>40</v>
+        <v>8.003</v>
       </c>
       <c r="H10" t="n">
         <v>3.003</v>
       </c>
       <c r="I10" t="n">
-        <v>130.5833333333333</v>
+        <v>95.99850000000001</v>
       </c>
       <c r="J10" t="n">
-        <v>35.4955</v>
+        <v>38.4985</v>
       </c>
       <c r="K10" t="n">
-        <v>250.8333333333333</v>
+        <v>152.5</v>
       </c>
       <c r="L10" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="O10" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -985,7 +977,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>stut</t>
+          <t>voorplank</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -994,37 +986,37 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F11" t="n">
-        <v>110.5</v>
+        <v>295</v>
       </c>
       <c r="G11" t="n">
-        <v>40</v>
+        <v>8.003</v>
       </c>
       <c r="H11" t="n">
         <v>3.003</v>
       </c>
       <c r="I11" t="n">
-        <v>130.5833333333333</v>
+        <v>7.105427357601002e-15</v>
       </c>
       <c r="J11" t="n">
-        <v>35.4955</v>
+        <v>38.4985</v>
       </c>
       <c r="K11" t="n">
         <v>152.5</v>
       </c>
       <c r="L11" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="O11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12">
@@ -1038,7 +1030,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>stut</t>
+          <t>voorplank</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -1047,37 +1039,37 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>110.5</v>
+        <v>295</v>
       </c>
       <c r="G12" t="n">
-        <v>40</v>
+        <v>8.003</v>
       </c>
       <c r="H12" t="n">
         <v>3.003</v>
       </c>
       <c r="I12" t="n">
-        <v>130.5833333333333</v>
+        <v>-95.99850000000001</v>
       </c>
       <c r="J12" t="n">
-        <v>35.4955</v>
+        <v>38.4985</v>
       </c>
       <c r="K12" t="n">
-        <v>54.16666666666666</v>
+        <v>152.5</v>
       </c>
       <c r="L12" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="O12" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1100,19 +1092,19 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F13" t="n">
-        <v>110.5</v>
+        <v>78.7</v>
       </c>
       <c r="G13" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="H13" t="n">
         <v>3.003</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.2499999999999929</v>
+        <v>47.74925</v>
       </c>
       <c r="J13" t="n">
         <v>35.4955</v>
@@ -1153,19 +1145,19 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F14" t="n">
-        <v>110.5</v>
+        <v>78.7</v>
       </c>
       <c r="G14" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="H14" t="n">
         <v>3.003</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.2499999999999929</v>
+        <v>47.74925</v>
       </c>
       <c r="J14" t="n">
         <v>35.4955</v>
@@ -1206,19 +1198,19 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F15" t="n">
-        <v>110.5</v>
+        <v>78.7</v>
       </c>
       <c r="G15" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="H15" t="n">
         <v>3.003</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.2499999999999929</v>
+        <v>47.74925</v>
       </c>
       <c r="J15" t="n">
         <v>35.4955</v>
@@ -1259,19 +1251,19 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F16" t="n">
-        <v>110.5</v>
+        <v>78.7</v>
       </c>
       <c r="G16" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="H16" t="n">
         <v>3.003</v>
       </c>
       <c r="I16" t="n">
-        <v>-131.0833333333333</v>
+        <v>-48.24925</v>
       </c>
       <c r="J16" t="n">
         <v>35.4955</v>
@@ -1312,19 +1304,19 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F17" t="n">
-        <v>110.5</v>
+        <v>78.7</v>
       </c>
       <c r="G17" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="H17" t="n">
         <v>3.003</v>
       </c>
       <c r="I17" t="n">
-        <v>-131.0833333333333</v>
+        <v>-48.24925</v>
       </c>
       <c r="J17" t="n">
         <v>35.4955</v>
@@ -1365,19 +1357,19 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F18" t="n">
-        <v>110.5</v>
+        <v>78.7</v>
       </c>
       <c r="G18" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="H18" t="n">
         <v>3.003</v>
       </c>
       <c r="I18" t="n">
-        <v>-131.0833333333333</v>
+        <v>-48.24925</v>
       </c>
       <c r="J18" t="n">
         <v>35.4955</v>
@@ -1418,7 +1410,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="F19" t="n">
         <v>7</v>
@@ -1430,7 +1422,7 @@
         <v>1</v>
       </c>
       <c r="I19" t="n">
-        <v>69.16666666666669</v>
+        <v>4.001500000000007</v>
       </c>
       <c r="J19" t="n">
         <v>40.5</v>
@@ -1448,7 +1440,7 @@
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20">
@@ -1471,7 +1463,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="F20" t="n">
         <v>7</v>
@@ -1483,7 +1475,7 @@
         <v>1</v>
       </c>
       <c r="I20" t="n">
-        <v>-61.66666666666666</v>
+        <v>-91.997</v>
       </c>
       <c r="J20" t="n">
         <v>40.5</v>
@@ -1501,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -1515,34 +1507,34 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>slot</t>
+          <t>scharnier</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>slot</t>
+          <t>scharnier</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="F21" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G21" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H21" t="n">
         <v>1</v>
       </c>
       <c r="I21" t="n">
-        <v>-192.5</v>
+        <v>4.001500000000007</v>
       </c>
       <c r="J21" t="n">
         <v>40.5</v>
       </c>
       <c r="K21" t="n">
-        <v>152.5</v>
+        <v>250.8333333333333</v>
       </c>
       <c r="L21" t="n">
         <v>90</v>
@@ -1554,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22">
@@ -1577,7 +1569,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="F22" t="n">
         <v>5</v>
@@ -1589,13 +1581,13 @@
         <v>1</v>
       </c>
       <c r="I22" t="n">
-        <v>69.16666666666669</v>
+        <v>4.001500000000007</v>
       </c>
       <c r="J22" t="n">
         <v>40.5</v>
       </c>
       <c r="K22" t="n">
-        <v>250.8333333333333</v>
+        <v>152.5</v>
       </c>
       <c r="L22" t="n">
         <v>90</v>
@@ -1607,7 +1599,7 @@
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23">
@@ -1630,7 +1622,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="F23" t="n">
         <v>5</v>
@@ -1642,13 +1634,13 @@
         <v>1</v>
       </c>
       <c r="I23" t="n">
-        <v>69.16666666666669</v>
+        <v>4.001500000000007</v>
       </c>
       <c r="J23" t="n">
         <v>40.5</v>
       </c>
       <c r="K23" t="n">
-        <v>152.5</v>
+        <v>54.16666666666666</v>
       </c>
       <c r="L23" t="n">
         <v>90</v>
@@ -1660,7 +1652,7 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24">
@@ -1683,7 +1675,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="F24" t="n">
         <v>5</v>
@@ -1695,13 +1687,13 @@
         <v>1</v>
       </c>
       <c r="I24" t="n">
-        <v>69.16666666666669</v>
+        <v>-91.997</v>
       </c>
       <c r="J24" t="n">
         <v>40.5</v>
       </c>
       <c r="K24" t="n">
-        <v>54.16666666666666</v>
+        <v>250.8333333333333</v>
       </c>
       <c r="L24" t="n">
         <v>90</v>
@@ -1713,7 +1705,7 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1736,7 +1728,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="F25" t="n">
         <v>5</v>
@@ -1748,13 +1740,13 @@
         <v>1</v>
       </c>
       <c r="I25" t="n">
-        <v>-61.66666666666666</v>
+        <v>-91.997</v>
       </c>
       <c r="J25" t="n">
         <v>40.5</v>
       </c>
       <c r="K25" t="n">
-        <v>250.8333333333333</v>
+        <v>152.5</v>
       </c>
       <c r="L25" t="n">
         <v>90</v>
@@ -1766,7 +1758,7 @@
         <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
@@ -1789,7 +1781,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="F26" t="n">
         <v>5</v>
@@ -1801,13 +1793,13 @@
         <v>1</v>
       </c>
       <c r="I26" t="n">
-        <v>-61.66666666666666</v>
+        <v>-91.997</v>
       </c>
       <c r="J26" t="n">
         <v>40.5</v>
       </c>
       <c r="K26" t="n">
-        <v>152.5</v>
+        <v>54.16666666666666</v>
       </c>
       <c r="L26" t="n">
         <v>90</v>
@@ -1819,7 +1811,7 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
@@ -1833,40 +1825,40 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>scharnier</t>
+          <t>deur</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>scharnier</t>
+          <t>plank</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F27" t="n">
-        <v>5</v>
+        <v>295</v>
       </c>
       <c r="G27" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>3.003</v>
       </c>
       <c r="I27" t="n">
-        <v>-61.66666666666666</v>
+        <v>81.497</v>
       </c>
       <c r="J27" t="n">
-        <v>40.5</v>
+        <v>38.4985</v>
       </c>
       <c r="K27" t="n">
-        <v>54.16666666666666</v>
+        <v>152.5</v>
       </c>
       <c r="L27" t="n">
         <v>90</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -1886,46 +1878,46 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>scharnier</t>
+          <t>deur</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>scharnier</t>
+          <t>plank</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F28" t="n">
-        <v>5</v>
+        <v>295</v>
       </c>
       <c r="G28" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>3.003</v>
       </c>
       <c r="I28" t="n">
-        <v>-192.5</v>
+        <v>61.497</v>
       </c>
       <c r="J28" t="n">
-        <v>40.5</v>
+        <v>38.4985</v>
       </c>
       <c r="K28" t="n">
-        <v>250.8333333333333</v>
+        <v>152.5</v>
       </c>
       <c r="L28" t="n">
         <v>90</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="N28" t="n">
         <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29">
@@ -1939,31 +1931,31 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>scharnier</t>
+          <t>deur</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>scharnier</t>
+          <t>plank</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F29" t="n">
-        <v>5</v>
+        <v>295</v>
       </c>
       <c r="G29" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
+        <v>3.003</v>
       </c>
       <c r="I29" t="n">
-        <v>-192.5</v>
+        <v>41.497</v>
       </c>
       <c r="J29" t="n">
-        <v>40.5</v>
+        <v>38.4985</v>
       </c>
       <c r="K29" t="n">
         <v>152.5</v>
@@ -1972,13 +1964,13 @@
         <v>90</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30">
@@ -1992,40 +1984,40 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>scharnier</t>
+          <t>deur</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>scharnier</t>
+          <t>plank</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F30" t="n">
-        <v>5</v>
+        <v>295</v>
       </c>
       <c r="G30" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>3.003</v>
       </c>
       <c r="I30" t="n">
-        <v>-192.5</v>
+        <v>-14.50150000000001</v>
       </c>
       <c r="J30" t="n">
-        <v>40.5</v>
+        <v>38.4985</v>
       </c>
       <c r="K30" t="n">
-        <v>54.16666666666666</v>
+        <v>152.5</v>
       </c>
       <c r="L30" t="n">
         <v>90</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -2054,19 +2046,19 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="F31" t="n">
         <v>295</v>
       </c>
       <c r="G31" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="H31" t="n">
         <v>3.003</v>
       </c>
       <c r="I31" t="n">
-        <v>172</v>
+        <v>-34.50150000000001</v>
       </c>
       <c r="J31" t="n">
         <v>38.4985</v>
@@ -2084,7 +2076,7 @@
         <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
@@ -2107,19 +2099,19 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="F32" t="n">
         <v>295</v>
       </c>
       <c r="G32" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="H32" t="n">
         <v>3.003</v>
       </c>
       <c r="I32" t="n">
-        <v>132</v>
+        <v>-54.50150000000001</v>
       </c>
       <c r="J32" t="n">
         <v>38.4985</v>
@@ -2137,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
@@ -2160,19 +2152,19 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F33" t="n">
         <v>295</v>
       </c>
       <c r="G33" t="n">
-        <v>40</v>
+        <v>13.7</v>
       </c>
       <c r="H33" t="n">
         <v>3.003</v>
       </c>
       <c r="I33" t="n">
-        <v>41.16666666666666</v>
+        <v>24.623125</v>
       </c>
       <c r="J33" t="n">
         <v>38.4985</v>
@@ -2213,19 +2205,19 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F34" t="n">
         <v>295</v>
       </c>
       <c r="G34" t="n">
-        <v>40</v>
+        <v>13.7</v>
       </c>
       <c r="H34" t="n">
         <v>3.003</v>
       </c>
       <c r="I34" t="n">
-        <v>1.166666666666664</v>
+        <v>10.87537500000001</v>
       </c>
       <c r="J34" t="n">
         <v>38.4985</v>
@@ -2266,19 +2258,19 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F35" t="n">
         <v>295</v>
       </c>
       <c r="G35" t="n">
-        <v>40</v>
+        <v>13.7</v>
       </c>
       <c r="H35" t="n">
         <v>3.003</v>
       </c>
       <c r="I35" t="n">
-        <v>-89.66666666666663</v>
+        <v>-71.37537500000001</v>
       </c>
       <c r="J35" t="n">
         <v>38.4985</v>
@@ -2319,19 +2311,19 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F36" t="n">
         <v>295</v>
       </c>
       <c r="G36" t="n">
-        <v>40</v>
+        <v>13.7</v>
       </c>
       <c r="H36" t="n">
         <v>3.003</v>
       </c>
       <c r="I36" t="n">
-        <v>-129.6666666666666</v>
+        <v>-85.123125</v>
       </c>
       <c r="J36" t="n">
         <v>38.4985</v>
@@ -2358,52 +2350,46 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>voorkant</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>deur</t>
-        </is>
-      </c>
+          <t>voet</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr">
         <is>
-          <t>plank</t>
+          <t>blok</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>295</v>
+        <v>5</v>
       </c>
       <c r="G37" t="n">
-        <v>21.4</v>
+        <v>5</v>
       </c>
       <c r="H37" t="n">
-        <v>3.003</v>
+        <v>5</v>
       </c>
       <c r="I37" t="n">
-        <v>101.2916666666667</v>
+        <v>94.497</v>
       </c>
       <c r="J37" t="n">
-        <v>38.4985</v>
+        <v>34.497</v>
       </c>
       <c r="K37" t="n">
-        <v>152.5</v>
+        <v>2.5</v>
       </c>
       <c r="L37" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
         <v>0</v>
       </c>
-      <c r="O37" t="n">
-        <v>3</v>
-      </c>
+      <c r="O37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -2411,52 +2397,46 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>voorkant</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>deur</t>
-        </is>
-      </c>
+          <t>voet</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr"/>
       <c r="D38" t="inlineStr">
         <is>
-          <t>plank</t>
+          <t>blok</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="F38" t="n">
-        <v>295</v>
+        <v>5</v>
       </c>
       <c r="G38" t="n">
-        <v>21.4</v>
+        <v>5</v>
       </c>
       <c r="H38" t="n">
-        <v>3.003</v>
+        <v>5</v>
       </c>
       <c r="I38" t="n">
-        <v>79.87500000000001</v>
+        <v>94.497</v>
       </c>
       <c r="J38" t="n">
-        <v>38.4985</v>
+        <v>-34.497</v>
       </c>
       <c r="K38" t="n">
-        <v>152.5</v>
+        <v>2.5</v>
       </c>
       <c r="L38" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
       </c>
-      <c r="O38" t="n">
-        <v>3</v>
-      </c>
+      <c r="O38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -2464,52 +2444,46 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>voorkant</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>deur</t>
-        </is>
-      </c>
+          <t>voet</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr"/>
       <c r="D39" t="inlineStr">
         <is>
-          <t>plank</t>
+          <t>blok</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="F39" t="n">
-        <v>295</v>
+        <v>5</v>
       </c>
       <c r="G39" t="n">
-        <v>21.4</v>
+        <v>5</v>
       </c>
       <c r="H39" t="n">
-        <v>3.003</v>
+        <v>5</v>
       </c>
       <c r="I39" t="n">
-        <v>-29.54166666666667</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>38.4985</v>
+        <v>34.497</v>
       </c>
       <c r="K39" t="n">
-        <v>152.5</v>
+        <v>2.5</v>
       </c>
       <c r="L39" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
       </c>
-      <c r="O39" t="n">
-        <v>2</v>
-      </c>
+      <c r="O39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -2517,52 +2491,46 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>voorkant</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>deur</t>
-        </is>
-      </c>
+          <t>voet</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr"/>
       <c r="D40" t="inlineStr">
         <is>
-          <t>plank</t>
+          <t>blok</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="F40" t="n">
-        <v>295</v>
+        <v>5</v>
       </c>
       <c r="G40" t="n">
-        <v>21.4</v>
+        <v>5</v>
       </c>
       <c r="H40" t="n">
-        <v>3.003</v>
+        <v>5</v>
       </c>
       <c r="I40" t="n">
-        <v>-50.95833333333333</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>38.4985</v>
+        <v>-34.497</v>
       </c>
       <c r="K40" t="n">
-        <v>152.5</v>
+        <v>2.5</v>
       </c>
       <c r="L40" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
         <v>0</v>
       </c>
-      <c r="O40" t="n">
-        <v>2</v>
-      </c>
+      <c r="O40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -2570,52 +2538,46 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>voorkant</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>deur</t>
-        </is>
-      </c>
+          <t>voet</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr"/>
       <c r="D41" t="inlineStr">
         <is>
-          <t>plank</t>
+          <t>blok</t>
         </is>
       </c>
       <c r="E41" t="n">
         <v>3</v>
       </c>
       <c r="F41" t="n">
-        <v>295</v>
+        <v>5</v>
       </c>
       <c r="G41" t="n">
-        <v>21.4</v>
+        <v>5</v>
       </c>
       <c r="H41" t="n">
-        <v>3.003</v>
+        <v>5</v>
       </c>
       <c r="I41" t="n">
-        <v>-160.375</v>
+        <v>-94.497</v>
       </c>
       <c r="J41" t="n">
-        <v>38.4985</v>
+        <v>34.497</v>
       </c>
       <c r="K41" t="n">
-        <v>152.5</v>
+        <v>2.5</v>
       </c>
       <c r="L41" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
       </c>
-      <c r="O41" t="n">
-        <v>1</v>
-      </c>
+      <c r="O41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2623,52 +2585,46 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>voorkant</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>deur</t>
-        </is>
-      </c>
+          <t>voet</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr"/>
       <c r="D42" t="inlineStr">
         <is>
-          <t>plank</t>
+          <t>blok</t>
         </is>
       </c>
       <c r="E42" t="n">
         <v>2</v>
       </c>
       <c r="F42" t="n">
-        <v>295</v>
+        <v>5</v>
       </c>
       <c r="G42" t="n">
-        <v>21.4</v>
+        <v>5</v>
       </c>
       <c r="H42" t="n">
-        <v>3.003</v>
+        <v>5</v>
       </c>
       <c r="I42" t="n">
-        <v>-181.7916666666667</v>
+        <v>-94.497</v>
       </c>
       <c r="J42" t="n">
-        <v>38.4985</v>
+        <v>-34.497</v>
       </c>
       <c r="K42" t="n">
-        <v>152.5</v>
+        <v>2.5</v>
       </c>
       <c r="L42" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
-      <c r="O42" t="n">
-        <v>1</v>
-      </c>
+      <c r="O42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2676,35 +2632,35 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>voet</t>
+          <t>vlonders</t>
         </is>
       </c>
       <c r="C43" t="inlineStr"/>
       <c r="D43" t="inlineStr">
         <is>
-          <t>blok</t>
+          <t>plank</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F43" t="n">
-        <v>5</v>
+        <v>192.994</v>
       </c>
       <c r="G43" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="H43" t="n">
-        <v>5</v>
+        <v>3.003</v>
       </c>
       <c r="I43" t="n">
-        <v>194.497</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>34.497</v>
+        <v>-1.997</v>
       </c>
       <c r="K43" t="n">
-        <v>2.5</v>
+        <v>245.3045</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -2723,35 +2679,35 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>voet</t>
+          <t>vlonders</t>
         </is>
       </c>
       <c r="C44" t="inlineStr"/>
       <c r="D44" t="inlineStr">
         <is>
-          <t>blok</t>
+          <t>plank</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F44" t="n">
-        <v>5</v>
+        <v>192.994</v>
       </c>
       <c r="G44" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="H44" t="n">
-        <v>5</v>
+        <v>3.003</v>
       </c>
       <c r="I44" t="n">
-        <v>194.497</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>-34.497</v>
+        <v>-1.997</v>
       </c>
       <c r="K44" t="n">
-        <v>2.5</v>
+        <v>168.4045</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
@@ -2770,35 +2726,35 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>voet</t>
+          <t>vlonders</t>
         </is>
       </c>
       <c r="C45" t="inlineStr"/>
       <c r="D45" t="inlineStr">
         <is>
-          <t>blok</t>
+          <t>plank</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F45" t="n">
-        <v>5</v>
+        <v>192.994</v>
       </c>
       <c r="G45" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="H45" t="n">
-        <v>5</v>
+        <v>3.003</v>
       </c>
       <c r="I45" t="n">
-        <v>65.16566666666667</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>34.497</v>
+        <v>-1.997</v>
       </c>
       <c r="K45" t="n">
-        <v>2.5</v>
+        <v>78.50450000000001</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -2817,35 +2773,35 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>voet</t>
+          <t>vlonders</t>
         </is>
       </c>
       <c r="C46" t="inlineStr"/>
       <c r="D46" t="inlineStr">
         <is>
-          <t>blok</t>
+          <t>plank</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="F46" t="n">
-        <v>5</v>
+        <v>192.994</v>
       </c>
       <c r="G46" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="H46" t="n">
-        <v>5</v>
+        <v>3.003</v>
       </c>
       <c r="I46" t="n">
-        <v>65.16566666666667</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>-34.497</v>
+        <v>-21.997</v>
       </c>
       <c r="K46" t="n">
-        <v>2.5</v>
+        <v>245.3045</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
@@ -2864,35 +2820,35 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>voet</t>
+          <t>vlonders</t>
         </is>
       </c>
       <c r="C47" t="inlineStr"/>
       <c r="D47" t="inlineStr">
         <is>
-          <t>blok</t>
+          <t>plank</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F47" t="n">
-        <v>5</v>
+        <v>192.994</v>
       </c>
       <c r="G47" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="H47" t="n">
-        <v>5</v>
+        <v>3.003</v>
       </c>
       <c r="I47" t="n">
-        <v>-65.16566666666667</v>
+        <v>0</v>
       </c>
       <c r="J47" t="n">
-        <v>34.497</v>
+        <v>-21.997</v>
       </c>
       <c r="K47" t="n">
-        <v>2.5</v>
+        <v>168.4045</v>
       </c>
       <c r="L47" t="n">
         <v>0</v>
@@ -2911,35 +2867,35 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>voet</t>
+          <t>vlonders</t>
         </is>
       </c>
       <c r="C48" t="inlineStr"/>
       <c r="D48" t="inlineStr">
         <is>
-          <t>blok</t>
+          <t>plank</t>
         </is>
       </c>
       <c r="E48" t="n">
         <v>7</v>
       </c>
       <c r="F48" t="n">
-        <v>5</v>
+        <v>192.994</v>
       </c>
       <c r="G48" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="H48" t="n">
-        <v>5</v>
+        <v>3.003</v>
       </c>
       <c r="I48" t="n">
-        <v>-65.16566666666667</v>
+        <v>0</v>
       </c>
       <c r="J48" t="n">
-        <v>-34.497</v>
+        <v>-21.997</v>
       </c>
       <c r="K48" t="n">
-        <v>2.5</v>
+        <v>78.50450000000001</v>
       </c>
       <c r="L48" t="n">
         <v>0</v>
@@ -2958,35 +2914,35 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>voet</t>
+          <t>vlonders</t>
         </is>
       </c>
       <c r="C49" t="inlineStr"/>
       <c r="D49" t="inlineStr">
         <is>
-          <t>blok</t>
+          <t>plank</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F49" t="n">
-        <v>5</v>
+        <v>192.994</v>
       </c>
       <c r="G49" t="n">
-        <v>5</v>
+        <v>11.997</v>
       </c>
       <c r="H49" t="n">
-        <v>5</v>
+        <v>3.003</v>
       </c>
       <c r="I49" t="n">
-        <v>-194.497</v>
+        <v>0</v>
       </c>
       <c r="J49" t="n">
-        <v>34.497</v>
+        <v>25.9985</v>
       </c>
       <c r="K49" t="n">
-        <v>2.5</v>
+        <v>245.3045</v>
       </c>
       <c r="L49" t="n">
         <v>0</v>
@@ -3005,35 +2961,35 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>voet</t>
+          <t>vlonders</t>
         </is>
       </c>
       <c r="C50" t="inlineStr"/>
       <c r="D50" t="inlineStr">
         <is>
-          <t>blok</t>
+          <t>plank</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F50" t="n">
-        <v>5</v>
+        <v>192.994</v>
       </c>
       <c r="G50" t="n">
-        <v>5</v>
+        <v>11.997</v>
       </c>
       <c r="H50" t="n">
-        <v>5</v>
+        <v>3.003</v>
       </c>
       <c r="I50" t="n">
-        <v>-194.497</v>
+        <v>0</v>
       </c>
       <c r="J50" t="n">
-        <v>-34.497</v>
+        <v>25.9985</v>
       </c>
       <c r="K50" t="n">
-        <v>2.5</v>
+        <v>168.4045</v>
       </c>
       <c r="L50" t="n">
         <v>0</v>
@@ -3062,13 +3018,13 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F51" t="n">
-        <v>392.994</v>
+        <v>192.994</v>
       </c>
       <c r="G51" t="n">
-        <v>33.997</v>
+        <v>11.997</v>
       </c>
       <c r="H51" t="n">
         <v>3.003</v>
@@ -3077,10 +3033,10 @@
         <v>0</v>
       </c>
       <c r="J51" t="n">
-        <v>16.9985</v>
+        <v>25.9985</v>
       </c>
       <c r="K51" t="n">
-        <v>147.6045</v>
+        <v>78.50450000000001</v>
       </c>
       <c r="L51" t="n">
         <v>0</v>
@@ -3109,13 +3065,13 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="F52" t="n">
-        <v>392.994</v>
+        <v>192.994</v>
       </c>
       <c r="G52" t="n">
-        <v>33.997</v>
+        <v>11.997</v>
       </c>
       <c r="H52" t="n">
         <v>3.003</v>
@@ -3124,10 +3080,10 @@
         <v>0</v>
       </c>
       <c r="J52" t="n">
-        <v>-16.9985</v>
+        <v>14.0015</v>
       </c>
       <c r="K52" t="n">
-        <v>147.6045</v>
+        <v>245.3045</v>
       </c>
       <c r="L52" t="n">
         <v>0</v>
@@ -3146,52 +3102,46 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>ribben</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>zeide</t>
-        </is>
-      </c>
+          <t>vlonders</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr"/>
       <c r="D53" t="inlineStr">
         <is>
-          <t>balk</t>
+          <t>plank</t>
         </is>
       </c>
       <c r="E53" t="n">
         <v>1</v>
       </c>
       <c r="F53" t="n">
-        <v>288.994</v>
+        <v>192.994</v>
       </c>
       <c r="G53" t="n">
-        <v>3</v>
+        <v>11.997</v>
       </c>
       <c r="H53" t="n">
-        <v>3</v>
+        <v>3.003</v>
       </c>
       <c r="I53" t="n">
-        <v>195.497</v>
+        <v>0</v>
       </c>
       <c r="J53" t="n">
-        <v>35.497</v>
+        <v>14.0015</v>
       </c>
       <c r="K53" t="n">
-        <v>152.5</v>
+        <v>168.4045</v>
       </c>
       <c r="L53" t="n">
         <v>0</v>
       </c>
       <c r="M53" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="N53" t="n">
         <v>0</v>
       </c>
-      <c r="O53" t="n">
-        <v>0</v>
-      </c>
+      <c r="O53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -3199,52 +3149,46 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>ribben</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>zeide</t>
-        </is>
-      </c>
+          <t>vlonders</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr"/>
       <c r="D54" t="inlineStr">
         <is>
-          <t>balk</t>
+          <t>plank</t>
         </is>
       </c>
       <c r="E54" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F54" t="n">
-        <v>288.994</v>
+        <v>192.994</v>
       </c>
       <c r="G54" t="n">
-        <v>3</v>
+        <v>11.997</v>
       </c>
       <c r="H54" t="n">
-        <v>3</v>
+        <v>3.003</v>
       </c>
       <c r="I54" t="n">
-        <v>195.497</v>
+        <v>0</v>
       </c>
       <c r="J54" t="n">
-        <v>-35.497</v>
+        <v>14.0015</v>
       </c>
       <c r="K54" t="n">
-        <v>152.5</v>
+        <v>78.50450000000001</v>
       </c>
       <c r="L54" t="n">
         <v>0</v>
       </c>
       <c r="M54" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="N54" t="n">
         <v>0</v>
       </c>
-      <c r="O54" t="n">
-        <v>0</v>
-      </c>
+      <c r="O54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -3266,22 +3210,22 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F55" t="n">
         <v>288.994</v>
       </c>
       <c r="G55" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H55" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I55" t="n">
-        <v>65.16566666666667</v>
+        <v>94.497</v>
       </c>
       <c r="J55" t="n">
-        <v>35.497</v>
+        <v>34.497</v>
       </c>
       <c r="K55" t="n">
         <v>152.5</v>
@@ -3296,7 +3240,7 @@
         <v>0</v>
       </c>
       <c r="O55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -3319,22 +3263,22 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F56" t="n">
         <v>288.994</v>
       </c>
       <c r="G56" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H56" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I56" t="n">
-        <v>65.16566666666667</v>
+        <v>94.497</v>
       </c>
       <c r="J56" t="n">
-        <v>-35.497</v>
+        <v>-34.497</v>
       </c>
       <c r="K56" t="n">
         <v>152.5</v>
@@ -3349,7 +3293,7 @@
         <v>0</v>
       </c>
       <c r="O56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
@@ -3372,22 +3316,22 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F57" t="n">
         <v>288.994</v>
       </c>
       <c r="G57" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H57" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I57" t="n">
-        <v>-65.16566666666667</v>
+        <v>0</v>
       </c>
       <c r="J57" t="n">
-        <v>35.497</v>
+        <v>34.497</v>
       </c>
       <c r="K57" t="n">
         <v>152.5</v>
@@ -3402,7 +3346,7 @@
         <v>0</v>
       </c>
       <c r="O57" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58">
@@ -3425,22 +3369,22 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F58" t="n">
         <v>288.994</v>
       </c>
       <c r="G58" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H58" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I58" t="n">
-        <v>-65.16566666666667</v>
+        <v>0</v>
       </c>
       <c r="J58" t="n">
-        <v>-35.497</v>
+        <v>-34.497</v>
       </c>
       <c r="K58" t="n">
         <v>152.5</v>
@@ -3455,7 +3399,7 @@
         <v>0</v>
       </c>
       <c r="O58" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59">
@@ -3478,22 +3422,22 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F59" t="n">
         <v>288.994</v>
       </c>
       <c r="G59" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H59" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I59" t="n">
-        <v>-195.497</v>
+        <v>-94.497</v>
       </c>
       <c r="J59" t="n">
-        <v>35.497</v>
+        <v>34.497</v>
       </c>
       <c r="K59" t="n">
         <v>152.5</v>
@@ -3508,7 +3452,7 @@
         <v>0</v>
       </c>
       <c r="O59" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60">
@@ -3531,22 +3475,22 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F60" t="n">
         <v>288.994</v>
       </c>
       <c r="G60" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H60" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I60" t="n">
-        <v>-195.497</v>
+        <v>-94.497</v>
       </c>
       <c r="J60" t="n">
-        <v>-35.497</v>
+        <v>-34.497</v>
       </c>
       <c r="K60" t="n">
         <v>152.5</v>
@@ -3561,7 +3505,7 @@
         <v>0</v>
       </c>
       <c r="O60" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61">
@@ -3584,25 +3528,25 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F61" t="n">
-        <v>67.994</v>
+        <v>63.994</v>
       </c>
       <c r="G61" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H61" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I61" t="n">
-        <v>195.497</v>
+        <v>94.497</v>
       </c>
       <c r="J61" t="n">
         <v>0</v>
       </c>
       <c r="K61" t="n">
-        <v>144.603</v>
+        <v>241.303</v>
       </c>
       <c r="L61" t="n">
         <v>0</v>
@@ -3637,25 +3581,25 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F62" t="n">
-        <v>67.994</v>
+        <v>63.994</v>
       </c>
       <c r="G62" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H62" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I62" t="n">
-        <v>65.16566666666667</v>
+        <v>94.497</v>
       </c>
       <c r="J62" t="n">
         <v>0</v>
       </c>
       <c r="K62" t="n">
-        <v>144.603</v>
+        <v>164.403</v>
       </c>
       <c r="L62" t="n">
         <v>0</v>
@@ -3667,7 +3611,7 @@
         <v>90</v>
       </c>
       <c r="O62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
@@ -3690,25 +3634,25 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="F63" t="n">
-        <v>67.994</v>
+        <v>63.994</v>
       </c>
       <c r="G63" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H63" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I63" t="n">
-        <v>-65.16566666666667</v>
+        <v>94.497</v>
       </c>
       <c r="J63" t="n">
         <v>0</v>
       </c>
       <c r="K63" t="n">
-        <v>144.603</v>
+        <v>74.503</v>
       </c>
       <c r="L63" t="n">
         <v>0</v>
@@ -3720,7 +3664,7 @@
         <v>90</v>
       </c>
       <c r="O63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
@@ -3743,25 +3687,25 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F64" t="n">
-        <v>67.994</v>
+        <v>63.994</v>
       </c>
       <c r="G64" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H64" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I64" t="n">
-        <v>-195.497</v>
+        <v>0</v>
       </c>
       <c r="J64" t="n">
         <v>0</v>
       </c>
       <c r="K64" t="n">
-        <v>144.603</v>
+        <v>241.303</v>
       </c>
       <c r="L64" t="n">
         <v>0</v>
@@ -3773,7 +3717,7 @@
         <v>90</v>
       </c>
       <c r="O64" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -3787,7 +3731,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>onder</t>
+          <t>tussen</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -3796,25 +3740,25 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="F65" t="n">
-        <v>67.994</v>
+        <v>63.994</v>
       </c>
       <c r="G65" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H65" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I65" t="n">
-        <v>195.497</v>
+        <v>0</v>
       </c>
       <c r="J65" t="n">
         <v>0</v>
       </c>
       <c r="K65" t="n">
-        <v>9.503</v>
+        <v>164.403</v>
       </c>
       <c r="L65" t="n">
         <v>0</v>
@@ -3826,7 +3770,7 @@
         <v>90</v>
       </c>
       <c r="O65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -3840,7 +3784,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>onder</t>
+          <t>tussen</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -3849,25 +3793,25 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="F66" t="n">
-        <v>67.994</v>
+        <v>63.994</v>
       </c>
       <c r="G66" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H66" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I66" t="n">
-        <v>65.16566666666667</v>
+        <v>0</v>
       </c>
       <c r="J66" t="n">
         <v>0</v>
       </c>
       <c r="K66" t="n">
-        <v>9.503</v>
+        <v>74.503</v>
       </c>
       <c r="L66" t="n">
         <v>0</v>
@@ -3893,7 +3837,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>onder</t>
+          <t>tussen</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -3902,25 +3846,25 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F67" t="n">
-        <v>67.994</v>
+        <v>63.994</v>
       </c>
       <c r="G67" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H67" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I67" t="n">
-        <v>-65.16566666666667</v>
+        <v>-94.497</v>
       </c>
       <c r="J67" t="n">
         <v>0</v>
       </c>
       <c r="K67" t="n">
-        <v>9.503</v>
+        <v>241.303</v>
       </c>
       <c r="L67" t="n">
         <v>0</v>
@@ -3946,7 +3890,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>onder</t>
+          <t>tussen</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -3955,25 +3899,25 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F68" t="n">
-        <v>67.994</v>
+        <v>63.994</v>
       </c>
       <c r="G68" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H68" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I68" t="n">
-        <v>-195.497</v>
+        <v>-94.497</v>
       </c>
       <c r="J68" t="n">
         <v>0</v>
       </c>
       <c r="K68" t="n">
-        <v>9.503</v>
+        <v>164.403</v>
       </c>
       <c r="L68" t="n">
         <v>0</v>
@@ -3985,7 +3929,7 @@
         <v>90</v>
       </c>
       <c r="O68" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69">
@@ -3999,7 +3943,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>boven</t>
+          <t>tussen</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -4008,25 +3952,25 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="F69" t="n">
-        <v>67.994</v>
+        <v>63.994</v>
       </c>
       <c r="G69" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H69" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I69" t="n">
-        <v>195.497</v>
+        <v>-94.497</v>
       </c>
       <c r="J69" t="n">
         <v>0</v>
       </c>
       <c r="K69" t="n">
-        <v>295.497</v>
+        <v>74.503</v>
       </c>
       <c r="L69" t="n">
         <v>0</v>
@@ -4038,7 +3982,7 @@
         <v>90</v>
       </c>
       <c r="O69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70">
@@ -4052,7 +3996,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>boven</t>
+          <t>onder</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -4061,25 +4005,25 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F70" t="n">
-        <v>67.994</v>
+        <v>63.994</v>
       </c>
       <c r="G70" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H70" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I70" t="n">
-        <v>65.16566666666667</v>
+        <v>94.497</v>
       </c>
       <c r="J70" t="n">
         <v>0</v>
       </c>
       <c r="K70" t="n">
-        <v>295.497</v>
+        <v>10.503</v>
       </c>
       <c r="L70" t="n">
         <v>0</v>
@@ -4091,7 +4035,7 @@
         <v>90</v>
       </c>
       <c r="O70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -4105,7 +4049,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>boven</t>
+          <t>onder</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -4114,25 +4058,25 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="F71" t="n">
-        <v>67.994</v>
+        <v>63.994</v>
       </c>
       <c r="G71" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H71" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I71" t="n">
-        <v>-65.16566666666667</v>
+        <v>0</v>
       </c>
       <c r="J71" t="n">
         <v>0</v>
       </c>
       <c r="K71" t="n">
-        <v>295.497</v>
+        <v>10.503</v>
       </c>
       <c r="L71" t="n">
         <v>0</v>
@@ -4144,7 +4088,7 @@
         <v>90</v>
       </c>
       <c r="O71" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -4158,7 +4102,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>boven</t>
+          <t>onder</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -4167,25 +4111,25 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F72" t="n">
-        <v>67.994</v>
+        <v>63.994</v>
       </c>
       <c r="G72" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H72" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I72" t="n">
-        <v>-195.497</v>
+        <v>-94.497</v>
       </c>
       <c r="J72" t="n">
         <v>0</v>
       </c>
       <c r="K72" t="n">
-        <v>295.497</v>
+        <v>10.503</v>
       </c>
       <c r="L72" t="n">
         <v>0</v>
@@ -4197,7 +4141,7 @@
         <v>90</v>
       </c>
       <c r="O72" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73">
@@ -4211,7 +4155,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>achter</t>
+          <t>boven</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -4220,25 +4164,25 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="F73" t="n">
-        <v>127.3313333333333</v>
+        <v>63.994</v>
       </c>
       <c r="G73" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H73" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I73" t="n">
-        <v>130.3313333333334</v>
+        <v>94.497</v>
       </c>
       <c r="J73" t="n">
-        <v>-35.497</v>
+        <v>0</v>
       </c>
       <c r="K73" t="n">
-        <v>147.606</v>
+        <v>294.497</v>
       </c>
       <c r="L73" t="n">
         <v>0</v>
@@ -4247,7 +4191,7 @@
         <v>0</v>
       </c>
       <c r="N73" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="O73" t="n">
         <v>0</v>
@@ -4264,7 +4208,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>achter</t>
+          <t>boven</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -4273,25 +4217,25 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F74" t="n">
-        <v>127.3313333333333</v>
+        <v>63.994</v>
       </c>
       <c r="G74" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H74" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
       <c r="J74" t="n">
-        <v>-35.497</v>
+        <v>0</v>
       </c>
       <c r="K74" t="n">
-        <v>147.606</v>
+        <v>294.497</v>
       </c>
       <c r="L74" t="n">
         <v>0</v>
@@ -4300,7 +4244,7 @@
         <v>0</v>
       </c>
       <c r="N74" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="O74" t="n">
         <v>1</v>
@@ -4317,7 +4261,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>achter</t>
+          <t>boven</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -4326,25 +4270,25 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F75" t="n">
-        <v>127.3313333333333</v>
+        <v>63.994</v>
       </c>
       <c r="G75" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H75" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I75" t="n">
-        <v>-130.3313333333334</v>
+        <v>-94.497</v>
       </c>
       <c r="J75" t="n">
-        <v>-35.497</v>
+        <v>0</v>
       </c>
       <c r="K75" t="n">
-        <v>147.606</v>
+        <v>294.497</v>
       </c>
       <c r="L75" t="n">
         <v>0</v>
@@ -4353,7 +4297,7 @@
         <v>0</v>
       </c>
       <c r="N75" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="O75" t="n">
         <v>2</v>
@@ -4365,39 +4309,39 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>onderstel</t>
+          <t>ribben</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>onderkant</t>
+          <t>achter</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>plank</t>
+          <t>balk</t>
         </is>
       </c>
       <c r="E76" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="F76" t="n">
-        <v>393.994</v>
+        <v>89.497</v>
       </c>
       <c r="G76" t="n">
-        <v>36.997</v>
+        <v>5</v>
       </c>
       <c r="H76" t="n">
-        <v>3.003</v>
+        <v>5</v>
       </c>
       <c r="I76" t="n">
-        <v>0</v>
+        <v>47.2485</v>
       </c>
       <c r="J76" t="n">
-        <v>18.4985</v>
+        <v>-34.497</v>
       </c>
       <c r="K76" t="n">
-        <v>6.5015</v>
+        <v>244.306</v>
       </c>
       <c r="L76" t="n">
         <v>0</v>
@@ -4408,7 +4352,9 @@
       <c r="N76" t="n">
         <v>0</v>
       </c>
-      <c r="O76" t="inlineStr"/>
+      <c r="O76" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -4416,39 +4362,39 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>onderstel</t>
+          <t>ribben</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>onderkant</t>
+          <t>achter</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>plank</t>
+          <t>balk</t>
         </is>
       </c>
       <c r="E77" t="n">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="F77" t="n">
-        <v>393.994</v>
+        <v>89.497</v>
       </c>
       <c r="G77" t="n">
-        <v>36.997</v>
+        <v>5</v>
       </c>
       <c r="H77" t="n">
-        <v>3.003</v>
+        <v>5</v>
       </c>
       <c r="I77" t="n">
-        <v>0</v>
+        <v>47.2485</v>
       </c>
       <c r="J77" t="n">
-        <v>-18.4985</v>
+        <v>-34.497</v>
       </c>
       <c r="K77" t="n">
-        <v>6.5015</v>
+        <v>167.406</v>
       </c>
       <c r="L77" t="n">
         <v>0</v>
@@ -4459,7 +4405,9 @@
       <c r="N77" t="n">
         <v>0</v>
       </c>
-      <c r="O77" t="inlineStr"/>
+      <c r="O77" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -4467,39 +4415,39 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>onderstel</t>
+          <t>ribben</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>bovenkant</t>
+          <t>achter</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>plank</t>
+          <t>balk</t>
         </is>
       </c>
       <c r="E78" t="n">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="F78" t="n">
-        <v>393.994</v>
+        <v>89.497</v>
       </c>
       <c r="G78" t="n">
-        <v>36.997</v>
+        <v>5</v>
       </c>
       <c r="H78" t="n">
-        <v>3.003</v>
+        <v>5</v>
       </c>
       <c r="I78" t="n">
-        <v>0</v>
+        <v>47.2485</v>
       </c>
       <c r="J78" t="n">
-        <v>18.4985</v>
+        <v>-34.497</v>
       </c>
       <c r="K78" t="n">
-        <v>298.4985</v>
+        <v>77.506</v>
       </c>
       <c r="L78" t="n">
         <v>0</v>
@@ -4510,7 +4458,9 @@
       <c r="N78" t="n">
         <v>0</v>
       </c>
-      <c r="O78" t="inlineStr"/>
+      <c r="O78" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -4518,39 +4468,39 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>onderstel</t>
+          <t>ribben</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>bovenkant</t>
+          <t>achter</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>plank</t>
+          <t>balk</t>
         </is>
       </c>
       <c r="E79" t="n">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="F79" t="n">
-        <v>393.994</v>
+        <v>89.497</v>
       </c>
       <c r="G79" t="n">
-        <v>36.997</v>
+        <v>5</v>
       </c>
       <c r="H79" t="n">
-        <v>3.003</v>
+        <v>5</v>
       </c>
       <c r="I79" t="n">
-        <v>0</v>
+        <v>-47.2485</v>
       </c>
       <c r="J79" t="n">
-        <v>-18.4985</v>
+        <v>-34.497</v>
       </c>
       <c r="K79" t="n">
-        <v>298.4985</v>
+        <v>244.306</v>
       </c>
       <c r="L79" t="n">
         <v>0</v>
@@ -4561,7 +4511,9 @@
       <c r="N79" t="n">
         <v>0</v>
       </c>
-      <c r="O79" t="inlineStr"/>
+      <c r="O79" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -4569,46 +4521,52 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>achterplank</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr"/>
+          <t>ribben</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>achter</t>
+        </is>
+      </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>plank</t>
+          <t>balk</t>
         </is>
       </c>
       <c r="E80" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="F80" t="n">
-        <v>295</v>
+        <v>89.497</v>
       </c>
       <c r="G80" t="n">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="H80" t="n">
-        <v>3.003</v>
+        <v>5</v>
       </c>
       <c r="I80" t="n">
-        <v>180</v>
+        <v>-47.2485</v>
       </c>
       <c r="J80" t="n">
-        <v>-38.4985</v>
+        <v>-34.497</v>
       </c>
       <c r="K80" t="n">
-        <v>152.5</v>
+        <v>167.406</v>
       </c>
       <c r="L80" t="n">
         <v>0</v>
       </c>
       <c r="M80" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="N80" t="n">
-        <v>90</v>
-      </c>
-      <c r="O80" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="O80" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -4616,46 +4574,52 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>achterplank</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr"/>
+          <t>ribben</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>achter</t>
+        </is>
+      </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>plank</t>
+          <t>balk</t>
         </is>
       </c>
       <c r="E81" t="n">
+        <v>25</v>
+      </c>
+      <c r="F81" t="n">
+        <v>89.497</v>
+      </c>
+      <c r="G81" t="n">
+        <v>5</v>
+      </c>
+      <c r="H81" t="n">
+        <v>5</v>
+      </c>
+      <c r="I81" t="n">
+        <v>-47.2485</v>
+      </c>
+      <c r="J81" t="n">
+        <v>-34.497</v>
+      </c>
+      <c r="K81" t="n">
+        <v>77.506</v>
+      </c>
+      <c r="L81" t="n">
+        <v>0</v>
+      </c>
+      <c r="M81" t="n">
+        <v>0</v>
+      </c>
+      <c r="N81" t="n">
+        <v>0</v>
+      </c>
+      <c r="O81" t="n">
         <v>1</v>
       </c>
-      <c r="F81" t="n">
-        <v>295</v>
-      </c>
-      <c r="G81" t="n">
-        <v>40</v>
-      </c>
-      <c r="H81" t="n">
-        <v>3.003</v>
-      </c>
-      <c r="I81" t="n">
-        <v>140</v>
-      </c>
-      <c r="J81" t="n">
-        <v>-38.4985</v>
-      </c>
-      <c r="K81" t="n">
-        <v>152.5</v>
-      </c>
-      <c r="L81" t="n">
-        <v>0</v>
-      </c>
-      <c r="M81" t="n">
-        <v>90</v>
-      </c>
-      <c r="N81" t="n">
-        <v>90</v>
-      </c>
-      <c r="O81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -4663,10 +4627,14 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>achterplank</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr"/>
+          <t>onderstel</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>onderkant</t>
+        </is>
+      </c>
       <c r="D82" t="inlineStr">
         <is>
           <t>plank</t>
@@ -4676,31 +4644,31 @@
         <v>2</v>
       </c>
       <c r="F82" t="n">
-        <v>295</v>
+        <v>193.994</v>
       </c>
       <c r="G82" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="H82" t="n">
         <v>3.003</v>
       </c>
       <c r="I82" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J82" t="n">
-        <v>-38.4985</v>
+        <v>-6.997</v>
       </c>
       <c r="K82" t="n">
-        <v>152.5</v>
+        <v>6.5015</v>
       </c>
       <c r="L82" t="n">
         <v>0</v>
       </c>
       <c r="M82" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="N82" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="O82" t="inlineStr"/>
     </row>
@@ -4710,10 +4678,14 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>achterplank</t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr"/>
+          <t>onderstel</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>onderkant</t>
+        </is>
+      </c>
       <c r="D83" t="inlineStr">
         <is>
           <t>plank</t>
@@ -4723,31 +4695,31 @@
         <v>3</v>
       </c>
       <c r="F83" t="n">
-        <v>295</v>
+        <v>193.994</v>
       </c>
       <c r="G83" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="H83" t="n">
         <v>3.003</v>
       </c>
       <c r="I83" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="J83" t="n">
-        <v>-38.4985</v>
+        <v>-26.997</v>
       </c>
       <c r="K83" t="n">
-        <v>152.5</v>
+        <v>6.5015</v>
       </c>
       <c r="L83" t="n">
         <v>0</v>
       </c>
       <c r="M83" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="N83" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="O83" t="inlineStr"/>
     </row>
@@ -4757,44 +4729,48 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>achterplank</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr"/>
+          <t>onderstel</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>onderkant</t>
+        </is>
+      </c>
       <c r="D84" t="inlineStr">
         <is>
           <t>plank</t>
         </is>
       </c>
       <c r="E84" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F84" t="n">
-        <v>295</v>
+        <v>193.994</v>
       </c>
       <c r="G84" t="n">
-        <v>40</v>
+        <v>16.997</v>
       </c>
       <c r="H84" t="n">
         <v>3.003</v>
       </c>
       <c r="I84" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="J84" t="n">
-        <v>-38.4985</v>
+        <v>28.4985</v>
       </c>
       <c r="K84" t="n">
-        <v>152.5</v>
+        <v>6.5015</v>
       </c>
       <c r="L84" t="n">
         <v>0</v>
       </c>
       <c r="M84" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="N84" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="O84" t="inlineStr"/>
     </row>
@@ -4804,44 +4780,48 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>achterplank</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr"/>
+          <t>onderstel</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>onderkant</t>
+        </is>
+      </c>
       <c r="D85" t="inlineStr">
         <is>
           <t>plank</t>
         </is>
       </c>
       <c r="E85" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F85" t="n">
-        <v>295</v>
+        <v>193.994</v>
       </c>
       <c r="G85" t="n">
-        <v>40</v>
+        <v>16.997</v>
       </c>
       <c r="H85" t="n">
         <v>3.003</v>
       </c>
       <c r="I85" t="n">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="J85" t="n">
-        <v>-38.4985</v>
+        <v>11.5015</v>
       </c>
       <c r="K85" t="n">
-        <v>152.5</v>
+        <v>6.5015</v>
       </c>
       <c r="L85" t="n">
         <v>0</v>
       </c>
       <c r="M85" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="N85" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="O85" t="inlineStr"/>
     </row>
@@ -4851,10 +4831,14 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>achterplank</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr"/>
+          <t>onderstel</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>bovenkant</t>
+        </is>
+      </c>
       <c r="D86" t="inlineStr">
         <is>
           <t>plank</t>
@@ -4864,31 +4848,31 @@
         <v>6</v>
       </c>
       <c r="F86" t="n">
-        <v>295</v>
+        <v>193.994</v>
       </c>
       <c r="G86" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="H86" t="n">
         <v>3.003</v>
       </c>
       <c r="I86" t="n">
-        <v>-60</v>
+        <v>0</v>
       </c>
       <c r="J86" t="n">
-        <v>-38.4985</v>
+        <v>-6.997</v>
       </c>
       <c r="K86" t="n">
-        <v>152.5</v>
+        <v>298.4985</v>
       </c>
       <c r="L86" t="n">
         <v>0</v>
       </c>
       <c r="M86" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="N86" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="O86" t="inlineStr"/>
     </row>
@@ -4898,10 +4882,14 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>achterplank</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr"/>
+          <t>onderstel</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>bovenkant</t>
+        </is>
+      </c>
       <c r="D87" t="inlineStr">
         <is>
           <t>plank</t>
@@ -4911,31 +4899,31 @@
         <v>7</v>
       </c>
       <c r="F87" t="n">
-        <v>295</v>
+        <v>193.994</v>
       </c>
       <c r="G87" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="H87" t="n">
         <v>3.003</v>
       </c>
       <c r="I87" t="n">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J87" t="n">
-        <v>-38.4985</v>
+        <v>-26.997</v>
       </c>
       <c r="K87" t="n">
-        <v>152.5</v>
+        <v>298.4985</v>
       </c>
       <c r="L87" t="n">
         <v>0</v>
       </c>
       <c r="M87" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="N87" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="O87" t="inlineStr"/>
     </row>
@@ -4945,44 +4933,48 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>achterplank</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr"/>
+          <t>onderstel</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>bovenkant</t>
+        </is>
+      </c>
       <c r="D88" t="inlineStr">
         <is>
           <t>plank</t>
         </is>
       </c>
       <c r="E88" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F88" t="n">
-        <v>295</v>
+        <v>193.994</v>
       </c>
       <c r="G88" t="n">
-        <v>40</v>
+        <v>16.997</v>
       </c>
       <c r="H88" t="n">
         <v>3.003</v>
       </c>
       <c r="I88" t="n">
-        <v>-140</v>
+        <v>0</v>
       </c>
       <c r="J88" t="n">
-        <v>-38.4985</v>
+        <v>28.4985</v>
       </c>
       <c r="K88" t="n">
-        <v>152.5</v>
+        <v>298.4985</v>
       </c>
       <c r="L88" t="n">
         <v>0</v>
       </c>
       <c r="M88" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="N88" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="O88" t="inlineStr"/>
     </row>
@@ -4992,46 +4984,520 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
+          <t>onderstel</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>bovenkant</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>plank</t>
+        </is>
+      </c>
+      <c r="E89" t="n">
+        <v>5</v>
+      </c>
+      <c r="F89" t="n">
+        <v>193.994</v>
+      </c>
+      <c r="G89" t="n">
+        <v>16.997</v>
+      </c>
+      <c r="H89" t="n">
+        <v>3.003</v>
+      </c>
+      <c r="I89" t="n">
+        <v>0</v>
+      </c>
+      <c r="J89" t="n">
+        <v>11.5015</v>
+      </c>
+      <c r="K89" t="n">
+        <v>298.4985</v>
+      </c>
+      <c r="L89" t="n">
+        <v>0</v>
+      </c>
+      <c r="M89" t="n">
+        <v>0</v>
+      </c>
+      <c r="N89" t="n">
+        <v>0</v>
+      </c>
+      <c r="O89" t="inlineStr"/>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
           <t>achterplank</t>
         </is>
       </c>
-      <c r="C89" t="inlineStr"/>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>plank</t>
-        </is>
-      </c>
-      <c r="E89" t="n">
+      <c r="C90" t="inlineStr"/>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>plank</t>
+        </is>
+      </c>
+      <c r="E90" t="n">
+        <v>0</v>
+      </c>
+      <c r="F90" t="n">
+        <v>295</v>
+      </c>
+      <c r="G90" t="n">
+        <v>20</v>
+      </c>
+      <c r="H90" t="n">
+        <v>3.003</v>
+      </c>
+      <c r="I90" t="n">
+        <v>90</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-38.4985</v>
+      </c>
+      <c r="K90" t="n">
+        <v>152.5</v>
+      </c>
+      <c r="L90" t="n">
+        <v>0</v>
+      </c>
+      <c r="M90" t="n">
+        <v>90</v>
+      </c>
+      <c r="N90" t="n">
+        <v>90</v>
+      </c>
+      <c r="O90" t="inlineStr"/>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>achterplank</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr"/>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>plank</t>
+        </is>
+      </c>
+      <c r="E91" t="n">
+        <v>1</v>
+      </c>
+      <c r="F91" t="n">
+        <v>295</v>
+      </c>
+      <c r="G91" t="n">
+        <v>20</v>
+      </c>
+      <c r="H91" t="n">
+        <v>3.003</v>
+      </c>
+      <c r="I91" t="n">
+        <v>70</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-38.4985</v>
+      </c>
+      <c r="K91" t="n">
+        <v>152.5</v>
+      </c>
+      <c r="L91" t="n">
+        <v>0</v>
+      </c>
+      <c r="M91" t="n">
+        <v>90</v>
+      </c>
+      <c r="N91" t="n">
+        <v>90</v>
+      </c>
+      <c r="O91" t="inlineStr"/>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>achterplank</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr"/>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>plank</t>
+        </is>
+      </c>
+      <c r="E92" t="n">
+        <v>2</v>
+      </c>
+      <c r="F92" t="n">
+        <v>295</v>
+      </c>
+      <c r="G92" t="n">
+        <v>20</v>
+      </c>
+      <c r="H92" t="n">
+        <v>3.003</v>
+      </c>
+      <c r="I92" t="n">
+        <v>50</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-38.4985</v>
+      </c>
+      <c r="K92" t="n">
+        <v>152.5</v>
+      </c>
+      <c r="L92" t="n">
+        <v>0</v>
+      </c>
+      <c r="M92" t="n">
+        <v>90</v>
+      </c>
+      <c r="N92" t="n">
+        <v>90</v>
+      </c>
+      <c r="O92" t="inlineStr"/>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>achterplank</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr"/>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>plank</t>
+        </is>
+      </c>
+      <c r="E93" t="n">
+        <v>3</v>
+      </c>
+      <c r="F93" t="n">
+        <v>295</v>
+      </c>
+      <c r="G93" t="n">
+        <v>20</v>
+      </c>
+      <c r="H93" t="n">
+        <v>3.003</v>
+      </c>
+      <c r="I93" t="n">
+        <v>30</v>
+      </c>
+      <c r="J93" t="n">
+        <v>-38.4985</v>
+      </c>
+      <c r="K93" t="n">
+        <v>152.5</v>
+      </c>
+      <c r="L93" t="n">
+        <v>0</v>
+      </c>
+      <c r="M93" t="n">
+        <v>90</v>
+      </c>
+      <c r="N93" t="n">
+        <v>90</v>
+      </c>
+      <c r="O93" t="inlineStr"/>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>achterplank</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr"/>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>plank</t>
+        </is>
+      </c>
+      <c r="E94" t="n">
+        <v>4</v>
+      </c>
+      <c r="F94" t="n">
+        <v>295</v>
+      </c>
+      <c r="G94" t="n">
+        <v>20</v>
+      </c>
+      <c r="H94" t="n">
+        <v>3.003</v>
+      </c>
+      <c r="I94" t="n">
+        <v>10</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-38.4985</v>
+      </c>
+      <c r="K94" t="n">
+        <v>152.5</v>
+      </c>
+      <c r="L94" t="n">
+        <v>0</v>
+      </c>
+      <c r="M94" t="n">
+        <v>90</v>
+      </c>
+      <c r="N94" t="n">
+        <v>90</v>
+      </c>
+      <c r="O94" t="inlineStr"/>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>achterplank</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr"/>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>plank</t>
+        </is>
+      </c>
+      <c r="E95" t="n">
+        <v>5</v>
+      </c>
+      <c r="F95" t="n">
+        <v>295</v>
+      </c>
+      <c r="G95" t="n">
+        <v>20</v>
+      </c>
+      <c r="H95" t="n">
+        <v>3.003</v>
+      </c>
+      <c r="I95" t="n">
+        <v>-10</v>
+      </c>
+      <c r="J95" t="n">
+        <v>-38.4985</v>
+      </c>
+      <c r="K95" t="n">
+        <v>152.5</v>
+      </c>
+      <c r="L95" t="n">
+        <v>0</v>
+      </c>
+      <c r="M95" t="n">
+        <v>90</v>
+      </c>
+      <c r="N95" t="n">
+        <v>90</v>
+      </c>
+      <c r="O95" t="inlineStr"/>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>achterplank</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr"/>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>plank</t>
+        </is>
+      </c>
+      <c r="E96" t="n">
+        <v>6</v>
+      </c>
+      <c r="F96" t="n">
+        <v>295</v>
+      </c>
+      <c r="G96" t="n">
+        <v>20</v>
+      </c>
+      <c r="H96" t="n">
+        <v>3.003</v>
+      </c>
+      <c r="I96" t="n">
+        <v>-30</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-38.4985</v>
+      </c>
+      <c r="K96" t="n">
+        <v>152.5</v>
+      </c>
+      <c r="L96" t="n">
+        <v>0</v>
+      </c>
+      <c r="M96" t="n">
+        <v>90</v>
+      </c>
+      <c r="N96" t="n">
+        <v>90</v>
+      </c>
+      <c r="O96" t="inlineStr"/>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>achterplank</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr"/>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>plank</t>
+        </is>
+      </c>
+      <c r="E97" t="n">
+        <v>7</v>
+      </c>
+      <c r="F97" t="n">
+        <v>295</v>
+      </c>
+      <c r="G97" t="n">
+        <v>20</v>
+      </c>
+      <c r="H97" t="n">
+        <v>3.003</v>
+      </c>
+      <c r="I97" t="n">
+        <v>-50</v>
+      </c>
+      <c r="J97" t="n">
+        <v>-38.4985</v>
+      </c>
+      <c r="K97" t="n">
+        <v>152.5</v>
+      </c>
+      <c r="L97" t="n">
+        <v>0</v>
+      </c>
+      <c r="M97" t="n">
+        <v>90</v>
+      </c>
+      <c r="N97" t="n">
+        <v>90</v>
+      </c>
+      <c r="O97" t="inlineStr"/>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>achterplank</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr"/>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>plank</t>
+        </is>
+      </c>
+      <c r="E98" t="n">
+        <v>8</v>
+      </c>
+      <c r="F98" t="n">
+        <v>295</v>
+      </c>
+      <c r="G98" t="n">
+        <v>20</v>
+      </c>
+      <c r="H98" t="n">
+        <v>3.003</v>
+      </c>
+      <c r="I98" t="n">
+        <v>-70</v>
+      </c>
+      <c r="J98" t="n">
+        <v>-38.4985</v>
+      </c>
+      <c r="K98" t="n">
+        <v>152.5</v>
+      </c>
+      <c r="L98" t="n">
+        <v>0</v>
+      </c>
+      <c r="M98" t="n">
+        <v>90</v>
+      </c>
+      <c r="N98" t="n">
+        <v>90</v>
+      </c>
+      <c r="O98" t="inlineStr"/>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>achterplank</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr"/>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>plank</t>
+        </is>
+      </c>
+      <c r="E99" t="n">
         <v>9</v>
       </c>
-      <c r="F89" t="n">
+      <c r="F99" t="n">
         <v>295</v>
       </c>
-      <c r="G89" t="n">
-        <v>40</v>
-      </c>
-      <c r="H89" t="n">
-        <v>3.003</v>
-      </c>
-      <c r="I89" t="n">
-        <v>-180</v>
-      </c>
-      <c r="J89" t="n">
+      <c r="G99" t="n">
+        <v>20</v>
+      </c>
+      <c r="H99" t="n">
+        <v>3.003</v>
+      </c>
+      <c r="I99" t="n">
+        <v>-90</v>
+      </c>
+      <c r="J99" t="n">
         <v>-38.4985</v>
       </c>
-      <c r="K89" t="n">
+      <c r="K99" t="n">
         <v>152.5</v>
       </c>
-      <c r="L89" t="n">
-        <v>0</v>
-      </c>
-      <c r="M89" t="n">
-        <v>90</v>
-      </c>
-      <c r="N89" t="n">
-        <v>90</v>
-      </c>
-      <c r="O89" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>0</v>
+      </c>
+      <c r="M99" t="n">
+        <v>90</v>
+      </c>
+      <c r="N99" t="n">
+        <v>90</v>
+      </c>
+      <c r="O99" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
